--- a/Jogos_da_Semana_FlashScore_2024-10-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-20.xlsx
@@ -5497,13 +5497,13 @@
         <v>7</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N28" t="n">
         <v>7</v>
       </c>
       <c r="O28" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P28" t="n">
         <v>2.5</v>
@@ -5667,7 +5667,7 @@
         <v>3.6</v>
       </c>
       <c r="I29" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J29" t="n">
         <v>2.6</v>
@@ -5679,13 +5679,13 @@
         <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N29" t="n">
         <v>13</v>
       </c>
       <c r="O29" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P29" t="n">
         <v>4.33</v>
@@ -5709,7 +5709,7 @@
         <v>2.2</v>
       </c>
       <c r="W29" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X29" t="n">
         <v>11</v>
@@ -5718,7 +5718,7 @@
         <v>8.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA29" t="n">
         <v>15</v>
@@ -5727,13 +5727,13 @@
         <v>21</v>
       </c>
       <c r="AC29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD29" t="n">
         <v>7</v>
       </c>
       <c r="AE29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF29" t="n">
         <v>41</v>
@@ -5745,10 +5745,10 @@
         <v>13</v>
       </c>
       <c r="AI29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK29" t="n">
         <v>41</v>
@@ -6771,13 +6771,13 @@
         <v>6</v>
       </c>
       <c r="M35" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N35" t="n">
         <v>19</v>
       </c>
       <c r="O35" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P35" t="n">
         <v>5.5</v>
@@ -6795,7 +6795,7 @@
         <v>3.75</v>
       </c>
       <c r="U35" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V35" t="n">
         <v>2.05</v>
@@ -6953,22 +6953,22 @@
         <v>2.88</v>
       </c>
       <c r="M36" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O36" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P36" t="n">
         <v>3.75</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R36" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S36" t="n">
         <v>1.36</v>
@@ -6977,7 +6977,7 @@
         <v>3</v>
       </c>
       <c r="U36" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V36" t="n">
         <v>2.05</v>
@@ -7135,13 +7135,13 @@
         <v>3.1</v>
       </c>
       <c r="M37" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N37" t="n">
         <v>9</v>
       </c>
       <c r="O37" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -7159,10 +7159,10 @@
         <v>2.63</v>
       </c>
       <c r="U37" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V37" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W37" t="n">
         <v>8.5</v>
@@ -9695,10 +9695,10 @@
         <v>3.25</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R51" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S51" t="n">
         <v>1.4</v>
@@ -14033,16 +14033,16 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H75" t="n">
         <v>3.2</v>
       </c>
       <c r="I75" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J75" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K75" t="n">
         <v>2.05</v>
@@ -14087,10 +14087,10 @@
         <v>9</v>
       </c>
       <c r="Y75" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z75" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA75" t="n">
         <v>19</v>
@@ -14117,7 +14117,7 @@
         <v>9.5</v>
       </c>
       <c r="AI75" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ75" t="n">
         <v>13</v>
@@ -14171,7 +14171,7 @@
         <v>34</v>
       </c>
       <c r="BA75" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB75" t="n">
         <v>101</v>
@@ -17873,13 +17873,13 @@
         <v>3.2</v>
       </c>
       <c r="M96" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N96" t="n">
         <v>10</v>
       </c>
       <c r="O96" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P96" t="n">
         <v>3.4</v>
@@ -17897,10 +17897,10 @@
         <v>2.63</v>
       </c>
       <c r="U96" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V96" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W96" t="n">
         <v>8.5</v>
@@ -18055,13 +18055,13 @@
         <v>4.5</v>
       </c>
       <c r="M97" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N97" t="n">
         <v>15</v>
       </c>
       <c r="O97" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P97" t="n">
         <v>4.33</v>
@@ -18079,7 +18079,7 @@
         <v>3.4</v>
       </c>
       <c r="U97" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V97" t="n">
         <v>2.1</v>
@@ -18965,13 +18965,13 @@
         <v>4.33</v>
       </c>
       <c r="M102" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N102" t="n">
         <v>10</v>
       </c>
       <c r="O102" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P102" t="n">
         <v>3.4</v>
@@ -19311,22 +19311,22 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H104" t="n">
-        <v>4.05</v>
+        <v>3.9</v>
       </c>
       <c r="I104" t="n">
-        <v>4.75</v>
+        <v>4.55</v>
       </c>
       <c r="J104" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="K104" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="L104" t="n">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="M104" t="n">
         <v>1.02</v>
@@ -19335,16 +19335,16 @@
         <v>13.4</v>
       </c>
       <c r="O104" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P104" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R104" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="S104" t="n">
         <v>1.28</v>
@@ -19353,34 +19353,34 @@
         <v>3.34</v>
       </c>
       <c r="U104" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="V104" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="W104" t="n">
         <v>7.4</v>
       </c>
       <c r="X104" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="Y104" t="n">
         <v>7</v>
       </c>
       <c r="Z104" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AA104" t="n">
         <v>9.75</v>
       </c>
-      <c r="AA104" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AB104" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC104" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD104" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AE104" t="n">
         <v>12</v>
@@ -19392,16 +19392,16 @@
         <v>250</v>
       </c>
       <c r="AH104" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI104" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AJ104" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK104" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL104" t="n">
         <v>32</v>
@@ -19410,25 +19410,25 @@
         <v>30</v>
       </c>
       <c r="AN104" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AO104" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AP104" t="n">
         <v>14.5</v>
       </c>
       <c r="AQ104" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR104" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AS104" t="n">
         <v>150</v>
       </c>
       <c r="AT104" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AU104" t="n">
         <v>7.1</v>
@@ -19440,16 +19440,16 @@
         <v>51</v>
       </c>
       <c r="AX104" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AY104" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ104" t="n">
         <v>27</v>
       </c>
       <c r="BA104" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BB104" t="n">
         <v>150</v>
@@ -19511,10 +19511,10 @@
         <v>13</v>
       </c>
       <c r="M105" t="n">
-        <v>1.01</v>
+        <v>46</v>
       </c>
       <c r="N105" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="O105" t="n">
         <v>1.01</v>
@@ -19705,10 +19705,10 @@
         <v>3.75</v>
       </c>
       <c r="Q106" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R106" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S106" t="n">
         <v>1.36</v>
@@ -19789,7 +19789,7 @@
         <v>51</v>
       </c>
       <c r="AS106" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT106" t="n">
         <v>3</v>
@@ -20421,13 +20421,13 @@
         <v>3.4</v>
       </c>
       <c r="M110" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N110" t="n">
         <v>17</v>
       </c>
       <c r="O110" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P110" t="n">
         <v>5</v>
@@ -20627,7 +20627,7 @@
         <v>3.5</v>
       </c>
       <c r="U111" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V111" t="n">
         <v>2.5</v>
@@ -20809,10 +20809,10 @@
         <v>2.75</v>
       </c>
       <c r="U112" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V112" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W112" t="n">
         <v>6.5</v>
@@ -21877,13 +21877,13 @@
         <v>4</v>
       </c>
       <c r="M118" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N118" t="n">
         <v>9.5</v>
       </c>
       <c r="O118" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P118" t="n">
         <v>3.4</v>
@@ -22059,13 +22059,13 @@
         <v>4.5</v>
       </c>
       <c r="M119" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N119" t="n">
         <v>11</v>
       </c>
       <c r="O119" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P119" t="n">
         <v>3.75</v>
@@ -22241,13 +22241,13 @@
         <v>4.5</v>
       </c>
       <c r="M120" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N120" t="n">
         <v>11</v>
       </c>
       <c r="O120" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P120" t="n">
         <v>3.75</v>
@@ -22423,13 +22423,13 @@
         <v>3.75</v>
       </c>
       <c r="M121" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N121" t="n">
         <v>11</v>
       </c>
       <c r="O121" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P121" t="n">
         <v>3.75</v>
@@ -22605,13 +22605,13 @@
         <v>7.5</v>
       </c>
       <c r="M122" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N122" t="n">
         <v>17</v>
       </c>
       <c r="O122" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P122" t="n">
         <v>4.5</v>
@@ -22787,13 +22787,13 @@
         <v>6.5</v>
       </c>
       <c r="M123" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N123" t="n">
         <v>15</v>
       </c>
       <c r="O123" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P123" t="n">
         <v>4.33</v>
@@ -25135,13 +25135,13 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H136" t="n">
         <v>3.5</v>
       </c>
       <c r="I136" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J136" t="n">
         <v>2.63</v>
@@ -25150,13 +25150,13 @@
         <v>2.25</v>
       </c>
       <c r="L136" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M136" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N136" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O136" t="n">
         <v>1.25</v>
@@ -25165,10 +25165,10 @@
         <v>3.75</v>
       </c>
       <c r="Q136" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R136" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S136" t="n">
         <v>1.36</v>
@@ -25186,13 +25186,13 @@
         <v>8.5</v>
       </c>
       <c r="X136" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y136" t="n">
         <v>9</v>
       </c>
       <c r="Z136" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA136" t="n">
         <v>15</v>
@@ -25204,7 +25204,7 @@
         <v>12</v>
       </c>
       <c r="AD136" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE136" t="n">
         <v>13</v>
@@ -25222,25 +25222,25 @@
         <v>19</v>
       </c>
       <c r="AJ136" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK136" t="n">
         <v>41</v>
       </c>
       <c r="AL136" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM136" t="n">
         <v>34</v>
       </c>
       <c r="AN136" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO136" t="n">
         <v>11</v>
       </c>
       <c r="AP136" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ136" t="n">
         <v>34</v>
@@ -25276,7 +25276,7 @@
         <v>51</v>
       </c>
       <c r="BB136" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC136" t="n">
         <v>151</v>
@@ -25335,10 +25335,10 @@
         <v>4</v>
       </c>
       <c r="M137" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N137" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O137" t="n">
         <v>1.57</v>
@@ -26075,10 +26075,10 @@
         <v>3.5</v>
       </c>
       <c r="Q141" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R141" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S141" t="n">
         <v>1.4</v>
@@ -26257,10 +26257,10 @@
         <v>3.5</v>
       </c>
       <c r="Q142" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R142" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S142" t="n">
         <v>1.4</v>
@@ -27701,22 +27701,22 @@
         <v>2.5</v>
       </c>
       <c r="M150" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N150" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O150" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P150" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q150" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R150" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S150" t="n">
         <v>1.4</v>
@@ -29151,7 +29151,7 @@
         <v>3.75</v>
       </c>
       <c r="K158" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L158" t="n">
         <v>3.6</v>
@@ -29163,10 +29163,10 @@
         <v>6</v>
       </c>
       <c r="O158" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P158" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q158" t="n">
         <v>2.7</v>
@@ -29232,7 +29232,7 @@
         <v>26</v>
       </c>
       <c r="AL158" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM158" t="n">
         <v>41</v>
@@ -29527,16 +29527,16 @@
         <v>13</v>
       </c>
       <c r="O160" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P160" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q160" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R160" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S160" t="n">
         <v>1.33</v>
@@ -29706,7 +29706,7 @@
         <v>1.07</v>
       </c>
       <c r="N161" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O161" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-20.xlsx
@@ -762,25 +762,25 @@
         <v>2.75</v>
       </c>
       <c r="L2" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
         <v>21</v>
       </c>
       <c r="O2" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P2" t="n">
         <v>5.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="R2" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="S2" t="n">
         <v>1.22</v>
@@ -941,7 +941,7 @@
         <v>2.05</v>
       </c>
       <c r="K3" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="L3" t="n">
         <v>4.5</v>
@@ -953,13 +953,13 @@
         <v>23</v>
       </c>
       <c r="O3" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="P3" t="n">
         <v>6</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="R3" t="n">
         <v>3</v>
@@ -1117,7 +1117,7 @@
         <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -1141,10 +1141,10 @@
         <v>4.33</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="R4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S4" t="n">
         <v>1.33</v>
@@ -1153,7 +1153,7 @@
         <v>3.25</v>
       </c>
       <c r="U4" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V4" t="n">
         <v>2.1</v>
@@ -1323,10 +1323,10 @@
         <v>4.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="R5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S5" t="n">
         <v>1.33</v>
@@ -1335,7 +1335,7 @@
         <v>3.25</v>
       </c>
       <c r="U5" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="V5" t="n">
         <v>2.25</v>
@@ -1481,7 +1481,7 @@
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="J6" t="n">
         <v>3.75</v>
@@ -1505,10 +1505,10 @@
         <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S6" t="n">
         <v>1.5</v>
@@ -1517,10 +1517,10 @@
         <v>2.5</v>
       </c>
       <c r="U6" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V6" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W6" t="n">
         <v>8.5</v>
@@ -2215,7 +2215,7 @@
         <v>2.6</v>
       </c>
       <c r="K10" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L10" t="n">
         <v>3.75</v>
@@ -2233,10 +2233,10 @@
         <v>4.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R10" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S10" t="n">
         <v>1.3</v>
@@ -2415,10 +2415,10 @@
         <v>3.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="S11" t="n">
         <v>1.4</v>
@@ -2597,10 +2597,10 @@
         <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="R12" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="S12" t="n">
         <v>1.4</v>
@@ -2761,7 +2761,7 @@
         <v>5.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L13" t="n">
         <v>2.1</v>
@@ -2779,10 +2779,10 @@
         <v>4.33</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="R13" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S13" t="n">
         <v>1.33</v>
@@ -3477,7 +3477,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H17" t="n">
         <v>3.7</v>
@@ -3606,10 +3606,10 @@
         <v>501</v>
       </c>
       <c r="AX17" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AY17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ17" t="n">
         <v>19</v>
@@ -3677,19 +3677,19 @@
         <v>1.91</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N18" t="n">
         <v>19</v>
       </c>
       <c r="O18" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P18" t="n">
         <v>5.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="R18" t="n">
         <v>2.5</v>
@@ -3859,22 +3859,22 @@
         <v>4.33</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
         <v>13</v>
       </c>
       <c r="O19" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="R19" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S19" t="n">
         <v>1.36</v>
@@ -4041,22 +4041,22 @@
         <v>4.75</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N20" t="n">
         <v>6.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P20" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="R20" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S20" t="n">
         <v>1.57</v>
@@ -4223,13 +4223,13 @@
         <v>9</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
         <v>11</v>
       </c>
       <c r="O21" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P21" t="n">
         <v>3.5</v>
@@ -4352,7 +4352,7 @@
         <v>501</v>
       </c>
       <c r="BD21" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22">
@@ -4417,10 +4417,10 @@
         <v>3.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R22" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="S22" t="n">
         <v>1.44</v>
@@ -4572,7 +4572,7 @@
         <v>1.3</v>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="I23" t="n">
         <v>8</v>
@@ -4593,13 +4593,13 @@
         <v>21</v>
       </c>
       <c r="O23" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="R23" t="n">
         <v>3</v>
@@ -4617,10 +4617,10 @@
         <v>2.05</v>
       </c>
       <c r="W23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X23" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y23" t="n">
         <v>9</v>
@@ -4784,7 +4784,7 @@
         <v>2.7</v>
       </c>
       <c r="R24" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S24" t="n">
         <v>1.57</v>
@@ -5115,16 +5115,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
         <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J26" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K26" t="n">
         <v>1.91</v>
@@ -5133,10 +5133,10 @@
         <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N26" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O26" t="n">
         <v>1.53</v>
@@ -5166,10 +5166,10 @@
         <v>5</v>
       </c>
       <c r="X26" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z26" t="n">
         <v>17</v>
@@ -5196,13 +5196,13 @@
         <v>201</v>
       </c>
       <c r="AH26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK26" t="n">
         <v>51</v>
@@ -5217,7 +5217,7 @@
         <v>3.75</v>
       </c>
       <c r="AO26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP26" t="n">
         <v>29</v>
@@ -5247,7 +5247,7 @@
         <v>6</v>
       </c>
       <c r="AY26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ26" t="n">
         <v>41</v>
@@ -5262,7 +5262,7 @@
         <v>451</v>
       </c>
       <c r="BD26" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27">
@@ -5691,10 +5691,10 @@
         <v>4.33</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R29" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S29" t="n">
         <v>1.33</v>
@@ -5873,10 +5873,10 @@
         <v>6</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="R30" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="S30" t="n">
         <v>1.22</v>
@@ -6055,7 +6055,7 @@
         <v>5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R31" t="n">
         <v>2.35</v>
@@ -6237,7 +6237,7 @@
         <v>4</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R32" t="n">
         <v>2.1</v>
@@ -6419,7 +6419,7 @@
         <v>5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R33" t="n">
         <v>2.4</v>
@@ -6771,13 +6771,13 @@
         <v>6</v>
       </c>
       <c r="M35" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N35" t="n">
         <v>19</v>
       </c>
       <c r="O35" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P35" t="n">
         <v>5.5</v>
@@ -6953,13 +6953,13 @@
         <v>2.88</v>
       </c>
       <c r="M36" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N36" t="n">
         <v>13</v>
       </c>
       <c r="O36" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P36" t="n">
         <v>3.75</v>
@@ -7135,13 +7135,13 @@
         <v>3.1</v>
       </c>
       <c r="M37" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N37" t="n">
         <v>9</v>
       </c>
       <c r="O37" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -7693,10 +7693,10 @@
         <v>4</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R40" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S40" t="n">
         <v>1.33</v>
@@ -8573,22 +8573,22 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="H45" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I45" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="J45" t="n">
         <v>5.5</v>
       </c>
       <c r="K45" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L45" t="n">
         <v>2.25</v>
-      </c>
-      <c r="L45" t="n">
-        <v>2.2</v>
       </c>
       <c r="M45" t="n">
         <v>1.06</v>
@@ -8597,16 +8597,16 @@
         <v>10</v>
       </c>
       <c r="O45" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P45" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R45" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="S45" t="n">
         <v>1.4</v>
@@ -8621,13 +8621,13 @@
         <v>1.8</v>
       </c>
       <c r="W45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X45" t="n">
         <v>29</v>
       </c>
       <c r="Y45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z45" t="n">
         <v>51</v>
@@ -8702,13 +8702,13 @@
         <v>126</v>
       </c>
       <c r="AX45" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AY45" t="n">
         <v>8.5</v>
       </c>
       <c r="AZ45" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA45" t="n">
         <v>26</v>
@@ -9325,16 +9325,16 @@
         <v>17</v>
       </c>
       <c r="O49" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P49" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R49" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S49" t="n">
         <v>1.29</v>
@@ -9343,10 +9343,10 @@
         <v>3.5</v>
       </c>
       <c r="U49" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V49" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W49" t="n">
         <v>6.5</v>
@@ -9376,7 +9376,7 @@
         <v>41</v>
       </c>
       <c r="AF49" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AG49" t="n">
         <v>201</v>
@@ -9415,13 +9415,13 @@
         <v>41</v>
       </c>
       <c r="AS49" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT49" t="n">
         <v>3.5</v>
       </c>
       <c r="AU49" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV49" t="n">
         <v>81</v>
@@ -9436,7 +9436,7 @@
         <v>67</v>
       </c>
       <c r="AZ49" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA49" t="n">
         <v>351</v>
@@ -9486,10 +9486,10 @@
         <v>21</v>
       </c>
       <c r="H50" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I50" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="J50" t="n">
         <v>15</v>
@@ -9498,31 +9498,31 @@
         <v>2.75</v>
       </c>
       <c r="L50" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="M50" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N50" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O50" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P50" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="R50" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S50" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T50" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U50" t="n">
         <v>3</v>
@@ -9543,16 +9543,16 @@
         <v>351</v>
       </c>
       <c r="AA50" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AB50" t="n">
         <v>151</v>
       </c>
       <c r="AC50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD50" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE50" t="n">
         <v>41</v>
@@ -9570,7 +9570,7 @@
         <v>5</v>
       </c>
       <c r="AJ50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK50" t="n">
         <v>6</v>
@@ -9585,7 +9585,7 @@
         <v>15</v>
       </c>
       <c r="AO50" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP50" t="n">
         <v>67</v>
@@ -9600,7 +9600,7 @@
         <v>501</v>
       </c>
       <c r="AT50" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU50" t="n">
         <v>13</v>
@@ -9615,13 +9615,13 @@
         <v>2.88</v>
       </c>
       <c r="AY50" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AZ50" t="n">
         <v>21</v>
       </c>
       <c r="BA50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB50" t="n">
         <v>41</v>
@@ -10241,10 +10241,10 @@
         <v>3.5</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="R54" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="S54" t="n">
         <v>1.4</v>
@@ -10423,7 +10423,7 @@
         <v>5</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R55" t="n">
         <v>2.35</v>
@@ -10605,10 +10605,10 @@
         <v>4</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="R56" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="S56" t="n">
         <v>1.36</v>
@@ -10981,7 +10981,7 @@
         <v>3.4</v>
       </c>
       <c r="U58" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V58" t="n">
         <v>2.2</v>
@@ -11348,7 +11348,7 @@
         <v>2.25</v>
       </c>
       <c r="V60" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="W60" t="n">
         <v>5.5</v>
@@ -11503,10 +11503,10 @@
         <v>4.5</v>
       </c>
       <c r="M61" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N61" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O61" t="n">
         <v>1.57</v>
@@ -11530,7 +11530,7 @@
         <v>2.25</v>
       </c>
       <c r="V61" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="W61" t="n">
         <v>5.5</v>
@@ -11709,10 +11709,10 @@
         <v>2.75</v>
       </c>
       <c r="U62" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V62" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W62" t="n">
         <v>13</v>
@@ -11894,7 +11894,7 @@
         <v>2</v>
       </c>
       <c r="V63" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W63" t="n">
         <v>6</v>
@@ -12777,13 +12777,13 @@
         <v>2.75</v>
       </c>
       <c r="M68" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N68" t="n">
         <v>15</v>
       </c>
       <c r="O68" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P68" t="n">
         <v>4.33</v>
@@ -12959,13 +12959,13 @@
         <v>2.75</v>
       </c>
       <c r="M69" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N69" t="n">
         <v>13</v>
       </c>
       <c r="O69" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -13141,22 +13141,22 @@
         <v>4.75</v>
       </c>
       <c r="M70" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N70" t="n">
         <v>19</v>
       </c>
       <c r="O70" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P70" t="n">
         <v>5.5</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R70" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="S70" t="n">
         <v>1.25</v>
@@ -13341,7 +13341,7 @@
         <v>2.4</v>
       </c>
       <c r="S71" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T71" t="n">
         <v>3.75</v>
@@ -13517,13 +13517,13 @@
         <v>3.75</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R72" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S72" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T72" t="n">
         <v>3</v>
@@ -13705,10 +13705,10 @@
         <v>1.67</v>
       </c>
       <c r="S73" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T73" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U73" t="n">
         <v>1.91</v>
@@ -13884,7 +13884,7 @@
         <v>2.1</v>
       </c>
       <c r="R74" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S74" t="n">
         <v>1.44</v>
@@ -14066,7 +14066,7 @@
         <v>2.25</v>
       </c>
       <c r="R75" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S75" t="n">
         <v>1.5</v>
@@ -14433,7 +14433,7 @@
         <v>2.18</v>
       </c>
       <c r="S77" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="T77" t="n">
         <v>3.7</v>
@@ -14791,10 +14791,10 @@
         <v>5</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R79" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S79" t="n">
         <v>1.29</v>
@@ -15155,7 +15155,7 @@
         <v>4.5</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="R81" t="n">
         <v>2.25</v>
@@ -15337,7 +15337,7 @@
         <v>5</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R82" t="n">
         <v>2.35</v>
@@ -15519,13 +15519,13 @@
         <v>4</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R83" t="n">
         <v>2.05</v>
       </c>
       <c r="S83" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T83" t="n">
         <v>3.25</v>
@@ -15701,13 +15701,13 @@
         <v>4</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R84" t="n">
         <v>2.05</v>
       </c>
       <c r="S84" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T84" t="n">
         <v>3.25</v>
@@ -16399,22 +16399,22 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="H88" t="n">
-        <v>4.25</v>
+        <v>4.45</v>
       </c>
       <c r="I88" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="J88" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K88" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="L88" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="M88" t="n">
         <v>1.02</v>
@@ -16429,10 +16429,10 @@
         <v>6.1</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="R88" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="S88" t="n">
         <v>1.19</v>
@@ -16444,7 +16444,7 @@
         <v>1.35</v>
       </c>
       <c r="V88" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="W88" t="n">
         <v>24</v>
@@ -16453,46 +16453,46 @@
         <v>32</v>
       </c>
       <c r="Y88" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z88" t="n">
         <v>65</v>
       </c>
       <c r="AA88" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB88" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC88" t="n">
         <v>32</v>
       </c>
       <c r="AD88" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AE88" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AF88" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG88" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AH88" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI88" t="n">
         <v>13.5</v>
       </c>
       <c r="AJ88" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AK88" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL88" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AM88" t="n">
         <v>15</v>
@@ -16501,16 +16501,16 @@
         <v>6.8</v>
       </c>
       <c r="AO88" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AP88" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ88" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR88" t="n">
         <v>75</v>
-      </c>
-      <c r="AR88" t="n">
-        <v>70</v>
       </c>
       <c r="AS88" t="n">
         <v>120</v>
@@ -16519,28 +16519,28 @@
         <v>4.15</v>
       </c>
       <c r="AU88" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AV88" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AW88" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AX88" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="AY88" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AZ88" t="n">
         <v>11.5</v>
       </c>
       <c r="BA88" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BB88" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="BC88" t="n">
         <v>80</v>
@@ -16581,22 +16581,22 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="H89" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I89" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="J89" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K89" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="L89" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="M89" t="n">
         <v>1.02</v>
@@ -16620,40 +16620,40 @@
         <v>1.24</v>
       </c>
       <c r="T89" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="U89" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="V89" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="W89" t="n">
         <v>15</v>
       </c>
       <c r="X89" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA89" t="n">
         <v>18</v>
       </c>
-      <c r="Y89" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z89" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA89" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AB89" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC89" t="n">
         <v>10</v>
       </c>
       <c r="AD89" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AE89" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF89" t="n">
         <v>32</v>
@@ -16662,28 +16662,28 @@
         <v>150</v>
       </c>
       <c r="AH89" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AI89" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AJ89" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AK89" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL89" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AM89" t="n">
         <v>18</v>
       </c>
       <c r="AN89" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AO89" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AP89" t="n">
         <v>16</v>
@@ -16698,10 +16698,10 @@
         <v>150</v>
       </c>
       <c r="AT89" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="AU89" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AV89" t="n">
         <v>37</v>
@@ -16710,16 +16710,16 @@
         <v>450</v>
       </c>
       <c r="AX89" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AY89" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AZ89" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="BA89" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BB89" t="n">
         <v>50</v>
@@ -16880,7 +16880,7 @@
         <v>201</v>
       </c>
       <c r="AT90" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU90" t="n">
         <v>8</v>
@@ -17330,19 +17330,19 @@
         <v>1.07</v>
       </c>
       <c r="N93" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O93" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P93" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R93" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S93" t="n">
         <v>1.44</v>
@@ -17855,13 +17855,13 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H96" t="n">
         <v>3.4</v>
       </c>
       <c r="I96" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J96" t="n">
         <v>3.5</v>
@@ -17972,7 +17972,7 @@
         <v>151</v>
       </c>
       <c r="AT96" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU96" t="n">
         <v>8</v>
@@ -18037,7 +18037,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="H97" t="n">
         <v>3.8</v>
@@ -18225,7 +18225,7 @@
         <v>3.2</v>
       </c>
       <c r="I98" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J98" t="n">
         <v>4</v>
@@ -18401,7 +18401,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H99" t="n">
         <v>3.25</v>
@@ -18518,7 +18518,7 @@
         <v>201</v>
       </c>
       <c r="AT99" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU99" t="n">
         <v>8</v>
@@ -19129,13 +19129,13 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H103" t="n">
         <v>3.8</v>
       </c>
       <c r="I103" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J103" t="n">
         <v>2.18</v>
@@ -19144,7 +19144,7 @@
         <v>2.3</v>
       </c>
       <c r="L103" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="M103" t="n">
         <v>1.02</v>
@@ -19171,22 +19171,22 @@
         <v>3.32</v>
       </c>
       <c r="U103" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="V103" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="W103" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X103" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="Y103" t="n">
         <v>7</v>
       </c>
       <c r="Z103" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AA103" t="n">
         <v>10.25</v>
@@ -19207,37 +19207,37 @@
         <v>40</v>
       </c>
       <c r="AG103" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AH103" t="n">
         <v>11.75</v>
       </c>
       <c r="AI103" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AJ103" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AK103" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AL103" t="n">
         <v>27</v>
       </c>
       <c r="AM103" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN103" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="AO103" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AP103" t="n">
         <v>15</v>
       </c>
       <c r="AQ103" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR103" t="n">
         <v>45</v>
@@ -19249,19 +19249,19 @@
         <v>3.15</v>
       </c>
       <c r="AU103" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV103" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW103" t="n">
         <v>51</v>
       </c>
       <c r="AX103" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AY103" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ103" t="n">
         <v>25</v>
@@ -19270,10 +19270,10 @@
         <v>110</v>
       </c>
       <c r="BB103" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BC103" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BD103" t="n">
         <v>51</v>
@@ -19511,10 +19511,10 @@
         <v>15</v>
       </c>
       <c r="M105" t="n">
-        <v>1.01</v>
+        <v>41</v>
       </c>
       <c r="N105" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="O105" t="n">
         <v>1.02</v>
@@ -20797,7 +20797,7 @@
         <v>5</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R112" t="n">
         <v>2.35</v>
@@ -20979,7 +20979,7 @@
         <v>5</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R113" t="n">
         <v>2.4</v>
@@ -21343,7 +21343,7 @@
         <v>5</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R115" t="n">
         <v>2.3</v>
@@ -21525,7 +21525,7 @@
         <v>6</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R116" t="n">
         <v>2.6</v>
@@ -21707,10 +21707,10 @@
         <v>3.75</v>
       </c>
       <c r="Q117" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="R117" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="S117" t="n">
         <v>1.36</v>
@@ -21976,7 +21976,7 @@
         <v>501</v>
       </c>
       <c r="AT118" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU118" t="n">
         <v>9.5</v>
@@ -22158,7 +22158,7 @@
         <v>201</v>
       </c>
       <c r="AT119" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU119" t="n">
         <v>8</v>
@@ -22435,10 +22435,10 @@
         <v>3.75</v>
       </c>
       <c r="Q121" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R121" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="S121" t="n">
         <v>1.36</v>
@@ -22617,10 +22617,10 @@
         <v>3.75</v>
       </c>
       <c r="Q122" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="R122" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="S122" t="n">
         <v>1.36</v>
@@ -22769,13 +22769,13 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H123" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I123" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J123" t="n">
         <v>2.75</v>
@@ -22784,7 +22784,7 @@
         <v>2.2</v>
       </c>
       <c r="L123" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M123" t="n">
         <v>1.05</v>
@@ -22793,22 +22793,22 @@
         <v>11</v>
       </c>
       <c r="O123" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P123" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q123" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R123" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="S123" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T123" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U123" t="n">
         <v>1.73</v>
@@ -22820,7 +22820,7 @@
         <v>8</v>
       </c>
       <c r="X123" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y123" t="n">
         <v>9</v>
@@ -22835,7 +22835,7 @@
         <v>26</v>
       </c>
       <c r="AC123" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD123" t="n">
         <v>6.5</v>
@@ -22850,7 +22850,7 @@
         <v>201</v>
       </c>
       <c r="AH123" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI123" t="n">
         <v>17</v>
@@ -22859,7 +22859,7 @@
         <v>12</v>
       </c>
       <c r="AK123" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL123" t="n">
         <v>26</v>
@@ -22868,10 +22868,10 @@
         <v>34</v>
       </c>
       <c r="AN123" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO123" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP123" t="n">
         <v>21</v>
@@ -22886,7 +22886,7 @@
         <v>151</v>
       </c>
       <c r="AT123" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU123" t="n">
         <v>8</v>
@@ -23614,7 +23614,7 @@
         <v>251</v>
       </c>
       <c r="AT127" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU127" t="n">
         <v>8.5</v>
@@ -23709,10 +23709,10 @@
         <v>3.5</v>
       </c>
       <c r="Q128" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="R128" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="S128" t="n">
         <v>1.4</v>
@@ -23891,10 +23891,10 @@
         <v>3.5</v>
       </c>
       <c r="Q129" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="R129" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="S129" t="n">
         <v>1.36</v>
@@ -24043,7 +24043,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H130" t="n">
         <v>3.8</v>
@@ -24073,10 +24073,10 @@
         <v>3.5</v>
       </c>
       <c r="Q130" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R130" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S130" t="n">
         <v>1.4</v>
@@ -24771,40 +24771,40 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.65</v>
+        <v>2.82</v>
       </c>
       <c r="H134" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I134" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="J134" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K134" t="n">
         <v>2.25</v>
       </c>
       <c r="L134" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="M134" t="n">
         <v>1.04</v>
       </c>
       <c r="N134" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="O134" t="n">
         <v>1.2</v>
       </c>
       <c r="P134" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q134" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R134" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S134" t="n">
         <v>1.32</v>
@@ -24813,76 +24813,76 @@
         <v>3.2</v>
       </c>
       <c r="U134" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="V134" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="W134" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="X134" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y134" t="n">
         <v>10.75</v>
       </c>
-      <c r="X134" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y134" t="n">
-        <v>10.5</v>
-      </c>
       <c r="Z134" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA134" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB134" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC134" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AD134" t="n">
         <v>7.6</v>
       </c>
       <c r="AE134" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF134" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG134" t="n">
         <v>250</v>
       </c>
       <c r="AH134" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AI134" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AJ134" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK134" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AL134" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AM134" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN134" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="AO134" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AP134" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AQ134" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR134" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS134" t="n">
         <v>200</v>
@@ -24900,10 +24900,10 @@
         <v>51</v>
       </c>
       <c r="AX134" t="n">
-        <v>4.65</v>
+        <v>4.5</v>
       </c>
       <c r="AY134" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AZ134" t="n">
         <v>16.5</v>
@@ -24915,7 +24915,7 @@
         <v>60</v>
       </c>
       <c r="BC134" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BD134" t="n">
         <v>51</v>
@@ -24956,7 +24956,7 @@
         <v>1.36</v>
       </c>
       <c r="H135" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="I135" t="n">
         <v>8.5</v>
@@ -24968,43 +24968,43 @@
         <v>2.37</v>
       </c>
       <c r="L135" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M135" t="n">
         <v>1.04</v>
       </c>
       <c r="N135" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="O135" t="n">
         <v>1.21</v>
       </c>
       <c r="P135" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="Q135" t="n">
         <v>1.65</v>
       </c>
       <c r="R135" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="S135" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="T135" t="n">
         <v>3.1</v>
       </c>
       <c r="U135" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V135" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="W135" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="X135" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="Y135" t="n">
         <v>8.75</v>
@@ -25019,16 +25019,16 @@
         <v>28</v>
       </c>
       <c r="AC135" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD135" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AE135" t="n">
         <v>21</v>
       </c>
       <c r="AF135" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG135" t="n">
         <v>700</v>
@@ -25073,10 +25073,10 @@
         <v>3.1</v>
       </c>
       <c r="AU135" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AV135" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AW135" t="n">
         <v>51</v>
@@ -25091,7 +25091,7 @@
         <v>40</v>
       </c>
       <c r="BA135" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BB135" t="n">
         <v>300</v>
@@ -25523,16 +25523,16 @@
         <v>11</v>
       </c>
       <c r="O138" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P138" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q138" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R138" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S138" t="n">
         <v>1.4</v>
@@ -26227,22 +26227,22 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H142" t="n">
         <v>3.4</v>
       </c>
       <c r="I142" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J142" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K142" t="n">
         <v>2.2</v>
       </c>
       <c r="L142" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M142" t="n">
         <v>1.05</v>
@@ -26263,31 +26263,31 @@
         <v>2</v>
       </c>
       <c r="S142" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T142" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U142" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V142" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W142" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X142" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y142" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z142" t="n">
         <v>21</v>
       </c>
       <c r="AA142" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB142" t="n">
         <v>26</v>
@@ -26305,31 +26305,31 @@
         <v>41</v>
       </c>
       <c r="AG142" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH142" t="n">
         <v>11</v>
       </c>
       <c r="AI142" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ142" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK142" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL142" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM142" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN142" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO142" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP142" t="n">
         <v>21</v>
@@ -26341,10 +26341,10 @@
         <v>51</v>
       </c>
       <c r="AS142" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT142" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU142" t="n">
         <v>7.5</v>
@@ -26359,10 +26359,10 @@
         <v>5</v>
       </c>
       <c r="AY142" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ142" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA142" t="n">
         <v>51</v>
@@ -27889,16 +27889,16 @@
         <v>15</v>
       </c>
       <c r="O151" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P151" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q151" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R151" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S151" t="n">
         <v>1.33</v>
@@ -28247,22 +28247,22 @@
         <v>2.4</v>
       </c>
       <c r="M153" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N153" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O153" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P153" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q153" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R153" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S153" t="n">
         <v>1.4</v>
@@ -28602,10 +28602,10 @@
         <v>2.38</v>
       </c>
       <c r="J155" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K155" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L155" t="n">
         <v>3.2</v>
@@ -28629,16 +28629,16 @@
         <v>1.62</v>
       </c>
       <c r="S155" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T155" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U155" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V155" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W155" t="n">
         <v>8.5</v>
@@ -28650,13 +28650,13 @@
         <v>12</v>
       </c>
       <c r="Z155" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA155" t="n">
         <v>26</v>
       </c>
       <c r="AB155" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC155" t="n">
         <v>8</v>
@@ -28671,10 +28671,10 @@
         <v>51</v>
       </c>
       <c r="AG155" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH155" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI155" t="n">
         <v>11</v>
@@ -28707,16 +28707,16 @@
         <v>81</v>
       </c>
       <c r="AS155" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT155" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU155" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV155" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW155" t="n">
         <v>126</v>
@@ -28725,7 +28725,7 @@
         <v>4.33</v>
       </c>
       <c r="AY155" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ155" t="n">
         <v>26</v>
@@ -28784,7 +28784,7 @@
         <v>3.6</v>
       </c>
       <c r="J156" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K156" t="n">
         <v>2.2</v>
@@ -28793,10 +28793,10 @@
         <v>4.33</v>
       </c>
       <c r="M156" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N156" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O156" t="n">
         <v>1.29</v>
@@ -28835,7 +28835,7 @@
         <v>17</v>
       </c>
       <c r="AA156" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB156" t="n">
         <v>26</v>
@@ -28871,7 +28871,7 @@
         <v>29</v>
       </c>
       <c r="AM156" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN156" t="n">
         <v>4</v>
@@ -28966,13 +28966,13 @@
         <v>2.45</v>
       </c>
       <c r="J157" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K157" t="n">
         <v>2.2</v>
       </c>
       <c r="L157" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M157" t="n">
         <v>1.05</v>
@@ -28993,10 +28993,10 @@
         <v>1.9</v>
       </c>
       <c r="S157" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T157" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U157" t="n">
         <v>1.67</v>
@@ -29005,16 +29005,16 @@
         <v>2.1</v>
       </c>
       <c r="W157" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X157" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y157" t="n">
         <v>10</v>
       </c>
-      <c r="X157" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y157" t="n">
-        <v>11</v>
-      </c>
       <c r="Z157" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA157" t="n">
         <v>21</v>
@@ -29035,7 +29035,7 @@
         <v>41</v>
       </c>
       <c r="AG157" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH157" t="n">
         <v>9</v>
@@ -29047,13 +29047,13 @@
         <v>10</v>
       </c>
       <c r="AK157" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL157" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM157" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN157" t="n">
         <v>4.75</v>
@@ -29074,7 +29074,7 @@
         <v>151</v>
       </c>
       <c r="AT157" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU157" t="n">
         <v>7.5</v>
@@ -29092,13 +29092,13 @@
         <v>13</v>
       </c>
       <c r="AZ157" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA157" t="n">
         <v>41</v>
       </c>
       <c r="BB157" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC157" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-20.xlsx
@@ -756,7 +756,7 @@
         <v>1.3</v>
       </c>
       <c r="J2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="K2" t="n">
         <v>2.75</v>
@@ -777,10 +777,10 @@
         <v>5.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="R2" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="S2" t="n">
         <v>1.22</v>
@@ -804,7 +804,7 @@
         <v>26</v>
       </c>
       <c r="Z2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AA2" t="n">
         <v>51</v>
@@ -816,7 +816,7 @@
         <v>21</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
         <v>21</v>
@@ -855,7 +855,7 @@
         <v>34</v>
       </c>
       <c r="AQ2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AR2" t="n">
         <v>126</v>
@@ -947,10 +947,10 @@
         <v>4.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
         <v>1.13</v>
@@ -959,10 +959,10 @@
         <v>6</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="S3" t="n">
         <v>1.22</v>
@@ -971,10 +971,10 @@
         <v>4</v>
       </c>
       <c r="U3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W3" t="n">
         <v>13</v>
@@ -995,7 +995,7 @@
         <v>19</v>
       </c>
       <c r="AC3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD3" t="n">
         <v>10</v>
@@ -1076,7 +1076,7 @@
         <v>101</v>
       </c>
       <c r="BD3" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4">
@@ -1660,7 +1660,7 @@
         <v>1.6</v>
       </c>
       <c r="H7" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I7" t="n">
         <v>6.25</v>
@@ -1687,22 +1687,22 @@
         <v>3.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R7" t="n">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="S7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W7" t="n">
         <v>6</v>
@@ -1717,13 +1717,13 @@
         <v>11</v>
       </c>
       <c r="AA7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB7" t="n">
         <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
         <v>7</v>
@@ -1735,7 +1735,7 @@
         <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AH7" t="n">
         <v>13</v>
@@ -1750,13 +1750,13 @@
         <v>67</v>
       </c>
       <c r="AL7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM7" t="n">
         <v>51</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO7" t="n">
         <v>8.5</v>
@@ -1774,7 +1774,7 @@
         <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU7" t="n">
         <v>9</v>
@@ -1789,7 +1789,7 @@
         <v>7</v>
       </c>
       <c r="AY7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ7" t="n">
         <v>41</v>
@@ -1801,7 +1801,7 @@
         <v>151</v>
       </c>
       <c r="BC7" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD7" t="n">
         <v>151</v>
@@ -1842,13 +1842,13 @@
         <v>4.5</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K8" t="n">
         <v>2.5</v>
@@ -1863,16 +1863,16 @@
         <v>17</v>
       </c>
       <c r="O8" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S8" t="n">
         <v>1.25</v>
@@ -1887,10 +1887,10 @@
         <v>2.38</v>
       </c>
       <c r="W8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y8" t="n">
         <v>15</v>
@@ -1899,13 +1899,13 @@
         <v>51</v>
       </c>
       <c r="AA8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB8" t="n">
         <v>29</v>
       </c>
       <c r="AC8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD8" t="n">
         <v>8</v>
@@ -1920,7 +1920,7 @@
         <v>101</v>
       </c>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI8" t="n">
         <v>10</v>
@@ -1965,7 +1965,7 @@
         <v>41</v>
       </c>
       <c r="AW8" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AX8" t="n">
         <v>4</v>
@@ -1977,7 +1977,7 @@
         <v>15</v>
       </c>
       <c r="BA8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BB8" t="n">
         <v>41</v>
@@ -2388,10 +2388,10 @@
         <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="J11" t="n">
         <v>5.5</v>
@@ -2400,7 +2400,7 @@
         <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
@@ -2442,7 +2442,7 @@
         <v>19</v>
       </c>
       <c r="Z11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AA11" t="n">
         <v>41</v>
@@ -2469,7 +2469,7 @@
         <v>6.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ11" t="n">
         <v>8.5</v>
@@ -2490,7 +2490,7 @@
         <v>29</v>
       </c>
       <c r="AP11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ11" t="n">
         <v>101</v>
@@ -2779,10 +2779,10 @@
         <v>4.33</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="R13" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S13" t="n">
         <v>1.33</v>
@@ -2791,7 +2791,7 @@
         <v>3.25</v>
       </c>
       <c r="U13" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V13" t="n">
         <v>2</v>
@@ -2961,10 +2961,10 @@
         <v>3.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R14" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S14" t="n">
         <v>1.44</v>
@@ -2973,10 +2973,10 @@
         <v>2.63</v>
       </c>
       <c r="U14" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V14" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W14" t="n">
         <v>8.5</v>
@@ -3143,10 +3143,10 @@
         <v>4.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="R15" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S15" t="n">
         <v>1.33</v>
@@ -3155,7 +3155,7 @@
         <v>3.25</v>
       </c>
       <c r="U15" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V15" t="n">
         <v>2.1</v>
@@ -3301,7 +3301,7 @@
         <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J16" t="n">
         <v>2.88</v>
@@ -3310,13 +3310,13 @@
         <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O16" t="n">
         <v>1.33</v>
@@ -3337,10 +3337,10 @@
         <v>2.63</v>
       </c>
       <c r="U16" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V16" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W16" t="n">
         <v>7.5</v>
@@ -3373,13 +3373,13 @@
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH16" t="n">
         <v>9.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ16" t="n">
         <v>12</v>
@@ -3388,7 +3388,7 @@
         <v>34</v>
       </c>
       <c r="AL16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM16" t="n">
         <v>34</v>
@@ -3430,10 +3430,10 @@
         <v>19</v>
       </c>
       <c r="AZ16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB16" t="n">
         <v>81</v>
@@ -3519,7 +3519,7 @@
         <v>3.25</v>
       </c>
       <c r="U17" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V17" t="n">
         <v>2.1</v>
@@ -3701,7 +3701,7 @@
         <v>3.75</v>
       </c>
       <c r="U18" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V18" t="n">
         <v>2.05</v>
@@ -3883,7 +3883,7 @@
         <v>3</v>
       </c>
       <c r="U19" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V19" t="n">
         <v>2.1</v>
@@ -4068,7 +4068,7 @@
         <v>2.2</v>
       </c>
       <c r="V20" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="W20" t="n">
         <v>5.5</v>
@@ -4250,7 +4250,7 @@
         <v>2.5</v>
       </c>
       <c r="V21" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W21" t="n">
         <v>5.5</v>
@@ -4429,10 +4429,10 @@
         <v>2.63</v>
       </c>
       <c r="U22" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V22" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W22" t="n">
         <v>6.5</v>
@@ -4587,13 +4587,13 @@
         <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N23" t="n">
         <v>21</v>
       </c>
       <c r="O23" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="P23" t="n">
         <v>6</v>
@@ -4769,16 +4769,16 @@
         <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
         <v>6.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P24" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Q24" t="n">
         <v>2.7</v>
@@ -8209,28 +8209,28 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H43" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L43" t="n">
         <v>3.75</v>
-      </c>
-      <c r="I43" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J43" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K43" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L43" t="n">
-        <v>4</v>
       </c>
       <c r="M43" t="n">
         <v>1.04</v>
       </c>
       <c r="N43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O43" t="n">
         <v>1.25</v>
@@ -8239,10 +8239,10 @@
         <v>3.75</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R43" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S43" t="n">
         <v>1.36</v>
@@ -8251,16 +8251,16 @@
         <v>3</v>
       </c>
       <c r="U43" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V43" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W43" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X43" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y43" t="n">
         <v>9</v>
@@ -8269,25 +8269,25 @@
         <v>19</v>
       </c>
       <c r="AA43" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB43" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD43" t="n">
         <v>7</v>
       </c>
       <c r="AE43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF43" t="n">
         <v>41</v>
       </c>
       <c r="AG43" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH43" t="n">
         <v>11</v>
@@ -8296,16 +8296,16 @@
         <v>17</v>
       </c>
       <c r="AJ43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK43" t="n">
         <v>34</v>
       </c>
       <c r="AL43" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM43" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN43" t="n">
         <v>4.33</v>
@@ -8314,7 +8314,7 @@
         <v>11</v>
       </c>
       <c r="AP43" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ43" t="n">
         <v>41</v>
@@ -8341,16 +8341,16 @@
         <v>5.5</v>
       </c>
       <c r="AY43" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ43" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA43" t="n">
         <v>51</v>
       </c>
       <c r="BB43" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC43" t="n">
         <v>151</v>
@@ -8591,22 +8591,22 @@
         <v>2.25</v>
       </c>
       <c r="M45" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N45" t="n">
         <v>10</v>
       </c>
       <c r="O45" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P45" t="n">
         <v>3.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R45" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S45" t="n">
         <v>1.4</v>
@@ -8755,16 +8755,16 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H46" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I46" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J46" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K46" t="n">
         <v>2</v>
@@ -8773,16 +8773,16 @@
         <v>5</v>
       </c>
       <c r="M46" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N46" t="n">
         <v>7</v>
       </c>
       <c r="O46" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P46" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q46" t="n">
         <v>2.4</v>
@@ -8806,19 +8806,19 @@
         <v>5.5</v>
       </c>
       <c r="X46" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z46" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA46" t="n">
         <v>19</v>
       </c>
       <c r="AB46" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC46" t="n">
         <v>7</v>
@@ -8827,25 +8827,25 @@
         <v>6.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF46" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG46" t="n">
         <v>1250</v>
       </c>
       <c r="AH46" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI46" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ46" t="n">
         <v>15</v>
       </c>
       <c r="AK46" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL46" t="n">
         <v>41</v>
@@ -8875,7 +8875,7 @@
         <v>2.38</v>
       </c>
       <c r="AU46" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV46" t="n">
         <v>67</v>
@@ -8893,10 +8893,10 @@
         <v>41</v>
       </c>
       <c r="BA46" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB46" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC46" t="n">
         <v>351</v>
@@ -8955,13 +8955,13 @@
         <v>4</v>
       </c>
       <c r="M47" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N47" t="n">
         <v>7</v>
       </c>
       <c r="O47" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P47" t="n">
         <v>2.5</v>
@@ -9137,13 +9137,13 @@
         <v>7.5</v>
       </c>
       <c r="M48" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N48" t="n">
         <v>10</v>
       </c>
       <c r="O48" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P48" t="n">
         <v>3.25</v>
@@ -9319,13 +9319,13 @@
         <v>13</v>
       </c>
       <c r="M49" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N49" t="n">
         <v>17</v>
       </c>
       <c r="O49" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P49" t="n">
         <v>4.33</v>
@@ -9501,13 +9501,13 @@
         <v>1.5</v>
       </c>
       <c r="M50" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N50" t="n">
         <v>12</v>
       </c>
       <c r="O50" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P50" t="n">
         <v>4.5</v>
@@ -9683,13 +9683,13 @@
         <v>2.3</v>
       </c>
       <c r="M51" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N51" t="n">
         <v>10</v>
       </c>
       <c r="O51" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P51" t="n">
         <v>3.25</v>
@@ -9865,22 +9865,22 @@
         <v>4</v>
       </c>
       <c r="M52" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N52" t="n">
         <v>10</v>
       </c>
       <c r="O52" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P52" t="n">
         <v>3.4</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R52" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S52" t="n">
         <v>1.4</v>
@@ -10047,13 +10047,13 @@
         <v>2.63</v>
       </c>
       <c r="M53" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N53" t="n">
         <v>13</v>
       </c>
       <c r="O53" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P53" t="n">
         <v>4.33</v>
@@ -10229,22 +10229,22 @@
         <v>4.5</v>
       </c>
       <c r="M54" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N54" t="n">
         <v>10</v>
       </c>
       <c r="O54" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P54" t="n">
         <v>3.5</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="R54" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="S54" t="n">
         <v>1.4</v>
@@ -10411,19 +10411,19 @@
         <v>4.75</v>
       </c>
       <c r="M55" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N55" t="n">
         <v>17</v>
       </c>
       <c r="O55" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R55" t="n">
         <v>2.35</v>
@@ -10593,22 +10593,22 @@
         <v>3</v>
       </c>
       <c r="M56" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N56" t="n">
         <v>11</v>
       </c>
       <c r="O56" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="R56" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="S56" t="n">
         <v>1.36</v>
@@ -10775,13 +10775,13 @@
         <v>3.2</v>
       </c>
       <c r="M57" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N57" t="n">
         <v>15</v>
       </c>
       <c r="O57" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P57" t="n">
         <v>4.5</v>
@@ -10957,13 +10957,13 @@
         <v>4</v>
       </c>
       <c r="M58" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N58" t="n">
         <v>15</v>
       </c>
       <c r="O58" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P58" t="n">
         <v>4.33</v>
@@ -10972,7 +10972,7 @@
         <v>1.67</v>
       </c>
       <c r="R58" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S58" t="n">
         <v>1.3</v>
@@ -10981,7 +10981,7 @@
         <v>3.4</v>
       </c>
       <c r="U58" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="V58" t="n">
         <v>2.2</v>
@@ -12231,13 +12231,13 @@
         <v>5.5</v>
       </c>
       <c r="M65" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N65" t="n">
         <v>11</v>
       </c>
       <c r="O65" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P65" t="n">
         <v>3.75</v>
@@ -12413,13 +12413,13 @@
         <v>4.5</v>
       </c>
       <c r="M66" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N66" t="n">
         <v>9</v>
       </c>
       <c r="O66" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P66" t="n">
         <v>3</v>
@@ -12595,13 +12595,13 @@
         <v>1.95</v>
       </c>
       <c r="M67" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N67" t="n">
         <v>13</v>
       </c>
       <c r="O67" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -12777,13 +12777,13 @@
         <v>2.75</v>
       </c>
       <c r="M68" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N68" t="n">
         <v>15</v>
       </c>
       <c r="O68" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P68" t="n">
         <v>4.33</v>
@@ -12959,13 +12959,13 @@
         <v>2.75</v>
       </c>
       <c r="M69" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N69" t="n">
         <v>13</v>
       </c>
       <c r="O69" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -13141,22 +13141,22 @@
         <v>4.75</v>
       </c>
       <c r="M70" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N70" t="n">
         <v>19</v>
       </c>
       <c r="O70" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P70" t="n">
         <v>5.5</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R70" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S70" t="n">
         <v>1.25</v>
@@ -13323,40 +13323,40 @@
         <v>2.1</v>
       </c>
       <c r="M71" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N71" t="n">
         <v>17</v>
       </c>
       <c r="O71" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P71" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R71" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S71" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T71" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U71" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V71" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W71" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="X71" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y71" t="n">
         <v>17</v>
@@ -13374,43 +13374,43 @@
         <v>17</v>
       </c>
       <c r="AD71" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE71" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF71" t="n">
         <v>41</v>
       </c>
       <c r="AG71" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH71" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI71" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ71" t="n">
         <v>8.5</v>
       </c>
       <c r="AK71" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL71" t="n">
         <v>12</v>
       </c>
       <c r="AM71" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN71" t="n">
         <v>7</v>
       </c>
       <c r="AO71" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP71" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ71" t="n">
         <v>81</v>
@@ -13422,7 +13422,7 @@
         <v>151</v>
       </c>
       <c r="AT71" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU71" t="n">
         <v>7.5</v>
@@ -13431,10 +13431,10 @@
         <v>41</v>
       </c>
       <c r="AW71" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AX71" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AY71" t="n">
         <v>8</v>
@@ -13443,13 +13443,13 @@
         <v>15</v>
       </c>
       <c r="BA71" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB71" t="n">
         <v>41</v>
       </c>
       <c r="BC71" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BD71" t="n">
         <v>176</v>
@@ -13505,13 +13505,13 @@
         <v>4.33</v>
       </c>
       <c r="M72" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N72" t="n">
         <v>13</v>
       </c>
       <c r="O72" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P72" t="n">
         <v>3.75</v>
@@ -13687,13 +13687,13 @@
         <v>4.75</v>
       </c>
       <c r="M73" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N73" t="n">
         <v>9</v>
       </c>
       <c r="O73" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P73" t="n">
         <v>3</v>
@@ -13884,7 +13884,7 @@
         <v>2.1</v>
       </c>
       <c r="R74" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S74" t="n">
         <v>1.44</v>
@@ -13893,10 +13893,10 @@
         <v>2.63</v>
       </c>
       <c r="U74" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V74" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W74" t="n">
         <v>6.5</v>
@@ -14066,7 +14066,7 @@
         <v>2.25</v>
       </c>
       <c r="R75" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S75" t="n">
         <v>1.5</v>
@@ -14075,10 +14075,10 @@
         <v>2.5</v>
       </c>
       <c r="U75" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V75" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W75" t="n">
         <v>6.5</v>
@@ -14227,7 +14227,7 @@
         <v>3.4</v>
       </c>
       <c r="K76" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L76" t="n">
         <v>3</v>
@@ -14245,25 +14245,25 @@
         <v>4</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R76" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S76" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T76" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U76" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="V76" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="W76" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X76" t="n">
         <v>15</v>
@@ -14278,16 +14278,16 @@
         <v>21</v>
       </c>
       <c r="AB76" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC76" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD76" t="n">
         <v>6.5</v>
       </c>
       <c r="AE76" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF76" t="n">
         <v>41</v>
@@ -14296,10 +14296,10 @@
         <v>151</v>
       </c>
       <c r="AH76" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI76" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ76" t="n">
         <v>9.5</v>
@@ -14308,10 +14308,10 @@
         <v>23</v>
       </c>
       <c r="AL76" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM76" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN76" t="n">
         <v>5</v>
@@ -14320,7 +14320,7 @@
         <v>15</v>
       </c>
       <c r="AP76" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ76" t="n">
         <v>51</v>
@@ -14329,19 +14329,19 @@
         <v>67</v>
       </c>
       <c r="AS76" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT76" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU76" t="n">
         <v>7.5</v>
       </c>
       <c r="AV76" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW76" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AX76" t="n">
         <v>4.5</v>
@@ -14359,7 +14359,7 @@
         <v>51</v>
       </c>
       <c r="BC76" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD76" t="n">
         <v>151</v>
@@ -14397,22 +14397,22 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="H77" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="I77" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="J77" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="K77" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="L77" t="n">
-        <v>5.2</v>
+        <v>4.85</v>
       </c>
       <c r="M77" t="n">
         <v>1.01</v>
@@ -14424,7 +14424,7 @@
         <v>1.1</v>
       </c>
       <c r="P77" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q77" t="n">
         <v>1.53</v>
@@ -14439,109 +14439,109 @@
         <v>3.7</v>
       </c>
       <c r="U77" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="V77" t="n">
-        <v>2.29</v>
+        <v>2.34</v>
       </c>
       <c r="W77" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="X77" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="Y77" t="n">
         <v>7</v>
       </c>
       <c r="Z77" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AA77" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AB77" t="n">
         <v>15.5</v>
       </c>
       <c r="AC77" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AD77" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AE77" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AF77" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG77" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AH77" t="n">
         <v>16.5</v>
       </c>
       <c r="AI77" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ77" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK77" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AL77" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AM77" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AN77" t="n">
         <v>3.6</v>
       </c>
       <c r="AO77" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AP77" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AQ77" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AR77" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AS77" t="n">
         <v>120</v>
       </c>
       <c r="AT77" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AU77" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AV77" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW77" t="n">
         <v>51</v>
       </c>
       <c r="AX77" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AY77" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AZ77" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BA77" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BB77" t="n">
         <v>150</v>
       </c>
       <c r="BC77" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BD77" t="n">
         <v>51</v>
@@ -14791,10 +14791,10 @@
         <v>5</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R79" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S79" t="n">
         <v>1.29</v>
@@ -14964,7 +14964,7 @@
         <v>1.02</v>
       </c>
       <c r="N80" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O80" t="n">
         <v>1.13</v>
@@ -15525,7 +15525,7 @@
         <v>2.05</v>
       </c>
       <c r="S83" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T83" t="n">
         <v>3.25</v>
@@ -15707,7 +15707,7 @@
         <v>2.05</v>
       </c>
       <c r="S84" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T84" t="n">
         <v>3.25</v>
@@ -15895,10 +15895,10 @@
         <v>2.75</v>
       </c>
       <c r="U85" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V85" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W85" t="n">
         <v>11</v>
@@ -16077,7 +16077,7 @@
         <v>3.25</v>
       </c>
       <c r="U86" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="V86" t="n">
         <v>2.2</v>
@@ -16235,22 +16235,22 @@
         <v>8</v>
       </c>
       <c r="M87" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N87" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O87" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P87" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R87" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S87" t="n">
         <v>1.25</v>
@@ -16259,10 +16259,10 @@
         <v>3.75</v>
       </c>
       <c r="U87" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V87" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W87" t="n">
         <v>8.5</v>
@@ -17873,13 +17873,13 @@
         <v>3.2</v>
       </c>
       <c r="M96" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N96" t="n">
         <v>10</v>
       </c>
       <c r="O96" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P96" t="n">
         <v>3.4</v>
@@ -17897,10 +17897,10 @@
         <v>2.63</v>
       </c>
       <c r="U96" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V96" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W96" t="n">
         <v>8.5</v>
@@ -18055,19 +18055,19 @@
         <v>4.5</v>
       </c>
       <c r="M97" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N97" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O97" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P97" t="n">
         <v>4.33</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="R97" t="n">
         <v>2.15</v>
@@ -18079,7 +18079,7 @@
         <v>3.4</v>
       </c>
       <c r="U97" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V97" t="n">
         <v>2.1</v>
@@ -19129,127 +19129,127 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="H103" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="I103" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="J103" t="n">
-        <v>2.18</v>
+        <v>2.35</v>
       </c>
       <c r="K103" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L103" t="n">
-        <v>4.25</v>
+        <v>3.85</v>
       </c>
       <c r="M103" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N103" t="n">
-        <v>13.3</v>
+        <v>12.4</v>
       </c>
       <c r="O103" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P103" t="n">
-        <v>4.1</v>
+        <v>3.94</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R103" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="S103" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T103" t="n">
-        <v>3.32</v>
+        <v>3.22</v>
       </c>
       <c r="U103" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="V103" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="W103" t="n">
         <v>7.4</v>
       </c>
       <c r="X103" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="Y103" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="Z103" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA103" t="n">
         <v>11.25</v>
       </c>
-      <c r="AA103" t="n">
-        <v>10.25</v>
-      </c>
       <c r="AB103" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC103" t="n">
         <v>13.5</v>
       </c>
       <c r="AD103" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AE103" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AF103" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG103" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AH103" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="AI103" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AJ103" t="n">
-        <v>11.5</v>
+        <v>10.25</v>
       </c>
       <c r="AK103" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="AL103" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AM103" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AN103" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="AO103" t="n">
-        <v>7.9</v>
+        <v>9</v>
       </c>
       <c r="AP103" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ103" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AR103" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AS103" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AT103" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AU103" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AV103" t="n">
         <v>55</v>
@@ -19258,22 +19258,22 @@
         <v>51</v>
       </c>
       <c r="AX103" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="AY103" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AZ103" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BA103" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB103" t="n">
         <v>110</v>
       </c>
-      <c r="BB103" t="n">
-        <v>120</v>
-      </c>
       <c r="BC103" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BD103" t="n">
         <v>51</v>
@@ -19496,22 +19496,22 @@
         <v>1.07</v>
       </c>
       <c r="H105" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="I105" t="n">
         <v>23</v>
       </c>
       <c r="J105" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="K105" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L105" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="M105" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="N105" t="n">
         <v>26</v>
@@ -19520,67 +19520,67 @@
         <v>1.02</v>
       </c>
       <c r="P105" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="R105" t="n">
-        <v>3.62</v>
+        <v>3.55</v>
       </c>
       <c r="S105" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="T105" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="U105" t="n">
-        <v>2.21</v>
+        <v>2.19</v>
       </c>
       <c r="V105" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W105" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="X105" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y105" t="n">
         <v>10.5</v>
-      </c>
-      <c r="X105" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y105" t="n">
-        <v>11</v>
       </c>
       <c r="Z105" t="n">
         <v>5.7</v>
       </c>
       <c r="AA105" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AB105" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC105" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AD105" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE105" t="n">
         <v>32</v>
       </c>
       <c r="AF105" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AG105" t="n">
         <v>600</v>
       </c>
       <c r="AH105" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI105" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AJ105" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK105" t="n">
         <v>600</v>
@@ -19595,13 +19595,13 @@
         <v>3.25</v>
       </c>
       <c r="AO105" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="AP105" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AQ105" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AR105" t="n">
         <v>25</v>
@@ -19610,10 +19610,10 @@
         <v>150</v>
       </c>
       <c r="AT105" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AU105" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AV105" t="n">
         <v>80</v>
@@ -19622,13 +19622,13 @@
         <v>51</v>
       </c>
       <c r="AX105" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY105" t="n">
         <v>175</v>
       </c>
       <c r="AZ105" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BA105" t="n">
         <v>51</v>
@@ -19857,13 +19857,13 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H107" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I107" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J107" t="n">
         <v>3.25</v>
@@ -19875,10 +19875,10 @@
         <v>3.6</v>
       </c>
       <c r="M107" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N107" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O107" t="n">
         <v>1.4</v>
@@ -19899,13 +19899,13 @@
         <v>2.5</v>
       </c>
       <c r="U107" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V107" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W107" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X107" t="n">
         <v>11</v>
@@ -19929,7 +19929,7 @@
         <v>6</v>
       </c>
       <c r="AE107" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF107" t="n">
         <v>51</v>
@@ -19953,10 +19953,10 @@
         <v>26</v>
       </c>
       <c r="AM107" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN107" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO107" t="n">
         <v>15</v>
@@ -19980,7 +19980,7 @@
         <v>8.5</v>
       </c>
       <c r="AV107" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW107" t="n">
         <v>501</v>
@@ -20001,7 +20001,7 @@
         <v>81</v>
       </c>
       <c r="BC107" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD107" t="n">
         <v>126</v>
@@ -20081,7 +20081,7 @@
         <v>3.4</v>
       </c>
       <c r="U108" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V108" t="n">
         <v>2.1</v>
@@ -20785,19 +20785,19 @@
         <v>3.4</v>
       </c>
       <c r="M112" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N112" t="n">
         <v>15</v>
       </c>
       <c r="O112" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P112" t="n">
         <v>5</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R112" t="n">
         <v>2.35</v>
@@ -20958,7 +20958,7 @@
         <v>3.25</v>
       </c>
       <c r="J113" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="K113" t="n">
         <v>2.4</v>
@@ -20967,19 +20967,19 @@
         <v>3.5</v>
       </c>
       <c r="M113" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N113" t="n">
         <v>17</v>
       </c>
       <c r="O113" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P113" t="n">
         <v>5</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R113" t="n">
         <v>2.4</v>
@@ -21131,19 +21131,19 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="H114" t="n">
         <v>3.6</v>
       </c>
       <c r="I114" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J114" t="n">
         <v>2.4</v>
       </c>
       <c r="K114" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L114" t="n">
         <v>5</v>
@@ -21152,7 +21152,7 @@
         <v>1.06</v>
       </c>
       <c r="N114" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O114" t="n">
         <v>1.33</v>
@@ -21164,7 +21164,7 @@
         <v>2.05</v>
       </c>
       <c r="R114" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="S114" t="n">
         <v>1.4</v>
@@ -21197,7 +21197,7 @@
         <v>29</v>
       </c>
       <c r="AC114" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD114" t="n">
         <v>7</v>
@@ -21212,10 +21212,10 @@
         <v>351</v>
       </c>
       <c r="AH114" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI114" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ114" t="n">
         <v>15</v>
@@ -21313,13 +21313,13 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H115" t="n">
         <v>3.6</v>
       </c>
       <c r="I115" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J115" t="n">
         <v>3</v>
@@ -21343,7 +21343,7 @@
         <v>5</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R115" t="n">
         <v>2.3</v>
@@ -21495,7 +21495,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H116" t="n">
         <v>5</v>
@@ -21525,7 +21525,7 @@
         <v>6</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R116" t="n">
         <v>2.6</v>
@@ -21695,10 +21695,10 @@
         <v>4</v>
       </c>
       <c r="M117" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N117" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O117" t="n">
         <v>1.25</v>
@@ -21707,10 +21707,10 @@
         <v>3.75</v>
       </c>
       <c r="Q117" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R117" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S117" t="n">
         <v>1.36</v>
@@ -22065,16 +22065,16 @@
         <v>9</v>
       </c>
       <c r="O119" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P119" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q119" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R119" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S119" t="n">
         <v>1.44</v>
@@ -22629,10 +22629,10 @@
         <v>3</v>
       </c>
       <c r="U122" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V122" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W122" t="n">
         <v>7.5</v>
@@ -22772,10 +22772,10 @@
         <v>2.1</v>
       </c>
       <c r="H123" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I123" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J123" t="n">
         <v>2.75</v>
@@ -22787,16 +22787,16 @@
         <v>4</v>
       </c>
       <c r="M123" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N123" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O123" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P123" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q123" t="n">
         <v>1.93</v>
@@ -22811,7 +22811,7 @@
         <v>3</v>
       </c>
       <c r="U123" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V123" t="n">
         <v>2</v>
@@ -22835,7 +22835,7 @@
         <v>26</v>
       </c>
       <c r="AC123" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD123" t="n">
         <v>6.5</v>
@@ -22853,7 +22853,7 @@
         <v>11</v>
       </c>
       <c r="AI123" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ123" t="n">
         <v>12</v>
@@ -22993,10 +22993,10 @@
         <v>3.4</v>
       </c>
       <c r="U124" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V124" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W124" t="n">
         <v>8</v>
@@ -23175,10 +23175,10 @@
         <v>3.4</v>
       </c>
       <c r="U125" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V125" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W125" t="n">
         <v>8</v>
@@ -23333,13 +23333,13 @@
         <v>6.5</v>
       </c>
       <c r="M126" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N126" t="n">
         <v>13</v>
       </c>
       <c r="O126" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P126" t="n">
         <v>4</v>
@@ -23357,10 +23357,10 @@
         <v>3.25</v>
       </c>
       <c r="U126" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V126" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W126" t="n">
         <v>7</v>
@@ -23515,13 +23515,13 @@
         <v>2.63</v>
       </c>
       <c r="M127" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N127" t="n">
         <v>10</v>
       </c>
       <c r="O127" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P127" t="n">
         <v>3.25</v>
@@ -23539,10 +23539,10 @@
         <v>2.63</v>
       </c>
       <c r="U127" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V127" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W127" t="n">
         <v>10</v>
@@ -23697,13 +23697,13 @@
         <v>3.6</v>
       </c>
       <c r="M128" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N128" t="n">
         <v>10</v>
       </c>
       <c r="O128" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P128" t="n">
         <v>3.5</v>
@@ -23721,7 +23721,7 @@
         <v>2.75</v>
       </c>
       <c r="U128" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V128" t="n">
         <v>2</v>
@@ -23879,22 +23879,22 @@
         <v>3.4</v>
       </c>
       <c r="M129" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N129" t="n">
         <v>8.5</v>
       </c>
       <c r="O129" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P129" t="n">
         <v>3.5</v>
       </c>
       <c r="Q129" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R129" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S129" t="n">
         <v>1.36</v>
@@ -23903,7 +23903,7 @@
         <v>3</v>
       </c>
       <c r="U129" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V129" t="n">
         <v>2</v>
@@ -24061,13 +24061,13 @@
         <v>5</v>
       </c>
       <c r="M130" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N130" t="n">
         <v>8.5</v>
       </c>
       <c r="O130" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P130" t="n">
         <v>3.5</v>
@@ -24085,10 +24085,10 @@
         <v>2.75</v>
       </c>
       <c r="U130" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V130" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W130" t="n">
         <v>7</v>
@@ -25317,22 +25317,22 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.47</v>
+        <v>2.57</v>
       </c>
       <c r="H137" t="n">
         <v>2.95</v>
       </c>
       <c r="I137" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="J137" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K137" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="L137" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M137" t="n">
         <v>1.09</v>
@@ -25362,25 +25362,25 @@
         <v>1.85</v>
       </c>
       <c r="V137" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="W137" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="X137" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="Y137" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z137" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AA137" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB137" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC137" t="n">
         <v>6.1</v>
@@ -25389,7 +25389,7 @@
         <v>5.7</v>
       </c>
       <c r="AE137" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF137" t="n">
         <v>75</v>
@@ -25398,37 +25398,37 @@
         <v>700</v>
       </c>
       <c r="AH137" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AI137" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ137" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AK137" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AL137" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AM137" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AN137" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="AO137" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AP137" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ137" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AR137" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS137" t="n">
         <v>300</v>
@@ -25440,22 +25440,22 @@
         <v>6.9</v>
       </c>
       <c r="AV137" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW137" t="n">
         <v>51</v>
       </c>
       <c r="AX137" t="n">
-        <v>4.85</v>
+        <v>4.7</v>
       </c>
       <c r="AY137" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AZ137" t="n">
         <v>23</v>
       </c>
       <c r="BA137" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BB137" t="n">
         <v>110</v>
@@ -25893,10 +25893,10 @@
         <v>2.25</v>
       </c>
       <c r="Q140" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="R140" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="S140" t="n">
         <v>1.62</v>
@@ -26045,13 +26045,13 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H141" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I141" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J141" t="n">
         <v>2.75</v>
@@ -26078,7 +26078,7 @@
         <v>2.35</v>
       </c>
       <c r="R141" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S141" t="n">
         <v>1.5</v>
@@ -26099,7 +26099,7 @@
         <v>8.5</v>
       </c>
       <c r="Y141" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z141" t="n">
         <v>17</v>
@@ -26126,31 +26126,31 @@
         <v>301</v>
       </c>
       <c r="AH141" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI141" t="n">
         <v>19</v>
       </c>
       <c r="AJ141" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK141" t="n">
         <v>41</v>
       </c>
       <c r="AL141" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM141" t="n">
         <v>41</v>
       </c>
       <c r="AN141" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO141" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP141" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ141" t="n">
         <v>41</v>
@@ -26230,34 +26230,34 @@
         <v>2.3</v>
       </c>
       <c r="H142" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I142" t="n">
         <v>3</v>
       </c>
       <c r="J142" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K142" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L142" t="n">
         <v>3.5</v>
       </c>
       <c r="M142" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N142" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O142" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P142" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q142" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="R142" t="n">
         <v>2</v>
@@ -26269,10 +26269,10 @@
         <v>3</v>
       </c>
       <c r="U142" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V142" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W142" t="n">
         <v>9</v>
@@ -26287,13 +26287,13 @@
         <v>21</v>
       </c>
       <c r="AA142" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB142" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC142" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD142" t="n">
         <v>6.5</v>
@@ -26311,7 +26311,7 @@
         <v>11</v>
       </c>
       <c r="AI142" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ142" t="n">
         <v>11</v>
@@ -26329,7 +26329,7 @@
         <v>4.5</v>
       </c>
       <c r="AO142" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP142" t="n">
         <v>21</v>
@@ -26591,19 +26591,19 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H144" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I144" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J144" t="n">
         <v>3.4</v>
       </c>
       <c r="K144" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L144" t="n">
         <v>3.1</v>
@@ -26621,10 +26621,10 @@
         <v>3.5</v>
       </c>
       <c r="Q144" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R144" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S144" t="n">
         <v>1.4</v>
@@ -26651,7 +26651,7 @@
         <v>29</v>
       </c>
       <c r="AA144" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB144" t="n">
         <v>29</v>
@@ -26672,19 +26672,19 @@
         <v>201</v>
       </c>
       <c r="AH144" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI144" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ144" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK144" t="n">
         <v>23</v>
       </c>
       <c r="AL144" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM144" t="n">
         <v>29</v>
@@ -26803,10 +26803,10 @@
         <v>3.5</v>
       </c>
       <c r="Q145" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R145" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S145" t="n">
         <v>1.4</v>
@@ -27716,7 +27716,7 @@
         <v>2.1</v>
       </c>
       <c r="R150" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S150" t="n">
         <v>1.44</v>
@@ -27865,7 +27865,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H151" t="n">
         <v>5</v>
@@ -27889,31 +27889,31 @@
         <v>15</v>
       </c>
       <c r="O151" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P151" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q151" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="R151" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S151" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T151" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U151" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V151" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W151" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X151" t="n">
         <v>7</v>
@@ -27931,7 +27931,7 @@
         <v>26</v>
       </c>
       <c r="AC151" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD151" t="n">
         <v>9.5</v>
@@ -27982,7 +27982,7 @@
         <v>126</v>
       </c>
       <c r="AT151" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU151" t="n">
         <v>8.5</v>
@@ -28065,19 +28065,19 @@
         <v>3.6</v>
       </c>
       <c r="M152" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N152" t="n">
         <v>13</v>
       </c>
       <c r="O152" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P152" t="n">
         <v>4</v>
       </c>
       <c r="Q152" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="R152" t="n">
         <v>2</v>
@@ -28247,22 +28247,22 @@
         <v>2.4</v>
       </c>
       <c r="M153" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N153" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O153" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P153" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q153" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R153" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S153" t="n">
         <v>1.4</v>
@@ -28429,13 +28429,13 @@
         <v>4.33</v>
       </c>
       <c r="M154" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N154" t="n">
         <v>8</v>
       </c>
       <c r="O154" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P154" t="n">
         <v>3</v>
@@ -28444,7 +28444,7 @@
         <v>2.15</v>
       </c>
       <c r="R154" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S154" t="n">
         <v>1.44</v>
@@ -28611,13 +28611,13 @@
         <v>3.2</v>
       </c>
       <c r="M155" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N155" t="n">
         <v>8</v>
       </c>
       <c r="O155" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P155" t="n">
         <v>3</v>
@@ -28626,7 +28626,7 @@
         <v>2.25</v>
       </c>
       <c r="R155" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S155" t="n">
         <v>1.5</v>
@@ -28793,13 +28793,13 @@
         <v>4.33</v>
       </c>
       <c r="M156" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N156" t="n">
         <v>10</v>
       </c>
       <c r="O156" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P156" t="n">
         <v>3.5</v>
@@ -28957,22 +28957,22 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H157" t="n">
         <v>3.2</v>
       </c>
       <c r="I157" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="J157" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K157" t="n">
         <v>2.2</v>
       </c>
       <c r="L157" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M157" t="n">
         <v>1.05</v>
@@ -29005,19 +29005,19 @@
         <v>2.1</v>
       </c>
       <c r="W157" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X157" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y157" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z157" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA157" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB157" t="n">
         <v>29</v>
@@ -29041,22 +29041,22 @@
         <v>9</v>
       </c>
       <c r="AI157" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ157" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK157" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM157" t="n">
         <v>26</v>
       </c>
-      <c r="AL157" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM157" t="n">
-        <v>29</v>
-      </c>
       <c r="AN157" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO157" t="n">
         <v>15</v>
@@ -29092,13 +29092,13 @@
         <v>13</v>
       </c>
       <c r="AZ157" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA157" t="n">
         <v>41</v>
       </c>
       <c r="BB157" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC157" t="n">
         <v>151</v>
@@ -29166,7 +29166,7 @@
         <v>1.38</v>
       </c>
       <c r="P158" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="Q158" t="n">
         <v>2.1</v>
@@ -29277,7 +29277,7 @@
         <v>37</v>
       </c>
       <c r="BA158" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BB158" t="n">
         <v>250</v>
@@ -29506,55 +29506,55 @@
         <v>2.75</v>
       </c>
       <c r="H160" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I160" t="n">
         <v>2.4</v>
       </c>
       <c r="J160" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K160" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="L160" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="M160" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N160" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="O160" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P160" t="n">
         <v>3</v>
       </c>
-      <c r="M160" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N160" t="n">
-        <v>12</v>
-      </c>
-      <c r="O160" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P160" t="n">
-        <v>3.15</v>
-      </c>
       <c r="Q160" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="R160" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="S160" t="n">
         <v>1.4</v>
       </c>
       <c r="T160" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="U160" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="V160" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="W160" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="X160" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y160" t="n">
         <v>10</v>
@@ -29563,28 +29563,28 @@
         <v>32</v>
       </c>
       <c r="AA160" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB160" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AC160" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD160" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AE160" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF160" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG160" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AH160" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AI160" t="n">
         <v>12</v>
@@ -29593,52 +29593,52 @@
         <v>9.25</v>
       </c>
       <c r="AK160" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL160" t="n">
         <v>19.5</v>
       </c>
       <c r="AM160" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN160" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="AO160" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AP160" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ160" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV160" t="n">
         <v>65</v>
-      </c>
-      <c r="AR160" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS160" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT160" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AU160" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AV160" t="n">
-        <v>55</v>
       </c>
       <c r="AW160" t="n">
         <v>81</v>
       </c>
       <c r="AX160" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="AY160" t="n">
         <v>13</v>
       </c>
       <c r="AZ160" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA160" t="n">
         <v>55</v>
@@ -29647,7 +29647,7 @@
         <v>90</v>
       </c>
       <c r="BC160" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BD160" t="n">
         <v>81</v>
@@ -29703,10 +29703,10 @@
         <v>3.6</v>
       </c>
       <c r="M161" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N161" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O161" t="n">
         <v>1.53</v>
@@ -29718,7 +29718,7 @@
         <v>2.7</v>
       </c>
       <c r="R161" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S161" t="n">
         <v>1.62</v>
@@ -29879,7 +29879,7 @@
         <v>3.75</v>
       </c>
       <c r="K162" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L162" t="n">
         <v>3.25</v>
@@ -29984,7 +29984,7 @@
         <v>251</v>
       </c>
       <c r="AT162" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="AU162" t="n">
         <v>8.5</v>
@@ -30064,7 +30064,7 @@
         <v>2.4</v>
       </c>
       <c r="L163" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="M163" t="n">
         <v>1.04</v>
@@ -30348,7 +30348,7 @@
         <v>201</v>
       </c>
       <c r="AT164" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU164" t="n">
         <v>8.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD168"/>
+  <dimension ref="A1:BD164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -768,7 +768,7 @@
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O2" t="n">
         <v>1.13</v>
@@ -789,10 +789,10 @@
         <v>4</v>
       </c>
       <c r="U2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W2" t="n">
         <v>29</v>
@@ -816,7 +816,7 @@
         <v>21</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
         <v>21</v>
@@ -837,16 +837,16 @@
         <v>10</v>
       </c>
       <c r="AK2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AL2" t="n">
         <v>11</v>
       </c>
       <c r="AM2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO2" t="n">
         <v>41</v>
@@ -855,7 +855,7 @@
         <v>34</v>
       </c>
       <c r="AQ2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AR2" t="n">
         <v>126</v>
@@ -876,7 +876,7 @@
         <v>451</v>
       </c>
       <c r="AX2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AY2" t="n">
         <v>6</v>
@@ -894,7 +894,7 @@
         <v>81</v>
       </c>
       <c r="BD2" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
@@ -929,34 +929,34 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H3" t="n">
         <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
         <v>2.63</v>
       </c>
       <c r="L3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q3" t="n">
         <v>1.4</v>
@@ -971,10 +971,10 @@
         <v>4</v>
       </c>
       <c r="U3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W3" t="n">
         <v>13</v>
@@ -998,13 +998,13 @@
         <v>23</v>
       </c>
       <c r="AD3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG3" t="n">
         <v>101</v>
@@ -1016,13 +1016,13 @@
         <v>34</v>
       </c>
       <c r="AJ3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK3" t="n">
         <v>51</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="n">
         <v>34</v>
@@ -1031,7 +1031,7 @@
         <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP3" t="n">
         <v>13</v>
@@ -1058,13 +1058,13 @@
         <v>251</v>
       </c>
       <c r="AX3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA3" t="n">
         <v>67</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H4" t="n">
         <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -1153,10 +1153,10 @@
         <v>3.25</v>
       </c>
       <c r="U4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W4" t="n">
         <v>13</v>
@@ -1255,7 +1255,7 @@
         <v>51</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L5" t="n">
         <v>2.88</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
@@ -1344,13 +1344,13 @@
         <v>12</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
         <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA5" t="n">
         <v>21</v>
@@ -1362,7 +1362,7 @@
         <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>12</v>
@@ -1377,13 +1377,13 @@
         <v>10</v>
       </c>
       <c r="AI5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
         <v>17</v>
@@ -1419,16 +1419,16 @@
         <v>41</v>
       </c>
       <c r="AW5" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AX5" t="n">
         <v>4.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA5" t="n">
         <v>41</v>
@@ -1437,7 +1437,7 @@
         <v>51</v>
       </c>
       <c r="BC5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J6" t="n">
         <v>3.75</v>
@@ -1499,10 +1499,10 @@
         <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
         <v>2.2</v>
@@ -1511,10 +1511,10 @@
         <v>1.67</v>
       </c>
       <c r="S6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U6" t="n">
         <v>1.91</v>
@@ -1523,7 +1523,7 @@
         <v>1.91</v>
       </c>
       <c r="W6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X6" t="n">
         <v>15</v>
@@ -1556,13 +1556,13 @@
         <v>301</v>
       </c>
       <c r="AH6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI6" t="n">
         <v>11</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK6" t="n">
         <v>23</v>
@@ -1589,13 +1589,13 @@
         <v>81</v>
       </c>
       <c r="AS6" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
@@ -1610,10 +1610,10 @@
         <v>13</v>
       </c>
       <c r="AZ6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB6" t="n">
         <v>67</v>
@@ -1622,7 +1622,7 @@
         <v>201</v>
       </c>
       <c r="BD6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
@@ -1657,16 +1657,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H7" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I7" t="n">
         <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K7" t="n">
         <v>2.2</v>
@@ -1678,19 +1678,19 @@
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>
@@ -1699,13 +1699,13 @@
         <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X7" t="n">
         <v>7</v>
@@ -1714,31 +1714,31 @@
         <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB7" t="n">
         <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
         <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI7" t="n">
         <v>29</v>
@@ -1759,7 +1759,7 @@
         <v>3.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP7" t="n">
         <v>21</v>
@@ -1780,7 +1780,7 @@
         <v>9</v>
       </c>
       <c r="AV7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW7" t="n">
         <v>151</v>
@@ -1795,10 +1795,10 @@
         <v>41</v>
       </c>
       <c r="BA7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC7" t="n">
         <v>301</v>
@@ -1842,10 +1842,10 @@
         <v>4.2</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J8" t="n">
         <v>4.33</v>
@@ -1854,25 +1854,25 @@
         <v>2.5</v>
       </c>
       <c r="L8" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="M8" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O8" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S8" t="n">
         <v>1.25</v>
@@ -1887,7 +1887,7 @@
         <v>2.5</v>
       </c>
       <c r="W8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X8" t="n">
         <v>26</v>
@@ -1908,7 +1908,7 @@
         <v>19</v>
       </c>
       <c r="AD8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
         <v>12</v>
@@ -1953,7 +1953,7 @@
         <v>67</v>
       </c>
       <c r="AS8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT8" t="n">
         <v>3.75</v>
@@ -1971,7 +1971,7 @@
         <v>4</v>
       </c>
       <c r="AY8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AZ8" t="n">
         <v>15</v>
@@ -2021,52 +2021,52 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P9" t="n">
         <v>4</v>
       </c>
-      <c r="K9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N9" t="n">
-        <v>10</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.5</v>
-      </c>
       <c r="Q9" t="n">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="R9" t="n">
-        <v>1.86</v>
+        <v>2.03</v>
       </c>
       <c r="S9" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T9" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W9" t="n">
         <v>11</v>
@@ -2078,16 +2078,16 @@
         <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB9" t="n">
         <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD9" t="n">
         <v>6.5</v>
@@ -2102,16 +2102,16 @@
         <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ9" t="n">
         <v>9</v>
       </c>
       <c r="AK9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL9" t="n">
         <v>17</v>
@@ -2120,28 +2120,28 @@
         <v>26</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ9" t="n">
         <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV9" t="n">
         <v>51</v>
@@ -2150,7 +2150,7 @@
         <v>501</v>
       </c>
       <c r="AX9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AY9" t="n">
         <v>12</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J10" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K10" t="n">
         <v>2.38</v>
       </c>
       <c r="L10" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -2239,10 +2239,10 @@
         <v>2.3</v>
       </c>
       <c r="S10" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U10" t="n">
         <v>1.53</v>
@@ -2254,7 +2254,7 @@
         <v>10</v>
       </c>
       <c r="X10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
@@ -2278,7 +2278,7 @@
         <v>12</v>
       </c>
       <c r="AF10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG10" t="n">
         <v>126</v>
@@ -2293,7 +2293,7 @@
         <v>12</v>
       </c>
       <c r="AK10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="n">
         <v>23</v>
@@ -2320,7 +2320,7 @@
         <v>101</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU10" t="n">
         <v>7</v>
@@ -2329,7 +2329,7 @@
         <v>41</v>
       </c>
       <c r="AW10" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AX10" t="n">
         <v>5.5</v>
@@ -2344,7 +2344,7 @@
         <v>51</v>
       </c>
       <c r="BB10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC10" t="n">
         <v>126</v>
@@ -2749,52 +2749,52 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I13" t="n">
         <v>1.57</v>
       </c>
       <c r="J13" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L13" t="n">
         <v>2.1</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="P13" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="R13" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="S13" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T13" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U13" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W13" t="n">
         <v>17</v>
@@ -2815,10 +2815,10 @@
         <v>41</v>
       </c>
       <c r="AC13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
         <v>15</v>
@@ -2827,13 +2827,13 @@
         <v>41</v>
       </c>
       <c r="AG13" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ13" t="n">
         <v>8.5</v>
@@ -2845,7 +2845,7 @@
         <v>12</v>
       </c>
       <c r="AM13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN13" t="n">
         <v>7</v>
@@ -2857,16 +2857,16 @@
         <v>29</v>
       </c>
       <c r="AQ13" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR13" t="n">
         <v>101</v>
       </c>
       <c r="AS13" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU13" t="n">
         <v>8</v>
@@ -2875,10 +2875,10 @@
         <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AX13" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AY13" t="n">
         <v>8</v>
@@ -2931,28 +2931,28 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="H14" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
         <v>2.05</v>
       </c>
       <c r="L14" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O14" t="n">
         <v>1.36</v>
@@ -2979,67 +2979,67 @@
         <v>1.95</v>
       </c>
       <c r="W14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC14" t="n">
         <v>8</v>
-      </c>
-      <c r="X14" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8.5</v>
       </c>
       <c r="AD14" t="n">
         <v>6</v>
       </c>
       <c r="AE14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF14" t="n">
         <v>51</v>
       </c>
       <c r="AG14" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH14" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO14" t="n">
         <v>13</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL14" t="n">
+      <c r="AP14" t="n">
         <v>23</v>
       </c>
-      <c r="AM14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR14" t="n">
         <v>67</v>
@@ -3060,13 +3060,13 @@
         <v>126</v>
       </c>
       <c r="AX14" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY14" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA14" t="n">
         <v>51</v>
@@ -3319,22 +3319,22 @@
         <v>10</v>
       </c>
       <c r="O16" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P16" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q16" t="n">
         <v>2.05</v>
       </c>
       <c r="R16" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S16" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T16" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U16" t="n">
         <v>1.8</v>
@@ -3412,7 +3412,7 @@
         <v>151</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU16" t="n">
         <v>8</v>
@@ -3477,22 +3477,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="J17" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K17" t="n">
         <v>2.25</v>
       </c>
       <c r="L17" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
@@ -3507,10 +3507,10 @@
         <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R17" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
         <v>1.33</v>
@@ -3519,25 +3519,25 @@
         <v>3.25</v>
       </c>
       <c r="U17" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V17" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB17" t="n">
         <v>29</v>
@@ -3549,7 +3549,7 @@
         <v>7</v>
       </c>
       <c r="AE17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF17" t="n">
         <v>41</v>
@@ -3558,28 +3558,28 @@
         <v>151</v>
       </c>
       <c r="AH17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ17" t="n">
         <v>9</v>
       </c>
       <c r="AK17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM17" t="n">
         <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP17" t="n">
         <v>23</v>
@@ -3591,7 +3591,7 @@
         <v>67</v>
       </c>
       <c r="AS17" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT17" t="n">
         <v>3.25</v>
@@ -3603,19 +3603,19 @@
         <v>41</v>
       </c>
       <c r="AW17" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AX17" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AY17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ17" t="n">
         <v>19</v>
       </c>
       <c r="BA17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB17" t="n">
         <v>51</v>
@@ -3659,13 +3659,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="H18" t="n">
         <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="J18" t="n">
         <v>6</v>
@@ -3707,13 +3707,13 @@
         <v>2.05</v>
       </c>
       <c r="W18" t="n">
+        <v>21</v>
+      </c>
+      <c r="X18" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y18" t="n">
         <v>19</v>
-      </c>
-      <c r="X18" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>17</v>
       </c>
       <c r="Z18" t="n">
         <v>67</v>
@@ -3728,7 +3728,7 @@
         <v>19</v>
       </c>
       <c r="AD18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE18" t="n">
         <v>17</v>
@@ -3740,16 +3740,16 @@
         <v>151</v>
       </c>
       <c r="AH18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ18" t="n">
         <v>8.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL18" t="n">
         <v>11</v>
@@ -3785,7 +3785,7 @@
         <v>41</v>
       </c>
       <c r="AW18" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AX18" t="n">
         <v>3.6</v>
@@ -3871,10 +3871,10 @@
         <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R19" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S19" t="n">
         <v>1.33</v>
@@ -4214,7 +4214,7 @@
         <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K21" t="n">
         <v>2.3</v>
@@ -4247,10 +4247,10 @@
         <v>2.75</v>
       </c>
       <c r="U21" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V21" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W21" t="n">
         <v>5.5</v>
@@ -4268,16 +4268,16 @@
         <v>13</v>
       </c>
       <c r="AB21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC21" t="n">
         <v>9</v>
       </c>
       <c r="AD21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF21" t="n">
         <v>101</v>
@@ -4343,7 +4343,7 @@
         <v>51</v>
       </c>
       <c r="BA21" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BB21" t="n">
         <v>301</v>
@@ -4405,10 +4405,10 @@
         <v>5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
         <v>1.33</v>
@@ -4578,10 +4578,10 @@
         <v>8</v>
       </c>
       <c r="J23" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="K23" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="L23" t="n">
         <v>7</v>
@@ -5327,10 +5327,10 @@
         <v>2.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R27" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S27" t="n">
         <v>1.57</v>
@@ -5497,10 +5497,10 @@
         <v>6.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N28" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O28" t="n">
         <v>1.5</v>
@@ -5512,10 +5512,10 @@
         <v>2.6</v>
       </c>
       <c r="R28" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S28" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T28" t="n">
         <v>2.25</v>
@@ -5843,40 +5843,40 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I30" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="J30" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="K30" t="n">
         <v>2.5</v>
       </c>
       <c r="L30" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O30" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P30" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="R30" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="S30" t="n">
         <v>1.25</v>
@@ -5885,22 +5885,22 @@
         <v>3.75</v>
       </c>
       <c r="U30" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V30" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W30" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X30" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA30" t="n">
         <v>13</v>
@@ -5909,43 +5909,43 @@
         <v>19</v>
       </c>
       <c r="AC30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD30" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE30" t="n">
         <v>12</v>
       </c>
       <c r="AF30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG30" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AH30" t="n">
         <v>17</v>
       </c>
       <c r="AI30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK30" t="n">
         <v>41</v>
       </c>
       <c r="AL30" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AM30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP30" t="n">
         <v>15</v>
@@ -5969,25 +5969,25 @@
         <v>41</v>
       </c>
       <c r="AW30" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AX30" t="n">
         <v>6</v>
       </c>
       <c r="AY30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA30" t="n">
         <v>51</v>
       </c>
       <c r="BB30" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC30" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD30" t="n">
         <v>151</v>
@@ -6049,16 +6049,16 @@
         <v>17</v>
       </c>
       <c r="O31" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P31" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R31" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S31" t="n">
         <v>1.29</v>
@@ -6389,46 +6389,46 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H33" t="n">
+        <v>5</v>
+      </c>
+      <c r="I33" t="n">
         <v>4.75</v>
       </c>
-      <c r="I33" t="n">
-        <v>4.33</v>
-      </c>
       <c r="J33" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K33" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L33" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M33" t="n">
         <v>1.02</v>
       </c>
       <c r="N33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O33" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P33" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="R33" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="S33" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T33" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U33" t="n">
         <v>1.62</v>
@@ -6437,7 +6437,7 @@
         <v>2.2</v>
       </c>
       <c r="W33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X33" t="n">
         <v>9</v>
@@ -6446,19 +6446,19 @@
         <v>8.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC33" t="n">
         <v>21</v>
       </c>
-      <c r="AC33" t="n">
-        <v>19</v>
-      </c>
       <c r="AD33" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE33" t="n">
         <v>15</v>
@@ -6470,10 +6470,10 @@
         <v>151</v>
       </c>
       <c r="AH33" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AI33" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ33" t="n">
         <v>15</v>
@@ -6491,22 +6491,22 @@
         <v>3.75</v>
       </c>
       <c r="AO33" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP33" t="n">
         <v>15</v>
       </c>
       <c r="AQ33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR33" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS33" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT33" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU33" t="n">
         <v>7.5</v>
@@ -6515,13 +6515,13 @@
         <v>41</v>
       </c>
       <c r="AW33" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AX33" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ33" t="n">
         <v>26</v>
@@ -6753,46 +6753,46 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="H35" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I35" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J35" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K35" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="L35" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M35" t="n">
         <v>1.03</v>
       </c>
       <c r="N35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O35" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P35" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="R35" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="S35" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T35" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U35" t="n">
         <v>1.7</v>
@@ -6801,7 +6801,7 @@
         <v>2.05</v>
       </c>
       <c r="W35" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="X35" t="n">
         <v>8</v>
@@ -6819,13 +6819,13 @@
         <v>21</v>
       </c>
       <c r="AC35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD35" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF35" t="n">
         <v>41</v>
@@ -6834,7 +6834,7 @@
         <v>151</v>
       </c>
       <c r="AH35" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI35" t="n">
         <v>41</v>
@@ -6843,10 +6843,10 @@
         <v>21</v>
       </c>
       <c r="AK35" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL35" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM35" t="n">
         <v>41</v>
@@ -6855,22 +6855,22 @@
         <v>3.6</v>
       </c>
       <c r="AO35" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP35" t="n">
         <v>15</v>
       </c>
       <c r="AQ35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR35" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS35" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT35" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU35" t="n">
         <v>8</v>
@@ -6879,13 +6879,13 @@
         <v>51</v>
       </c>
       <c r="AW35" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AX35" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY35" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ35" t="n">
         <v>34</v>
@@ -7123,7 +7123,7 @@
         <v>3.2</v>
       </c>
       <c r="I37" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J37" t="n">
         <v>3.75</v>
@@ -7138,7 +7138,7 @@
         <v>1.07</v>
       </c>
       <c r="N37" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O37" t="n">
         <v>1.36</v>
@@ -7159,10 +7159,10 @@
         <v>2.63</v>
       </c>
       <c r="U37" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V37" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W37" t="n">
         <v>8.5</v>
@@ -7183,7 +7183,7 @@
         <v>34</v>
       </c>
       <c r="AC37" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD37" t="n">
         <v>6.5</v>
@@ -7195,10 +7195,10 @@
         <v>51</v>
       </c>
       <c r="AG37" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH37" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI37" t="n">
         <v>11</v>
@@ -7207,7 +7207,7 @@
         <v>9.5</v>
       </c>
       <c r="AK37" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL37" t="n">
         <v>21</v>
@@ -7252,7 +7252,7 @@
         <v>13</v>
       </c>
       <c r="AZ37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA37" t="n">
         <v>41</v>
@@ -7323,16 +7323,16 @@
         <v>15</v>
       </c>
       <c r="O38" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P38" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R38" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S38" t="n">
         <v>1.3</v>
@@ -7663,10 +7663,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H40" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I40" t="n">
         <v>2.7</v>
@@ -7675,28 +7675,28 @@
         <v>3</v>
       </c>
       <c r="K40" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L40" t="n">
         <v>3.25</v>
       </c>
       <c r="M40" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O40" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P40" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R40" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="S40" t="n">
         <v>1.33</v>
@@ -7705,10 +7705,10 @@
         <v>3.25</v>
       </c>
       <c r="U40" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V40" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W40" t="n">
         <v>10</v>
@@ -7723,28 +7723,28 @@
         <v>23</v>
       </c>
       <c r="AA40" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB40" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD40" t="n">
         <v>7</v>
       </c>
       <c r="AE40" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF40" t="n">
         <v>41</v>
       </c>
       <c r="AG40" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI40" t="n">
         <v>15</v>
@@ -7768,7 +7768,7 @@
         <v>13</v>
       </c>
       <c r="AP40" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ40" t="n">
         <v>41</v>
@@ -7783,10 +7783,10 @@
         <v>3.25</v>
       </c>
       <c r="AU40" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV40" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW40" t="n">
         <v>81</v>
@@ -8209,10 +8209,10 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H43" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I43" t="n">
         <v>2.9</v>
@@ -8221,10 +8221,10 @@
         <v>2.88</v>
       </c>
       <c r="K43" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L43" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M43" t="n">
         <v>1.04</v>
@@ -8239,10 +8239,10 @@
         <v>3.75</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R43" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S43" t="n">
         <v>1.36</v>
@@ -8257,7 +8257,7 @@
         <v>2.1</v>
       </c>
       <c r="W43" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X43" t="n">
         <v>11</v>
@@ -8272,25 +8272,25 @@
         <v>17</v>
       </c>
       <c r="AB43" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD43" t="n">
         <v>7</v>
       </c>
       <c r="AE43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF43" t="n">
         <v>41</v>
       </c>
       <c r="AG43" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH43" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI43" t="n">
         <v>15</v>
@@ -8299,7 +8299,7 @@
         <v>11</v>
       </c>
       <c r="AK43" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL43" t="n">
         <v>23</v>
@@ -8573,13 +8573,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H45" t="n">
         <v>3.75</v>
       </c>
       <c r="I45" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="J45" t="n">
         <v>5.5</v>
@@ -8588,7 +8588,7 @@
         <v>2.2</v>
       </c>
       <c r="L45" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M45" t="n">
         <v>1.06</v>
@@ -8621,7 +8621,7 @@
         <v>1.8</v>
       </c>
       <c r="W45" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X45" t="n">
         <v>29</v>
@@ -8955,10 +8955,10 @@
         <v>4</v>
       </c>
       <c r="M47" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N47" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O47" t="n">
         <v>1.5</v>
@@ -8967,10 +8967,10 @@
         <v>2.5</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R47" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S47" t="n">
         <v>1.57</v>
@@ -9325,16 +9325,16 @@
         <v>15</v>
       </c>
       <c r="O49" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P49" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="R49" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="S49" t="n">
         <v>1.3</v>
@@ -9501,22 +9501,22 @@
         <v>1.5</v>
       </c>
       <c r="M50" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N50" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O50" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="P50" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R50" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S50" t="n">
         <v>1.29</v>
@@ -9683,22 +9683,22 @@
         <v>2.5</v>
       </c>
       <c r="M51" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N51" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O51" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P51" t="n">
         <v>3</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R51" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S51" t="n">
         <v>1.44</v>
@@ -9719,7 +9719,7 @@
         <v>23</v>
       </c>
       <c r="Y51" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z51" t="n">
         <v>51</v>
@@ -9731,7 +9731,7 @@
         <v>41</v>
       </c>
       <c r="AC51" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD51" t="n">
         <v>6.5</v>
@@ -9740,7 +9740,7 @@
         <v>17</v>
       </c>
       <c r="AF51" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG51" t="n">
         <v>351</v>
@@ -9761,7 +9761,7 @@
         <v>15</v>
       </c>
       <c r="AM51" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN51" t="n">
         <v>6.5</v>
@@ -9785,7 +9785,7 @@
         <v>2.63</v>
       </c>
       <c r="AU51" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV51" t="n">
         <v>67</v>
@@ -9794,7 +9794,7 @@
         <v>126</v>
       </c>
       <c r="AX51" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AY51" t="n">
         <v>9.5</v>
@@ -9809,7 +9809,7 @@
         <v>51</v>
       </c>
       <c r="BC51" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD51" t="n">
         <v>126</v>
@@ -9865,13 +9865,13 @@
         <v>4</v>
       </c>
       <c r="M52" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N52" t="n">
         <v>9.5</v>
       </c>
       <c r="O52" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P52" t="n">
         <v>3.4</v>
@@ -10029,13 +10029,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H53" t="n">
         <v>3.5</v>
       </c>
       <c r="I53" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J53" t="n">
         <v>3.6</v>
@@ -10044,13 +10044,13 @@
         <v>2.3</v>
       </c>
       <c r="L53" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M53" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N53" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O53" t="n">
         <v>1.2</v>
@@ -10119,7 +10119,7 @@
         <v>9</v>
       </c>
       <c r="AK53" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL53" t="n">
         <v>15</v>
@@ -10134,7 +10134,7 @@
         <v>17</v>
       </c>
       <c r="AP53" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ53" t="n">
         <v>51</v>
@@ -10149,7 +10149,7 @@
         <v>3.4</v>
       </c>
       <c r="AU53" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV53" t="n">
         <v>41</v>
@@ -10211,28 +10211,28 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H54" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I54" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J54" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K54" t="n">
         <v>2.2</v>
       </c>
       <c r="L54" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M54" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N54" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O54" t="n">
         <v>1.29</v>
@@ -10268,7 +10268,7 @@
         <v>8.5</v>
       </c>
       <c r="Z54" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA54" t="n">
         <v>15</v>
@@ -10289,7 +10289,7 @@
         <v>51</v>
       </c>
       <c r="AG54" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH54" t="n">
         <v>12</v>
@@ -10298,7 +10298,7 @@
         <v>21</v>
       </c>
       <c r="AJ54" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK54" t="n">
         <v>41</v>
@@ -10352,7 +10352,7 @@
         <v>67</v>
       </c>
       <c r="BB54" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC54" t="n">
         <v>201</v>
@@ -10423,10 +10423,10 @@
         <v>4.5</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R55" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S55" t="n">
         <v>1.3</v>
@@ -10575,19 +10575,19 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H56" t="n">
         <v>3.1</v>
       </c>
       <c r="I56" t="n">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="J56" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K56" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L56" t="n">
         <v>3</v>
@@ -10605,28 +10605,28 @@
         <v>4</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R56" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S56" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T56" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U56" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V56" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X56" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y56" t="n">
         <v>11</v>
@@ -10635,10 +10635,10 @@
         <v>29</v>
       </c>
       <c r="AA56" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB56" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC56" t="n">
         <v>11</v>
@@ -10650,22 +10650,22 @@
         <v>11</v>
       </c>
       <c r="AF56" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG56" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH56" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AI56" t="n">
         <v>13</v>
       </c>
       <c r="AJ56" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK56" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL56" t="n">
         <v>19</v>
@@ -10680,19 +10680,19 @@
         <v>15</v>
       </c>
       <c r="AP56" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ56" t="n">
         <v>51</v>
       </c>
       <c r="AR56" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS56" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT56" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU56" t="n">
         <v>7.5</v>
@@ -10757,52 +10757,52 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="H57" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I57" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="J57" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K57" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L57" t="n">
         <v>3</v>
       </c>
-      <c r="K57" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L57" t="n">
-        <v>3.2</v>
-      </c>
       <c r="M57" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N57" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O57" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P57" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="R57" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="S57" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="T57" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="U57" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="V57" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="W57" t="n">
         <v>11</v>
@@ -10811,82 +10811,82 @@
         <v>15</v>
       </c>
       <c r="Y57" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z57" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB57" t="n">
         <v>26</v>
       </c>
-      <c r="AA57" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB57" t="n">
+      <c r="AC57" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK57" t="n">
         <v>23</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>26</v>
       </c>
       <c r="AL57" t="n">
         <v>19</v>
       </c>
       <c r="AM57" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN57" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO57" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP57" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ57" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR57" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS57" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT57" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AU57" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV57" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW57" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="AX57" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AY57" t="n">
         <v>13</v>
@@ -10901,7 +10901,7 @@
         <v>51</v>
       </c>
       <c r="BC57" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD57" t="n">
         <v>81</v>
@@ -10939,40 +10939,40 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H58" t="n">
         <v>3.9</v>
       </c>
       <c r="I58" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="J58" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="K58" t="n">
         <v>2.3</v>
       </c>
       <c r="L58" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N58" t="n">
+        <v>13</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P58" t="n">
         <v>4</v>
       </c>
-      <c r="M58" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N58" t="n">
-        <v>15</v>
-      </c>
-      <c r="O58" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P58" t="n">
-        <v>4.33</v>
-      </c>
       <c r="Q58" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="R58" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="S58" t="n">
         <v>1.33</v>
@@ -10981,43 +10981,43 @@
         <v>3.25</v>
       </c>
       <c r="U58" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="V58" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="W58" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X58" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Y58" t="n">
         <v>8.5</v>
       </c>
       <c r="Z58" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA58" t="n">
         <v>13</v>
       </c>
       <c r="AB58" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC58" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD58" t="n">
         <v>7.5</v>
       </c>
       <c r="AE58" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF58" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG58" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH58" t="n">
         <v>13</v>
@@ -11032,58 +11032,58 @@
         <v>41</v>
       </c>
       <c r="AL58" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM58" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN58" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO58" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP58" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ58" t="n">
         <v>29</v>
       </c>
       <c r="AR58" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS58" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT58" t="n">
         <v>3.25</v>
       </c>
       <c r="AU58" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV58" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW58" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AX58" t="n">
         <v>6</v>
       </c>
       <c r="AY58" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ58" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="BA58" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB58" t="n">
         <v>81</v>
       </c>
       <c r="BC58" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD58" t="n">
         <v>81</v>
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H59" t="n">
         <v>3.2</v>
@@ -11139,22 +11139,22 @@
         <v>3.1</v>
       </c>
       <c r="M59" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N59" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O59" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P59" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R59" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S59" t="n">
         <v>1.53</v>
@@ -11169,7 +11169,7 @@
         <v>1.67</v>
       </c>
       <c r="W59" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X59" t="n">
         <v>15</v>
@@ -11181,7 +11181,7 @@
         <v>34</v>
       </c>
       <c r="AA59" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB59" t="n">
         <v>41</v>
@@ -11190,7 +11190,7 @@
         <v>7</v>
       </c>
       <c r="AD59" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE59" t="n">
         <v>19</v>
@@ -11202,7 +11202,7 @@
         <v>351</v>
       </c>
       <c r="AH59" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI59" t="n">
         <v>9.5</v>
@@ -11250,16 +11250,16 @@
         <v>126</v>
       </c>
       <c r="AX59" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AY59" t="n">
         <v>13</v>
       </c>
       <c r="AZ59" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA59" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB59" t="n">
         <v>81</v>
@@ -11667,22 +11667,22 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="H62" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I62" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="J62" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K62" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L62" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M62" t="n">
         <v>1.05</v>
@@ -11715,10 +11715,10 @@
         <v>1.83</v>
       </c>
       <c r="W62" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X62" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y62" t="n">
         <v>17</v>
@@ -11757,7 +11757,7 @@
         <v>8.5</v>
       </c>
       <c r="AK62" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL62" t="n">
         <v>13</v>
@@ -11766,10 +11766,10 @@
         <v>26</v>
       </c>
       <c r="AN62" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO62" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP62" t="n">
         <v>34</v>
@@ -11778,7 +11778,7 @@
         <v>101</v>
       </c>
       <c r="AR62" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS62" t="n">
         <v>251</v>
@@ -11805,7 +11805,7 @@
         <v>21</v>
       </c>
       <c r="BA62" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BB62" t="n">
         <v>51</v>
@@ -11870,7 +11870,7 @@
         <v>1.06</v>
       </c>
       <c r="N63" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O63" t="n">
         <v>1.33</v>
@@ -12395,40 +12395,40 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H66" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I66" t="n">
         <v>3.6</v>
       </c>
-      <c r="I66" t="n">
-        <v>3.8</v>
-      </c>
       <c r="J66" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K66" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L66" t="n">
         <v>4.5</v>
       </c>
       <c r="M66" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N66" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O66" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P66" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="R66" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="S66" t="n">
         <v>1.44</v>
@@ -12452,7 +12452,7 @@
         <v>9</v>
       </c>
       <c r="Z66" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA66" t="n">
         <v>17</v>
@@ -12461,7 +12461,7 @@
         <v>29</v>
       </c>
       <c r="AC66" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD66" t="n">
         <v>7</v>
@@ -12473,13 +12473,13 @@
         <v>51</v>
       </c>
       <c r="AG66" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH66" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI66" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ66" t="n">
         <v>13</v>
@@ -12494,22 +12494,22 @@
         <v>41</v>
       </c>
       <c r="AN66" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO66" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP66" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ66" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR66" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS66" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT66" t="n">
         <v>2.63</v>
@@ -12524,10 +12524,10 @@
         <v>81</v>
       </c>
       <c r="AX66" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY66" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ66" t="n">
         <v>34</v>
@@ -13270,7 +13270,7 @@
         <v>126</v>
       </c>
       <c r="BD70" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71">
@@ -13329,16 +13329,16 @@
         <v>17</v>
       </c>
       <c r="O71" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P71" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R71" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S71" t="n">
         <v>1.29</v>
@@ -13452,7 +13452,7 @@
         <v>101</v>
       </c>
       <c r="BD71" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="72">
@@ -13487,22 +13487,22 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H72" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I72" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J72" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K72" t="n">
         <v>2.25</v>
       </c>
       <c r="L72" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M72" t="n">
         <v>1.04</v>
@@ -13517,10 +13517,10 @@
         <v>3.75</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R72" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S72" t="n">
         <v>1.36</v>
@@ -13559,7 +13559,7 @@
         <v>7.5</v>
       </c>
       <c r="AE72" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF72" t="n">
         <v>51</v>
@@ -13571,10 +13571,10 @@
         <v>11</v>
       </c>
       <c r="AI72" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ72" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK72" t="n">
         <v>41</v>
@@ -13589,13 +13589,13 @@
         <v>4</v>
       </c>
       <c r="AO72" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP72" t="n">
         <v>19</v>
       </c>
       <c r="AQ72" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR72" t="n">
         <v>51</v>
@@ -13631,7 +13631,7 @@
         <v>81</v>
       </c>
       <c r="BC72" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD72" t="n">
         <v>126</v>
@@ -13851,13 +13851,13 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H74" t="n">
         <v>3.5</v>
       </c>
       <c r="I74" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J74" t="n">
         <v>2.75</v>
@@ -13899,7 +13899,7 @@
         <v>1.8</v>
       </c>
       <c r="W74" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X74" t="n">
         <v>9</v>
@@ -13908,7 +13908,7 @@
         <v>9</v>
       </c>
       <c r="Z74" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA74" t="n">
         <v>17</v>
@@ -13953,7 +13953,7 @@
         <v>4</v>
       </c>
       <c r="AO74" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP74" t="n">
         <v>23</v>
@@ -14227,28 +14227,28 @@
         <v>3.4</v>
       </c>
       <c r="K76" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L76" t="n">
         <v>3</v>
       </c>
       <c r="M76" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N76" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O76" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P76" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.83</v>
+        <v>1.68</v>
       </c>
       <c r="R76" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S76" t="n">
         <v>1.36</v>
@@ -14263,7 +14263,7 @@
         <v>2.2</v>
       </c>
       <c r="W76" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X76" t="n">
         <v>15</v>
@@ -14278,7 +14278,7 @@
         <v>21</v>
       </c>
       <c r="AB76" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC76" t="n">
         <v>12</v>
@@ -14320,7 +14320,7 @@
         <v>15</v>
       </c>
       <c r="AP76" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ76" t="n">
         <v>51</v>
@@ -14442,7 +14442,7 @@
         <v>1.57</v>
       </c>
       <c r="V77" t="n">
-        <v>2.33</v>
+        <v>2.34</v>
       </c>
       <c r="W77" t="n">
         <v>8</v>
@@ -14785,16 +14785,16 @@
         <v>17</v>
       </c>
       <c r="O79" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P79" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R79" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S79" t="n">
         <v>1.29</v>
@@ -14946,7 +14946,7 @@
         <v>1.65</v>
       </c>
       <c r="H80" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I80" t="n">
         <v>4.5</v>
@@ -14955,28 +14955,28 @@
         <v>2.1</v>
       </c>
       <c r="K80" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="L80" t="n">
         <v>4.33</v>
       </c>
       <c r="M80" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N80" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O80" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P80" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="R80" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="S80" t="n">
         <v>1.22</v>
@@ -14991,7 +14991,7 @@
         <v>2.63</v>
       </c>
       <c r="W80" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X80" t="n">
         <v>11</v>
@@ -15009,10 +15009,10 @@
         <v>17</v>
       </c>
       <c r="AC80" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD80" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE80" t="n">
         <v>12</v>
@@ -15051,7 +15051,7 @@
         <v>13</v>
       </c>
       <c r="AQ80" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR80" t="n">
         <v>34</v>
@@ -15125,22 +15125,22 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H81" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I81" t="n">
         <v>2.05</v>
       </c>
       <c r="J81" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K81" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L81" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M81" t="n">
         <v>1.03</v>
@@ -15155,22 +15155,22 @@
         <v>4.5</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R81" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S81" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T81" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U81" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V81" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W81" t="n">
         <v>13</v>
@@ -15200,7 +15200,7 @@
         <v>12</v>
       </c>
       <c r="AF81" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG81" t="n">
         <v>126</v>
@@ -15209,7 +15209,7 @@
         <v>10</v>
       </c>
       <c r="AI81" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ81" t="n">
         <v>9</v>
@@ -15236,13 +15236,13 @@
         <v>51</v>
       </c>
       <c r="AR81" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS81" t="n">
         <v>126</v>
       </c>
       <c r="AT81" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU81" t="n">
         <v>7</v>
@@ -15307,16 +15307,16 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H82" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I82" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J82" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K82" t="n">
         <v>2.5</v>
@@ -15364,10 +15364,10 @@
         <v>8.5</v>
       </c>
       <c r="Z82" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA82" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB82" t="n">
         <v>21</v>
@@ -15376,7 +15376,7 @@
         <v>17</v>
       </c>
       <c r="AD82" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE82" t="n">
         <v>15</v>
@@ -15448,7 +15448,7 @@
         <v>81</v>
       </c>
       <c r="BB82" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC82" t="n">
         <v>151</v>
@@ -15489,22 +15489,22 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H83" t="n">
         <v>3.6</v>
       </c>
       <c r="I83" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J83" t="n">
         <v>2.5</v>
       </c>
       <c r="K83" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L83" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M83" t="n">
         <v>1.04</v>
@@ -15525,10 +15525,10 @@
         <v>2.05</v>
       </c>
       <c r="S83" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T83" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U83" t="n">
         <v>1.67</v>
@@ -15540,7 +15540,7 @@
         <v>8.5</v>
       </c>
       <c r="X83" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y83" t="n">
         <v>8.5</v>
@@ -15570,7 +15570,7 @@
         <v>151</v>
       </c>
       <c r="AH83" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI83" t="n">
         <v>21</v>
@@ -15606,7 +15606,7 @@
         <v>126</v>
       </c>
       <c r="AT83" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU83" t="n">
         <v>7.5</v>
@@ -15618,7 +15618,7 @@
         <v>81</v>
       </c>
       <c r="AX83" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY83" t="n">
         <v>21</v>
@@ -16065,10 +16065,10 @@
         <v>4</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R86" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S86" t="n">
         <v>1.33</v>
@@ -16268,10 +16268,10 @@
         <v>9</v>
       </c>
       <c r="X87" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y87" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z87" t="n">
         <v>8.5</v>
@@ -16316,16 +16316,16 @@
         <v>51</v>
       </c>
       <c r="AN87" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO87" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP87" t="n">
         <v>15</v>
       </c>
       <c r="AQ87" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR87" t="n">
         <v>34</v>
@@ -16346,7 +16346,7 @@
         <v>51</v>
       </c>
       <c r="AX87" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AY87" t="n">
         <v>41</v>
@@ -16763,16 +16763,16 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H90" t="n">
         <v>3.25</v>
       </c>
       <c r="I90" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J90" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K90" t="n">
         <v>2.05</v>
@@ -16781,10 +16781,10 @@
         <v>3.75</v>
       </c>
       <c r="M90" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N90" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O90" t="n">
         <v>1.36</v>
@@ -16814,7 +16814,7 @@
         <v>7.5</v>
       </c>
       <c r="X90" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y90" t="n">
         <v>9.5</v>
@@ -16823,7 +16823,7 @@
         <v>21</v>
       </c>
       <c r="AA90" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB90" t="n">
         <v>29</v>
@@ -16835,7 +16835,7 @@
         <v>6.5</v>
       </c>
       <c r="AE90" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF90" t="n">
         <v>51</v>
@@ -16945,7 +16945,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H91" t="n">
         <v>3.6</v>
@@ -16954,10 +16954,10 @@
         <v>1.65</v>
       </c>
       <c r="J91" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K91" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L91" t="n">
         <v>2.3</v>
@@ -16969,37 +16969,37 @@
         <v>11</v>
       </c>
       <c r="O91" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P91" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R91" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S91" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T91" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U91" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V91" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W91" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X91" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y91" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z91" t="n">
         <v>51</v>
@@ -17011,58 +17011,58 @@
         <v>41</v>
       </c>
       <c r="AC91" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AD91" t="n">
         <v>7</v>
       </c>
       <c r="AE91" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF91" t="n">
         <v>51</v>
       </c>
       <c r="AG91" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH91" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI91" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AJ91" t="n">
         <v>8.5</v>
       </c>
       <c r="AK91" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL91" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM91" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN91" t="n">
         <v>6.5</v>
       </c>
       <c r="AO91" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP91" t="n">
         <v>34</v>
       </c>
       <c r="AQ91" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR91" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS91" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT91" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU91" t="n">
         <v>8.5</v>
@@ -17074,13 +17074,13 @@
         <v>51</v>
       </c>
       <c r="AX91" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AY91" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AZ91" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA91" t="n">
         <v>29</v>
@@ -17130,7 +17130,7 @@
         <v>2.3</v>
       </c>
       <c r="H92" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I92" t="n">
         <v>3.2</v>
@@ -17145,10 +17145,10 @@
         <v>3.6</v>
       </c>
       <c r="M92" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N92" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O92" t="n">
         <v>1.29</v>
@@ -17157,10 +17157,10 @@
         <v>3.5</v>
       </c>
       <c r="Q92" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R92" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S92" t="n">
         <v>1.4</v>
@@ -17253,7 +17253,7 @@
         <v>51</v>
       </c>
       <c r="AW92" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="AX92" t="n">
         <v>5</v>
@@ -17309,22 +17309,22 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H93" t="n">
         <v>3.1</v>
       </c>
       <c r="I93" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="J93" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K93" t="n">
         <v>2.1</v>
       </c>
       <c r="L93" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="M93" t="n">
         <v>1.07</v>
@@ -17360,10 +17360,10 @@
         <v>10</v>
       </c>
       <c r="X93" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y93" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z93" t="n">
         <v>34</v>
@@ -17384,7 +17384,7 @@
         <v>13</v>
       </c>
       <c r="AF93" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG93" t="n">
         <v>201</v>
@@ -17393,13 +17393,13 @@
         <v>8</v>
       </c>
       <c r="AI93" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ93" t="n">
         <v>9.5</v>
       </c>
       <c r="AK93" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL93" t="n">
         <v>19</v>
@@ -17491,73 +17491,73 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="H94" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I94" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="J94" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K94" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L94" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M94" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N94" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="O94" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P94" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="R94" t="n">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="S94" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T94" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U94" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V94" t="n">
         <v>1.8</v>
       </c>
-      <c r="V94" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W94" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="X94" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y94" t="n">
         <v>9.5</v>
       </c>
       <c r="Z94" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA94" t="n">
         <v>21</v>
       </c>
       <c r="AB94" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC94" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD94" t="n">
         <v>6</v>
@@ -17569,34 +17569,34 @@
         <v>51</v>
       </c>
       <c r="AG94" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH94" t="n">
         <v>9</v>
       </c>
       <c r="AI94" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ94" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK94" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL94" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM94" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN94" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO94" t="n">
         <v>13</v>
       </c>
       <c r="AP94" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ94" t="n">
         <v>41</v>
@@ -17605,16 +17605,16 @@
         <v>67</v>
       </c>
       <c r="AS94" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT94" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU94" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV94" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW94" t="n">
         <v>81</v>
@@ -17623,19 +17623,19 @@
         <v>5</v>
       </c>
       <c r="AY94" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ94" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA94" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB94" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC94" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD94" t="n">
         <v>81</v>
@@ -17673,22 +17673,22 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H95" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I95" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J95" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K95" t="n">
         <v>2.05</v>
       </c>
       <c r="L95" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M95" t="n">
         <v>1.07</v>
@@ -17721,13 +17721,13 @@
         <v>1.91</v>
       </c>
       <c r="W95" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X95" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y95" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z95" t="n">
         <v>21</v>
@@ -17754,10 +17754,10 @@
         <v>301</v>
       </c>
       <c r="AH95" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI95" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ95" t="n">
         <v>12</v>
@@ -17766,16 +17766,16 @@
         <v>34</v>
       </c>
       <c r="AL95" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM95" t="n">
         <v>41</v>
       </c>
       <c r="AN95" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO95" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP95" t="n">
         <v>23</v>
@@ -17787,7 +17787,7 @@
         <v>67</v>
       </c>
       <c r="AS95" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT95" t="n">
         <v>2.63</v>
@@ -17811,7 +17811,7 @@
         <v>29</v>
       </c>
       <c r="BA95" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB95" t="n">
         <v>81</v>
@@ -18219,73 +18219,73 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H98" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I98" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="J98" t="n">
         <v>3.75</v>
       </c>
       <c r="K98" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L98" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N98" t="n">
+        <v>7</v>
+      </c>
+      <c r="O98" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P98" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S98" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T98" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U98" t="n">
         <v>2</v>
       </c>
-      <c r="L98" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M98" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N98" t="n">
+      <c r="V98" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W98" t="n">
         <v>7.5</v>
       </c>
-      <c r="O98" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P98" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R98" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S98" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T98" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U98" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V98" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W98" t="n">
-        <v>8</v>
-      </c>
       <c r="X98" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y98" t="n">
         <v>12</v>
       </c>
       <c r="Z98" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA98" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB98" t="n">
         <v>41</v>
       </c>
       <c r="AC98" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD98" t="n">
         <v>6</v>
@@ -18312,16 +18312,16 @@
         <v>23</v>
       </c>
       <c r="AL98" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM98" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN98" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO98" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP98" t="n">
         <v>29</v>
@@ -18330,13 +18330,13 @@
         <v>51</v>
       </c>
       <c r="AR98" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS98" t="n">
         <v>251</v>
       </c>
       <c r="AT98" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU98" t="n">
         <v>8.5</v>
@@ -18354,7 +18354,7 @@
         <v>15</v>
       </c>
       <c r="AZ98" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA98" t="n">
         <v>51</v>
@@ -18363,7 +18363,7 @@
         <v>81</v>
       </c>
       <c r="BC98" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD98" t="n">
         <v>51</v>
@@ -18401,58 +18401,58 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H99" t="n">
+        <v>3</v>
+      </c>
+      <c r="I99" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>2.9</v>
       </c>
       <c r="J99" t="n">
         <v>3.25</v>
       </c>
       <c r="K99" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="L99" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M99" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N99" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O99" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P99" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="R99" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="S99" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="T99" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U99" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V99" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W99" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X99" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y99" t="n">
         <v>10</v>
@@ -18467,13 +18467,13 @@
         <v>41</v>
       </c>
       <c r="AC99" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD99" t="n">
         <v>6</v>
       </c>
       <c r="AE99" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF99" t="n">
         <v>67</v>
@@ -18485,16 +18485,16 @@
         <v>7.5</v>
       </c>
       <c r="AI99" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ99" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK99" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL99" t="n">
         <v>29</v>
-      </c>
-      <c r="AL99" t="n">
-        <v>26</v>
       </c>
       <c r="AM99" t="n">
         <v>41</v>
@@ -18518,10 +18518,10 @@
         <v>251</v>
       </c>
       <c r="AT99" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU99" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV99" t="n">
         <v>67</v>
@@ -18530,22 +18530,22 @@
         <v>51</v>
       </c>
       <c r="AX99" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY99" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ99" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA99" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB99" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC99" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD99" t="n">
         <v>51</v>
@@ -18583,13 +18583,13 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H100" t="n">
         <v>3.4</v>
       </c>
       <c r="I100" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J100" t="n">
         <v>2.63</v>
@@ -18607,22 +18607,22 @@
         <v>10</v>
       </c>
       <c r="O100" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P100" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q100" t="n">
         <v>2.05</v>
       </c>
       <c r="R100" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S100" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T100" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U100" t="n">
         <v>1.83</v>
@@ -18661,10 +18661,10 @@
         <v>51</v>
       </c>
       <c r="AG100" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH100" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI100" t="n">
         <v>19</v>
@@ -18676,7 +18676,7 @@
         <v>41</v>
       </c>
       <c r="AL100" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM100" t="n">
         <v>41</v>
@@ -18691,7 +18691,7 @@
         <v>21</v>
       </c>
       <c r="AQ100" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR100" t="n">
         <v>51</v>
@@ -18700,7 +18700,7 @@
         <v>151</v>
       </c>
       <c r="AT100" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU100" t="n">
         <v>8</v>
@@ -18765,13 +18765,13 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H101" t="n">
         <v>3.25</v>
       </c>
       <c r="I101" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J101" t="n">
         <v>2.88</v>
@@ -18780,13 +18780,13 @@
         <v>2.1</v>
       </c>
       <c r="L101" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M101" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N101" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O101" t="n">
         <v>1.33</v>
@@ -18795,10 +18795,10 @@
         <v>3.25</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R101" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S101" t="n">
         <v>1.44</v>
@@ -18813,7 +18813,7 @@
         <v>1.83</v>
       </c>
       <c r="W101" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X101" t="n">
         <v>10</v>
@@ -18822,7 +18822,7 @@
         <v>9.5</v>
       </c>
       <c r="Z101" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA101" t="n">
         <v>19</v>
@@ -18843,7 +18843,7 @@
         <v>51</v>
       </c>
       <c r="AG101" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH101" t="n">
         <v>9.5</v>
@@ -18864,7 +18864,7 @@
         <v>41</v>
       </c>
       <c r="AN101" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO101" t="n">
         <v>12</v>
@@ -18903,7 +18903,7 @@
         <v>29</v>
       </c>
       <c r="BA101" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB101" t="n">
         <v>81</v>
@@ -18947,55 +18947,55 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H102" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I102" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J102" t="n">
         <v>2.75</v>
       </c>
       <c r="K102" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L102" t="n">
         <v>4</v>
       </c>
       <c r="M102" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N102" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="O102" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P102" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="R102" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="S102" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T102" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U102" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V102" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W102" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X102" t="n">
         <v>9.5</v>
@@ -19004,16 +19004,16 @@
         <v>9</v>
       </c>
       <c r="Z102" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA102" t="n">
         <v>17</v>
       </c>
       <c r="AB102" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC102" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AD102" t="n">
         <v>6.5</v>
@@ -19025,13 +19025,13 @@
         <v>51</v>
       </c>
       <c r="AG102" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH102" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI102" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ102" t="n">
         <v>13</v>
@@ -19043,31 +19043,31 @@
         <v>29</v>
       </c>
       <c r="AM102" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN102" t="n">
         <v>4</v>
       </c>
       <c r="AO102" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP102" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ102" t="n">
         <v>41</v>
       </c>
       <c r="AR102" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS102" t="n">
         <v>151</v>
       </c>
       <c r="AT102" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU102" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV102" t="n">
         <v>51</v>
@@ -19079,7 +19079,7 @@
         <v>5.5</v>
       </c>
       <c r="AY102" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ102" t="n">
         <v>29</v>
@@ -19088,10 +19088,10 @@
         <v>67</v>
       </c>
       <c r="BB102" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC102" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD102" t="n">
         <v>51</v>
@@ -19147,16 +19147,16 @@
         <v>4.35</v>
       </c>
       <c r="M103" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N103" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="O103" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P103" t="n">
-        <v>3.72</v>
+        <v>3.86</v>
       </c>
       <c r="Q103" t="n">
         <v>1.62</v>
@@ -19165,16 +19165,16 @@
         <v>2.02</v>
       </c>
       <c r="S103" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="T103" t="n">
-        <v>3.1</v>
+        <v>3.22</v>
       </c>
       <c r="U103" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="V103" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="W103" t="n">
         <v>7</v>
@@ -19675,22 +19675,22 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H106" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="I106" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J106" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K106" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L106" t="n">
         <v>4.5</v>
-      </c>
-      <c r="J106" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K106" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="L106" t="n">
-        <v>4.7</v>
       </c>
       <c r="M106" t="n">
         <v>1.03</v>
@@ -19702,7 +19702,7 @@
         <v>1.16</v>
       </c>
       <c r="P106" t="n">
-        <v>3.94</v>
+        <v>3.88</v>
       </c>
       <c r="Q106" t="n">
         <v>1.62</v>
@@ -19717,40 +19717,40 @@
         <v>3.26</v>
       </c>
       <c r="U106" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="V106" t="n">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="W106" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X106" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="Y106" t="n">
         <v>6.9</v>
       </c>
       <c r="Z106" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AA106" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AB106" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC106" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD106" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AE106" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AF106" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG106" t="n">
         <v>250</v>
@@ -19762,28 +19762,28 @@
         <v>22</v>
       </c>
       <c r="AJ106" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AK106" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL106" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM106" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AN106" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AO106" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AP106" t="n">
         <v>15</v>
       </c>
       <c r="AQ106" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AR106" t="n">
         <v>45</v>
@@ -19792,10 +19792,10 @@
         <v>175</v>
       </c>
       <c r="AT106" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AU106" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AV106" t="n">
         <v>55</v>
@@ -19804,22 +19804,22 @@
         <v>51</v>
       </c>
       <c r="AX106" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AY106" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ106" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BA106" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BB106" t="n">
         <v>150</v>
       </c>
       <c r="BC106" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BD106" t="n">
         <v>51</v>
@@ -20042,55 +20042,55 @@
         <v>1.67</v>
       </c>
       <c r="H108" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I108" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J108" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K108" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L108" t="n">
         <v>5</v>
       </c>
-      <c r="J108" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K108" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L108" t="n">
-        <v>4.75</v>
-      </c>
       <c r="M108" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N108" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O108" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P108" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="R108" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="S108" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T108" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U108" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="V108" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W108" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X108" t="n">
         <v>8.5</v>
-      </c>
-      <c r="X108" t="n">
-        <v>9</v>
       </c>
       <c r="Y108" t="n">
         <v>8.5</v>
@@ -20099,25 +20099,25 @@
         <v>13</v>
       </c>
       <c r="AA108" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC108" t="n">
         <v>12</v>
       </c>
-      <c r="AB108" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC108" t="n">
+      <c r="AD108" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE108" t="n">
         <v>15</v>
       </c>
-      <c r="AD108" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE108" t="n">
-        <v>13</v>
-      </c>
       <c r="AF108" t="n">
         <v>41</v>
       </c>
       <c r="AG108" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH108" t="n">
         <v>15</v>
@@ -20126,16 +20126,16 @@
         <v>26</v>
       </c>
       <c r="AJ108" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK108" t="n">
         <v>51</v>
       </c>
       <c r="AL108" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM108" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN108" t="n">
         <v>3.75</v>
@@ -20144,7 +20144,7 @@
         <v>8.5</v>
       </c>
       <c r="AP108" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ108" t="n">
         <v>26</v>
@@ -20153,40 +20153,40 @@
         <v>41</v>
       </c>
       <c r="AS108" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT108" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU108" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV108" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW108" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AX108" t="n">
         <v>6.5</v>
       </c>
       <c r="AY108" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ108" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA108" t="n">
         <v>81</v>
       </c>
       <c r="BB108" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC108" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD108" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109">
@@ -20403,22 +20403,22 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H110" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I110" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J110" t="n">
         <v>2.5</v>
       </c>
       <c r="K110" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L110" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="M110" t="n">
         <v>8.199999999999999</v>
@@ -20427,7 +20427,7 @@
         <v>1.06</v>
       </c>
       <c r="O110" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P110" t="n">
         <v>2.95</v>
@@ -20439,10 +20439,10 @@
         <v>1.78</v>
       </c>
       <c r="S110" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T110" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="U110" t="n">
         <v>1.75</v>
@@ -20451,16 +20451,16 @@
         <v>1.85</v>
       </c>
       <c r="W110" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="X110" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Y110" t="n">
         <v>8.25</v>
       </c>
       <c r="Z110" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA110" t="n">
         <v>15</v>
@@ -20469,10 +20469,10 @@
         <v>27</v>
       </c>
       <c r="AC110" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AD110" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AE110" t="n">
         <v>15</v>
@@ -20484,10 +20484,10 @@
         <v>600</v>
       </c>
       <c r="AH110" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AI110" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ110" t="n">
         <v>13</v>
@@ -20499,10 +20499,10 @@
         <v>37</v>
       </c>
       <c r="AM110" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN110" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AO110" t="n">
         <v>9.5</v>
@@ -20520,7 +20520,7 @@
         <v>250</v>
       </c>
       <c r="AT110" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="AU110" t="n">
         <v>7.3</v>
@@ -20538,13 +20538,13 @@
         <v>22</v>
       </c>
       <c r="AZ110" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA110" t="n">
         <v>120</v>
       </c>
       <c r="BB110" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BC110" t="n">
         <v>400</v>
@@ -20566,7 +20566,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -20767,22 +20767,22 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H112" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I112" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J112" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K112" t="n">
         <v>2.4</v>
       </c>
       <c r="L112" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M112" t="n">
         <v>1.03</v>
@@ -20797,25 +20797,25 @@
         <v>5</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R112" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S112" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T112" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U112" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V112" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W112" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X112" t="n">
         <v>13</v>
@@ -20830,19 +20830,19 @@
         <v>15</v>
       </c>
       <c r="AB112" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC112" t="n">
         <v>17</v>
       </c>
       <c r="AD112" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE112" t="n">
         <v>11</v>
       </c>
       <c r="AF112" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG112" t="n">
         <v>101</v>
@@ -20851,7 +20851,7 @@
         <v>15</v>
       </c>
       <c r="AI112" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ112" t="n">
         <v>12</v>
@@ -20860,7 +20860,7 @@
         <v>34</v>
       </c>
       <c r="AL112" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM112" t="n">
         <v>23</v>
@@ -20881,10 +20881,10 @@
         <v>41</v>
       </c>
       <c r="AS112" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT112" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU112" t="n">
         <v>7</v>
@@ -20893,13 +20893,13 @@
         <v>41</v>
       </c>
       <c r="AW112" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AX112" t="n">
         <v>5.5</v>
       </c>
       <c r="AY112" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ112" t="n">
         <v>21</v>
@@ -20949,19 +20949,19 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H113" t="n">
         <v>3.5</v>
       </c>
       <c r="I113" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J113" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K113" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L113" t="n">
         <v>3.5</v>
@@ -20970,37 +20970,37 @@
         <v>1.03</v>
       </c>
       <c r="N113" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O113" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P113" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q113" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R113" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S113" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T113" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U113" t="n">
         <v>1.53</v>
       </c>
-      <c r="R113" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S113" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T113" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U113" t="n">
-        <v>1.5</v>
-      </c>
       <c r="V113" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W113" t="n">
+        <v>11</v>
+      </c>
+      <c r="X113" t="n">
         <v>12</v>
-      </c>
-      <c r="X113" t="n">
-        <v>13</v>
       </c>
       <c r="Y113" t="n">
         <v>9</v>
@@ -21012,10 +21012,10 @@
         <v>15</v>
       </c>
       <c r="AB113" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC113" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD113" t="n">
         <v>7</v>
@@ -21024,16 +21024,16 @@
         <v>11</v>
       </c>
       <c r="AF113" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG113" t="n">
         <v>101</v>
       </c>
       <c r="AH113" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI113" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ113" t="n">
         <v>12</v>
@@ -21060,13 +21060,13 @@
         <v>34</v>
       </c>
       <c r="AR113" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS113" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT113" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU113" t="n">
         <v>7</v>
@@ -21075,13 +21075,13 @@
         <v>41</v>
       </c>
       <c r="AW113" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AX113" t="n">
         <v>5.5</v>
       </c>
       <c r="AY113" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ113" t="n">
         <v>21</v>
@@ -21093,7 +21093,7 @@
         <v>51</v>
       </c>
       <c r="BC113" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD113" t="n">
         <v>151</v>
@@ -21131,22 +21131,22 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H114" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I114" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J114" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K114" t="n">
         <v>2.2</v>
       </c>
       <c r="L114" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M114" t="n">
         <v>1.05</v>
@@ -21161,10 +21161,10 @@
         <v>3.75</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R114" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S114" t="n">
         <v>1.36</v>
@@ -21179,16 +21179,16 @@
         <v>1.95</v>
       </c>
       <c r="W114" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X114" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y114" t="n">
         <v>8.5</v>
       </c>
       <c r="Z114" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA114" t="n">
         <v>15</v>
@@ -21212,19 +21212,19 @@
         <v>251</v>
       </c>
       <c r="AH114" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ114" t="n">
         <v>13</v>
       </c>
-      <c r="AI114" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ114" t="n">
-        <v>15</v>
-      </c>
       <c r="AK114" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL114" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM114" t="n">
         <v>41</v>
@@ -21233,19 +21233,19 @@
         <v>3.75</v>
       </c>
       <c r="AO114" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP114" t="n">
         <v>19</v>
       </c>
       <c r="AQ114" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR114" t="n">
         <v>51</v>
       </c>
       <c r="AS114" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT114" t="n">
         <v>3</v>
@@ -21260,13 +21260,13 @@
         <v>151</v>
       </c>
       <c r="AX114" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AY114" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ114" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA114" t="n">
         <v>81</v>
@@ -21331,10 +21331,10 @@
         <v>3.1</v>
       </c>
       <c r="M115" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N115" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O115" t="n">
         <v>1.14</v>
@@ -21343,10 +21343,10 @@
         <v>5.5</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R115" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S115" t="n">
         <v>1.29</v>
@@ -21495,16 +21495,16 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H116" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I116" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J116" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K116" t="n">
         <v>2.75</v>
@@ -21516,19 +21516,19 @@
         <v>1.02</v>
       </c>
       <c r="N116" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O116" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P116" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="R116" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="S116" t="n">
         <v>1.22</v>
@@ -21537,22 +21537,22 @@
         <v>4</v>
       </c>
       <c r="U116" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V116" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W116" t="n">
         <v>10</v>
       </c>
       <c r="X116" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y116" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z116" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA116" t="n">
         <v>10</v>
@@ -21561,10 +21561,10 @@
         <v>21</v>
       </c>
       <c r="AC116" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD116" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE116" t="n">
         <v>17</v>
@@ -21582,7 +21582,7 @@
         <v>41</v>
       </c>
       <c r="AJ116" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK116" t="n">
         <v>81</v>
@@ -21597,13 +21597,13 @@
         <v>3.6</v>
       </c>
       <c r="AO116" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AP116" t="n">
         <v>15</v>
       </c>
       <c r="AQ116" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR116" t="n">
         <v>34</v>
@@ -21624,7 +21624,7 @@
         <v>401</v>
       </c>
       <c r="AX116" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AY116" t="n">
         <v>34</v>
@@ -21633,7 +21633,7 @@
         <v>34</v>
       </c>
       <c r="BA116" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB116" t="n">
         <v>101</v>
@@ -21859,22 +21859,22 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H118" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I118" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="J118" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K118" t="n">
         <v>2.1</v>
       </c>
       <c r="L118" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M118" t="n">
         <v>1.07</v>
@@ -21901,10 +21901,10 @@
         <v>2.63</v>
       </c>
       <c r="U118" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V118" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W118" t="n">
         <v>11</v>
@@ -21913,13 +21913,13 @@
         <v>26</v>
       </c>
       <c r="Y118" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z118" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AA118" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AB118" t="n">
         <v>51</v>
@@ -21931,7 +21931,7 @@
         <v>7.5</v>
       </c>
       <c r="AE118" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF118" t="n">
         <v>81</v>
@@ -21949,7 +21949,7 @@
         <v>9</v>
       </c>
       <c r="AK118" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL118" t="n">
         <v>15</v>
@@ -21958,7 +21958,7 @@
         <v>34</v>
       </c>
       <c r="AN118" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO118" t="n">
         <v>34</v>
@@ -21967,7 +21967,7 @@
         <v>41</v>
       </c>
       <c r="AQ118" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AR118" t="n">
         <v>151</v>
@@ -22065,16 +22065,16 @@
         <v>9</v>
       </c>
       <c r="O119" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P119" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q119" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R119" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S119" t="n">
         <v>1.44</v>
@@ -23885,16 +23885,16 @@
         <v>8.5</v>
       </c>
       <c r="O129" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P129" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q129" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R129" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S129" t="n">
         <v>1.36</v>
@@ -24407,34 +24407,34 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="H132" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I132" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J132" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="K132" t="n">
         <v>2.1</v>
       </c>
       <c r="L132" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="M132" t="n">
         <v>1.07</v>
       </c>
       <c r="N132" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="O132" t="n">
         <v>1.36</v>
       </c>
       <c r="P132" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="Q132" t="n">
         <v>2.07</v>
@@ -24455,28 +24455,28 @@
         <v>1.83</v>
       </c>
       <c r="W132" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="X132" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Y132" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z132" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA132" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB132" t="n">
         <v>32</v>
       </c>
       <c r="AC132" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AD132" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE132" t="n">
         <v>16</v>
@@ -24485,40 +24485,40 @@
         <v>80</v>
       </c>
       <c r="AG132" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH132" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI132" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AJ132" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AK132" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AL132" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AM132" t="n">
         <v>45</v>
       </c>
       <c r="AN132" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="AO132" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AP132" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ132" t="n">
         <v>40</v>
       </c>
       <c r="AR132" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AS132" t="n">
         <v>300</v>
@@ -24527,25 +24527,25 @@
         <v>2.65</v>
       </c>
       <c r="AU132" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AV132" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW132" t="n">
         <v>51</v>
       </c>
       <c r="AX132" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AY132" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AZ132" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA132" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB132" t="n">
         <v>150</v>
@@ -25135,13 +25135,13 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="H136" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I136" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J136" t="n">
         <v>3.5</v>
@@ -25183,16 +25183,16 @@
         <v>2.02</v>
       </c>
       <c r="W136" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="X136" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y136" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Z136" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AA136" t="n">
         <v>26</v>
@@ -25216,28 +25216,28 @@
         <v>450</v>
       </c>
       <c r="AH136" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AI136" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ136" t="n">
         <v>9</v>
       </c>
       <c r="AK136" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL136" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AM136" t="n">
         <v>28</v>
       </c>
       <c r="AN136" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AO136" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AP136" t="n">
         <v>21</v>
@@ -25255,7 +25255,7 @@
         <v>2.8</v>
       </c>
       <c r="AU136" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AV136" t="n">
         <v>50</v>
@@ -25276,7 +25276,7 @@
         <v>50</v>
       </c>
       <c r="BB136" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BC136" t="n">
         <v>200</v>
@@ -25499,64 +25499,64 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H138" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I138" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J138" t="n">
         <v>3</v>
       </c>
-      <c r="J138" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K138" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L138" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M138" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N138" t="n">
+        <v>9</v>
+      </c>
+      <c r="O138" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P138" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q138" t="n">
         <v>2.1</v>
       </c>
-      <c r="L138" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M138" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N138" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O138" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P138" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q138" t="n">
-        <v>2.03</v>
-      </c>
       <c r="R138" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S138" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T138" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U138" t="n">
         <v>1.83</v>
       </c>
-      <c r="S138" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T138" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U138" t="n">
-        <v>1.73</v>
-      </c>
       <c r="V138" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W138" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X138" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y138" t="n">
         <v>9.5</v>
       </c>
       <c r="Z138" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA138" t="n">
         <v>19</v>
@@ -25565,40 +25565,40 @@
         <v>29</v>
       </c>
       <c r="AC138" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD138" t="n">
         <v>6</v>
       </c>
       <c r="AE138" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF138" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG138" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AH138" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI138" t="n">
         <v>15</v>
       </c>
       <c r="AJ138" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK138" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL138" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM138" t="n">
         <v>34</v>
       </c>
       <c r="AN138" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO138" t="n">
         <v>13</v>
@@ -25613,10 +25613,10 @@
         <v>67</v>
       </c>
       <c r="AS138" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT138" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU138" t="n">
         <v>8</v>
@@ -25634,16 +25634,16 @@
         <v>17</v>
       </c>
       <c r="AZ138" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA138" t="n">
         <v>51</v>
       </c>
       <c r="BB138" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC138" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD138" t="n">
         <v>51</v>
@@ -25863,100 +25863,100 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H140" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="I140" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J140" t="n">
         <v>3.5</v>
       </c>
       <c r="K140" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L140" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M140" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="N140" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O140" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="P140" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q140" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="R140" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="S140" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="T140" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="U140" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V140" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="W140" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X140" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y140" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z140" t="n">
         <v>26</v>
       </c>
       <c r="AA140" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB140" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC140" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD140" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE140" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF140" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG140" t="n">
         <v>1250</v>
       </c>
       <c r="AH140" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI140" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ140" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK140" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL140" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM140" t="n">
         <v>51</v>
@@ -25980,31 +25980,31 @@
         <v>351</v>
       </c>
       <c r="AT140" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU140" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV140" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW140" t="n">
         <v>81</v>
       </c>
       <c r="AX140" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY140" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ140" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA140" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB140" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC140" t="n">
         <v>351</v>
@@ -26227,64 +26227,64 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H142" t="n">
         <v>3.5</v>
       </c>
       <c r="I142" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J142" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K142" t="n">
         <v>2.25</v>
       </c>
       <c r="L142" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M142" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N142" t="n">
+        <v>11</v>
+      </c>
+      <c r="O142" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P142" t="n">
         <v>3.5</v>
       </c>
-      <c r="M142" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N142" t="n">
-        <v>13</v>
-      </c>
-      <c r="O142" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P142" t="n">
-        <v>4</v>
-      </c>
       <c r="Q142" t="n">
-        <v>1.73</v>
+        <v>1.93</v>
       </c>
       <c r="R142" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="S142" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T142" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U142" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V142" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W142" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="X142" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y142" t="n">
         <v>9</v>
       </c>
       <c r="Z142" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA142" t="n">
         <v>17</v>
@@ -26293,7 +26293,7 @@
         <v>23</v>
       </c>
       <c r="AC142" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD142" t="n">
         <v>7</v>
@@ -26308,31 +26308,31 @@
         <v>151</v>
       </c>
       <c r="AH142" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI142" t="n">
         <v>17</v>
       </c>
       <c r="AJ142" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK142" t="n">
         <v>34</v>
       </c>
       <c r="AL142" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM142" t="n">
         <v>29</v>
       </c>
       <c r="AN142" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO142" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP142" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ142" t="n">
         <v>41</v>
@@ -26344,22 +26344,22 @@
         <v>126</v>
       </c>
       <c r="AT142" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU142" t="n">
         <v>7.5</v>
       </c>
       <c r="AV142" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW142" t="n">
         <v>81</v>
       </c>
       <c r="AX142" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY142" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ142" t="n">
         <v>23</v>
@@ -26409,13 +26409,13 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H143" t="n">
         <v>3.3</v>
       </c>
       <c r="I143" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J143" t="n">
         <v>3</v>
@@ -26439,10 +26439,10 @@
         <v>3.75</v>
       </c>
       <c r="Q143" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R143" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S143" t="n">
         <v>1.36</v>
@@ -26466,7 +26466,7 @@
         <v>9.5</v>
       </c>
       <c r="Z143" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA143" t="n">
         <v>19</v>
@@ -26490,7 +26490,7 @@
         <v>151</v>
       </c>
       <c r="AH143" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI143" t="n">
         <v>15</v>
@@ -26499,7 +26499,7 @@
         <v>11</v>
       </c>
       <c r="AK143" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL143" t="n">
         <v>23</v>
@@ -26591,22 +26591,22 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="H144" t="n">
         <v>3.3</v>
       </c>
       <c r="I144" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="J144" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K144" t="n">
         <v>2.2</v>
       </c>
       <c r="L144" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="M144" t="n">
         <v>1.05</v>
@@ -26639,28 +26639,28 @@
         <v>2.05</v>
       </c>
       <c r="W144" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="X144" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y144" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC144" t="n">
         <v>11</v>
       </c>
-      <c r="Z144" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA144" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB144" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC144" t="n">
-        <v>10</v>
-      </c>
       <c r="AD144" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE144" t="n">
         <v>13</v>
@@ -26672,31 +26672,31 @@
         <v>201</v>
       </c>
       <c r="AH144" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ144" t="n">
         <v>9</v>
       </c>
-      <c r="AI144" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ144" t="n">
-        <v>10</v>
-      </c>
       <c r="AK144" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL144" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AM144" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN144" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO144" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP144" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ144" t="n">
         <v>51</v>
@@ -26717,28 +26717,28 @@
         <v>51</v>
       </c>
       <c r="AW144" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AX144" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY144" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ144" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA144" t="n">
         <v>41</v>
       </c>
       <c r="BB144" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC144" t="n">
         <v>151</v>
       </c>
       <c r="BD144" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="145">
@@ -26997,7 +26997,7 @@
         <v>3.5</v>
       </c>
       <c r="U146" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V146" t="n">
         <v>2</v>
@@ -27137,16 +27137,16 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H147" t="n">
         <v>3.6</v>
       </c>
       <c r="I147" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J147" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K147" t="n">
         <v>2.38</v>
@@ -27173,16 +27173,16 @@
         <v>2.3</v>
       </c>
       <c r="S147" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T147" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U147" t="n">
         <v>1.5</v>
       </c>
       <c r="V147" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="W147" t="n">
         <v>11</v>
@@ -27203,13 +27203,13 @@
         <v>21</v>
       </c>
       <c r="AC147" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD147" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE147" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF147" t="n">
         <v>34</v>
@@ -27248,13 +27248,13 @@
         <v>34</v>
       </c>
       <c r="AR147" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS147" t="n">
         <v>101</v>
       </c>
       <c r="AT147" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU147" t="n">
         <v>7</v>
@@ -27281,7 +27281,7 @@
         <v>51</v>
       </c>
       <c r="BC147" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD147" t="n">
         <v>81</v>
@@ -27349,10 +27349,10 @@
         <v>4.33</v>
       </c>
       <c r="Q148" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R148" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S148" t="n">
         <v>1.3</v>
@@ -27361,7 +27361,7 @@
         <v>3.4</v>
       </c>
       <c r="U148" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V148" t="n">
         <v>2</v>
@@ -27501,28 +27501,28 @@
         </is>
       </c>
       <c r="G149" t="n">
+        <v>6</v>
+      </c>
+      <c r="H149" t="n">
+        <v>4</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J149" t="n">
         <v>5.5</v>
-      </c>
-      <c r="H149" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="J149" t="n">
-        <v>5</v>
       </c>
       <c r="K149" t="n">
         <v>2.38</v>
       </c>
       <c r="L149" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M149" t="n">
         <v>1.04</v>
       </c>
       <c r="N149" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O149" t="n">
         <v>1.2</v>
@@ -27531,10 +27531,10 @@
         <v>4.33</v>
       </c>
       <c r="Q149" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R149" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S149" t="n">
         <v>1.33</v>
@@ -27543,7 +27543,7 @@
         <v>3.25</v>
       </c>
       <c r="U149" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V149" t="n">
         <v>2</v>
@@ -27552,10 +27552,10 @@
         <v>17</v>
       </c>
       <c r="X149" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y149" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z149" t="n">
         <v>51</v>
@@ -27567,7 +27567,7 @@
         <v>41</v>
       </c>
       <c r="AC149" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD149" t="n">
         <v>7.5</v>
@@ -27576,7 +27576,7 @@
         <v>15</v>
       </c>
       <c r="AF149" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG149" t="n">
         <v>201</v>
@@ -27585,16 +27585,16 @@
         <v>8</v>
       </c>
       <c r="AI149" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ149" t="n">
         <v>8.5</v>
       </c>
       <c r="AK149" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL149" t="n">
         <v>12</v>
-      </c>
-      <c r="AL149" t="n">
-        <v>13</v>
       </c>
       <c r="AM149" t="n">
         <v>23</v>
@@ -27603,13 +27603,13 @@
         <v>7</v>
       </c>
       <c r="AO149" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP149" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ149" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR149" t="n">
         <v>101</v>
@@ -27630,10 +27630,10 @@
         <v>81</v>
       </c>
       <c r="AX149" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AY149" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AZ149" t="n">
         <v>17</v>
@@ -27683,22 +27683,22 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H150" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I150" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J150" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K150" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L150" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M150" t="n">
         <v>1.06</v>
@@ -27707,16 +27707,16 @@
         <v>10</v>
       </c>
       <c r="O150" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P150" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q150" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R150" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S150" t="n">
         <v>1.44</v>
@@ -27746,10 +27746,10 @@
         <v>19</v>
       </c>
       <c r="AB150" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC150" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD150" t="n">
         <v>6.5</v>
@@ -27764,7 +27764,7 @@
         <v>301</v>
       </c>
       <c r="AH150" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI150" t="n">
         <v>15</v>
@@ -27785,7 +27785,7 @@
         <v>4.33</v>
       </c>
       <c r="AO150" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP150" t="n">
         <v>23</v>
@@ -27797,13 +27797,13 @@
         <v>67</v>
       </c>
       <c r="AS150" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT150" t="n">
         <v>2.63</v>
       </c>
       <c r="AU150" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV150" t="n">
         <v>51</v>
@@ -27821,7 +27821,7 @@
         <v>29</v>
       </c>
       <c r="BA150" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB150" t="n">
         <v>81</v>
@@ -27877,46 +27877,46 @@
         <v>2</v>
       </c>
       <c r="K151" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L151" t="n">
         <v>6</v>
       </c>
       <c r="M151" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N151" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O151" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P151" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q151" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="R151" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S151" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T151" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U151" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V151" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W151" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X151" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y151" t="n">
         <v>8.5</v>
@@ -27928,22 +27928,22 @@
         <v>12</v>
       </c>
       <c r="AB151" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC151" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD151" t="n">
         <v>9.5</v>
       </c>
       <c r="AE151" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF151" t="n">
         <v>51</v>
       </c>
       <c r="AG151" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH151" t="n">
         <v>15</v>
@@ -27967,10 +27967,10 @@
         <v>3.5</v>
       </c>
       <c r="AO151" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP151" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ151" t="n">
         <v>21</v>
@@ -27979,10 +27979,10 @@
         <v>41</v>
       </c>
       <c r="AS151" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT151" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU151" t="n">
         <v>8.5</v>
@@ -27997,19 +27997,19 @@
         <v>7.5</v>
       </c>
       <c r="AY151" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ151" t="n">
         <v>34</v>
       </c>
       <c r="BA151" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB151" t="n">
         <v>126</v>
       </c>
       <c r="BC151" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD151" t="n">
         <v>301</v>
@@ -28047,28 +28047,28 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="H152" t="n">
         <v>3.4</v>
       </c>
       <c r="I152" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="J152" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K152" t="n">
         <v>2.25</v>
       </c>
       <c r="L152" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M152" t="n">
         <v>1.04</v>
       </c>
       <c r="N152" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O152" t="n">
         <v>1.22</v>
@@ -28095,16 +28095,16 @@
         <v>2.2</v>
       </c>
       <c r="W152" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X152" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y152" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z152" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA152" t="n">
         <v>17</v>
@@ -28128,28 +28128,28 @@
         <v>151</v>
       </c>
       <c r="AH152" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI152" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ152" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK152" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL152" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM152" t="n">
         <v>29</v>
       </c>
       <c r="AN152" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO152" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP152" t="n">
         <v>21</v>
@@ -28176,10 +28176,10 @@
         <v>251</v>
       </c>
       <c r="AX152" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY152" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ152" t="n">
         <v>23</v>
@@ -28229,40 +28229,40 @@
         </is>
       </c>
       <c r="G153" t="n">
+        <v>4</v>
+      </c>
+      <c r="H153" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J153" t="n">
         <v>4.33</v>
       </c>
-      <c r="H153" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J153" t="n">
-        <v>4.75</v>
-      </c>
       <c r="K153" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L153" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M153" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N153" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O153" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P153" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q153" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R153" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S153" t="n">
         <v>1.4</v>
@@ -28277,13 +28277,13 @@
         <v>1.83</v>
       </c>
       <c r="W153" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X153" t="n">
         <v>21</v>
       </c>
       <c r="Y153" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z153" t="n">
         <v>41</v>
@@ -28295,10 +28295,10 @@
         <v>41</v>
       </c>
       <c r="AC153" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD153" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE153" t="n">
         <v>15</v>
@@ -28313,31 +28313,31 @@
         <v>7</v>
       </c>
       <c r="AI153" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ153" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK153" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL153" t="n">
         <v>15</v>
       </c>
       <c r="AM153" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN153" t="n">
         <v>6</v>
       </c>
       <c r="AO153" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP153" t="n">
         <v>29</v>
       </c>
       <c r="AQ153" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR153" t="n">
         <v>101</v>
@@ -28358,10 +28358,10 @@
         <v>276</v>
       </c>
       <c r="AX153" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AY153" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AZ153" t="n">
         <v>21</v>
@@ -28411,22 +28411,22 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H154" t="n">
         <v>3</v>
       </c>
       <c r="I154" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="J154" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K154" t="n">
         <v>2.05</v>
       </c>
       <c r="L154" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M154" t="n">
         <v>1.07</v>
@@ -28459,19 +28459,19 @@
         <v>1.83</v>
       </c>
       <c r="W154" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X154" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y154" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z154" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA154" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB154" t="n">
         <v>29</v>
@@ -28492,19 +28492,19 @@
         <v>301</v>
       </c>
       <c r="AH154" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI154" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ154" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK154" t="n">
         <v>41</v>
       </c>
       <c r="AL154" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM154" t="n">
         <v>41</v>
@@ -28513,7 +28513,7 @@
         <v>4</v>
       </c>
       <c r="AO154" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP154" t="n">
         <v>23</v>
@@ -28546,7 +28546,7 @@
         <v>21</v>
       </c>
       <c r="AZ154" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA154" t="n">
         <v>67</v>
@@ -28981,16 +28981,16 @@
         <v>11</v>
       </c>
       <c r="O157" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P157" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q157" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R157" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S157" t="n">
         <v>1.4</v>
@@ -29139,145 +29139,145 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H158" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="I158" t="n">
         <v>4.9</v>
       </c>
       <c r="J158" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="K158" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="L158" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="M158" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N158" t="n">
-        <v>8.5</v>
+        <v>11.4</v>
       </c>
       <c r="O158" t="n">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="P158" t="n">
-        <v>2.62</v>
+        <v>3.05</v>
       </c>
       <c r="Q158" t="n">
-        <v>2.07</v>
+        <v>1.88</v>
       </c>
       <c r="R158" t="n">
-        <v>1.6</v>
+        <v>1.82</v>
       </c>
       <c r="S158" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="T158" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="U158" t="n">
-        <v>2.07</v>
+        <v>1.88</v>
       </c>
       <c r="V158" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="W158" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="X158" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="Y158" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z158" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AA158" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB158" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AC158" t="n">
-        <v>8.25</v>
+        <v>10.25</v>
       </c>
       <c r="AD158" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AE158" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AF158" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AG158" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="AH158" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI158" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AJ158" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK158" t="n">
         <v>90</v>
       </c>
       <c r="AL158" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM158" t="n">
         <v>60</v>
       </c>
-      <c r="AM158" t="n">
-        <v>75</v>
-      </c>
       <c r="AN158" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AO158" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU158" t="n">
         <v>8</v>
       </c>
-      <c r="AP158" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ158" t="n">
-        <v>28</v>
-      </c>
-      <c r="AR158" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS158" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT158" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AU158" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AV158" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AW158" t="n">
         <v>81</v>
       </c>
       <c r="AX158" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AY158" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ158" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="BA158" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BB158" t="n">
         <v>250</v>
@@ -29867,13 +29867,13 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H162" t="n">
         <v>3</v>
       </c>
       <c r="I162" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="J162" t="n">
         <v>3.75</v>
@@ -29882,7 +29882,7 @@
         <v>1.95</v>
       </c>
       <c r="L162" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M162" t="n">
         <v>1.1</v>
@@ -29951,7 +29951,7 @@
         <v>6.5</v>
       </c>
       <c r="AI162" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ162" t="n">
         <v>10</v>
@@ -29960,10 +29960,10 @@
         <v>23</v>
       </c>
       <c r="AL162" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM162" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN162" t="n">
         <v>5</v>
@@ -29987,7 +29987,7 @@
         <v>2.38</v>
       </c>
       <c r="AU162" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV162" t="n">
         <v>67</v>
@@ -30378,734 +30378,6 @@
         <v>201</v>
       </c>
       <c r="BD164" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>dvMF7vwf</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>19/10/2024</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>Monterey Bay</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Colorado Springs</t>
-        </is>
-      </c>
-      <c r="G165" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H165" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I165" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J165" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K165" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L165" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="M165" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N165" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="O165" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P165" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q165" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R165" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S165" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T165" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="U165" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V165" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W165" t="n">
-        <v>10</v>
-      </c>
-      <c r="X165" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y165" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z165" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA165" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB165" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC165" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD165" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AE165" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF165" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG165" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH165" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI165" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ165" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AK165" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL165" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AM165" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN165" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AO165" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AP165" t="n">
-        <v>24</v>
-      </c>
-      <c r="AQ165" t="n">
-        <v>90</v>
-      </c>
-      <c r="AR165" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS165" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT165" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AU165" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AV165" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW165" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX165" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AY165" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AZ165" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="BA165" t="n">
-        <v>45</v>
-      </c>
-      <c r="BB165" t="n">
-        <v>80</v>
-      </c>
-      <c r="BC165" t="n">
-        <v>250</v>
-      </c>
-      <c r="BD165" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>v3BK6bh0</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>19/10/2024</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>Orange County SC</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>New Mexico</t>
-        </is>
-      </c>
-      <c r="G166" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="H166" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="J166" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K166" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L166" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M166" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N166" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O166" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P166" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="Q166" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="R166" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S166" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T166" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="U166" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V166" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="W166" t="n">
-        <v>7</v>
-      </c>
-      <c r="X166" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y166" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Z166" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA166" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB166" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC166" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD166" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AE166" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF166" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG166" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH166" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AI166" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AJ166" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AK166" t="n">
-        <v>37</v>
-      </c>
-      <c r="AL166" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM166" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN166" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AO166" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP166" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ166" t="n">
-        <v>50</v>
-      </c>
-      <c r="AR166" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS166" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT166" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AU166" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV166" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW166" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX166" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AY166" t="n">
-        <v>16</v>
-      </c>
-      <c r="AZ166" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA166" t="n">
-        <v>75</v>
-      </c>
-      <c r="BB166" t="n">
-        <v>110</v>
-      </c>
-      <c r="BC166" t="n">
-        <v>300</v>
-      </c>
-      <c r="BD166" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>lEI7908s</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>19/10/2024</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>23:30</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>Las Vegas Lights</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Oakland Roots</t>
-        </is>
-      </c>
-      <c r="G167" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="H167" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I167" t="n">
-        <v>5</v>
-      </c>
-      <c r="J167" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K167" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="L167" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="M167" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N167" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="O167" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P167" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="Q167" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R167" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S167" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T167" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="U167" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V167" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="W167" t="n">
-        <v>8</v>
-      </c>
-      <c r="X167" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Y167" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z167" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA167" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB167" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC167" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD167" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AE167" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF167" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG167" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH167" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI167" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ167" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AK167" t="n">
-        <v>100</v>
-      </c>
-      <c r="AL167" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM167" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN167" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO167" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP167" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ167" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR167" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS167" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT167" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AU167" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AV167" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW167" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX167" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AY167" t="n">
-        <v>30</v>
-      </c>
-      <c r="AZ167" t="n">
-        <v>32</v>
-      </c>
-      <c r="BA167" t="n">
-        <v>175</v>
-      </c>
-      <c r="BB167" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC167" t="n">
-        <v>400</v>
-      </c>
-      <c r="BD167" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>IgAO5I76</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>19/10/2024</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>23:30</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>Phoenix Rising</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Memphis</t>
-        </is>
-      </c>
-      <c r="G168" t="n">
-        <v>2</v>
-      </c>
-      <c r="H168" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I168" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J168" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="K168" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L168" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="M168" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N168" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="O168" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P168" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q168" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R168" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S168" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T168" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="U168" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V168" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="W168" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="X168" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Y168" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z168" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA168" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB168" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC168" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AD168" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE168" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF168" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG168" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH168" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AI168" t="n">
-        <v>18</v>
-      </c>
-      <c r="AJ168" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK168" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL168" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM168" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN168" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AO168" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP168" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ168" t="n">
-        <v>37</v>
-      </c>
-      <c r="AR168" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS168" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT168" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AU168" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AV168" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW168" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX168" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AY168" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AZ168" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA168" t="n">
-        <v>100</v>
-      </c>
-      <c r="BB168" t="n">
-        <v>150</v>
-      </c>
-      <c r="BC168" t="n">
-        <v>350</v>
-      </c>
-      <c r="BD168" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-20.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="H2" t="n">
         <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="J2" t="n">
         <v>7.5</v>
@@ -768,13 +768,13 @@
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O2" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q2" t="n">
         <v>1.44</v>
@@ -804,7 +804,7 @@
         <v>26</v>
       </c>
       <c r="Z2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AA2" t="n">
         <v>51</v>
@@ -837,16 +837,16 @@
         <v>10</v>
       </c>
       <c r="AK2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AL2" t="n">
         <v>11</v>
       </c>
       <c r="AM2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO2" t="n">
         <v>41</v>
@@ -894,7 +894,7 @@
         <v>81</v>
       </c>
       <c r="BD2" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3">
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H3" t="n">
         <v>4.75</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
@@ -950,7 +950,7 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O3" t="n">
         <v>1.1</v>
@@ -965,10 +965,10 @@
         <v>3.4</v>
       </c>
       <c r="S3" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="T3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="U3" t="n">
         <v>1.4</v>
@@ -977,7 +977,7 @@
         <v>2.75</v>
       </c>
       <c r="W3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X3" t="n">
         <v>13</v>
@@ -986,7 +986,7 @@
         <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
         <v>12</v>
@@ -995,19 +995,19 @@
         <v>17</v>
       </c>
       <c r="AC3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
         <v>34</v>
       </c>
       <c r="AG3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AH3" t="n">
         <v>26</v>
@@ -1034,10 +1034,10 @@
         <v>7.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR3" t="n">
         <v>29</v>
@@ -1046,7 +1046,7 @@
         <v>67</v>
       </c>
       <c r="AT3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AU3" t="n">
         <v>7</v>
@@ -1061,7 +1061,7 @@
         <v>7.5</v>
       </c>
       <c r="AY3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ3" t="n">
         <v>21</v>
@@ -1070,7 +1070,7 @@
         <v>67</v>
       </c>
       <c r="BB3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC3" t="n">
         <v>101</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J4" t="n">
         <v>4.33</v>
@@ -1129,22 +1129,22 @@
         <v>2.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S4" t="n">
         <v>1.33</v>
@@ -1153,10 +1153,10 @@
         <v>3.25</v>
       </c>
       <c r="U4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
         <v>15</v>
@@ -1207,7 +1207,7 @@
         <v>13</v>
       </c>
       <c r="AM4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN4" t="n">
         <v>6</v>
@@ -1228,16 +1228,16 @@
         <v>151</v>
       </c>
       <c r="AT4" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU4" t="n">
         <v>7.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW4" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AX4" t="n">
         <v>4</v>
@@ -1246,16 +1246,16 @@
         <v>9.5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BB4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1299,16 +1299,16 @@
         <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
         <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
@@ -1353,16 +1353,16 @@
         <v>34</v>
       </c>
       <c r="AA5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="n">
         <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
         <v>12</v>
@@ -1374,7 +1374,7 @@
         <v>126</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI5" t="n">
         <v>12</v>
@@ -1395,7 +1395,7 @@
         <v>5</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP5" t="n">
         <v>21</v>
@@ -1404,7 +1404,7 @@
         <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS5" t="n">
         <v>126</v>
@@ -1413,13 +1413,13 @@
         <v>3.25</v>
       </c>
       <c r="AU5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV5" t="n">
         <v>41</v>
       </c>
       <c r="AW5" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AX5" t="n">
         <v>4.5</v>
@@ -1437,7 +1437,7 @@
         <v>51</v>
       </c>
       <c r="BC5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
         <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
@@ -1499,10 +1499,10 @@
         <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
         <v>2.2</v>
@@ -1511,10 +1511,10 @@
         <v>1.67</v>
       </c>
       <c r="S6" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U6" t="n">
         <v>1.91</v>
@@ -1523,22 +1523,22 @@
         <v>1.91</v>
       </c>
       <c r="W6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB6" t="n">
         <v>34</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>41</v>
       </c>
       <c r="AC6" t="n">
         <v>8</v>
@@ -1556,31 +1556,31 @@
         <v>301</v>
       </c>
       <c r="AH6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL6" t="n">
         <v>23</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>21</v>
       </c>
       <c r="AM6" t="n">
         <v>34</v>
       </c>
       <c r="AN6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO6" t="n">
         <v>17</v>
       </c>
       <c r="AP6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ6" t="n">
         <v>51</v>
@@ -1592,7 +1592,7 @@
         <v>201</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU6" t="n">
         <v>8</v>
@@ -1604,19 +1604,19 @@
         <v>126</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC6" t="n">
         <v>201</v>
@@ -1783,7 +1783,7 @@
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX7" t="n">
         <v>7.5</v>
@@ -2024,7 +2024,7 @@
         <v>3.4</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
         <v>2.15</v>
@@ -2033,7 +2033,7 @@
         <v>3.75</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L9" t="n">
         <v>2.75</v>
@@ -2051,10 +2051,10 @@
         <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="R9" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
         <v>1.36</v>
@@ -2063,16 +2063,16 @@
         <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V9" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y9" t="n">
         <v>12</v>
@@ -2084,10 +2084,10 @@
         <v>26</v>
       </c>
       <c r="AB9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD9" t="n">
         <v>6.5</v>
@@ -2102,7 +2102,7 @@
         <v>151</v>
       </c>
       <c r="AH9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI9" t="n">
         <v>11</v>
@@ -2153,7 +2153,7 @@
         <v>4.33</v>
       </c>
       <c r="AY9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ9" t="n">
         <v>21</v>
@@ -2385,16 +2385,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K11" t="n">
         <v>2.2</v>
@@ -2415,10 +2415,10 @@
         <v>3.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R11" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S11" t="n">
         <v>1.4</v>
@@ -2433,7 +2433,7 @@
         <v>1.75</v>
       </c>
       <c r="W11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X11" t="n">
         <v>29</v>
@@ -2445,16 +2445,16 @@
         <v>67</v>
       </c>
       <c r="AA11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AB11" t="n">
         <v>51</v>
       </c>
       <c r="AC11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" t="n">
         <v>17</v>
@@ -2463,7 +2463,7 @@
         <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH11" t="n">
         <v>6.5</v>
@@ -2493,10 +2493,10 @@
         <v>41</v>
       </c>
       <c r="AQ11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR11" t="n">
         <v>126</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>151</v>
       </c>
       <c r="AS11" t="n">
         <v>301</v>
@@ -2567,13 +2567,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H12" t="n">
         <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J12" t="n">
         <v>3.75</v>
@@ -2582,13 +2582,13 @@
         <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
         <v>1.33</v>
@@ -2597,31 +2597,31 @@
         <v>3.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="R12" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="S12" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T12" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U12" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V12" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W12" t="n">
         <v>10</v>
       </c>
       <c r="X12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z12" t="n">
         <v>34</v>
@@ -2633,13 +2633,13 @@
         <v>34</v>
       </c>
       <c r="AC12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF12" t="n">
         <v>51</v>
@@ -2648,13 +2648,13 @@
         <v>251</v>
       </c>
       <c r="AH12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK12" t="n">
         <v>21</v>
@@ -2669,7 +2669,7 @@
         <v>5</v>
       </c>
       <c r="AO12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP12" t="n">
         <v>26</v>
@@ -2684,7 +2684,7 @@
         <v>201</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU12" t="n">
         <v>8</v>
@@ -2699,7 +2699,7 @@
         <v>4.33</v>
       </c>
       <c r="AY12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ12" t="n">
         <v>23</v>
@@ -2931,16 +2931,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H14" t="n">
         <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J14" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
         <v>2.05</v>
@@ -2991,7 +2991,7 @@
         <v>21</v>
       </c>
       <c r="AA14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB14" t="n">
         <v>29</v>
@@ -3009,13 +3009,13 @@
         <v>51</v>
       </c>
       <c r="AG14" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH14" t="n">
         <v>9.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ14" t="n">
         <v>12</v>
@@ -3063,7 +3063,7 @@
         <v>5</v>
       </c>
       <c r="AY14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ14" t="n">
         <v>29</v>
@@ -3078,7 +3078,7 @@
         <v>201</v>
       </c>
       <c r="BD14" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
@@ -3131,10 +3131,10 @@
         <v>2.4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O15" t="n">
         <v>1.25</v>
@@ -3295,16 +3295,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H16" t="n">
         <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K16" t="n">
         <v>2.05</v>
@@ -3331,10 +3331,10 @@
         <v>1.65</v>
       </c>
       <c r="S16" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T16" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U16" t="n">
         <v>1.95</v>
@@ -3355,16 +3355,16 @@
         <v>21</v>
       </c>
       <c r="AA16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB16" t="n">
         <v>34</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -3376,7 +3376,7 @@
         <v>351</v>
       </c>
       <c r="AH16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI16" t="n">
         <v>15</v>
@@ -3400,7 +3400,7 @@
         <v>13</v>
       </c>
       <c r="AP16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ16" t="n">
         <v>41</v>
@@ -3412,10 +3412,10 @@
         <v>201</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV16" t="n">
         <v>51</v>
@@ -3433,16 +3433,16 @@
         <v>29</v>
       </c>
       <c r="BA16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB16" t="n">
         <v>81</v>
       </c>
       <c r="BC16" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD16" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
@@ -3477,22 +3477,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H17" t="n">
         <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J17" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K17" t="n">
         <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
@@ -3525,7 +3525,7 @@
         <v>2</v>
       </c>
       <c r="W17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X17" t="n">
         <v>13</v>
@@ -3534,7 +3534,7 @@
         <v>10</v>
       </c>
       <c r="Z17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA17" t="n">
         <v>21</v>
@@ -3561,13 +3561,13 @@
         <v>9</v>
       </c>
       <c r="AI17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ17" t="n">
         <v>10</v>
       </c>
       <c r="AK17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL17" t="n">
         <v>21</v>
@@ -3609,7 +3609,7 @@
         <v>4.5</v>
       </c>
       <c r="AY17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ17" t="n">
         <v>23</v>
@@ -3659,13 +3659,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H18" t="n">
         <v>5.25</v>
       </c>
       <c r="I18" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="J18" t="n">
         <v>6.5</v>
@@ -3746,7 +3746,7 @@
         <v>8</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK18" t="n">
         <v>10</v>
@@ -3847,22 +3847,22 @@
         <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K19" t="n">
         <v>2.25</v>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O19" t="n">
         <v>1.25</v>
@@ -3871,10 +3871,10 @@
         <v>3.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="R19" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="S19" t="n">
         <v>1.36</v>
@@ -3883,16 +3883,16 @@
         <v>3</v>
       </c>
       <c r="U19" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V19" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W19" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y19" t="n">
         <v>8.5</v>
@@ -3907,7 +3907,7 @@
         <v>23</v>
       </c>
       <c r="AC19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD19" t="n">
         <v>6.5</v>
@@ -3919,7 +3919,7 @@
         <v>41</v>
       </c>
       <c r="AG19" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH19" t="n">
         <v>13</v>
@@ -4032,7 +4032,7 @@
         <v>3.9</v>
       </c>
       <c r="J20" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
         <v>1.91</v>
@@ -4226,7 +4226,7 @@
         <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O21" t="n">
         <v>1.33</v>
@@ -4247,10 +4247,10 @@
         <v>2.75</v>
       </c>
       <c r="U21" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V21" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W21" t="n">
         <v>5.5</v>
@@ -4259,7 +4259,7 @@
         <v>5.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z21" t="n">
         <v>8</v>
@@ -4268,16 +4268,16 @@
         <v>13</v>
       </c>
       <c r="AB21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF21" t="n">
         <v>101</v>
@@ -6046,7 +6046,7 @@
         <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O31" t="n">
         <v>1.18</v>
@@ -6055,10 +6055,10 @@
         <v>4.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R31" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S31" t="n">
         <v>1.3</v>
@@ -6389,22 +6389,22 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="H33" t="n">
         <v>5</v>
       </c>
       <c r="I33" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J33" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K33" t="n">
         <v>2.6</v>
       </c>
       <c r="L33" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M33" t="n">
         <v>1.02</v>
@@ -6431,22 +6431,22 @@
         <v>3.75</v>
       </c>
       <c r="U33" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V33" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W33" t="n">
         <v>10</v>
       </c>
       <c r="X33" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y33" t="n">
         <v>8.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA33" t="n">
         <v>11</v>
@@ -6467,10 +6467,10 @@
         <v>41</v>
       </c>
       <c r="AG33" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI33" t="n">
         <v>29</v>
@@ -6485,10 +6485,10 @@
         <v>34</v>
       </c>
       <c r="AM33" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN33" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO33" t="n">
         <v>7.5</v>
@@ -6518,10 +6518,10 @@
         <v>351</v>
       </c>
       <c r="AX33" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY33" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ33" t="n">
         <v>26</v>
@@ -6533,7 +6533,7 @@
         <v>81</v>
       </c>
       <c r="BC33" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD33" t="n">
         <v>151</v>
@@ -6571,22 +6571,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="H34" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I34" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L34" t="n">
         <v>4.1</v>
-      </c>
-      <c r="J34" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K34" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L34" t="n">
-        <v>4.35</v>
       </c>
       <c r="M34" t="n">
         <v>1.04</v>
@@ -6595,7 +6595,7 @@
         <v>8.25</v>
       </c>
       <c r="O34" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P34" t="n">
         <v>3.8</v>
@@ -6607,16 +6607,16 @@
         <v>2.07</v>
       </c>
       <c r="S34" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="T34" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="U34" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="V34" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="W34" t="n">
         <v>8.5</v>
@@ -6625,52 +6625,52 @@
         <v>9.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z34" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA34" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC34" t="n">
         <v>8.25</v>
       </c>
       <c r="AD34" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AE34" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG34" t="n">
         <v>350</v>
       </c>
       <c r="AH34" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AI34" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AJ34" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK34" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AL34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM34" t="n">
         <v>35</v>
       </c>
-      <c r="AM34" t="n">
-        <v>37</v>
-      </c>
       <c r="AN34" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AO34" t="n">
         <v>8.75</v>
@@ -6688,10 +6688,10 @@
         <v>175</v>
       </c>
       <c r="AT34" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AU34" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV34" t="n">
         <v>50</v>
@@ -6700,22 +6700,22 @@
         <v>81</v>
       </c>
       <c r="AX34" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AY34" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AZ34" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BA34" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB34" t="n">
         <v>120</v>
       </c>
-      <c r="BB34" t="n">
-        <v>150</v>
-      </c>
       <c r="BC34" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BD34" t="n">
         <v>81</v>
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H35" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I35" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J35" t="n">
         <v>1.91</v>
       </c>
       <c r="K35" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L35" t="n">
         <v>6</v>
@@ -6774,7 +6774,7 @@
         <v>1.03</v>
       </c>
       <c r="N35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O35" t="n">
         <v>1.17</v>
@@ -6783,16 +6783,16 @@
         <v>5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R35" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S35" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T35" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U35" t="n">
         <v>1.7</v>
@@ -6810,7 +6810,7 @@
         <v>8.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA35" t="n">
         <v>11</v>
@@ -6819,10 +6819,10 @@
         <v>21</v>
       </c>
       <c r="AC35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD35" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE35" t="n">
         <v>15</v>
@@ -6843,7 +6843,7 @@
         <v>21</v>
       </c>
       <c r="AK35" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL35" t="n">
         <v>41</v>
@@ -6870,7 +6870,7 @@
         <v>101</v>
       </c>
       <c r="AT35" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU35" t="n">
         <v>8</v>
@@ -6885,10 +6885,10 @@
         <v>8</v>
       </c>
       <c r="AY35" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ35" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA35" t="n">
         <v>101</v>
@@ -6953,22 +6953,22 @@
         <v>2.88</v>
       </c>
       <c r="M36" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O36" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P36" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="R36" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="S36" t="n">
         <v>1.36</v>
@@ -7117,28 +7117,28 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H37" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I37" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J37" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K37" t="n">
         <v>2.05</v>
       </c>
       <c r="L37" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M37" t="n">
         <v>1.07</v>
       </c>
       <c r="N37" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O37" t="n">
         <v>1.36</v>
@@ -7147,16 +7147,16 @@
         <v>3</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R37" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S37" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T37" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U37" t="n">
         <v>1.95</v>
@@ -7177,13 +7177,13 @@
         <v>29</v>
       </c>
       <c r="AA37" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB37" t="n">
         <v>34</v>
       </c>
       <c r="AC37" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD37" t="n">
         <v>6</v>
@@ -7201,16 +7201,16 @@
         <v>7.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ37" t="n">
         <v>10</v>
       </c>
       <c r="AK37" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL37" t="n">
         <v>23</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>21</v>
       </c>
       <c r="AM37" t="n">
         <v>34</v>
@@ -7222,7 +7222,7 @@
         <v>17</v>
       </c>
       <c r="AP37" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ37" t="n">
         <v>51</v>
@@ -7234,10 +7234,10 @@
         <v>201</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU37" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV37" t="n">
         <v>51</v>
@@ -7258,7 +7258,7 @@
         <v>51</v>
       </c>
       <c r="BB37" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC37" t="n">
         <v>201</v>
@@ -7502,19 +7502,19 @@
         <v>1.03</v>
       </c>
       <c r="N39" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O39" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P39" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R39" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S39" t="n">
         <v>1.29</v>
@@ -8227,22 +8227,22 @@
         <v>3.5</v>
       </c>
       <c r="M43" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O43" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P43" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="R43" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S43" t="n">
         <v>1.36</v>
@@ -8573,13 +8573,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H45" t="n">
         <v>3.6</v>
       </c>
       <c r="I45" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J45" t="n">
         <v>5</v>
@@ -8588,7 +8588,7 @@
         <v>2.2</v>
       </c>
       <c r="L45" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="M45" t="n">
         <v>1.06</v>
@@ -8615,10 +8615,10 @@
         <v>2.75</v>
       </c>
       <c r="U45" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V45" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W45" t="n">
         <v>13</v>
@@ -8642,16 +8642,16 @@
         <v>10</v>
       </c>
       <c r="AD45" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF45" t="n">
         <v>51</v>
       </c>
       <c r="AG45" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH45" t="n">
         <v>7</v>
@@ -8675,7 +8675,7 @@
         <v>6.5</v>
       </c>
       <c r="AO45" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP45" t="n">
         <v>34</v>
@@ -8693,7 +8693,7 @@
         <v>2.75</v>
       </c>
       <c r="AU45" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV45" t="n">
         <v>51</v>
@@ -8702,10 +8702,10 @@
         <v>126</v>
       </c>
       <c r="AX45" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AY45" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AZ45" t="n">
         <v>21</v>
@@ -8937,13 +8937,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H47" t="n">
         <v>3</v>
       </c>
       <c r="I47" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J47" t="n">
         <v>3.25</v>
@@ -8961,16 +8961,16 @@
         <v>6.5</v>
       </c>
       <c r="O47" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P47" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R47" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S47" t="n">
         <v>1.57</v>
@@ -8979,10 +8979,10 @@
         <v>2.25</v>
       </c>
       <c r="U47" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V47" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W47" t="n">
         <v>6</v>
@@ -9021,16 +9021,16 @@
         <v>7.5</v>
       </c>
       <c r="AI47" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ47" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK47" t="n">
         <v>34</v>
       </c>
       <c r="AL47" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM47" t="n">
         <v>41</v>
@@ -9060,7 +9060,7 @@
         <v>9</v>
       </c>
       <c r="AV47" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW47" t="n">
         <v>81</v>
@@ -9081,7 +9081,7 @@
         <v>101</v>
       </c>
       <c r="BC47" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD47" t="n">
         <v>81</v>
@@ -9119,13 +9119,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H48" t="n">
         <v>4.1</v>
       </c>
       <c r="I48" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J48" t="n">
         <v>2.05</v>
@@ -9161,10 +9161,10 @@
         <v>2.63</v>
       </c>
       <c r="U48" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V48" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W48" t="n">
         <v>5.5</v>
@@ -9185,28 +9185,28 @@
         <v>34</v>
       </c>
       <c r="AC48" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE48" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF48" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG48" t="n">
         <v>201</v>
       </c>
       <c r="AH48" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AI48" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ48" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK48" t="n">
         <v>81</v>
@@ -9215,7 +9215,7 @@
         <v>51</v>
       </c>
       <c r="AM48" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN48" t="n">
         <v>3.25</v>
@@ -9257,7 +9257,7 @@
         <v>41</v>
       </c>
       <c r="BA48" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB48" t="n">
         <v>201</v>
@@ -9301,28 +9301,28 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="H49" t="n">
         <v>7.5</v>
       </c>
       <c r="I49" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J49" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="K49" t="n">
         <v>2.88</v>
       </c>
       <c r="L49" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M49" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N49" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O49" t="n">
         <v>1.17</v>
@@ -9340,109 +9340,109 @@
         <v>1.25</v>
       </c>
       <c r="T49" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U49" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V49" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="W49" t="n">
+        <v>8</v>
+      </c>
+      <c r="X49" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z49" t="n">
         <v>7</v>
       </c>
-      <c r="X49" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y49" t="n">
+      <c r="AA49" t="n">
         <v>11</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>12</v>
       </c>
       <c r="AB49" t="n">
         <v>34</v>
       </c>
       <c r="AC49" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD49" t="n">
         <v>15</v>
       </c>
       <c r="AE49" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF49" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AG49" t="n">
         <v>201</v>
       </c>
       <c r="AH49" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ49" t="n">
         <v>29</v>
       </c>
-      <c r="AI49" t="n">
+      <c r="AK49" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM49" t="n">
         <v>67</v>
       </c>
-      <c r="AJ49" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>101</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>81</v>
-      </c>
       <c r="AN49" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AO49" t="n">
         <v>5</v>
       </c>
       <c r="AP49" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ49" t="n">
         <v>12</v>
       </c>
       <c r="AR49" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS49" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT49" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU49" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX49" t="n">
         <v>12</v>
       </c>
-      <c r="AV49" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW49" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX49" t="n">
-        <v>13</v>
-      </c>
       <c r="AY49" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AZ49" t="n">
         <v>51</v>
       </c>
       <c r="BA49" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BB49" t="n">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="BC49" t="n">
         <v>501</v>
@@ -9507,10 +9507,10 @@
         <v>13</v>
       </c>
       <c r="O50" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P50" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q50" t="n">
         <v>1.7</v>
@@ -9519,7 +9519,7 @@
         <v>2.1</v>
       </c>
       <c r="S50" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="T50" t="n">
         <v>3.4</v>
@@ -9668,13 +9668,13 @@
         <v>5</v>
       </c>
       <c r="H51" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I51" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J51" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K51" t="n">
         <v>2.1</v>
@@ -9701,10 +9701,10 @@
         <v>1.67</v>
       </c>
       <c r="S51" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T51" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U51" t="n">
         <v>2</v>
@@ -9713,7 +9713,7 @@
         <v>1.73</v>
       </c>
       <c r="W51" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X51" t="n">
         <v>23</v>
@@ -9767,10 +9767,10 @@
         <v>6.5</v>
       </c>
       <c r="AO51" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP51" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ51" t="n">
         <v>101</v>
@@ -9883,7 +9883,7 @@
         <v>1.83</v>
       </c>
       <c r="S52" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T52" t="n">
         <v>2.75</v>
@@ -10065,7 +10065,7 @@
         <v>2.15</v>
       </c>
       <c r="S53" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="T53" t="n">
         <v>3.4</v>
@@ -10575,13 +10575,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H56" t="n">
         <v>3.1</v>
       </c>
       <c r="I56" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J56" t="n">
         <v>3.2</v>
@@ -10596,7 +10596,7 @@
         <v>1.04</v>
       </c>
       <c r="N56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O56" t="n">
         <v>1.22</v>
@@ -10632,7 +10632,7 @@
         <v>11</v>
       </c>
       <c r="Z56" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA56" t="n">
         <v>21</v>
@@ -10668,7 +10668,7 @@
         <v>26</v>
       </c>
       <c r="AL56" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM56" t="n">
         <v>26</v>
@@ -10677,7 +10677,7 @@
         <v>4.75</v>
       </c>
       <c r="AO56" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP56" t="n">
         <v>21</v>
@@ -10757,40 +10757,40 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="H57" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I57" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J57" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K57" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L57" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M57" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N57" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O57" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P57" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="R57" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S57" t="n">
         <v>1.36</v>
@@ -10799,22 +10799,22 @@
         <v>3</v>
       </c>
       <c r="U57" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V57" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W57" t="n">
         <v>10</v>
       </c>
       <c r="X57" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y57" t="n">
         <v>10</v>
       </c>
       <c r="Z57" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA57" t="n">
         <v>21</v>
@@ -10844,10 +10844,10 @@
         <v>13</v>
       </c>
       <c r="AJ57" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK57" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL57" t="n">
         <v>19</v>
@@ -10856,7 +10856,7 @@
         <v>26</v>
       </c>
       <c r="AN57" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO57" t="n">
         <v>15</v>
@@ -10865,10 +10865,10 @@
         <v>21</v>
       </c>
       <c r="AQ57" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR57" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS57" t="n">
         <v>151</v>
@@ -10886,7 +10886,7 @@
         <v>501</v>
       </c>
       <c r="AX57" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY57" t="n">
         <v>13</v>
@@ -10901,7 +10901,7 @@
         <v>51</v>
       </c>
       <c r="BC57" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD57" t="n">
         <v>81</v>
@@ -10942,7 +10942,7 @@
         <v>1.75</v>
       </c>
       <c r="H58" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I58" t="n">
         <v>4.33</v>
@@ -10951,16 +10951,16 @@
         <v>2.38</v>
       </c>
       <c r="K58" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L58" t="n">
         <v>4.75</v>
       </c>
       <c r="M58" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N58" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O58" t="n">
         <v>1.25</v>
@@ -10969,25 +10969,25 @@
         <v>3.75</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R58" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S58" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T58" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U58" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V58" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W58" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X58" t="n">
         <v>8.5</v>
@@ -11005,10 +11005,10 @@
         <v>23</v>
       </c>
       <c r="AC58" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD58" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE58" t="n">
         <v>15</v>
@@ -11023,19 +11023,19 @@
         <v>13</v>
       </c>
       <c r="AI58" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ58" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK58" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL58" t="n">
         <v>34</v>
       </c>
       <c r="AM58" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN58" t="n">
         <v>3.75</v>
@@ -11056,7 +11056,7 @@
         <v>126</v>
       </c>
       <c r="AT58" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU58" t="n">
         <v>8</v>
@@ -11068,7 +11068,7 @@
         <v>501</v>
       </c>
       <c r="AX58" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY58" t="n">
         <v>23</v>
@@ -11080,7 +11080,7 @@
         <v>81</v>
       </c>
       <c r="BB58" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC58" t="n">
         <v>201</v>
@@ -11303,22 +11303,22 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="H60" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I60" t="n">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="J60" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K60" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L60" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M60" t="n">
         <v>1.1</v>
@@ -11333,37 +11333,37 @@
         <v>2.5</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R60" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S60" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T60" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U60" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V60" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W60" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X60" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y60" t="n">
         <v>9.5</v>
       </c>
       <c r="Z60" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA60" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB60" t="n">
         <v>41</v>
@@ -11384,34 +11384,34 @@
         <v>201</v>
       </c>
       <c r="AH60" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO60" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM60" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN60" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO60" t="n">
-        <v>11</v>
       </c>
       <c r="AP60" t="n">
         <v>26</v>
       </c>
       <c r="AQ60" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR60" t="n">
         <v>67</v>
@@ -11420,10 +11420,10 @@
         <v>251</v>
       </c>
       <c r="AT60" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU60" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV60" t="n">
         <v>81</v>
@@ -11432,19 +11432,19 @@
         <v>126</v>
       </c>
       <c r="AX60" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY60" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ60" t="n">
         <v>41</v>
       </c>
       <c r="BA60" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB60" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC60" t="n">
         <v>351</v>
@@ -11667,13 +11667,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="H62" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I62" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="J62" t="n">
         <v>5.5</v>
@@ -11709,10 +11709,10 @@
         <v>2.75</v>
       </c>
       <c r="U62" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V62" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W62" t="n">
         <v>15</v>
@@ -11724,13 +11724,13 @@
         <v>19</v>
       </c>
       <c r="Z62" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AA62" t="n">
         <v>41</v>
       </c>
       <c r="AB62" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC62" t="n">
         <v>10</v>
@@ -11748,7 +11748,7 @@
         <v>301</v>
       </c>
       <c r="AH62" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI62" t="n">
         <v>7.5</v>
@@ -11757,13 +11757,13 @@
         <v>8.5</v>
       </c>
       <c r="AK62" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL62" t="n">
         <v>13</v>
       </c>
       <c r="AM62" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN62" t="n">
         <v>7</v>
@@ -11796,10 +11796,10 @@
         <v>81</v>
       </c>
       <c r="AX62" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AY62" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AZ62" t="n">
         <v>21</v>
@@ -11849,28 +11849,28 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="H63" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I63" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J63" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K63" t="n">
         <v>2.2</v>
       </c>
       <c r="L63" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M63" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N63" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O63" t="n">
         <v>1.33</v>
@@ -11885,16 +11885,16 @@
         <v>1.75</v>
       </c>
       <c r="S63" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T63" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U63" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V63" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W63" t="n">
         <v>6</v>
@@ -11906,22 +11906,22 @@
         <v>8.5</v>
       </c>
       <c r="Z63" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA63" t="n">
         <v>15</v>
       </c>
       <c r="AB63" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC63" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD63" t="n">
         <v>7.5</v>
       </c>
       <c r="AE63" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF63" t="n">
         <v>67</v>
@@ -11930,34 +11930,34 @@
         <v>1250</v>
       </c>
       <c r="AH63" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI63" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ63" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK63" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL63" t="n">
         <v>41</v>
       </c>
       <c r="AM63" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN63" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO63" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP63" t="n">
         <v>21</v>
       </c>
       <c r="AQ63" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR63" t="n">
         <v>51</v>
@@ -11966,7 +11966,7 @@
         <v>151</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU63" t="n">
         <v>9</v>
@@ -11981,19 +11981,19 @@
         <v>7</v>
       </c>
       <c r="AY63" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ63" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA63" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB63" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC63" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD63" t="n">
         <v>81</v>
@@ -12395,22 +12395,22 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H66" t="n">
         <v>3.5</v>
       </c>
       <c r="I66" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J66" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K66" t="n">
         <v>2.05</v>
       </c>
       <c r="L66" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M66" t="n">
         <v>1.07</v>
@@ -12437,16 +12437,16 @@
         <v>2.63</v>
       </c>
       <c r="U66" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V66" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W66" t="n">
         <v>6.5</v>
       </c>
       <c r="X66" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -12455,22 +12455,22 @@
         <v>17</v>
       </c>
       <c r="AA66" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB66" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC66" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD66" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE66" t="n">
         <v>17</v>
       </c>
       <c r="AF66" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG66" t="n">
         <v>401</v>
@@ -12482,7 +12482,7 @@
         <v>17</v>
       </c>
       <c r="AJ66" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK66" t="n">
         <v>41</v>
@@ -12497,7 +12497,7 @@
         <v>4</v>
       </c>
       <c r="AO66" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP66" t="n">
         <v>23</v>
@@ -12518,7 +12518,7 @@
         <v>8.5</v>
       </c>
       <c r="AV66" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW66" t="n">
         <v>81</v>
@@ -12583,13 +12583,13 @@
         <v>4.5</v>
       </c>
       <c r="I67" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="J67" t="n">
         <v>6.5</v>
       </c>
       <c r="K67" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L67" t="n">
         <v>1.95</v>
@@ -12607,10 +12607,10 @@
         <v>3.75</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="R67" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S67" t="n">
         <v>1.33</v>
@@ -12625,13 +12625,13 @@
         <v>1.8</v>
       </c>
       <c r="W67" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X67" t="n">
         <v>34</v>
       </c>
       <c r="Y67" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z67" t="n">
         <v>81</v>
@@ -12643,7 +12643,7 @@
         <v>51</v>
       </c>
       <c r="AC67" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD67" t="n">
         <v>8.5</v>
@@ -12655,7 +12655,7 @@
         <v>51</v>
       </c>
       <c r="AG67" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH67" t="n">
         <v>7</v>
@@ -12673,7 +12673,7 @@
         <v>12</v>
       </c>
       <c r="AM67" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN67" t="n">
         <v>8</v>
@@ -12691,13 +12691,13 @@
         <v>151</v>
       </c>
       <c r="AS67" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT67" t="n">
         <v>3.25</v>
       </c>
       <c r="AU67" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV67" t="n">
         <v>51</v>
@@ -12989,7 +12989,7 @@
         <v>2.2</v>
       </c>
       <c r="W69" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X69" t="n">
         <v>17</v>
@@ -13022,10 +13022,10 @@
         <v>151</v>
       </c>
       <c r="AH69" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI69" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ69" t="n">
         <v>9</v>
@@ -13040,7 +13040,7 @@
         <v>23</v>
       </c>
       <c r="AN69" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO69" t="n">
         <v>17</v>
@@ -13123,13 +13123,13 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="H70" t="n">
         <v>4.5</v>
       </c>
       <c r="I70" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J70" t="n">
         <v>2</v>
@@ -13138,7 +13138,7 @@
         <v>2.6</v>
       </c>
       <c r="L70" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M70" t="n">
         <v>1.02</v>
@@ -13153,10 +13153,10 @@
         <v>5.5</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R70" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="S70" t="n">
         <v>1.25</v>
@@ -13165,34 +13165,34 @@
         <v>3.75</v>
       </c>
       <c r="U70" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="V70" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="W70" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="X70" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y70" t="n">
         <v>8.5</v>
       </c>
       <c r="Z70" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA70" t="n">
         <v>11</v>
       </c>
       <c r="AB70" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC70" t="n">
         <v>19</v>
       </c>
-      <c r="AC70" t="n">
-        <v>21</v>
-      </c>
       <c r="AD70" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE70" t="n">
         <v>15</v>
@@ -13201,10 +13201,10 @@
         <v>41</v>
       </c>
       <c r="AG70" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH70" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI70" t="n">
         <v>34</v>
@@ -13216,13 +13216,13 @@
         <v>51</v>
       </c>
       <c r="AL70" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM70" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN70" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO70" t="n">
         <v>7.5</v>
@@ -13234,7 +13234,7 @@
         <v>21</v>
       </c>
       <c r="AR70" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS70" t="n">
         <v>81</v>
@@ -13249,16 +13249,16 @@
         <v>41</v>
       </c>
       <c r="AW70" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AX70" t="n">
         <v>7.5</v>
       </c>
       <c r="AY70" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ70" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA70" t="n">
         <v>81</v>
@@ -13267,7 +13267,7 @@
         <v>81</v>
       </c>
       <c r="BC70" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD70" t="n">
         <v>151</v>
@@ -13329,10 +13329,10 @@
         <v>17</v>
       </c>
       <c r="O71" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P71" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q71" t="n">
         <v>1.53</v>
@@ -13341,16 +13341,16 @@
         <v>2.4</v>
       </c>
       <c r="S71" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T71" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U71" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V71" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W71" t="n">
         <v>19</v>
@@ -13398,10 +13398,10 @@
         <v>12</v>
       </c>
       <c r="AL71" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM71" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN71" t="n">
         <v>7</v>
@@ -13410,7 +13410,7 @@
         <v>26</v>
       </c>
       <c r="AP71" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ71" t="n">
         <v>81</v>
@@ -13422,7 +13422,7 @@
         <v>151</v>
       </c>
       <c r="AT71" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU71" t="n">
         <v>7.5</v>
@@ -13449,10 +13449,10 @@
         <v>41</v>
       </c>
       <c r="BC71" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BD71" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72">
@@ -13487,58 +13487,58 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H72" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I72" t="n">
         <v>3.75</v>
       </c>
       <c r="J72" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K72" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L72" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M72" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N72" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O72" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="P72" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="R72" t="n">
-        <v>2.03</v>
+        <v>2.15</v>
       </c>
       <c r="S72" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T72" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U72" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="V72" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="W72" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X72" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y72" t="n">
         <v>8.5</v>
@@ -13547,28 +13547,28 @@
         <v>15</v>
       </c>
       <c r="AA72" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB72" t="n">
         <v>23</v>
       </c>
       <c r="AC72" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AD72" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE72" t="n">
         <v>15</v>
       </c>
       <c r="AF72" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG72" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH72" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI72" t="n">
         <v>21</v>
@@ -13589,25 +13589,25 @@
         <v>4</v>
       </c>
       <c r="AO72" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP72" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ72" t="n">
         <v>29</v>
       </c>
       <c r="AR72" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS72" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT72" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU72" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV72" t="n">
         <v>51</v>
@@ -13622,7 +13622,7 @@
         <v>21</v>
       </c>
       <c r="AZ72" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA72" t="n">
         <v>67</v>
@@ -13631,10 +13631,10 @@
         <v>81</v>
       </c>
       <c r="BC72" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD72" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73">
@@ -14215,40 +14215,40 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H76" t="n">
         <v>3.4</v>
       </c>
       <c r="I76" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J76" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K76" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L76" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M76" t="n">
         <v>1.04</v>
       </c>
       <c r="N76" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O76" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P76" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="R76" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="S76" t="n">
         <v>1.36</v>
@@ -14263,13 +14263,13 @@
         <v>2.2</v>
       </c>
       <c r="W76" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X76" t="n">
         <v>15</v>
       </c>
       <c r="Y76" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z76" t="n">
         <v>29</v>
@@ -14314,7 +14314,7 @@
         <v>26</v>
       </c>
       <c r="AN76" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO76" t="n">
         <v>15</v>
@@ -14397,13 +14397,13 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="H77" t="n">
         <v>3.95</v>
       </c>
       <c r="I77" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="J77" t="n">
         <v>1.95</v>
@@ -14412,7 +14412,7 @@
         <v>2.37</v>
       </c>
       <c r="L77" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="M77" t="n">
         <v>1.01</v>
@@ -14424,7 +14424,7 @@
         <v>1.1</v>
       </c>
       <c r="P77" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="Q77" t="n">
         <v>1.53</v>
@@ -14439,16 +14439,16 @@
         <v>3.7</v>
       </c>
       <c r="U77" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="V77" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="W77" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="X77" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="Y77" t="n">
         <v>6.9</v>
@@ -14460,16 +14460,16 @@
         <v>9</v>
       </c>
       <c r="AB77" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC77" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AD77" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AE77" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF77" t="n">
         <v>35</v>
@@ -14478,28 +14478,28 @@
         <v>175</v>
       </c>
       <c r="AH77" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI77" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ77" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AK77" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AL77" t="n">
         <v>37</v>
       </c>
       <c r="AM77" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AN77" t="n">
         <v>3.6</v>
       </c>
       <c r="AO77" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AP77" t="n">
         <v>13</v>
@@ -14508,16 +14508,16 @@
         <v>19</v>
       </c>
       <c r="AR77" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AS77" t="n">
         <v>120</v>
       </c>
       <c r="AT77" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AU77" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV77" t="n">
         <v>45</v>
@@ -14526,16 +14526,16 @@
         <v>51</v>
       </c>
       <c r="AX77" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AY77" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ77" t="n">
         <v>27</v>
       </c>
       <c r="BA77" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BB77" t="n">
         <v>150</v>
@@ -14579,34 +14579,34 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="H78" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I78" t="n">
         <v>2.67</v>
       </c>
       <c r="J78" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="K78" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L78" t="n">
         <v>3.2</v>
       </c>
       <c r="M78" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N78" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="O78" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P78" t="n">
-        <v>3.92</v>
+        <v>3.85</v>
       </c>
       <c r="Q78" t="n">
         <v>1.62</v>
@@ -14615,19 +14615,19 @@
         <v>2.02</v>
       </c>
       <c r="S78" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="T78" t="n">
-        <v>3.26</v>
+        <v>3.2</v>
       </c>
       <c r="U78" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="V78" t="n">
-        <v>2.42</v>
+        <v>2.41</v>
       </c>
       <c r="W78" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="X78" t="n">
         <v>12</v>
@@ -14642,10 +14642,10 @@
         <v>14.5</v>
       </c>
       <c r="AB78" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC78" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AD78" t="n">
         <v>5.7</v>
@@ -14660,7 +14660,7 @@
         <v>150</v>
       </c>
       <c r="AH78" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AI78" t="n">
         <v>13</v>
@@ -14672,7 +14672,7 @@
         <v>26</v>
       </c>
       <c r="AL78" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AM78" t="n">
         <v>19</v>
@@ -14684,16 +14684,16 @@
         <v>12.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AQ78" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR78" t="n">
         <v>65</v>
       </c>
       <c r="AS78" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AT78" t="n">
         <v>3</v>
@@ -14702,13 +14702,13 @@
         <v>6.1</v>
       </c>
       <c r="AV78" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AW78" t="n">
         <v>500</v>
       </c>
       <c r="AX78" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="AY78" t="n">
         <v>14.5</v>
@@ -14791,10 +14791,10 @@
         <v>4.33</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R79" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S79" t="n">
         <v>1.3</v>
@@ -14943,46 +14943,46 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H80" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I80" t="n">
         <v>4.33</v>
       </c>
-      <c r="I80" t="n">
-        <v>4.5</v>
-      </c>
       <c r="J80" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K80" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L80" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M80" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N80" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O80" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P80" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="R80" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="S80" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="T80" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="U80" t="n">
         <v>1.4</v>
@@ -15009,13 +15009,13 @@
         <v>17</v>
       </c>
       <c r="AC80" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD80" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE80" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF80" t="n">
         <v>29</v>
@@ -15024,7 +15024,7 @@
         <v>81</v>
       </c>
       <c r="AH80" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI80" t="n">
         <v>29</v>
@@ -15045,13 +15045,13 @@
         <v>4.33</v>
       </c>
       <c r="AO80" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP80" t="n">
         <v>13</v>
       </c>
       <c r="AQ80" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR80" t="n">
         <v>34</v>
@@ -15060,7 +15060,7 @@
         <v>67</v>
       </c>
       <c r="AT80" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AU80" t="n">
         <v>7</v>
@@ -15069,10 +15069,10 @@
         <v>34</v>
       </c>
       <c r="AW80" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AX80" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY80" t="n">
         <v>21</v>
@@ -15125,22 +15125,22 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H81" t="n">
         <v>3.6</v>
       </c>
       <c r="I81" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="J81" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K81" t="n">
         <v>2.3</v>
       </c>
       <c r="L81" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M81" t="n">
         <v>1.04</v>
@@ -15167,25 +15167,25 @@
         <v>3.25</v>
       </c>
       <c r="U81" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V81" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W81" t="n">
         <v>13</v>
       </c>
       <c r="X81" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y81" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z81" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA81" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB81" t="n">
         <v>29</v>
@@ -15197,7 +15197,7 @@
         <v>7</v>
       </c>
       <c r="AE81" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF81" t="n">
         <v>41</v>
@@ -15206,7 +15206,7 @@
         <v>151</v>
       </c>
       <c r="AH81" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI81" t="n">
         <v>11</v>
@@ -15215,7 +15215,7 @@
         <v>9</v>
       </c>
       <c r="AK81" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL81" t="n">
         <v>15</v>
@@ -15227,7 +15227,7 @@
         <v>5.5</v>
       </c>
       <c r="AO81" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP81" t="n">
         <v>23</v>
@@ -15239,7 +15239,7 @@
         <v>67</v>
       </c>
       <c r="AS81" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT81" t="n">
         <v>3.25</v>
@@ -15257,7 +15257,7 @@
         <v>4.33</v>
       </c>
       <c r="AY81" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ81" t="n">
         <v>19</v>
@@ -15671,10 +15671,10 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H84" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I84" t="n">
         <v>2.05</v>
@@ -15686,7 +15686,7 @@
         <v>2.25</v>
       </c>
       <c r="L84" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M84" t="n">
         <v>1.04</v>
@@ -15722,7 +15722,7 @@
         <v>12</v>
       </c>
       <c r="X84" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y84" t="n">
         <v>12</v>
@@ -15731,7 +15731,7 @@
         <v>34</v>
       </c>
       <c r="AA84" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB84" t="n">
         <v>29</v>
@@ -15752,7 +15752,7 @@
         <v>151</v>
       </c>
       <c r="AH84" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI84" t="n">
         <v>11</v>
@@ -15773,7 +15773,7 @@
         <v>5.5</v>
       </c>
       <c r="AO84" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP84" t="n">
         <v>23</v>
@@ -15871,10 +15871,10 @@
         <v>2.5</v>
       </c>
       <c r="M85" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N85" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O85" t="n">
         <v>1.3</v>
@@ -16035,10 +16035,10 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H86" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I86" t="n">
         <v>3</v>
@@ -16047,16 +16047,16 @@
         <v>2.88</v>
       </c>
       <c r="K86" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L86" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M86" t="n">
         <v>1.04</v>
       </c>
       <c r="N86" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O86" t="n">
         <v>1.25</v>
@@ -16065,28 +16065,28 @@
         <v>3.75</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R86" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S86" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T86" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U86" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V86" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W86" t="n">
         <v>9</v>
       </c>
       <c r="X86" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y86" t="n">
         <v>9</v>
@@ -16101,7 +16101,7 @@
         <v>23</v>
       </c>
       <c r="AC86" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD86" t="n">
         <v>7</v>
@@ -16152,7 +16152,7 @@
         <v>126</v>
       </c>
       <c r="AT86" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU86" t="n">
         <v>7.5</v>
@@ -16238,7 +16238,7 @@
         <v>1.02</v>
       </c>
       <c r="N87" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O87" t="n">
         <v>1.14</v>
@@ -16584,7 +16584,7 @@
         <v>2.5</v>
       </c>
       <c r="H89" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="I89" t="n">
         <v>2.3</v>
@@ -16593,10 +16593,10 @@
         <v>2.87</v>
       </c>
       <c r="K89" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="L89" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="M89" t="n">
         <v>1.02</v>
@@ -16605,34 +16605,34 @@
         <v>10</v>
       </c>
       <c r="O89" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P89" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Q89" t="n">
         <v>1.37</v>
       </c>
       <c r="R89" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="S89" t="n">
         <v>1.22</v>
       </c>
       <c r="T89" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="U89" t="n">
         <v>1.37</v>
       </c>
       <c r="V89" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="W89" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="X89" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y89" t="n">
         <v>10.5</v>
@@ -16653,16 +16653,16 @@
         <v>9.25</v>
       </c>
       <c r="AE89" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AF89" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG89" t="n">
         <v>120</v>
       </c>
       <c r="AH89" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI89" t="n">
         <v>17</v>
@@ -16671,7 +16671,7 @@
         <v>10</v>
       </c>
       <c r="AK89" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL89" t="n">
         <v>15.5</v>
@@ -16698,7 +16698,7 @@
         <v>110</v>
       </c>
       <c r="AT89" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="AU89" t="n">
         <v>6.2</v>
@@ -17127,40 +17127,40 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H92" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I92" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>3.2</v>
       </c>
       <c r="J92" t="n">
         <v>3</v>
       </c>
       <c r="K92" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L92" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M92" t="n">
         <v>1.06</v>
       </c>
       <c r="N92" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O92" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P92" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="R92" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="S92" t="n">
         <v>1.4</v>
@@ -17169,31 +17169,31 @@
         <v>2.75</v>
       </c>
       <c r="U92" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="V92" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W92" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X92" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y92" t="n">
         <v>9.5</v>
       </c>
       <c r="Z92" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA92" t="n">
         <v>19</v>
       </c>
       <c r="AB92" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC92" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD92" t="n">
         <v>6</v>
@@ -17205,7 +17205,7 @@
         <v>41</v>
       </c>
       <c r="AG92" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH92" t="n">
         <v>10</v>
@@ -17214,31 +17214,31 @@
         <v>15</v>
       </c>
       <c r="AJ92" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK92" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL92" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM92" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN92" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO92" t="n">
         <v>13</v>
       </c>
       <c r="AP92" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ92" t="n">
         <v>41</v>
       </c>
       <c r="AR92" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS92" t="n">
         <v>151</v>
@@ -17247,7 +17247,7 @@
         <v>2.75</v>
       </c>
       <c r="AU92" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV92" t="n">
         <v>51</v>
@@ -17262,13 +17262,13 @@
         <v>17</v>
       </c>
       <c r="AZ92" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA92" t="n">
         <v>51</v>
       </c>
       <c r="BB92" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC92" t="n">
         <v>151</v>
@@ -17312,52 +17312,52 @@
         <v>3.1</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I93" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J93" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K93" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L93" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M93" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N93" t="n">
+        <v>8</v>
+      </c>
+      <c r="O93" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P93" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R93" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S93" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T93" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U93" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V93" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W93" t="n">
         <v>8.5</v>
-      </c>
-      <c r="O93" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P93" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R93" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S93" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T93" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U93" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="V93" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="W93" t="n">
-        <v>9</v>
       </c>
       <c r="X93" t="n">
         <v>15</v>
@@ -17369,16 +17369,16 @@
         <v>34</v>
       </c>
       <c r="AA93" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB93" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC93" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AD93" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE93" t="n">
         <v>15</v>
@@ -17387,10 +17387,10 @@
         <v>51</v>
       </c>
       <c r="AG93" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH93" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI93" t="n">
         <v>11</v>
@@ -17402,7 +17402,7 @@
         <v>23</v>
       </c>
       <c r="AL93" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM93" t="n">
         <v>34</v>
@@ -17414,7 +17414,7 @@
         <v>17</v>
       </c>
       <c r="AP93" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ93" t="n">
         <v>51</v>
@@ -17423,16 +17423,16 @@
         <v>81</v>
       </c>
       <c r="AS93" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT93" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU93" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV93" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW93" t="n">
         <v>81</v>
@@ -17441,19 +17441,19 @@
         <v>4.33</v>
       </c>
       <c r="AY93" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ93" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA93" t="n">
         <v>51</v>
       </c>
       <c r="BB93" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC93" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD93" t="n">
         <v>81</v>
@@ -17491,16 +17491,16 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H94" t="n">
         <v>3</v>
       </c>
       <c r="I94" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J94" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K94" t="n">
         <v>2</v>
@@ -17509,37 +17509,37 @@
         <v>4</v>
       </c>
       <c r="M94" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N94" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O94" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P94" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="R94" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="S94" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T94" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U94" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V94" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W94" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X94" t="n">
         <v>10</v>
@@ -17557,19 +17557,19 @@
         <v>34</v>
       </c>
       <c r="AC94" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD94" t="n">
         <v>6</v>
       </c>
       <c r="AE94" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF94" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG94" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AH94" t="n">
         <v>8.5</v>
@@ -17578,19 +17578,19 @@
         <v>15</v>
       </c>
       <c r="AJ94" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK94" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL94" t="n">
         <v>34</v>
       </c>
-      <c r="AL94" t="n">
-        <v>29</v>
-      </c>
       <c r="AM94" t="n">
         <v>41</v>
       </c>
       <c r="AN94" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO94" t="n">
         <v>13</v>
@@ -17602,13 +17602,13 @@
         <v>41</v>
       </c>
       <c r="AR94" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS94" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT94" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU94" t="n">
         <v>8.5</v>
@@ -17623,10 +17623,10 @@
         <v>5</v>
       </c>
       <c r="AY94" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ94" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA94" t="n">
         <v>67</v>
@@ -17635,7 +17635,7 @@
         <v>101</v>
       </c>
       <c r="BC94" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD94" t="n">
         <v>81</v>
@@ -17694,7 +17694,7 @@
         <v>1.07</v>
       </c>
       <c r="N95" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O95" t="n">
         <v>1.33</v>
@@ -19493,88 +19493,88 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="H105" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="I105" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="J105" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="K105" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L105" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="M105" t="n">
         <v>1.01</v>
       </c>
       <c r="N105" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="O105" t="n">
-        <v>8.199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="P105" t="n">
-        <v>1.04</v>
+        <v>8</v>
       </c>
       <c r="Q105" t="n">
         <v>1.16</v>
       </c>
       <c r="R105" t="n">
-        <v>3.94</v>
+        <v>3.86</v>
       </c>
       <c r="S105" t="n">
         <v>1.12</v>
       </c>
       <c r="T105" t="n">
-        <v>5.35</v>
+        <v>5.25</v>
       </c>
       <c r="U105" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="V105" t="n">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="W105" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="X105" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="Y105" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Z105" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AA105" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AB105" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AC105" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD105" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AE105" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AF105" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG105" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AH105" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI105" t="n">
         <v>150</v>
@@ -19583,58 +19583,58 @@
         <v>45</v>
       </c>
       <c r="AK105" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AL105" t="n">
         <v>175</v>
       </c>
       <c r="AM105" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN105" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AO105" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="AP105" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AQ105" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AR105" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS105" t="n">
         <v>120</v>
       </c>
       <c r="AT105" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AU105" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AV105" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AW105" t="n">
         <v>51</v>
       </c>
       <c r="AX105" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AY105" t="n">
         <v>90</v>
       </c>
       <c r="AZ105" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BA105" t="n">
         <v>51</v>
       </c>
       <c r="BB105" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC105" t="n">
         <v>500</v>
@@ -20221,10 +20221,10 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H109" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I109" t="n">
         <v>5</v>
@@ -20233,46 +20233,46 @@
         <v>2.3</v>
       </c>
       <c r="K109" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L109" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M109" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N109" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O109" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P109" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q109" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R109" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S109" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T109" t="n">
+        <v>3</v>
+      </c>
+      <c r="U109" t="n">
         <v>1.8</v>
       </c>
-      <c r="R109" t="n">
-        <v>2</v>
-      </c>
-      <c r="S109" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T109" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U109" t="n">
-        <v>1.75</v>
-      </c>
       <c r="V109" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W109" t="n">
+        <v>7</v>
+      </c>
+      <c r="X109" t="n">
         <v>8</v>
-      </c>
-      <c r="X109" t="n">
-        <v>8.5</v>
       </c>
       <c r="Y109" t="n">
         <v>8.5</v>
@@ -20284,10 +20284,10 @@
         <v>13</v>
       </c>
       <c r="AB109" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC109" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD109" t="n">
         <v>7</v>
@@ -20296,16 +20296,16 @@
         <v>15</v>
       </c>
       <c r="AF109" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG109" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH109" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI109" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ109" t="n">
         <v>15</v>
@@ -20332,13 +20332,13 @@
         <v>29</v>
       </c>
       <c r="AR109" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS109" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT109" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU109" t="n">
         <v>8</v>
@@ -20353,7 +20353,7 @@
         <v>6.5</v>
       </c>
       <c r="AY109" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ109" t="n">
         <v>29</v>
@@ -20585,10 +20585,10 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="H111" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I111" t="n">
         <v>4.1</v>
@@ -20597,13 +20597,13 @@
         <v>2.4</v>
       </c>
       <c r="K111" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L111" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="M111" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="N111" t="n">
         <v>1.06</v>
@@ -20615,7 +20615,7 @@
         <v>3</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R111" t="n">
         <v>1.8</v>
@@ -20627,22 +20627,22 @@
         <v>2.52</v>
       </c>
       <c r="U111" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V111" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="W111" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X111" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Y111" t="n">
         <v>8.25</v>
       </c>
       <c r="Z111" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA111" t="n">
         <v>14.5</v>
@@ -20651,22 +20651,22 @@
         <v>27</v>
       </c>
       <c r="AC111" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD111" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AE111" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF111" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG111" t="n">
         <v>600</v>
       </c>
       <c r="AH111" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AI111" t="n">
         <v>23</v>
@@ -20690,22 +20690,22 @@
         <v>9</v>
       </c>
       <c r="AP111" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AQ111" t="n">
         <v>32</v>
       </c>
       <c r="AR111" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS111" t="n">
         <v>250</v>
       </c>
       <c r="AT111" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AU111" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AV111" t="n">
         <v>70</v>
@@ -20717,13 +20717,13 @@
         <v>5.8</v>
       </c>
       <c r="AY111" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ111" t="n">
         <v>30</v>
       </c>
       <c r="BA111" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BB111" t="n">
         <v>175</v>
@@ -20949,13 +20949,13 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H113" t="n">
         <v>3.6</v>
       </c>
       <c r="I113" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="J113" t="n">
         <v>2.6</v>
@@ -20964,7 +20964,7 @@
         <v>2.4</v>
       </c>
       <c r="L113" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M113" t="n">
         <v>1.03</v>
@@ -20973,10 +20973,10 @@
         <v>17</v>
       </c>
       <c r="O113" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P113" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q113" t="n">
         <v>1.53</v>
@@ -20985,28 +20985,28 @@
         <v>2.4</v>
       </c>
       <c r="S113" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T113" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U113" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V113" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W113" t="n">
+        <v>11</v>
+      </c>
+      <c r="X113" t="n">
         <v>12</v>
-      </c>
-      <c r="X113" t="n">
-        <v>13</v>
       </c>
       <c r="Y113" t="n">
         <v>9</v>
       </c>
       <c r="Z113" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA113" t="n">
         <v>15</v>
@@ -21024,7 +21024,7 @@
         <v>11</v>
       </c>
       <c r="AF113" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG113" t="n">
         <v>101</v>
@@ -21039,13 +21039,13 @@
         <v>12</v>
       </c>
       <c r="AK113" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL113" t="n">
         <v>23</v>
       </c>
       <c r="AM113" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN113" t="n">
         <v>4.5</v>
@@ -21066,7 +21066,7 @@
         <v>81</v>
       </c>
       <c r="AT113" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU113" t="n">
         <v>7</v>
@@ -21131,13 +21131,13 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H114" t="n">
         <v>3.4</v>
       </c>
       <c r="I114" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J114" t="n">
         <v>2.75</v>
@@ -21161,10 +21161,10 @@
         <v>4.5</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R114" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S114" t="n">
         <v>1.3</v>
@@ -21203,7 +21203,7 @@
         <v>7</v>
       </c>
       <c r="AE114" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF114" t="n">
         <v>34</v>
@@ -21233,7 +21233,7 @@
         <v>4.5</v>
       </c>
       <c r="AO114" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP114" t="n">
         <v>19</v>
@@ -21263,7 +21263,7 @@
         <v>5.5</v>
       </c>
       <c r="AY114" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ114" t="n">
         <v>21</v>
@@ -21313,22 +21313,22 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H115" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I115" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="J115" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K115" t="n">
         <v>2.2</v>
       </c>
       <c r="L115" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M115" t="n">
         <v>1.05</v>
@@ -21337,22 +21337,22 @@
         <v>11</v>
       </c>
       <c r="O115" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P115" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R115" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S115" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T115" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U115" t="n">
         <v>1.8</v>
@@ -21361,10 +21361,10 @@
         <v>1.95</v>
       </c>
       <c r="W115" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X115" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y115" t="n">
         <v>8.5</v>
@@ -21394,34 +21394,34 @@
         <v>251</v>
       </c>
       <c r="AH115" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI115" t="n">
         <v>21</v>
       </c>
       <c r="AJ115" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK115" t="n">
         <v>41</v>
       </c>
       <c r="AL115" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM115" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN115" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO115" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP115" t="n">
         <v>21</v>
       </c>
       <c r="AQ115" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR115" t="n">
         <v>51</v>
@@ -21430,7 +21430,7 @@
         <v>151</v>
       </c>
       <c r="AT115" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU115" t="n">
         <v>8</v>
@@ -21445,16 +21445,16 @@
         <v>6</v>
       </c>
       <c r="AY115" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ115" t="n">
         <v>29</v>
       </c>
       <c r="BA115" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB115" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC115" t="n">
         <v>201</v>
@@ -21495,13 +21495,13 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H116" t="n">
         <v>3.7</v>
       </c>
       <c r="I116" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="J116" t="n">
         <v>2.88</v>
@@ -21510,7 +21510,7 @@
         <v>2.4</v>
       </c>
       <c r="L116" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M116" t="n">
         <v>1.03</v>
@@ -21525,10 +21525,10 @@
         <v>5</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R116" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S116" t="n">
         <v>1.29</v>
@@ -21549,7 +21549,7 @@
         <v>15</v>
       </c>
       <c r="Y116" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z116" t="n">
         <v>23</v>
@@ -21582,7 +21582,7 @@
         <v>17</v>
       </c>
       <c r="AJ116" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK116" t="n">
         <v>29</v>
@@ -21591,13 +21591,13 @@
         <v>19</v>
       </c>
       <c r="AM116" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN116" t="n">
         <v>4.75</v>
       </c>
       <c r="AO116" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP116" t="n">
         <v>17</v>
@@ -21627,7 +21627,7 @@
         <v>5</v>
       </c>
       <c r="AY116" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ116" t="n">
         <v>19</v>
@@ -21642,7 +21642,7 @@
         <v>101</v>
       </c>
       <c r="BD116" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="117">
@@ -21859,19 +21859,19 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H118" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I118" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J118" t="n">
         <v>2.75</v>
       </c>
       <c r="K118" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L118" t="n">
         <v>4</v>
@@ -21889,25 +21889,25 @@
         <v>3.75</v>
       </c>
       <c r="Q118" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R118" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S118" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T118" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U118" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V118" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W118" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X118" t="n">
         <v>10</v>
@@ -21925,19 +21925,19 @@
         <v>26</v>
       </c>
       <c r="AC118" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AD118" t="n">
         <v>6.5</v>
       </c>
       <c r="AE118" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF118" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG118" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH118" t="n">
         <v>11</v>
@@ -21946,13 +21946,13 @@
         <v>19</v>
       </c>
       <c r="AJ118" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK118" t="n">
         <v>41</v>
       </c>
       <c r="AL118" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM118" t="n">
         <v>34</v>
@@ -21976,10 +21976,10 @@
         <v>151</v>
       </c>
       <c r="AT118" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU118" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV118" t="n">
         <v>51</v>
@@ -21994,16 +21994,16 @@
         <v>19</v>
       </c>
       <c r="AZ118" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA118" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB118" t="n">
         <v>81</v>
       </c>
       <c r="BC118" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD118" t="n">
         <v>151</v>
@@ -22241,10 +22241,10 @@
         <v>3.75</v>
       </c>
       <c r="M120" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N120" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O120" t="n">
         <v>1.36</v>
@@ -22253,10 +22253,10 @@
         <v>3</v>
       </c>
       <c r="Q120" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R120" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S120" t="n">
         <v>1.44</v>
@@ -22405,22 +22405,22 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="H121" t="n">
         <v>3.4</v>
       </c>
       <c r="I121" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="J121" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K121" t="n">
         <v>2.1</v>
       </c>
       <c r="L121" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M121" t="n">
         <v>1.06</v>
@@ -22429,10 +22429,10 @@
         <v>10</v>
       </c>
       <c r="O121" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P121" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q121" t="n">
         <v>2.05</v>
@@ -22447,22 +22447,22 @@
         <v>2.63</v>
       </c>
       <c r="U121" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V121" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W121" t="n">
         <v>7</v>
       </c>
       <c r="X121" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y121" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z121" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA121" t="n">
         <v>17</v>
@@ -22483,13 +22483,13 @@
         <v>51</v>
       </c>
       <c r="AG121" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH121" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI121" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ121" t="n">
         <v>13</v>
@@ -22498,7 +22498,7 @@
         <v>41</v>
       </c>
       <c r="AL121" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM121" t="n">
         <v>41</v>
@@ -22513,7 +22513,7 @@
         <v>21</v>
       </c>
       <c r="AQ121" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR121" t="n">
         <v>51</v>
@@ -22543,10 +22543,10 @@
         <v>29</v>
       </c>
       <c r="BA121" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB121" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC121" t="n">
         <v>201</v>
@@ -22587,16 +22587,16 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H122" t="n">
         <v>3.4</v>
       </c>
       <c r="I122" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J122" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K122" t="n">
         <v>2.2</v>
@@ -22611,16 +22611,16 @@
         <v>11</v>
       </c>
       <c r="O122" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P122" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q122" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R122" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S122" t="n">
         <v>1.4</v>
@@ -22638,7 +22638,7 @@
         <v>7.5</v>
       </c>
       <c r="X122" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y122" t="n">
         <v>8.5</v>
@@ -22665,19 +22665,19 @@
         <v>51</v>
       </c>
       <c r="AG122" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH122" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI122" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ122" t="n">
         <v>15</v>
       </c>
       <c r="AK122" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL122" t="n">
         <v>34</v>
@@ -22686,10 +22686,10 @@
         <v>41</v>
       </c>
       <c r="AN122" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO122" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP122" t="n">
         <v>21</v>
@@ -22719,13 +22719,13 @@
         <v>6</v>
       </c>
       <c r="AY122" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ122" t="n">
         <v>29</v>
       </c>
       <c r="BA122" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB122" t="n">
         <v>101</v>
@@ -23521,16 +23521,16 @@
         <v>15</v>
       </c>
       <c r="O127" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P127" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R127" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S127" t="n">
         <v>1.33</v>
@@ -23864,19 +23864,19 @@
         <v>2.15</v>
       </c>
       <c r="H129" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I129" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J129" t="n">
         <v>2.75</v>
       </c>
       <c r="K129" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L129" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M129" t="n">
         <v>1.04</v>
@@ -23891,28 +23891,28 @@
         <v>4</v>
       </c>
       <c r="Q129" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R129" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S129" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T129" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U129" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V129" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W129" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X129" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y129" t="n">
         <v>9.5</v>
@@ -23927,10 +23927,10 @@
         <v>23</v>
       </c>
       <c r="AC129" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD129" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE129" t="n">
         <v>13</v>
@@ -23951,7 +23951,7 @@
         <v>12</v>
       </c>
       <c r="AK129" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL129" t="n">
         <v>23</v>
@@ -23960,7 +23960,7 @@
         <v>29</v>
       </c>
       <c r="AN129" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO129" t="n">
         <v>12</v>
@@ -23978,22 +23978,22 @@
         <v>126</v>
       </c>
       <c r="AT129" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU129" t="n">
         <v>7.5</v>
       </c>
       <c r="AV129" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW129" t="n">
         <v>81</v>
       </c>
       <c r="AX129" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY129" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ129" t="n">
         <v>23</v>
@@ -24005,7 +24005,7 @@
         <v>67</v>
       </c>
       <c r="BC129" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD129" t="n">
         <v>81</v>
@@ -24043,46 +24043,46 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="H130" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I130" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="J130" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K130" t="n">
         <v>2.2</v>
       </c>
       <c r="L130" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M130" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N130" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O130" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P130" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q130" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R130" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S130" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T130" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U130" t="n">
         <v>1.73</v>
@@ -24091,31 +24091,31 @@
         <v>2</v>
       </c>
       <c r="W130" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X130" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Y130" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z130" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA130" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB130" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC130" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD130" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE130" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF130" t="n">
         <v>41</v>
@@ -24124,43 +24124,43 @@
         <v>151</v>
       </c>
       <c r="AH130" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI130" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ130" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK130" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL130" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM130" t="n">
         <v>34</v>
       </c>
       <c r="AN130" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO130" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP130" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ130" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR130" t="n">
         <v>51</v>
       </c>
       <c r="AS130" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT130" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU130" t="n">
         <v>8</v>
@@ -24172,19 +24172,19 @@
         <v>81</v>
       </c>
       <c r="AX130" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY130" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ130" t="n">
         <v>26</v>
       </c>
       <c r="BA130" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB130" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC130" t="n">
         <v>151</v>
@@ -24225,16 +24225,16 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="H131" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I131" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J131" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K131" t="n">
         <v>2.2</v>
@@ -24243,10 +24243,10 @@
         <v>5</v>
       </c>
       <c r="M131" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N131" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O131" t="n">
         <v>1.29</v>
@@ -24255,10 +24255,10 @@
         <v>3.5</v>
       </c>
       <c r="Q131" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R131" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S131" t="n">
         <v>1.4</v>
@@ -24273,16 +24273,16 @@
         <v>1.8</v>
       </c>
       <c r="W131" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X131" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y131" t="n">
         <v>9</v>
       </c>
       <c r="Z131" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA131" t="n">
         <v>15</v>
@@ -24297,22 +24297,22 @@
         <v>7.5</v>
       </c>
       <c r="AE131" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF131" t="n">
         <v>51</v>
       </c>
       <c r="AG131" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AH131" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI131" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ131" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK131" t="n">
         <v>51</v>
@@ -24324,16 +24324,16 @@
         <v>41</v>
       </c>
       <c r="AN131" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO131" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP131" t="n">
         <v>21</v>
       </c>
       <c r="AQ131" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR131" t="n">
         <v>51</v>
@@ -24354,19 +24354,19 @@
         <v>81</v>
       </c>
       <c r="AX131" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY131" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ131" t="n">
         <v>34</v>
       </c>
       <c r="BA131" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB131" t="n">
         <v>101</v>
-      </c>
-      <c r="BB131" t="n">
-        <v>126</v>
       </c>
       <c r="BC131" t="n">
         <v>500</v>
@@ -24413,7 +24413,7 @@
         <v>4.5</v>
       </c>
       <c r="I132" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="J132" t="n">
         <v>6</v>
@@ -24422,7 +24422,7 @@
         <v>2.5</v>
       </c>
       <c r="L132" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="M132" t="n">
         <v>1.03</v>
@@ -24953,22 +24953,22 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="H135" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I135" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="J135" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K135" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L135" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="M135" t="n">
         <v>1.04</v>
@@ -24980,7 +24980,7 @@
         <v>1.2</v>
       </c>
       <c r="P135" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="Q135" t="n">
         <v>1.62</v>
@@ -24989,10 +24989,10 @@
         <v>2.25</v>
       </c>
       <c r="S135" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="T135" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="U135" t="n">
         <v>1.5</v>
@@ -25001,19 +25001,19 @@
         <v>2.4</v>
       </c>
       <c r="W135" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="X135" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y135" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="Z135" t="n">
         <v>40</v>
       </c>
       <c r="AA135" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB135" t="n">
         <v>26</v>
@@ -25022,46 +25022,46 @@
         <v>9.25</v>
       </c>
       <c r="AD135" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AE135" t="n">
         <v>12</v>
       </c>
       <c r="AF135" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG135" t="n">
         <v>250</v>
       </c>
       <c r="AH135" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AI135" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ135" t="n">
         <v>9.5</v>
       </c>
       <c r="AK135" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL135" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM135" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN135" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AO135" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AP135" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AQ135" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AR135" t="n">
         <v>80</v>
@@ -25070,10 +25070,10 @@
         <v>175</v>
       </c>
       <c r="AT135" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AU135" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AV135" t="n">
         <v>45</v>
@@ -25082,22 +25082,22 @@
         <v>51</v>
       </c>
       <c r="AX135" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="AY135" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AZ135" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="BA135" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BB135" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BC135" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BD135" t="n">
         <v>51</v>
@@ -25317,22 +25317,22 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="H137" t="n">
         <v>3</v>
       </c>
       <c r="I137" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="J137" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K137" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L137" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="M137" t="n">
         <v>1.07</v>
@@ -25341,22 +25341,22 @@
         <v>6.7</v>
       </c>
       <c r="O137" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P137" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q137" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R137" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S137" t="n">
         <v>1.38</v>
       </c>
       <c r="T137" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="U137" t="n">
         <v>1.7</v>
@@ -25365,22 +25365,22 @@
         <v>2.02</v>
       </c>
       <c r="W137" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="X137" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y137" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Z137" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA137" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AB137" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC137" t="n">
         <v>6.7</v>
@@ -25398,43 +25398,43 @@
         <v>450</v>
       </c>
       <c r="AH137" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AI137" t="n">
         <v>12</v>
       </c>
       <c r="AJ137" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AK137" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AM137" t="n">
         <v>26</v>
       </c>
-      <c r="AL137" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AM137" t="n">
-        <v>28</v>
-      </c>
       <c r="AN137" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AO137" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AP137" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ137" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AR137" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS137" t="n">
         <v>250</v>
       </c>
       <c r="AT137" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU137" t="n">
         <v>6.3</v>
@@ -25446,22 +25446,22 @@
         <v>51</v>
       </c>
       <c r="AX137" t="n">
-        <v>4.45</v>
+        <v>4.35</v>
       </c>
       <c r="AY137" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AZ137" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA137" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BB137" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="BC137" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BD137" t="n">
         <v>51</v>
@@ -25863,22 +25863,22 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="H140" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I140" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="J140" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K140" t="n">
         <v>2.2</v>
       </c>
       <c r="L140" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M140" t="n">
         <v>1.05</v>
@@ -25911,22 +25911,22 @@
         <v>2.1</v>
       </c>
       <c r="W140" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X140" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y140" t="n">
         <v>9</v>
       </c>
       <c r="Z140" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA140" t="n">
         <v>17</v>
       </c>
-      <c r="AA140" t="n">
-        <v>15</v>
-      </c>
       <c r="AB140" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC140" t="n">
         <v>11</v>
@@ -25941,37 +25941,37 @@
         <v>41</v>
       </c>
       <c r="AG140" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH140" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ140" t="n">
         <v>12</v>
       </c>
-      <c r="AI140" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ140" t="n">
-        <v>13</v>
-      </c>
       <c r="AK140" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL140" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM140" t="n">
         <v>29</v>
       </c>
-      <c r="AM140" t="n">
-        <v>34</v>
-      </c>
       <c r="AN140" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO140" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP140" t="n">
         <v>21</v>
       </c>
       <c r="AQ140" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR140" t="n">
         <v>51</v>
@@ -25995,16 +25995,16 @@
         <v>5.5</v>
       </c>
       <c r="AY140" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ140" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA140" t="n">
         <v>51</v>
       </c>
       <c r="BB140" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC140" t="n">
         <v>151</v>
@@ -26045,16 +26045,16 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H141" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="I141" t="n">
         <v>3.4</v>
       </c>
       <c r="J141" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K141" t="n">
         <v>1.8</v>
@@ -26063,34 +26063,34 @@
         <v>4.33</v>
       </c>
       <c r="M141" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="N141" t="n">
         <v>5</v>
       </c>
       <c r="O141" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="P141" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q141" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R141" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S141" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="T141" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="U141" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="V141" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="W141" t="n">
         <v>5.5</v>
@@ -26111,13 +26111,13 @@
         <v>51</v>
       </c>
       <c r="AC141" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AD141" t="n">
         <v>6</v>
       </c>
       <c r="AE141" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF141" t="n">
         <v>101</v>
@@ -26129,7 +26129,7 @@
         <v>6.5</v>
       </c>
       <c r="AI141" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ141" t="n">
         <v>15</v>
@@ -26150,13 +26150,13 @@
         <v>17</v>
       </c>
       <c r="AP141" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ141" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR141" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS141" t="n">
         <v>351</v>
@@ -26165,7 +26165,7 @@
         <v>2</v>
       </c>
       <c r="AU141" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV141" t="n">
         <v>101</v>
@@ -26174,7 +26174,7 @@
         <v>81</v>
       </c>
       <c r="AX141" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY141" t="n">
         <v>21</v>
@@ -26245,16 +26245,16 @@
         <v>4.5</v>
       </c>
       <c r="M142" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N142" t="n">
         <v>7.5</v>
       </c>
       <c r="O142" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P142" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q142" t="n">
         <v>2.35</v>
@@ -26272,7 +26272,7 @@
         <v>2.1</v>
       </c>
       <c r="V142" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W142" t="n">
         <v>6</v>
@@ -26409,40 +26409,40 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H143" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I143" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="J143" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K143" t="n">
         <v>2.2</v>
       </c>
       <c r="L143" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="M143" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N143" t="n">
         <v>11</v>
       </c>
       <c r="O143" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P143" t="n">
         <v>3.5</v>
       </c>
       <c r="Q143" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R143" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S143" t="n">
         <v>1.4</v>
@@ -26451,22 +26451,22 @@
         <v>2.75</v>
       </c>
       <c r="U143" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="V143" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="W143" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X143" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y143" t="n">
         <v>9</v>
       </c>
       <c r="Z143" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA143" t="n">
         <v>17</v>
@@ -26475,49 +26475,49 @@
         <v>26</v>
       </c>
       <c r="AC143" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD143" t="n">
         <v>6.5</v>
       </c>
       <c r="AE143" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF143" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG143" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH143" t="n">
         <v>11</v>
       </c>
       <c r="AI143" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ143" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK143" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL143" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM143" t="n">
         <v>34</v>
       </c>
       <c r="AN143" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO143" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP143" t="n">
         <v>21</v>
       </c>
       <c r="AQ143" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR143" t="n">
         <v>51</v>
@@ -26541,19 +26541,19 @@
         <v>5.5</v>
       </c>
       <c r="AY143" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ143" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA143" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB143" t="n">
         <v>81</v>
       </c>
       <c r="BC143" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD143" t="n">
         <v>81</v>
@@ -26591,31 +26591,31 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H144" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I144" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J144" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K144" t="n">
         <v>2.2</v>
       </c>
       <c r="L144" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M144" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N144" t="n">
         <v>11</v>
       </c>
       <c r="O144" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P144" t="n">
         <v>3.75</v>
@@ -26633,7 +26633,7 @@
         <v>3</v>
       </c>
       <c r="U144" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V144" t="n">
         <v>2.1</v>
@@ -26642,7 +26642,7 @@
         <v>9</v>
       </c>
       <c r="X144" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y144" t="n">
         <v>9.5</v>
@@ -26684,7 +26684,7 @@
         <v>29</v>
       </c>
       <c r="AL144" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM144" t="n">
         <v>29</v>
@@ -26791,13 +26791,13 @@
         <v>2.88</v>
       </c>
       <c r="M145" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N145" t="n">
         <v>11</v>
       </c>
       <c r="O145" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P145" t="n">
         <v>3.75</v>
@@ -26815,7 +26815,7 @@
         <v>2.75</v>
       </c>
       <c r="U145" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V145" t="n">
         <v>2.05</v>
@@ -26884,7 +26884,7 @@
         <v>51</v>
       </c>
       <c r="AR145" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS145" t="n">
         <v>151</v>
@@ -26955,22 +26955,22 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="H146" t="n">
         <v>3.4</v>
       </c>
       <c r="I146" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="J146" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K146" t="n">
         <v>2.2</v>
       </c>
       <c r="L146" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M146" t="n">
         <v>1.05</v>
@@ -26979,10 +26979,10 @@
         <v>11</v>
       </c>
       <c r="O146" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P146" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q146" t="n">
         <v>1.93</v>
@@ -26997,25 +26997,25 @@
         <v>2.75</v>
       </c>
       <c r="U146" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V146" t="n">
         <v>2.05</v>
       </c>
       <c r="W146" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X146" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y146" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z146" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA146" t="n">
         <v>19</v>
-      </c>
-      <c r="AA146" t="n">
-        <v>17</v>
       </c>
       <c r="AB146" t="n">
         <v>26</v>
@@ -27036,28 +27036,28 @@
         <v>201</v>
       </c>
       <c r="AH146" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ146" t="n">
         <v>11</v>
       </c>
-      <c r="AI146" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ146" t="n">
-        <v>12</v>
-      </c>
       <c r="AK146" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL146" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM146" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN146" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO146" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP146" t="n">
         <v>21</v>
@@ -27081,22 +27081,22 @@
         <v>51</v>
       </c>
       <c r="AW146" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AX146" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY146" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ146" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA146" t="n">
         <v>51</v>
       </c>
       <c r="BB146" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC146" t="n">
         <v>151</v>
@@ -27137,13 +27137,13 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H147" t="n">
         <v>4.75</v>
       </c>
       <c r="I147" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J147" t="n">
         <v>1.95</v>
@@ -27167,10 +27167,10 @@
         <v>5.5</v>
       </c>
       <c r="Q147" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R147" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S147" t="n">
         <v>1.25</v>
@@ -27179,13 +27179,13 @@
         <v>3.75</v>
       </c>
       <c r="U147" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V147" t="n">
         <v>2.1</v>
       </c>
       <c r="W147" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X147" t="n">
         <v>8.5</v>
@@ -27209,7 +27209,7 @@
         <v>9.5</v>
       </c>
       <c r="AE147" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF147" t="n">
         <v>41</v>
@@ -27248,7 +27248,7 @@
         <v>19</v>
       </c>
       <c r="AR147" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS147" t="n">
         <v>81</v>
@@ -27263,10 +27263,10 @@
         <v>41</v>
       </c>
       <c r="AW147" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AX147" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AY147" t="n">
         <v>29</v>
@@ -27349,10 +27349,10 @@
         <v>5</v>
       </c>
       <c r="Q148" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R148" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S148" t="n">
         <v>1.3</v>
@@ -27361,10 +27361,10 @@
         <v>3.4</v>
       </c>
       <c r="U148" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V148" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="W148" t="n">
         <v>11</v>
@@ -27501,28 +27501,28 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H149" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I149" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J149" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="K149" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L149" t="n">
         <v>5.5</v>
       </c>
       <c r="M149" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N149" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O149" t="n">
         <v>1.14</v>
@@ -27531,16 +27531,16 @@
         <v>5.5</v>
       </c>
       <c r="Q149" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R149" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S149" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T149" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U149" t="n">
         <v>1.67</v>
@@ -27549,7 +27549,7 @@
         <v>2.1</v>
       </c>
       <c r="W149" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X149" t="n">
         <v>8.5</v>
@@ -27567,10 +27567,10 @@
         <v>21</v>
       </c>
       <c r="AC149" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD149" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE149" t="n">
         <v>15</v>
@@ -27582,16 +27582,16 @@
         <v>151</v>
       </c>
       <c r="AH149" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI149" t="n">
         <v>34</v>
       </c>
       <c r="AJ149" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK149" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL149" t="n">
         <v>41</v>
@@ -27603,22 +27603,22 @@
         <v>3.75</v>
       </c>
       <c r="AO149" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP149" t="n">
         <v>15</v>
       </c>
       <c r="AQ149" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR149" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS149" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT149" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU149" t="n">
         <v>8</v>
@@ -27630,16 +27630,16 @@
         <v>81</v>
       </c>
       <c r="AX149" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AY149" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ149" t="n">
         <v>29</v>
       </c>
       <c r="BA149" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB149" t="n">
         <v>101</v>
@@ -27883,13 +27883,13 @@
         <v>3.75</v>
       </c>
       <c r="M151" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N151" t="n">
         <v>9</v>
       </c>
       <c r="O151" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P151" t="n">
         <v>3</v>
@@ -27898,7 +27898,7 @@
         <v>2.15</v>
       </c>
       <c r="R151" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S151" t="n">
         <v>1.44</v>
@@ -28065,7 +28065,7 @@
         <v>6</v>
       </c>
       <c r="M152" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N152" t="n">
         <v>13</v>
@@ -28074,13 +28074,13 @@
         <v>1.25</v>
       </c>
       <c r="P152" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q152" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R152" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S152" t="n">
         <v>1.36</v>
@@ -28229,40 +28229,40 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H153" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I153" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J153" t="n">
         <v>3</v>
       </c>
       <c r="K153" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L153" t="n">
         <v>3.4</v>
       </c>
       <c r="M153" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N153" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O153" t="n">
         <v>1.22</v>
       </c>
       <c r="P153" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q153" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R153" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S153" t="n">
         <v>1.36</v>
@@ -28280,19 +28280,19 @@
         <v>9.5</v>
       </c>
       <c r="X153" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y153" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z153" t="n">
         <v>23</v>
       </c>
       <c r="AA153" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB153" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC153" t="n">
         <v>12</v>
@@ -28310,7 +28310,7 @@
         <v>151</v>
       </c>
       <c r="AH153" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI153" t="n">
         <v>15</v>
@@ -28453,10 +28453,10 @@
         <v>2.75</v>
       </c>
       <c r="U154" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V154" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W154" t="n">
         <v>11</v>
@@ -28635,10 +28635,10 @@
         <v>2.63</v>
       </c>
       <c r="U155" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V155" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W155" t="n">
         <v>6.5</v>
@@ -28817,10 +28817,10 @@
         <v>2.5</v>
       </c>
       <c r="U156" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V156" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W156" t="n">
         <v>8</v>
@@ -28957,13 +28957,13 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H157" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I157" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J157" t="n">
         <v>2.75</v>
@@ -28972,7 +28972,7 @@
         <v>2.2</v>
       </c>
       <c r="L157" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M157" t="n">
         <v>1.04</v>
@@ -28999,13 +28999,13 @@
         <v>2.75</v>
       </c>
       <c r="U157" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V157" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W157" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X157" t="n">
         <v>10</v>
@@ -29029,7 +29029,7 @@
         <v>7.5</v>
       </c>
       <c r="AE157" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF157" t="n">
         <v>51</v>
@@ -29038,10 +29038,10 @@
         <v>251</v>
       </c>
       <c r="AH157" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI157" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ157" t="n">
         <v>11</v>
@@ -29050,16 +29050,16 @@
         <v>34</v>
       </c>
       <c r="AL157" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM157" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN157" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO157" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP157" t="n">
         <v>21</v>
@@ -29077,7 +29077,7 @@
         <v>2.75</v>
       </c>
       <c r="AU157" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV157" t="n">
         <v>51</v>
@@ -29089,13 +29089,13 @@
         <v>5.5</v>
       </c>
       <c r="AY157" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ157" t="n">
         <v>26</v>
       </c>
       <c r="BA157" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB157" t="n">
         <v>81</v>
@@ -29181,7 +29181,7 @@
         <v>2.75</v>
       </c>
       <c r="U158" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V158" t="n">
         <v>2.1</v>
@@ -29321,34 +29321,34 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H159" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="I159" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="J159" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="K159" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L159" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M159" t="n">
         <v>1.01</v>
       </c>
       <c r="N159" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="O159" t="n">
         <v>1.22</v>
       </c>
       <c r="P159" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q159" t="n">
         <v>1.65</v>
@@ -29366,82 +29366,82 @@
         <v>1.75</v>
       </c>
       <c r="V159" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="W159" t="n">
         <v>7.5</v>
       </c>
       <c r="X159" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="Y159" t="n">
         <v>8.25</v>
       </c>
       <c r="Z159" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AA159" t="n">
         <v>12</v>
       </c>
       <c r="AB159" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC159" t="n">
         <v>12.5</v>
       </c>
       <c r="AD159" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AE159" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF159" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG159" t="n">
         <v>500</v>
       </c>
       <c r="AH159" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI159" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ159" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK159" t="n">
         <v>90</v>
       </c>
       <c r="AL159" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AM159" t="n">
         <v>50</v>
       </c>
       <c r="AN159" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AO159" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AP159" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AQ159" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR159" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS159" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="AU159" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AV159" t="n">
         <v>70</v>
@@ -29450,10 +29450,10 @@
         <v>81</v>
       </c>
       <c r="AX159" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AY159" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ159" t="n">
         <v>32</v>
@@ -29506,73 +29506,73 @@
         <v>3.15</v>
       </c>
       <c r="H160" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="I160" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J160" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K160" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="L160" t="n">
         <v>3.05</v>
       </c>
       <c r="M160" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N160" t="n">
-        <v>6.95</v>
+        <v>7.2</v>
       </c>
       <c r="O160" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P160" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R160" t="n">
         <v>1.47</v>
       </c>
-      <c r="P160" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q160" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="R160" t="n">
-        <v>1.45</v>
-      </c>
       <c r="S160" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="T160" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="U160" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="V160" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="W160" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="X160" t="n">
         <v>15</v>
       </c>
       <c r="Y160" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="Z160" t="n">
         <v>45</v>
       </c>
       <c r="AA160" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB160" t="n">
         <v>50</v>
       </c>
       <c r="AC160" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AD160" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AE160" t="n">
         <v>16.5</v>
@@ -29584,16 +29584,16 @@
         <v>700</v>
       </c>
       <c r="AH160" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AI160" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AJ160" t="n">
         <v>9.5</v>
       </c>
       <c r="AK160" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL160" t="n">
         <v>23</v>
@@ -29605,28 +29605,28 @@
         <v>4.85</v>
       </c>
       <c r="AO160" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AP160" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AQ160" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AR160" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AS160" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AT160" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="AU160" t="n">
         <v>7.3</v>
       </c>
       <c r="AV160" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW160" t="n">
         <v>81</v>
@@ -29867,40 +29867,40 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H162" t="n">
         <v>3</v>
       </c>
       <c r="I162" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J162" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K162" t="n">
         <v>1.91</v>
       </c>
       <c r="L162" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M162" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N162" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O162" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P162" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q162" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R162" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S162" t="n">
         <v>1.57</v>
@@ -29912,22 +29912,22 @@
         <v>2.2</v>
       </c>
       <c r="V162" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="W162" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X162" t="n">
         <v>12</v>
       </c>
       <c r="Y162" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z162" t="n">
         <v>29</v>
       </c>
       <c r="AA162" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB162" t="n">
         <v>41</v>
@@ -29951,13 +29951,13 @@
         <v>6.5</v>
       </c>
       <c r="AI162" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ162" t="n">
         <v>11</v>
       </c>
       <c r="AK162" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL162" t="n">
         <v>26</v>
@@ -29966,7 +29966,7 @@
         <v>41</v>
       </c>
       <c r="AN162" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO162" t="n">
         <v>17</v>
@@ -30002,7 +30002,7 @@
         <v>17</v>
       </c>
       <c r="AZ162" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA162" t="n">
         <v>51</v>
@@ -30094,7 +30094,7 @@
         <v>2</v>
       </c>
       <c r="V163" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="W163" t="n">
         <v>8</v>
@@ -30276,7 +30276,7 @@
         <v>2</v>
       </c>
       <c r="V164" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="W164" t="n">
         <v>21</v>
@@ -30455,10 +30455,10 @@
         <v>2.63</v>
       </c>
       <c r="U165" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V165" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W165" t="n">
         <v>7</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-20.xlsx
@@ -756,13 +756,13 @@
         <v>1.29</v>
       </c>
       <c r="J2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="K2" t="n">
         <v>2.75</v>
       </c>
       <c r="L2" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="M2" t="n">
         <v>1.02</v>
@@ -771,16 +771,16 @@
         <v>21</v>
       </c>
       <c r="O2" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="R2" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="S2" t="n">
         <v>1.22</v>
@@ -789,10 +789,10 @@
         <v>4</v>
       </c>
       <c r="U2" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="V2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
         <v>29</v>
@@ -834,7 +834,7 @@
         <v>8.5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK2" t="n">
         <v>10</v>
@@ -855,7 +855,7 @@
         <v>34</v>
       </c>
       <c r="AQ2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AR2" t="n">
         <v>126</v>
@@ -876,7 +876,7 @@
         <v>451</v>
       </c>
       <c r="AX2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AY2" t="n">
         <v>6</v>
@@ -894,7 +894,7 @@
         <v>81</v>
       </c>
       <c r="BD2" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H3" t="n">
         <v>4.75</v>
       </c>
       <c r="I3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
@@ -950,7 +950,7 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O3" t="n">
         <v>1.1</v>
@@ -959,7 +959,7 @@
         <v>7</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R3" t="n">
         <v>3.4</v>
@@ -971,10 +971,10 @@
         <v>4.33</v>
       </c>
       <c r="U3" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="V3" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="W3" t="n">
         <v>15</v>
@@ -986,22 +986,22 @@
         <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
         <v>12</v>
       </c>
       <c r="AB3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
         <v>34</v>
@@ -1016,7 +1016,7 @@
         <v>41</v>
       </c>
       <c r="AJ3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK3" t="n">
         <v>51</v>
@@ -1037,7 +1037,7 @@
         <v>13</v>
       </c>
       <c r="AQ3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR3" t="n">
         <v>29</v>
@@ -1061,7 +1061,7 @@
         <v>7.5</v>
       </c>
       <c r="AY3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ3" t="n">
         <v>21</v>
@@ -1076,7 +1076,7 @@
         <v>101</v>
       </c>
       <c r="BD3" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4">
@@ -1141,10 +1141,10 @@
         <v>4.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R4" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S4" t="n">
         <v>1.33</v>
@@ -1153,7 +1153,7 @@
         <v>3.25</v>
       </c>
       <c r="U4" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V4" t="n">
         <v>2.1</v>
@@ -1299,7 +1299,7 @@
         <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J5" t="n">
         <v>3.5</v>
@@ -1308,7 +1308,7 @@
         <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
@@ -1323,10 +1323,10 @@
         <v>4.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="R5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S5" t="n">
         <v>1.33</v>
@@ -1335,7 +1335,7 @@
         <v>3.25</v>
       </c>
       <c r="U5" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V5" t="n">
         <v>2.25</v>
@@ -1356,7 +1356,7 @@
         <v>23</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC5" t="n">
         <v>13</v>
@@ -1374,7 +1374,7 @@
         <v>126</v>
       </c>
       <c r="AH5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
         <v>12</v>
@@ -1395,7 +1395,7 @@
         <v>5</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
         <v>21</v>
@@ -1475,40 +1475,40 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
         <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
         <v>1.5</v>
@@ -1523,22 +1523,22 @@
         <v>1.91</v>
       </c>
       <c r="W6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="n">
         <v>8</v>
@@ -1556,19 +1556,19 @@
         <v>301</v>
       </c>
       <c r="AH6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ6" t="n">
         <v>10</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM6" t="n">
         <v>34</v>
@@ -1580,7 +1580,7 @@
         <v>17</v>
       </c>
       <c r="AP6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ6" t="n">
         <v>51</v>
@@ -1589,13 +1589,13 @@
         <v>81</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT6" t="n">
         <v>2.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
@@ -1604,7 +1604,7 @@
         <v>126</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY6" t="n">
         <v>15</v>
@@ -1616,7 +1616,7 @@
         <v>51</v>
       </c>
       <c r="BB6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC6" t="n">
         <v>201</v>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H7" t="n">
         <v>3.9</v>
@@ -1669,28 +1669,28 @@
         <v>2.1</v>
       </c>
       <c r="K7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L7" t="n">
         <v>6.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
         <v>10</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="P7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R7" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>
@@ -1699,16 +1699,16 @@
         <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y7" t="n">
         <v>8.5</v>
@@ -1729,22 +1729,22 @@
         <v>7.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
         <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AH7" t="n">
         <v>15</v>
       </c>
       <c r="AI7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
         <v>67</v>
@@ -1759,13 +1759,13 @@
         <v>3.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP7" t="n">
         <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR7" t="n">
         <v>51</v>
@@ -1783,7 +1783,7 @@
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AX7" t="n">
         <v>7.5</v>
@@ -1801,7 +1801,7 @@
         <v>151</v>
       </c>
       <c r="BC7" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD7" t="n">
         <v>151</v>
@@ -1845,7 +1845,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="J8" t="n">
         <v>4.33</v>
@@ -1857,22 +1857,22 @@
         <v>2.3</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
         <v>17</v>
       </c>
       <c r="O8" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="R8" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="S8" t="n">
         <v>1.25</v>
@@ -2039,19 +2039,19 @@
         <v>2.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
         <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R9" t="n">
         <v>2</v>
@@ -2072,7 +2072,7 @@
         <v>12</v>
       </c>
       <c r="X9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="n">
         <v>12</v>
@@ -2111,7 +2111,7 @@
         <v>9</v>
       </c>
       <c r="AK9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL9" t="n">
         <v>17</v>
@@ -2212,10 +2212,10 @@
         <v>3.3</v>
       </c>
       <c r="J10" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="K10" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L10" t="n">
         <v>3.6</v>
@@ -2239,10 +2239,10 @@
         <v>2.3</v>
       </c>
       <c r="S10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U10" t="n">
         <v>1.53</v>
@@ -2320,7 +2320,7 @@
         <v>101</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU10" t="n">
         <v>7</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="J11" t="n">
         <v>5.5</v>
       </c>
       <c r="K11" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L11" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
@@ -2409,10 +2409,10 @@
         <v>9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q11" t="n">
         <v>2.1</v>
@@ -2421,10 +2421,10 @@
         <v>1.73</v>
       </c>
       <c r="S11" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T11" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U11" t="n">
         <v>2</v>
@@ -2436,13 +2436,13 @@
         <v>13</v>
       </c>
       <c r="X11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AA11" t="n">
         <v>41</v>
@@ -2454,7 +2454,7 @@
         <v>8.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>17</v>
@@ -2463,13 +2463,13 @@
         <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ11" t="n">
         <v>8.5</v>
@@ -2484,7 +2484,7 @@
         <v>29</v>
       </c>
       <c r="AN11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO11" t="n">
         <v>29</v>
@@ -2502,7 +2502,7 @@
         <v>301</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="AU11" t="n">
         <v>9</v>
@@ -2511,13 +2511,13 @@
         <v>67</v>
       </c>
       <c r="AW11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AX11" t="n">
         <v>3.5</v>
       </c>
       <c r="AY11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AZ11" t="n">
         <v>21</v>
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="J12" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K12" t="n">
         <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
@@ -2591,10 +2591,10 @@
         <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q12" t="n">
         <v>2.1</v>
@@ -2615,19 +2615,19 @@
         <v>1.95</v>
       </c>
       <c r="W12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB12" t="n">
         <v>34</v>
@@ -2648,28 +2648,28 @@
         <v>251</v>
       </c>
       <c r="AH12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL12" t="n">
         <v>21</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>19</v>
       </c>
       <c r="AM12" t="n">
         <v>29</v>
       </c>
       <c r="AN12" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP12" t="n">
         <v>26</v>
@@ -2684,7 +2684,7 @@
         <v>201</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU12" t="n">
         <v>8</v>
@@ -2696,10 +2696,10 @@
         <v>501</v>
       </c>
       <c r="AX12" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ12" t="n">
         <v>23</v>
@@ -2755,13 +2755,13 @@
         <v>4.2</v>
       </c>
       <c r="I13" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="J13" t="n">
         <v>5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L13" t="n">
         <v>2.1</v>
@@ -2785,19 +2785,19 @@
         <v>2.38</v>
       </c>
       <c r="S13" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U13" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="V13" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="W13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X13" t="n">
         <v>29</v>
@@ -2815,7 +2815,7 @@
         <v>41</v>
       </c>
       <c r="AC13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD13" t="n">
         <v>8</v>
@@ -2830,10 +2830,10 @@
         <v>151</v>
       </c>
       <c r="AH13" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ13" t="n">
         <v>8.5</v>
@@ -2860,22 +2860,22 @@
         <v>81</v>
       </c>
       <c r="AR13" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS13" t="n">
         <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW13" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AX13" t="n">
         <v>3.75</v>
@@ -2884,10 +2884,10 @@
         <v>8</v>
       </c>
       <c r="AZ13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB13" t="n">
         <v>41</v>
@@ -2896,7 +2896,7 @@
         <v>101</v>
       </c>
       <c r="BD13" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14">
@@ -2961,10 +2961,10 @@
         <v>3.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R14" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S14" t="n">
         <v>1.44</v>
@@ -3048,7 +3048,7 @@
         <v>201</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU14" t="n">
         <v>8</v>
@@ -3119,7 +3119,7 @@
         <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J15" t="n">
         <v>4.5</v>
@@ -3295,10 +3295,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I16" t="n">
         <v>3.2</v>
@@ -3307,28 +3307,28 @@
         <v>3.1</v>
       </c>
       <c r="K16" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L16" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="R16" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="S16" t="n">
         <v>1.5</v>
@@ -3337,19 +3337,19 @@
         <v>2.5</v>
       </c>
       <c r="U16" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X16" t="n">
         <v>10</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z16" t="n">
         <v>21</v>
@@ -3361,22 +3361,22 @@
         <v>34</v>
       </c>
       <c r="AC16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD16" t="n">
         <v>6</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG16" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AH16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI16" t="n">
         <v>15</v>
@@ -3403,13 +3403,13 @@
         <v>26</v>
       </c>
       <c r="AQ16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS16" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT16" t="n">
         <v>2.5</v>
@@ -3418,7 +3418,7 @@
         <v>8.5</v>
       </c>
       <c r="AV16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW16" t="n">
         <v>501</v>
@@ -3433,10 +3433,10 @@
         <v>29</v>
       </c>
       <c r="BA16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB16" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC16" t="n">
         <v>251</v>
@@ -3480,7 +3480,7 @@
         <v>2.8</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I17" t="n">
         <v>2.5</v>
@@ -3492,7 +3492,7 @@
         <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
@@ -3507,10 +3507,10 @@
         <v>3.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="R17" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="S17" t="n">
         <v>1.4</v>
@@ -3525,7 +3525,7 @@
         <v>2</v>
       </c>
       <c r="W17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X17" t="n">
         <v>13</v>
@@ -3558,7 +3558,7 @@
         <v>201</v>
       </c>
       <c r="AH17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI17" t="n">
         <v>12</v>
@@ -3659,13 +3659,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H18" t="n">
         <v>5.25</v>
       </c>
       <c r="I18" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="J18" t="n">
         <v>6.5</v>
@@ -3716,7 +3716,7 @@
         <v>19</v>
       </c>
       <c r="Z18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AA18" t="n">
         <v>41</v>
@@ -3725,19 +3725,19 @@
         <v>41</v>
       </c>
       <c r="AC18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
         <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH18" t="n">
         <v>9.5</v>
@@ -3785,7 +3785,7 @@
         <v>41</v>
       </c>
       <c r="AW18" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AX18" t="n">
         <v>3.6</v>
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J19" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K19" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L19" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
         <v>1.05</v>
@@ -3877,16 +3877,16 @@
         <v>1.93</v>
       </c>
       <c r="S19" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T19" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U19" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V19" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
         <v>8</v>
@@ -3895,7 +3895,7 @@
         <v>9.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z19" t="n">
         <v>17</v>
@@ -3904,10 +3904,10 @@
         <v>15</v>
       </c>
       <c r="AB19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD19" t="n">
         <v>6.5</v>
@@ -3922,7 +3922,7 @@
         <v>201</v>
       </c>
       <c r="AH19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI19" t="n">
         <v>21</v>
@@ -3943,25 +3943,25 @@
         <v>4</v>
       </c>
       <c r="AO19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR19" t="n">
         <v>51</v>
       </c>
       <c r="AS19" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT19" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV19" t="n">
         <v>51</v>
@@ -3985,7 +3985,7 @@
         <v>81</v>
       </c>
       <c r="BC19" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD19" t="n">
         <v>151</v>
@@ -4235,10 +4235,10 @@
         <v>3.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="R21" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="S21" t="n">
         <v>1.4</v>
@@ -4262,7 +4262,7 @@
         <v>9.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA21" t="n">
         <v>13</v>
@@ -4286,7 +4286,7 @@
         <v>451</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI21" t="n">
         <v>41</v>
@@ -4343,7 +4343,7 @@
         <v>51</v>
       </c>
       <c r="BA21" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BB21" t="n">
         <v>301</v>
@@ -4352,7 +4352,7 @@
         <v>501</v>
       </c>
       <c r="BD21" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22">
@@ -4411,16 +4411,16 @@
         <v>9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P22" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R22" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="S22" t="n">
         <v>1.44</v>
@@ -4572,7 +4572,7 @@
         <v>1.3</v>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="I23" t="n">
         <v>8</v>
@@ -4599,7 +4599,7 @@
         <v>6</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="R23" t="n">
         <v>3</v>
@@ -4617,10 +4617,10 @@
         <v>2.05</v>
       </c>
       <c r="W23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X23" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y23" t="n">
         <v>9</v>
@@ -4701,7 +4701,7 @@
         <v>9.5</v>
       </c>
       <c r="AY23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ23" t="n">
         <v>34</v>
@@ -4784,7 +4784,7 @@
         <v>2.7</v>
       </c>
       <c r="R24" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S24" t="n">
         <v>1.57</v>
@@ -4933,7 +4933,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H25" t="n">
         <v>3.1</v>
@@ -5115,7 +5115,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="H26" t="n">
         <v>3</v>
@@ -5297,7 +5297,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H27" t="n">
         <v>3.2</v>
@@ -5327,10 +5327,10 @@
         <v>2.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R27" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S27" t="n">
         <v>1.57</v>
@@ -5479,7 +5479,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H28" t="n">
         <v>3.3</v>
@@ -6025,28 +6025,28 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="H31" t="n">
         <v>3.9</v>
       </c>
       <c r="I31" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K31" t="n">
         <v>2.38</v>
       </c>
       <c r="L31" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O31" t="n">
         <v>1.18</v>
@@ -6055,10 +6055,10 @@
         <v>4.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R31" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S31" t="n">
         <v>1.3</v>
@@ -6073,10 +6073,10 @@
         <v>2.25</v>
       </c>
       <c r="W31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y31" t="n">
         <v>11</v>
@@ -6085,10 +6085,10 @@
         <v>34</v>
       </c>
       <c r="AA31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC31" t="n">
         <v>17</v>
@@ -6109,13 +6109,13 @@
         <v>10</v>
       </c>
       <c r="AI31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ31" t="n">
         <v>9</v>
       </c>
       <c r="AK31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL31" t="n">
         <v>15</v>
@@ -6127,7 +6127,7 @@
         <v>5.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP31" t="n">
         <v>21</v>
@@ -6136,7 +6136,7 @@
         <v>51</v>
       </c>
       <c r="AR31" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS31" t="n">
         <v>126</v>
@@ -6151,22 +6151,22 @@
         <v>41</v>
       </c>
       <c r="AW31" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AX31" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB31" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BC31" t="n">
         <v>101</v>
@@ -6222,7 +6222,7 @@
         <v>2.2</v>
       </c>
       <c r="L32" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="M32" t="n">
         <v>1.05</v>
@@ -6237,10 +6237,10 @@
         <v>3.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R32" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S32" t="n">
         <v>1.4</v>
@@ -6410,7 +6410,7 @@
         <v>1.02</v>
       </c>
       <c r="N33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O33" t="n">
         <v>1.14</v>
@@ -6777,16 +6777,16 @@
         <v>15</v>
       </c>
       <c r="O35" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P35" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R35" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S35" t="n">
         <v>1.29</v>
@@ -6953,10 +6953,10 @@
         <v>2.88</v>
       </c>
       <c r="M36" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N36" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O36" t="n">
         <v>1.25</v>
@@ -6965,10 +6965,10 @@
         <v>3.75</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R36" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="S36" t="n">
         <v>1.36</v>
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H37" t="n">
         <v>3.1</v>
       </c>
       <c r="I37" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J37" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K37" t="n">
         <v>2.05</v>
       </c>
       <c r="L37" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M37" t="n">
         <v>1.07</v>
@@ -7147,10 +7147,10 @@
         <v>3</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R37" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S37" t="n">
         <v>1.5</v>
@@ -7168,13 +7168,13 @@
         <v>8</v>
       </c>
       <c r="X37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y37" t="n">
         <v>11</v>
       </c>
       <c r="Z37" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA37" t="n">
         <v>23</v>
@@ -7219,7 +7219,7 @@
         <v>4.75</v>
       </c>
       <c r="AO37" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP37" t="n">
         <v>26</v>
@@ -7502,19 +7502,19 @@
         <v>1.03</v>
       </c>
       <c r="N39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O39" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P39" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R39" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S39" t="n">
         <v>1.29</v>
@@ -7693,10 +7693,10 @@
         <v>4.33</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R40" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S40" t="n">
         <v>1.33</v>
@@ -7705,7 +7705,7 @@
         <v>3.25</v>
       </c>
       <c r="U40" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V40" t="n">
         <v>2.25</v>
@@ -7875,10 +7875,10 @@
         <v>3.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="R41" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="S41" t="n">
         <v>1.4</v>
@@ -7887,10 +7887,10 @@
         <v>2.75</v>
       </c>
       <c r="U41" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V41" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W41" t="n">
         <v>7.5</v>
@@ -8069,7 +8069,7 @@
         <v>3</v>
       </c>
       <c r="U42" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="V42" t="n">
         <v>2.2</v>
@@ -8773,22 +8773,22 @@
         <v>5</v>
       </c>
       <c r="M46" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O46" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P46" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R46" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S46" t="n">
         <v>1.53</v>
@@ -8940,100 +8940,100 @@
         <v>2.45</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I47" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L47" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N47" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q47" t="n">
         <v>3.1</v>
       </c>
-      <c r="J47" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K47" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L47" t="n">
-        <v>4</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N47" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P47" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>2.6</v>
-      </c>
       <c r="R47" t="n">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="S47" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="T47" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="U47" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="V47" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="W47" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X47" t="n">
         <v>10</v>
       </c>
       <c r="Y47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z47" t="n">
         <v>23</v>
       </c>
       <c r="AA47" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB47" t="n">
         <v>41</v>
       </c>
       <c r="AC47" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AD47" t="n">
         <v>6</v>
       </c>
       <c r="AE47" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF47" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG47" t="n">
         <v>201</v>
       </c>
       <c r="AH47" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI47" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ47" t="n">
         <v>13</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>12</v>
       </c>
       <c r="AK47" t="n">
         <v>34</v>
       </c>
       <c r="AL47" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM47" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN47" t="n">
         <v>4.33</v>
@@ -9042,25 +9042,25 @@
         <v>15</v>
       </c>
       <c r="AP47" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ47" t="n">
         <v>51</v>
       </c>
       <c r="AR47" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV47" t="n">
         <v>81</v>
-      </c>
-      <c r="AS47" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT47" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU47" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV47" t="n">
-        <v>67</v>
       </c>
       <c r="AW47" t="n">
         <v>81</v>
@@ -9069,19 +9069,19 @@
         <v>5</v>
       </c>
       <c r="AY47" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ47" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA47" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB47" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC47" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD47" t="n">
         <v>81</v>
@@ -9137,22 +9137,22 @@
         <v>7.5</v>
       </c>
       <c r="M48" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N48" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O48" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P48" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R48" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S48" t="n">
         <v>1.44</v>
@@ -9492,7 +9492,7 @@
         <v>1.14</v>
       </c>
       <c r="J50" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K50" t="n">
         <v>2.75</v>
@@ -9501,10 +9501,10 @@
         <v>1.53</v>
       </c>
       <c r="M50" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N50" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O50" t="n">
         <v>1.22</v>
@@ -9519,37 +9519,37 @@
         <v>2.1</v>
       </c>
       <c r="S50" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T50" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U50" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V50" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W50" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X50" t="n">
         <v>81</v>
       </c>
       <c r="Y50" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z50" t="n">
         <v>351</v>
       </c>
       <c r="AA50" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AB50" t="n">
         <v>151</v>
       </c>
       <c r="AC50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD50" t="n">
         <v>13</v>
@@ -9564,13 +9564,13 @@
         <v>201</v>
       </c>
       <c r="AH50" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI50" t="n">
         <v>5</v>
       </c>
       <c r="AJ50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK50" t="n">
         <v>6</v>
@@ -9588,7 +9588,7 @@
         <v>81</v>
       </c>
       <c r="AP50" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AQ50" t="n">
         <v>501</v>
@@ -9600,10 +9600,10 @@
         <v>501</v>
       </c>
       <c r="AT50" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU50" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AV50" t="n">
         <v>101</v>
@@ -9618,7 +9618,7 @@
         <v>4.75</v>
       </c>
       <c r="AZ50" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA50" t="n">
         <v>12</v>
@@ -9627,7 +9627,7 @@
         <v>41</v>
       </c>
       <c r="BC50" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD50" t="n">
         <v>51</v>
@@ -9665,22 +9665,22 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="H51" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I51" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="J51" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="K51" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L51" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="M51" t="n">
         <v>1.08</v>
@@ -9695,10 +9695,10 @@
         <v>3</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R51" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S51" t="n">
         <v>1.44</v>
@@ -9713,70 +9713,70 @@
         <v>1.73</v>
       </c>
       <c r="W51" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X51" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y51" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z51" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA51" t="n">
         <v>41</v>
       </c>
       <c r="AB51" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC51" t="n">
         <v>8</v>
       </c>
       <c r="AD51" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE51" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF51" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG51" t="n">
         <v>351</v>
       </c>
       <c r="AH51" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI51" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AJ51" t="n">
         <v>9</v>
       </c>
       <c r="AK51" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AL51" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM51" t="n">
         <v>34</v>
       </c>
       <c r="AN51" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO51" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AP51" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ51" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR51" t="n">
         <v>101</v>
-      </c>
-      <c r="AR51" t="n">
-        <v>126</v>
       </c>
       <c r="AS51" t="n">
         <v>301</v>
@@ -9785,7 +9785,7 @@
         <v>2.63</v>
       </c>
       <c r="AU51" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV51" t="n">
         <v>67</v>
@@ -9794,19 +9794,19 @@
         <v>126</v>
       </c>
       <c r="AX51" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AY51" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AZ51" t="n">
         <v>23</v>
       </c>
       <c r="BA51" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB51" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC51" t="n">
         <v>201</v>
@@ -10393,13 +10393,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H55" t="n">
         <v>4.1</v>
       </c>
       <c r="I55" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J55" t="n">
         <v>2.05</v>
@@ -10435,22 +10435,22 @@
         <v>3.5</v>
       </c>
       <c r="U55" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V55" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W55" t="n">
         <v>8.5</v>
       </c>
       <c r="X55" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y55" t="n">
         <v>8.5</v>
       </c>
       <c r="Z55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA55" t="n">
         <v>12</v>
@@ -10483,7 +10483,7 @@
         <v>19</v>
       </c>
       <c r="AK55" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL55" t="n">
         <v>41</v>
@@ -10492,7 +10492,7 @@
         <v>41</v>
       </c>
       <c r="AN55" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO55" t="n">
         <v>7.5</v>
@@ -10522,22 +10522,22 @@
         <v>126</v>
       </c>
       <c r="AX55" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY55" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ55" t="n">
         <v>29</v>
       </c>
       <c r="BA55" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB55" t="n">
         <v>101</v>
       </c>
       <c r="BC55" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD55" t="n">
         <v>151</v>
@@ -10611,7 +10611,7 @@
         <v>2.05</v>
       </c>
       <c r="S56" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T56" t="n">
         <v>3.25</v>
@@ -10757,22 +10757,22 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.63</v>
+        <v>3.3</v>
       </c>
       <c r="H57" t="n">
         <v>3.4</v>
       </c>
       <c r="I57" t="n">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="J57" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="K57" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L57" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M57" t="n">
         <v>1.05</v>
@@ -10781,103 +10781,103 @@
         <v>11</v>
       </c>
       <c r="O57" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P57" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="R57" t="n">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="S57" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T57" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U57" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="V57" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W57" t="n">
         <v>10</v>
       </c>
       <c r="X57" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Y57" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC57" t="n">
         <v>10</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>12</v>
       </c>
       <c r="AD57" t="n">
         <v>6.5</v>
       </c>
       <c r="AE57" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF57" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG57" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AH57" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI57" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AJ57" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK57" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AL57" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM57" t="n">
         <v>26</v>
       </c>
       <c r="AN57" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AO57" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AP57" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ57" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR57" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS57" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT57" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU57" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV57" t="n">
         <v>51</v>
@@ -10886,10 +10886,10 @@
         <v>501</v>
       </c>
       <c r="AX57" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AY57" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ57" t="n">
         <v>21</v>
@@ -10957,10 +10957,10 @@
         <v>4.75</v>
       </c>
       <c r="M58" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N58" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O58" t="n">
         <v>1.25</v>
@@ -10975,7 +10975,7 @@
         <v>2</v>
       </c>
       <c r="S58" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T58" t="n">
         <v>3</v>
@@ -10999,10 +10999,10 @@
         <v>15</v>
       </c>
       <c r="AA58" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB58" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC58" t="n">
         <v>11</v>
@@ -11017,10 +11017,10 @@
         <v>51</v>
       </c>
       <c r="AG58" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH58" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI58" t="n">
         <v>23</v>
@@ -11029,7 +11029,7 @@
         <v>15</v>
       </c>
       <c r="AK58" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL58" t="n">
         <v>34</v>
@@ -11041,7 +11041,7 @@
         <v>3.75</v>
       </c>
       <c r="AO58" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP58" t="n">
         <v>19</v>
@@ -11068,7 +11068,7 @@
         <v>501</v>
       </c>
       <c r="AX58" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AY58" t="n">
         <v>23</v>
@@ -11303,16 +11303,16 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H60" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I60" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J60" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K60" t="n">
         <v>2</v>
@@ -11336,7 +11336,7 @@
         <v>2.5</v>
       </c>
       <c r="R60" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S60" t="n">
         <v>1.53</v>
@@ -11354,13 +11354,13 @@
         <v>5</v>
       </c>
       <c r="X60" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y60" t="n">
         <v>9.5</v>
       </c>
       <c r="Z60" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA60" t="n">
         <v>17</v>
@@ -11372,10 +11372,10 @@
         <v>6.5</v>
       </c>
       <c r="AD60" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE60" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF60" t="n">
         <v>81</v>
@@ -11393,16 +11393,16 @@
         <v>19</v>
       </c>
       <c r="AK60" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL60" t="n">
         <v>51</v>
       </c>
       <c r="AM60" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN60" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO60" t="n">
         <v>9.5</v>
@@ -11432,7 +11432,7 @@
         <v>126</v>
       </c>
       <c r="AX60" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY60" t="n">
         <v>34</v>
@@ -11441,7 +11441,7 @@
         <v>41</v>
       </c>
       <c r="BA60" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB60" t="n">
         <v>201</v>
@@ -11485,10 +11485,10 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H61" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="I61" t="n">
         <v>3.7</v>
@@ -11515,10 +11515,10 @@
         <v>2.25</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="R61" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="S61" t="n">
         <v>1.62</v>
@@ -11667,22 +11667,22 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="H62" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I62" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="J62" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K62" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L62" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="M62" t="n">
         <v>1.06</v>
@@ -11697,10 +11697,10 @@
         <v>3.5</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="R62" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="S62" t="n">
         <v>1.4</v>
@@ -11715,13 +11715,13 @@
         <v>1.83</v>
       </c>
       <c r="W62" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X62" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y62" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z62" t="n">
         <v>51</v>
@@ -11739,46 +11739,46 @@
         <v>7</v>
       </c>
       <c r="AE62" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF62" t="n">
         <v>51</v>
       </c>
       <c r="AG62" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH62" t="n">
         <v>7</v>
       </c>
       <c r="AI62" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AJ62" t="n">
         <v>8.5</v>
       </c>
       <c r="AK62" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL62" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM62" t="n">
         <v>26</v>
       </c>
       <c r="AN62" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO62" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP62" t="n">
         <v>34</v>
       </c>
       <c r="AQ62" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR62" t="n">
         <v>101</v>
-      </c>
-      <c r="AR62" t="n">
-        <v>126</v>
       </c>
       <c r="AS62" t="n">
         <v>251</v>
@@ -11799,13 +11799,13 @@
         <v>3.6</v>
       </c>
       <c r="AY62" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AZ62" t="n">
         <v>21</v>
       </c>
       <c r="BA62" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BB62" t="n">
         <v>51</v>
@@ -12031,22 +12031,22 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="H64" t="n">
         <v>3.4</v>
       </c>
       <c r="I64" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J64" t="n">
         <v>3</v>
       </c>
-      <c r="J64" t="n">
-        <v>2.88</v>
-      </c>
       <c r="K64" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L64" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M64" t="n">
         <v>1.04</v>
@@ -12082,16 +12082,16 @@
         <v>10</v>
       </c>
       <c r="X64" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y64" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z64" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA64" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB64" t="n">
         <v>23</v>
@@ -12109,19 +12109,19 @@
         <v>41</v>
       </c>
       <c r="AG64" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH64" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI64" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ64" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK64" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL64" t="n">
         <v>21</v>
@@ -12130,13 +12130,13 @@
         <v>26</v>
       </c>
       <c r="AN64" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO64" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP64" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ64" t="n">
         <v>41</v>
@@ -12169,10 +12169,10 @@
         <v>21</v>
       </c>
       <c r="BA64" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB64" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC64" t="n">
         <v>126</v>
@@ -12213,10 +12213,10 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H65" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I65" t="n">
         <v>5.75</v>
@@ -12225,10 +12225,10 @@
         <v>2.1</v>
       </c>
       <c r="K65" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L65" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M65" t="n">
         <v>1.04</v>
@@ -12237,31 +12237,31 @@
         <v>13</v>
       </c>
       <c r="O65" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P65" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R65" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S65" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T65" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U65" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V65" t="n">
         <v>1.95</v>
       </c>
-      <c r="V65" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W65" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X65" t="n">
         <v>7.5</v>
@@ -12273,16 +12273,16 @@
         <v>11</v>
       </c>
       <c r="AA65" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB65" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC65" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD65" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE65" t="n">
         <v>17</v>
@@ -12291,7 +12291,7 @@
         <v>51</v>
       </c>
       <c r="AG65" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH65" t="n">
         <v>15</v>
@@ -12303,7 +12303,7 @@
         <v>17</v>
       </c>
       <c r="AK65" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL65" t="n">
         <v>41</v>
@@ -12312,10 +12312,10 @@
         <v>41</v>
       </c>
       <c r="AN65" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO65" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP65" t="n">
         <v>19</v>
@@ -12327,10 +12327,10 @@
         <v>41</v>
       </c>
       <c r="AS65" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT65" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU65" t="n">
         <v>8.5</v>
@@ -12357,7 +12357,7 @@
         <v>126</v>
       </c>
       <c r="BC65" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD65" t="n">
         <v>81</v>
@@ -12419,10 +12419,10 @@
         <v>9</v>
       </c>
       <c r="O66" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P66" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q66" t="n">
         <v>2.2</v>
@@ -12583,7 +12583,7 @@
         <v>4.5</v>
       </c>
       <c r="I67" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="J67" t="n">
         <v>6.5</v>
@@ -12765,7 +12765,7 @@
         <v>3.7</v>
       </c>
       <c r="I68" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J68" t="n">
         <v>3.6</v>
@@ -12789,7 +12789,7 @@
         <v>4.33</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="R68" t="n">
         <v>2.15</v>
@@ -12947,7 +12947,7 @@
         <v>3.6</v>
       </c>
       <c r="I69" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J69" t="n">
         <v>3.6</v>
@@ -12959,10 +12959,10 @@
         <v>2.75</v>
       </c>
       <c r="M69" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N69" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O69" t="n">
         <v>1.22</v>
@@ -12971,10 +12971,10 @@
         <v>4</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R69" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S69" t="n">
         <v>1.33</v>
@@ -13123,16 +13123,16 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H70" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I70" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J70" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K70" t="n">
         <v>2.6</v>
@@ -13153,10 +13153,10 @@
         <v>5.5</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R70" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S70" t="n">
         <v>1.25</v>
@@ -13204,16 +13204,16 @@
         <v>151</v>
       </c>
       <c r="AH70" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI70" t="n">
         <v>34</v>
       </c>
       <c r="AJ70" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK70" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL70" t="n">
         <v>41</v>
@@ -13225,16 +13225,16 @@
         <v>3.75</v>
       </c>
       <c r="AO70" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP70" t="n">
         <v>15</v>
       </c>
       <c r="AQ70" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR70" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS70" t="n">
         <v>81</v>
@@ -13243,7 +13243,7 @@
         <v>3.75</v>
       </c>
       <c r="AU70" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV70" t="n">
         <v>41</v>
@@ -13261,10 +13261,10 @@
         <v>29</v>
       </c>
       <c r="BA70" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB70" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC70" t="n">
         <v>151</v>
@@ -13669,7 +13669,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H73" t="n">
         <v>3.1</v>
@@ -13699,7 +13699,7 @@
         <v>3</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R73" t="n">
         <v>1.62</v>
@@ -13735,7 +13735,7 @@
         <v>34</v>
       </c>
       <c r="AC73" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD73" t="n">
         <v>6</v>
@@ -13750,7 +13750,7 @@
         <v>351</v>
       </c>
       <c r="AH73" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI73" t="n">
         <v>21</v>
@@ -13884,7 +13884,7 @@
         <v>2.1</v>
       </c>
       <c r="R74" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S74" t="n">
         <v>1.44</v>
@@ -14066,7 +14066,7 @@
         <v>2.25</v>
       </c>
       <c r="R75" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S75" t="n">
         <v>1.5</v>
@@ -14215,40 +14215,40 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="H76" t="n">
         <v>3.4</v>
       </c>
       <c r="I76" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="J76" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K76" t="n">
         <v>2.2</v>
       </c>
       <c r="L76" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M76" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N76" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O76" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P76" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R76" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="S76" t="n">
         <v>1.36</v>
@@ -14257,10 +14257,10 @@
         <v>3</v>
       </c>
       <c r="U76" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V76" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W76" t="n">
         <v>10</v>
@@ -14269,19 +14269,19 @@
         <v>15</v>
       </c>
       <c r="Y76" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z76" t="n">
         <v>29</v>
       </c>
       <c r="AA76" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB76" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC76" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD76" t="n">
         <v>6.5</v>
@@ -14296,10 +14296,10 @@
         <v>151</v>
       </c>
       <c r="AH76" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI76" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ76" t="n">
         <v>9.5</v>
@@ -14314,13 +14314,13 @@
         <v>26</v>
       </c>
       <c r="AN76" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO76" t="n">
         <v>15</v>
       </c>
       <c r="AP76" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ76" t="n">
         <v>51</v>
@@ -14359,7 +14359,7 @@
         <v>51</v>
       </c>
       <c r="BC76" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD76" t="n">
         <v>151</v>
@@ -14397,22 +14397,22 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="H77" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="I77" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="J77" t="n">
         <v>1.95</v>
       </c>
       <c r="K77" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="L77" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="M77" t="n">
         <v>1.01</v>
@@ -14421,10 +14421,10 @@
         <v>14.2</v>
       </c>
       <c r="O77" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="P77" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Q77" t="n">
         <v>1.53</v>
@@ -14433,40 +14433,40 @@
         <v>2.18</v>
       </c>
       <c r="S77" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="T77" t="n">
-        <v>3.7</v>
+        <v>3.91</v>
       </c>
       <c r="U77" t="n">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="V77" t="n">
-        <v>2.36</v>
+        <v>2.11</v>
       </c>
       <c r="W77" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="X77" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="Y77" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="Z77" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AA77" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AB77" t="n">
         <v>14.5</v>
       </c>
       <c r="AC77" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AD77" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AE77" t="n">
         <v>11.25</v>
@@ -14478,28 +14478,28 @@
         <v>175</v>
       </c>
       <c r="AH77" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI77" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL77" t="n">
         <v>32</v>
       </c>
-      <c r="AJ77" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK77" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL77" t="n">
-        <v>37</v>
-      </c>
       <c r="AM77" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN77" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AO77" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AP77" t="n">
         <v>13</v>
@@ -14514,7 +14514,7 @@
         <v>120</v>
       </c>
       <c r="AT77" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="AU77" t="n">
         <v>6.7</v>
@@ -14526,16 +14526,16 @@
         <v>51</v>
       </c>
       <c r="AX77" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AY77" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AZ77" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BA77" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BB77" t="n">
         <v>150</v>
@@ -14603,10 +14603,10 @@
         <v>11.5</v>
       </c>
       <c r="O78" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P78" t="n">
-        <v>3.85</v>
+        <v>3.88</v>
       </c>
       <c r="Q78" t="n">
         <v>1.62</v>
@@ -14773,19 +14773,19 @@
         <v>2.5</v>
       </c>
       <c r="K79" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L79" t="n">
         <v>4</v>
       </c>
       <c r="M79" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N79" t="n">
         <v>15</v>
       </c>
       <c r="O79" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P79" t="n">
         <v>4.33</v>
@@ -14943,46 +14943,46 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H80" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I80" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K80" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L80" t="n">
         <v>4.33</v>
       </c>
-      <c r="J80" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K80" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="L80" t="n">
-        <v>4</v>
-      </c>
       <c r="M80" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N80" t="n">
         <v>21</v>
       </c>
       <c r="O80" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="P80" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R80" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="S80" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="T80" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="U80" t="n">
         <v>1.4</v>
@@ -15003,19 +15003,19 @@
         <v>15</v>
       </c>
       <c r="AA80" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB80" t="n">
         <v>17</v>
       </c>
       <c r="AC80" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD80" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE80" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF80" t="n">
         <v>29</v>
@@ -15024,7 +15024,7 @@
         <v>81</v>
       </c>
       <c r="AH80" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI80" t="n">
         <v>29</v>
@@ -15045,13 +15045,13 @@
         <v>4.33</v>
       </c>
       <c r="AO80" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP80" t="n">
         <v>13</v>
       </c>
       <c r="AQ80" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR80" t="n">
         <v>34</v>
@@ -15060,7 +15060,7 @@
         <v>67</v>
       </c>
       <c r="AT80" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AU80" t="n">
         <v>7</v>
@@ -15069,10 +15069,10 @@
         <v>34</v>
       </c>
       <c r="AW80" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AX80" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY80" t="n">
         <v>21</v>
@@ -15125,16 +15125,16 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H81" t="n">
         <v>3.6</v>
       </c>
       <c r="I81" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J81" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K81" t="n">
         <v>2.3</v>
@@ -15143,34 +15143,34 @@
         <v>2.6</v>
       </c>
       <c r="M81" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N81" t="n">
         <v>13</v>
       </c>
       <c r="O81" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P81" t="n">
         <v>4.33</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R81" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S81" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T81" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U81" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V81" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W81" t="n">
         <v>13</v>
@@ -15179,7 +15179,7 @@
         <v>21</v>
       </c>
       <c r="Y81" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z81" t="n">
         <v>41</v>
@@ -15197,16 +15197,16 @@
         <v>7</v>
       </c>
       <c r="AE81" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF81" t="n">
         <v>41</v>
       </c>
       <c r="AG81" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH81" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI81" t="n">
         <v>11</v>
@@ -15215,7 +15215,7 @@
         <v>9</v>
       </c>
       <c r="AK81" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL81" t="n">
         <v>15</v>
@@ -15227,7 +15227,7 @@
         <v>5.5</v>
       </c>
       <c r="AO81" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP81" t="n">
         <v>23</v>
@@ -15239,10 +15239,10 @@
         <v>67</v>
       </c>
       <c r="AS81" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT81" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU81" t="n">
         <v>7.5</v>
@@ -15257,7 +15257,7 @@
         <v>4.33</v>
       </c>
       <c r="AY81" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ81" t="n">
         <v>19</v>
@@ -15307,22 +15307,22 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="H82" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I82" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J82" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K82" t="n">
         <v>2.5</v>
       </c>
       <c r="L82" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M82" t="n">
         <v>1.03</v>
@@ -15349,22 +15349,22 @@
         <v>3.5</v>
       </c>
       <c r="U82" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V82" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W82" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X82" t="n">
         <v>9</v>
-      </c>
-      <c r="X82" t="n">
-        <v>8.5</v>
       </c>
       <c r="Y82" t="n">
         <v>8.5</v>
       </c>
       <c r="Z82" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA82" t="n">
         <v>12</v>
@@ -15376,10 +15376,10 @@
         <v>17</v>
       </c>
       <c r="AD82" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE82" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF82" t="n">
         <v>41</v>
@@ -15388,10 +15388,10 @@
         <v>151</v>
       </c>
       <c r="AH82" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI82" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ82" t="n">
         <v>17</v>
@@ -15400,22 +15400,22 @@
         <v>51</v>
       </c>
       <c r="AL82" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM82" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN82" t="n">
         <v>3.75</v>
       </c>
       <c r="AO82" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP82" t="n">
         <v>15</v>
       </c>
       <c r="AQ82" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR82" t="n">
         <v>41</v>
@@ -15427,7 +15427,7 @@
         <v>3.5</v>
       </c>
       <c r="AU82" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV82" t="n">
         <v>41</v>
@@ -15436,13 +15436,13 @@
         <v>81</v>
       </c>
       <c r="AX82" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY82" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ82" t="n">
         <v>26</v>
-      </c>
-      <c r="AZ82" t="n">
-        <v>29</v>
       </c>
       <c r="BA82" t="n">
         <v>81</v>
@@ -15489,28 +15489,28 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="H83" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I83" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="J83" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K83" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L83" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="M83" t="n">
         <v>1.04</v>
       </c>
       <c r="N83" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O83" t="n">
         <v>1.22</v>
@@ -15519,16 +15519,16 @@
         <v>4</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R83" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S83" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T83" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U83" t="n">
         <v>1.67</v>
@@ -15540,13 +15540,13 @@
         <v>8.5</v>
       </c>
       <c r="X83" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Y83" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z83" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA83" t="n">
         <v>15</v>
@@ -15570,28 +15570,28 @@
         <v>151</v>
       </c>
       <c r="AH83" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI83" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ83" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK83" t="n">
         <v>41</v>
       </c>
       <c r="AL83" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM83" t="n">
         <v>29</v>
       </c>
-      <c r="AM83" t="n">
-        <v>34</v>
-      </c>
       <c r="AN83" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO83" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP83" t="n">
         <v>19</v>
@@ -15606,7 +15606,7 @@
         <v>126</v>
       </c>
       <c r="AT83" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU83" t="n">
         <v>7.5</v>
@@ -15618,19 +15618,19 @@
         <v>81</v>
       </c>
       <c r="AX83" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY83" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ83" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA83" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB83" t="n">
         <v>67</v>
-      </c>
-      <c r="BB83" t="n">
-        <v>81</v>
       </c>
       <c r="BC83" t="n">
         <v>151</v>
@@ -15853,40 +15853,40 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H85" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I85" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J85" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K85" t="n">
         <v>2.2</v>
       </c>
       <c r="L85" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M85" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N85" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O85" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P85" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q85" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R85" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S85" t="n">
         <v>1.4</v>
@@ -15901,13 +15901,13 @@
         <v>1.83</v>
       </c>
       <c r="W85" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X85" t="n">
         <v>21</v>
       </c>
       <c r="Y85" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z85" t="n">
         <v>41</v>
@@ -15949,7 +15949,7 @@
         <v>15</v>
       </c>
       <c r="AM85" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN85" t="n">
         <v>6</v>
@@ -15985,13 +15985,13 @@
         <v>3.75</v>
       </c>
       <c r="AY85" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AZ85" t="n">
         <v>21</v>
       </c>
       <c r="BA85" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BB85" t="n">
         <v>51</v>
@@ -16056,19 +16056,19 @@
         <v>1.04</v>
       </c>
       <c r="N86" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O86" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P86" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="R86" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S86" t="n">
         <v>1.36</v>
@@ -16247,10 +16247,10 @@
         <v>5.5</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="R87" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S87" t="n">
         <v>1.25</v>
@@ -16399,151 +16399,151 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="H88" t="n">
-        <v>4.3</v>
+        <v>4.45</v>
       </c>
       <c r="I88" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J88" t="n">
-        <v>3.8</v>
+        <v>4.15</v>
       </c>
       <c r="K88" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="L88" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="M88" t="n">
         <v>1.02</v>
       </c>
       <c r="N88" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O88" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="P88" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="R88" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="S88" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="T88" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="U88" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="V88" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="W88" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="X88" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA88" t="n">
         <v>32</v>
       </c>
-      <c r="Y88" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z88" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA88" t="n">
-        <v>28</v>
-      </c>
       <c r="AB88" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC88" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AD88" t="n">
-        <v>10.25</v>
+        <v>11.25</v>
       </c>
       <c r="AE88" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AF88" t="n">
         <v>27</v>
       </c>
       <c r="AG88" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AH88" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI88" t="n">
         <v>13.5</v>
       </c>
       <c r="AJ88" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AK88" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL88" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AM88" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AN88" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="AO88" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AP88" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ88" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AR88" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AS88" t="n">
         <v>120</v>
       </c>
       <c r="AT88" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="AU88" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AV88" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW88" t="n">
         <v>300</v>
       </c>
       <c r="AX88" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="AY88" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="AZ88" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="BA88" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="BB88" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="BC88" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BD88" t="n">
         <v>51</v>
@@ -16969,16 +16969,16 @@
         <v>11</v>
       </c>
       <c r="O91" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P91" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R91" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S91" t="n">
         <v>1.4</v>
@@ -17127,28 +17127,28 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="H92" t="n">
         <v>3.2</v>
       </c>
       <c r="I92" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J92" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K92" t="n">
         <v>2.2</v>
       </c>
       <c r="L92" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M92" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N92" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O92" t="n">
         <v>1.25</v>
@@ -17175,19 +17175,19 @@
         <v>2.05</v>
       </c>
       <c r="W92" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X92" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y92" t="n">
         <v>9</v>
       </c>
-      <c r="X92" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y92" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z92" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA92" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB92" t="n">
         <v>26</v>
@@ -17205,31 +17205,31 @@
         <v>41</v>
       </c>
       <c r="AG92" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH92" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI92" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ92" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK92" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL92" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM92" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN92" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO92" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP92" t="n">
         <v>21</v>
@@ -17262,13 +17262,13 @@
         <v>17</v>
       </c>
       <c r="AZ92" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA92" t="n">
         <v>51</v>
       </c>
       <c r="BB92" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC92" t="n">
         <v>151</v>
@@ -17327,10 +17327,10 @@
         <v>3.25</v>
       </c>
       <c r="M93" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N93" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O93" t="n">
         <v>1.4</v>
@@ -17339,10 +17339,10 @@
         <v>2.75</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R93" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S93" t="n">
         <v>1.5</v>
@@ -17357,7 +17357,7 @@
         <v>1.8</v>
       </c>
       <c r="W93" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X93" t="n">
         <v>15</v>
@@ -17399,7 +17399,7 @@
         <v>10</v>
       </c>
       <c r="AK93" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL93" t="n">
         <v>23</v>
@@ -17509,22 +17509,22 @@
         <v>4</v>
       </c>
       <c r="M94" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N94" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O94" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P94" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R94" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S94" t="n">
         <v>1.53</v>
@@ -17673,22 +17673,22 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H95" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I95" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J95" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K95" t="n">
         <v>2.05</v>
       </c>
       <c r="L95" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M95" t="n">
         <v>1.07</v>
@@ -17721,13 +17721,13 @@
         <v>1.91</v>
       </c>
       <c r="W95" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X95" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y95" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z95" t="n">
         <v>21</v>
@@ -17754,10 +17754,10 @@
         <v>301</v>
       </c>
       <c r="AH95" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI95" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ95" t="n">
         <v>12</v>
@@ -17766,16 +17766,16 @@
         <v>34</v>
       </c>
       <c r="AL95" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM95" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN95" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO95" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP95" t="n">
         <v>23</v>
@@ -17787,7 +17787,7 @@
         <v>67</v>
       </c>
       <c r="AS95" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT95" t="n">
         <v>2.63</v>
@@ -17805,13 +17805,13 @@
         <v>5</v>
       </c>
       <c r="AY95" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ95" t="n">
         <v>29</v>
       </c>
       <c r="BA95" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB95" t="n">
         <v>81</v>
@@ -19132,19 +19132,19 @@
         <v>1.65</v>
       </c>
       <c r="H103" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I103" t="n">
-        <v>4.15</v>
+        <v>4.3</v>
       </c>
       <c r="J103" t="n">
         <v>2.18</v>
       </c>
       <c r="K103" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L103" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="M103" t="n">
         <v>1.03</v>
@@ -19156,7 +19156,7 @@
         <v>1.16</v>
       </c>
       <c r="P103" t="n">
-        <v>3.86</v>
+        <v>3.88</v>
       </c>
       <c r="Q103" t="n">
         <v>1.62</v>
@@ -19177,16 +19177,16 @@
         <v>2.2</v>
       </c>
       <c r="W103" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X103" t="n">
         <v>7.4</v>
       </c>
       <c r="Y103" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="Z103" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AA103" t="n">
         <v>10.5</v>
@@ -19198,10 +19198,10 @@
         <v>12.5</v>
       </c>
       <c r="AD103" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AE103" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AF103" t="n">
         <v>40</v>
@@ -19210,22 +19210,22 @@
         <v>250</v>
       </c>
       <c r="AH103" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AI103" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ103" t="n">
         <v>11.5</v>
       </c>
       <c r="AK103" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL103" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM103" t="n">
         <v>28</v>
-      </c>
-      <c r="AM103" t="n">
-        <v>29</v>
       </c>
       <c r="AN103" t="n">
         <v>3.65</v>
@@ -19246,34 +19246,34 @@
         <v>175</v>
       </c>
       <c r="AT103" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AU103" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AV103" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW103" t="n">
         <v>51</v>
       </c>
       <c r="AX103" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AY103" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ103" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA103" t="n">
         <v>120</v>
       </c>
       <c r="BB103" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BC103" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BD103" t="n">
         <v>51</v>
@@ -19311,127 +19311,127 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="H104" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I104" t="n">
-        <v>4.55</v>
+        <v>5</v>
       </c>
       <c r="J104" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K104" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L104" t="n">
-        <v>4.55</v>
+        <v>5</v>
       </c>
       <c r="M104" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N104" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="O104" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P104" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="Q104" t="n">
         <v>1.57</v>
       </c>
       <c r="R104" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S104" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="T104" t="n">
-        <v>3.32</v>
+        <v>3.34</v>
       </c>
       <c r="U104" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="V104" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="W104" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X104" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="Y104" t="n">
         <v>6.9</v>
       </c>
       <c r="Z104" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AA104" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB104" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC104" t="n">
         <v>13.5</v>
       </c>
       <c r="AD104" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AE104" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AF104" t="n">
         <v>40</v>
       </c>
       <c r="AG104" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AH104" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ104" t="n">
         <v>13.5</v>
       </c>
-      <c r="AI104" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ104" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AK104" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AL104" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AM104" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AN104" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="AO104" t="n">
-        <v>7.7</v>
+        <v>7.1</v>
       </c>
       <c r="AP104" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AQ104" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AR104" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AS104" t="n">
         <v>150</v>
       </c>
       <c r="AT104" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AU104" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV104" t="n">
         <v>50</v>
@@ -19440,22 +19440,22 @@
         <v>51</v>
       </c>
       <c r="AX104" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AY104" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AZ104" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="BA104" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BB104" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BC104" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BD104" t="n">
         <v>51</v>
@@ -19496,73 +19496,73 @@
         <v>1.09</v>
       </c>
       <c r="H105" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="I105" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J105" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="K105" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L105" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="M105" t="n">
         <v>1.01</v>
       </c>
       <c r="N105" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="O105" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P105" t="n">
-        <v>8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="R105" t="n">
-        <v>3.86</v>
+        <v>4.1</v>
       </c>
       <c r="S105" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="T105" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="U105" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V105" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="W105" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X105" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="Y105" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="Z105" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AA105" t="n">
         <v>9.25</v>
       </c>
       <c r="AB105" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC105" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AD105" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE105" t="n">
         <v>28</v>
@@ -19571,61 +19571,61 @@
         <v>90</v>
       </c>
       <c r="AG105" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AH105" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>175</v>
+      </c>
+      <c r="AJ105" t="n">
         <v>50</v>
       </c>
-      <c r="AI105" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ105" t="n">
-        <v>45</v>
-      </c>
       <c r="AK105" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="AL105" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AM105" t="n">
         <v>110</v>
       </c>
       <c r="AN105" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="AO105" t="n">
         <v>4.25</v>
       </c>
       <c r="AP105" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AQ105" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AR105" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS105" t="n">
         <v>120</v>
       </c>
       <c r="AT105" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AU105" t="n">
         <v>10.5</v>
       </c>
       <c r="AV105" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW105" t="n">
         <v>51</v>
       </c>
       <c r="AX105" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY105" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AZ105" t="n">
         <v>60</v>
@@ -19675,22 +19675,22 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="H106" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="I106" t="n">
-        <v>4.3</v>
+        <v>4.75</v>
       </c>
       <c r="J106" t="n">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="K106" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L106" t="n">
-        <v>4.5</v>
+        <v>4.85</v>
       </c>
       <c r="M106" t="n">
         <v>1.03</v>
@@ -19702,13 +19702,13 @@
         <v>1.17</v>
       </c>
       <c r="P106" t="n">
-        <v>3.84</v>
+        <v>3.85</v>
       </c>
       <c r="Q106" t="n">
         <v>1.62</v>
       </c>
       <c r="R106" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S106" t="n">
         <v>1.32</v>
@@ -19723,67 +19723,67 @@
         <v>2.16</v>
       </c>
       <c r="W106" t="n">
+        <v>7</v>
+      </c>
+      <c r="X106" t="n">
         <v>7.1</v>
-      </c>
-      <c r="X106" t="n">
-        <v>7.5</v>
       </c>
       <c r="Y106" t="n">
         <v>6.9</v>
       </c>
       <c r="Z106" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="AA106" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AB106" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC106" t="n">
         <v>12.5</v>
       </c>
       <c r="AD106" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AE106" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AF106" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG106" t="n">
         <v>250</v>
       </c>
       <c r="AH106" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AI106" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ106" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AK106" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AL106" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AM106" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AN106" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="AO106" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AP106" t="n">
         <v>15</v>
       </c>
       <c r="AQ106" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AR106" t="n">
         <v>45</v>
@@ -19795,7 +19795,7 @@
         <v>3.05</v>
       </c>
       <c r="AU106" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AV106" t="n">
         <v>55</v>
@@ -19804,22 +19804,22 @@
         <v>51</v>
       </c>
       <c r="AX106" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="AY106" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AZ106" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA106" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BB106" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BC106" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BD106" t="n">
         <v>51</v>
@@ -20245,16 +20245,16 @@
         <v>11</v>
       </c>
       <c r="O109" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P109" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R109" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S109" t="n">
         <v>1.36</v>
@@ -20949,7 +20949,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H113" t="n">
         <v>3.6</v>
@@ -20958,13 +20958,13 @@
         <v>3.6</v>
       </c>
       <c r="J113" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K113" t="n">
         <v>2.4</v>
       </c>
       <c r="L113" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M113" t="n">
         <v>1.03</v>
@@ -20979,7 +20979,7 @@
         <v>5.5</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R113" t="n">
         <v>2.4</v>
@@ -20991,7 +20991,7 @@
         <v>3.5</v>
       </c>
       <c r="U113" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V113" t="n">
         <v>2.5</v>
@@ -21009,7 +21009,7 @@
         <v>19</v>
       </c>
       <c r="AA113" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB113" t="n">
         <v>19</v>
@@ -21030,28 +21030,28 @@
         <v>101</v>
       </c>
       <c r="AH113" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI113" t="n">
         <v>21</v>
       </c>
       <c r="AJ113" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK113" t="n">
         <v>41</v>
       </c>
       <c r="AL113" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM113" t="n">
         <v>26</v>
       </c>
       <c r="AN113" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO113" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP113" t="n">
         <v>17</v>
@@ -21161,7 +21161,7 @@
         <v>4.5</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="R114" t="n">
         <v>2.25</v>
@@ -21173,10 +21173,10 @@
         <v>3.4</v>
       </c>
       <c r="U114" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V114" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="W114" t="n">
         <v>10</v>
@@ -21313,16 +21313,16 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H115" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I115" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J115" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K115" t="n">
         <v>2.2</v>
@@ -21331,34 +21331,34 @@
         <v>4.75</v>
       </c>
       <c r="M115" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N115" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O115" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P115" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="R115" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S115" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T115" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U115" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="V115" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="W115" t="n">
         <v>7</v>
@@ -21379,28 +21379,28 @@
         <v>26</v>
       </c>
       <c r="AC115" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD115" t="n">
         <v>7</v>
       </c>
       <c r="AE115" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF115" t="n">
         <v>51</v>
       </c>
       <c r="AG115" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH115" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI115" t="n">
         <v>21</v>
       </c>
       <c r="AJ115" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK115" t="n">
         <v>41</v>
@@ -21415,13 +21415,13 @@
         <v>3.75</v>
       </c>
       <c r="AO115" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP115" t="n">
         <v>21</v>
       </c>
       <c r="AQ115" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR115" t="n">
         <v>51</v>
@@ -21430,7 +21430,7 @@
         <v>151</v>
       </c>
       <c r="AT115" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU115" t="n">
         <v>8</v>
@@ -21439,7 +21439,7 @@
         <v>51</v>
       </c>
       <c r="AW115" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX115" t="n">
         <v>6</v>
@@ -21504,7 +21504,7 @@
         <v>2.8</v>
       </c>
       <c r="J116" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K116" t="n">
         <v>2.4</v>
@@ -21537,7 +21537,7 @@
         <v>3.5</v>
       </c>
       <c r="U116" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V116" t="n">
         <v>2.5</v>
@@ -21677,22 +21677,22 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H117" t="n">
         <v>5.75</v>
       </c>
       <c r="I117" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J117" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="K117" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="L117" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M117" t="n">
         <v>1.01</v>
@@ -21722,19 +21722,19 @@
         <v>1.67</v>
       </c>
       <c r="V117" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W117" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X117" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y117" t="n">
         <v>9</v>
       </c>
-      <c r="Y117" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z117" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA117" t="n">
         <v>10</v>
@@ -21749,7 +21749,7 @@
         <v>12</v>
       </c>
       <c r="AE117" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF117" t="n">
         <v>41</v>
@@ -21761,10 +21761,10 @@
         <v>29</v>
       </c>
       <c r="AI117" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ117" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK117" t="n">
         <v>101</v>
@@ -21776,7 +21776,7 @@
         <v>41</v>
       </c>
       <c r="AN117" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO117" t="n">
         <v>6</v>
@@ -21797,19 +21797,19 @@
         <v>4.33</v>
       </c>
       <c r="AU117" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV117" t="n">
         <v>41</v>
       </c>
       <c r="AW117" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AX117" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AY117" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ117" t="n">
         <v>34</v>
@@ -21818,7 +21818,7 @@
         <v>126</v>
       </c>
       <c r="BB117" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC117" t="n">
         <v>151</v>
@@ -21901,7 +21901,7 @@
         <v>3</v>
       </c>
       <c r="U118" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V118" t="n">
         <v>2.05</v>
@@ -22047,7 +22047,7 @@
         <v>4</v>
       </c>
       <c r="I119" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="J119" t="n">
         <v>6</v>
@@ -22405,28 +22405,28 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="H121" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I121" t="n">
         <v>3.4</v>
       </c>
-      <c r="I121" t="n">
-        <v>4</v>
-      </c>
       <c r="J121" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="K121" t="n">
         <v>2.1</v>
       </c>
       <c r="L121" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M121" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N121" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O121" t="n">
         <v>1.33</v>
@@ -22447,31 +22447,31 @@
         <v>2.63</v>
       </c>
       <c r="U121" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V121" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W121" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X121" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y121" t="n">
         <v>9</v>
       </c>
-      <c r="Y121" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z121" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA121" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB121" t="n">
         <v>29</v>
       </c>
       <c r="AC121" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD121" t="n">
         <v>6.5</v>
@@ -22483,22 +22483,22 @@
         <v>51</v>
       </c>
       <c r="AG121" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH121" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI121" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AJ121" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK121" t="n">
         <v>41</v>
       </c>
       <c r="AL121" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM121" t="n">
         <v>41</v>
@@ -22507,16 +22507,16 @@
         <v>4</v>
       </c>
       <c r="AO121" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP121" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ121" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR121" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS121" t="n">
         <v>151</v>
@@ -22537,16 +22537,16 @@
         <v>5.5</v>
       </c>
       <c r="AY121" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ121" t="n">
         <v>29</v>
       </c>
       <c r="BA121" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB121" t="n">
         <v>81</v>
-      </c>
-      <c r="BB121" t="n">
-        <v>101</v>
       </c>
       <c r="BC121" t="n">
         <v>201</v>
@@ -22587,7 +22587,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="H122" t="n">
         <v>3.4</v>
@@ -22769,7 +22769,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H123" t="n">
         <v>3.6</v>
@@ -22778,7 +22778,7 @@
         <v>4.5</v>
       </c>
       <c r="J123" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="K123" t="n">
         <v>2.25</v>
@@ -22799,10 +22799,10 @@
         <v>3.75</v>
       </c>
       <c r="Q123" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R123" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S123" t="n">
         <v>1.36</v>
@@ -22951,13 +22951,13 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H124" t="n">
         <v>3.3</v>
       </c>
       <c r="I124" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J124" t="n">
         <v>2.75</v>
@@ -22966,31 +22966,31 @@
         <v>2.2</v>
       </c>
       <c r="L124" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M124" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N124" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O124" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P124" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q124" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="R124" t="n">
-        <v>1.88</v>
+        <v>1.77</v>
       </c>
       <c r="S124" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T124" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U124" t="n">
         <v>1.73</v>
@@ -23002,7 +23002,7 @@
         <v>8</v>
       </c>
       <c r="X124" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y124" t="n">
         <v>9</v>
@@ -23035,13 +23035,13 @@
         <v>11</v>
       </c>
       <c r="AI124" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ124" t="n">
         <v>12</v>
       </c>
       <c r="AK124" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL124" t="n">
         <v>26</v>
@@ -23050,10 +23050,10 @@
         <v>34</v>
       </c>
       <c r="AN124" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO124" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP124" t="n">
         <v>21</v>
@@ -23068,7 +23068,7 @@
         <v>151</v>
       </c>
       <c r="AT124" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU124" t="n">
         <v>8</v>
@@ -23521,16 +23521,16 @@
         <v>15</v>
       </c>
       <c r="O127" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P127" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R127" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S127" t="n">
         <v>1.33</v>
@@ -23682,13 +23682,13 @@
         <v>3.9</v>
       </c>
       <c r="H128" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I128" t="n">
         <v>1.95</v>
       </c>
       <c r="J128" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K128" t="n">
         <v>2.1</v>
@@ -23709,10 +23709,10 @@
         <v>3.25</v>
       </c>
       <c r="Q128" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R128" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S128" t="n">
         <v>1.44</v>
@@ -23727,7 +23727,7 @@
         <v>1.83</v>
       </c>
       <c r="W128" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X128" t="n">
         <v>19</v>
@@ -23745,7 +23745,7 @@
         <v>41</v>
       </c>
       <c r="AC128" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD128" t="n">
         <v>6.5</v>
@@ -23787,19 +23787,19 @@
         <v>29</v>
       </c>
       <c r="AQ128" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR128" t="n">
         <v>101</v>
       </c>
       <c r="AS128" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT128" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU128" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV128" t="n">
         <v>51</v>
@@ -23814,10 +23814,10 @@
         <v>11</v>
       </c>
       <c r="AZ128" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA128" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB128" t="n">
         <v>51</v>
@@ -23879,13 +23879,13 @@
         <v>3.4</v>
       </c>
       <c r="M129" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N129" t="n">
         <v>9</v>
       </c>
       <c r="O129" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P129" t="n">
         <v>4</v>
@@ -24061,13 +24061,13 @@
         <v>4</v>
       </c>
       <c r="M130" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N130" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O130" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P130" t="n">
         <v>3.75</v>
@@ -24225,7 +24225,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="H131" t="n">
         <v>3.7</v>
@@ -24243,22 +24243,22 @@
         <v>5</v>
       </c>
       <c r="M131" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N131" t="n">
         <v>8.5</v>
       </c>
       <c r="O131" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P131" t="n">
         <v>3.5</v>
       </c>
       <c r="Q131" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R131" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S131" t="n">
         <v>1.4</v>
@@ -24407,31 +24407,31 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="H132" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I132" t="n">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="J132" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K132" t="n">
         <v>2.5</v>
       </c>
       <c r="L132" t="n">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="M132" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N132" t="n">
         <v>15</v>
       </c>
       <c r="O132" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P132" t="n">
         <v>4.5</v>
@@ -24449,10 +24449,10 @@
         <v>3.5</v>
       </c>
       <c r="U132" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V132" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W132" t="n">
         <v>19</v>
@@ -24461,10 +24461,10 @@
         <v>34</v>
       </c>
       <c r="Y132" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z132" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AA132" t="n">
         <v>41</v>
@@ -24476,52 +24476,52 @@
         <v>15</v>
       </c>
       <c r="AD132" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH132" t="n">
         <v>8.5</v>
       </c>
-      <c r="AE132" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF132" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG132" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH132" t="n">
-        <v>8</v>
-      </c>
       <c r="AI132" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ132" t="n">
         <v>8.5</v>
       </c>
       <c r="AK132" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL132" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM132" t="n">
         <v>21</v>
       </c>
       <c r="AN132" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AO132" t="n">
         <v>29</v>
       </c>
       <c r="AP132" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ132" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR132" t="n">
         <v>101</v>
       </c>
       <c r="AS132" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT132" t="n">
         <v>3.5</v>
@@ -24533,13 +24533,13 @@
         <v>51</v>
       </c>
       <c r="AW132" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AX132" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AY132" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AZ132" t="n">
         <v>17</v>
@@ -24592,10 +24592,10 @@
         <v>2</v>
       </c>
       <c r="H133" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I133" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J133" t="n">
         <v>2.6</v>
@@ -24607,112 +24607,112 @@
         <v>4</v>
       </c>
       <c r="M133" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N133" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="O133" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P133" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="Q133" t="n">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="R133" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="S133" t="n">
         <v>1.42</v>
       </c>
       <c r="T133" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="U133" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="V133" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="W133" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="X133" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="Y133" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z133" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AA133" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AB133" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AC133" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="AD133" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AE133" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF133" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AG133" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AH133" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AI133" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AJ133" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AK133" t="n">
         <v>50</v>
       </c>
       <c r="AL133" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AM133" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AN133" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AO133" t="n">
         <v>10.25</v>
       </c>
       <c r="AP133" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ133" t="n">
         <v>40</v>
       </c>
       <c r="AR133" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AS133" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT133" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AU133" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AV133" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW133" t="n">
         <v>51</v>
@@ -24724,7 +24724,7 @@
         <v>19.5</v>
       </c>
       <c r="AZ133" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA133" t="n">
         <v>100</v>
@@ -24733,7 +24733,7 @@
         <v>150</v>
       </c>
       <c r="BC133" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BD133" t="n">
         <v>51</v>
@@ -24771,22 +24771,22 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="H134" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I134" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="J134" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="K134" t="n">
         <v>3</v>
       </c>
       <c r="L134" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="M134" t="n">
         <v>1.01</v>
@@ -24807,10 +24807,10 @@
         <v>5.5</v>
       </c>
       <c r="S134" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="T134" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U134" t="n">
         <v>1.18</v>
@@ -24819,19 +24819,19 @@
         <v>4.5</v>
       </c>
       <c r="W134" t="n">
+        <v>34</v>
+      </c>
+      <c r="X134" t="n">
         <v>29</v>
       </c>
-      <c r="X134" t="n">
-        <v>26</v>
-      </c>
       <c r="Y134" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z134" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA134" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB134" t="n">
         <v>15</v>
@@ -24843,10 +24843,10 @@
         <v>15</v>
       </c>
       <c r="AE134" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF134" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG134" t="n">
         <v>41</v>
@@ -24861,61 +24861,61 @@
         <v>13</v>
       </c>
       <c r="AK134" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ134" t="n">
         <v>34</v>
       </c>
-      <c r="AL134" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM134" t="n">
-        <v>15</v>
-      </c>
-      <c r="AN134" t="n">
+      <c r="AR134" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT134" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AO134" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP134" t="n">
-        <v>12</v>
-      </c>
-      <c r="AQ134" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR134" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS134" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT134" t="n">
-        <v>6</v>
       </c>
       <c r="AU134" t="n">
         <v>6.5</v>
       </c>
       <c r="AV134" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AW134" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AX134" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AY134" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ134" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA134" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BB134" t="n">
         <v>29</v>
       </c>
       <c r="BC134" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BD134" t="n">
         <v>51</v>
@@ -25317,22 +25317,22 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.15</v>
+        <v>2.85</v>
       </c>
       <c r="H137" t="n">
         <v>3</v>
       </c>
       <c r="I137" t="n">
-        <v>2.32</v>
+        <v>2.55</v>
       </c>
       <c r="J137" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="K137" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L137" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M137" t="n">
         <v>1.07</v>
@@ -25341,10 +25341,10 @@
         <v>6.7</v>
       </c>
       <c r="O137" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P137" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q137" t="n">
         <v>1.98</v>
@@ -25353,34 +25353,34 @@
         <v>1.78</v>
       </c>
       <c r="S137" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="T137" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="U137" t="n">
         <v>1.7</v>
       </c>
       <c r="V137" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="W137" t="n">
         <v>9</v>
       </c>
       <c r="X137" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y137" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="Z137" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AA137" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AB137" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AC137" t="n">
         <v>6.7</v>
@@ -25395,46 +25395,46 @@
         <v>55</v>
       </c>
       <c r="AG137" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AH137" t="n">
         <v>8</v>
       </c>
       <c r="AI137" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ137" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AK137" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AL137" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AM137" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN137" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="AO137" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AP137" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AQ137" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AR137" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AS137" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT137" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="AU137" t="n">
         <v>6.3</v>
@@ -25446,22 +25446,22 @@
         <v>51</v>
       </c>
       <c r="AX137" t="n">
-        <v>4.35</v>
+        <v>4.6</v>
       </c>
       <c r="AY137" t="n">
-        <v>11.75</v>
+        <v>13.5</v>
       </c>
       <c r="AZ137" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="BA137" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="BB137" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="BC137" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BD137" t="n">
         <v>51</v>
@@ -25863,22 +25863,22 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="H140" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I140" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="J140" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="K140" t="n">
         <v>2.2</v>
       </c>
       <c r="L140" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M140" t="n">
         <v>1.05</v>
@@ -25893,10 +25893,10 @@
         <v>3.75</v>
       </c>
       <c r="Q140" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R140" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S140" t="n">
         <v>1.36</v>
@@ -25911,19 +25911,19 @@
         <v>2.1</v>
       </c>
       <c r="W140" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X140" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y140" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z140" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA140" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB140" t="n">
         <v>26</v>
@@ -25944,28 +25944,28 @@
         <v>151</v>
       </c>
       <c r="AH140" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ140" t="n">
         <v>11</v>
       </c>
-      <c r="AI140" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ140" t="n">
-        <v>12</v>
-      </c>
       <c r="AK140" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL140" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AM140" t="n">
         <v>29</v>
       </c>
       <c r="AN140" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO140" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP140" t="n">
         <v>21</v>
@@ -25977,7 +25977,7 @@
         <v>51</v>
       </c>
       <c r="AS140" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT140" t="n">
         <v>3</v>
@@ -25992,10 +25992,10 @@
         <v>81</v>
       </c>
       <c r="AX140" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY140" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ140" t="n">
         <v>23</v>
@@ -26045,13 +26045,13 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H141" t="n">
         <v>2.63</v>
       </c>
       <c r="I141" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J141" t="n">
         <v>3.6</v>
@@ -26063,13 +26063,13 @@
         <v>4.33</v>
       </c>
       <c r="M141" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="N141" t="n">
         <v>5</v>
       </c>
       <c r="O141" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="P141" t="n">
         <v>2</v>
@@ -26078,7 +26078,7 @@
         <v>3.5</v>
       </c>
       <c r="R141" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="S141" t="n">
         <v>1.75</v>
@@ -26087,16 +26087,16 @@
         <v>2.05</v>
       </c>
       <c r="U141" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="V141" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="W141" t="n">
         <v>5.5</v>
       </c>
       <c r="X141" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y141" t="n">
         <v>12</v>
@@ -26111,10 +26111,10 @@
         <v>51</v>
       </c>
       <c r="AC141" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AD141" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE141" t="n">
         <v>23</v>
@@ -26135,7 +26135,7 @@
         <v>15</v>
       </c>
       <c r="AK141" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL141" t="n">
         <v>41</v>
@@ -26245,22 +26245,22 @@
         <v>4.5</v>
       </c>
       <c r="M142" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N142" t="n">
         <v>7.5</v>
       </c>
       <c r="O142" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P142" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q142" t="n">
         <v>2.35</v>
       </c>
       <c r="R142" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S142" t="n">
         <v>1.5</v>
@@ -26272,7 +26272,7 @@
         <v>2.1</v>
       </c>
       <c r="V142" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W142" t="n">
         <v>6</v>
@@ -26427,7 +26427,7 @@
         <v>4.33</v>
       </c>
       <c r="M143" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N143" t="n">
         <v>11</v>
@@ -26436,13 +26436,13 @@
         <v>1.25</v>
       </c>
       <c r="P143" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q143" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="R143" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="S143" t="n">
         <v>1.4</v>
@@ -26451,10 +26451,10 @@
         <v>2.75</v>
       </c>
       <c r="U143" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V143" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W143" t="n">
         <v>7.5</v>
@@ -26609,22 +26609,22 @@
         <v>3.4</v>
       </c>
       <c r="M144" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N144" t="n">
         <v>11</v>
       </c>
       <c r="O144" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P144" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q144" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R144" t="n">
         <v>1.9</v>
-      </c>
-      <c r="R144" t="n">
-        <v>1.95</v>
       </c>
       <c r="S144" t="n">
         <v>1.36</v>
@@ -26791,22 +26791,22 @@
         <v>2.88</v>
       </c>
       <c r="M145" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N145" t="n">
         <v>11</v>
       </c>
       <c r="O145" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P145" t="n">
         <v>3.75</v>
       </c>
       <c r="Q145" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R145" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S145" t="n">
         <v>1.4</v>
@@ -26955,13 +26955,13 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H146" t="n">
         <v>3.4</v>
       </c>
       <c r="I146" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J146" t="n">
         <v>3</v>
@@ -26970,7 +26970,7 @@
         <v>2.2</v>
       </c>
       <c r="L146" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M146" t="n">
         <v>1.05</v>
@@ -26997,7 +26997,7 @@
         <v>2.75</v>
       </c>
       <c r="U146" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V146" t="n">
         <v>2.05</v>
@@ -27006,7 +27006,7 @@
         <v>8.5</v>
       </c>
       <c r="X146" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y146" t="n">
         <v>9.5</v>
@@ -27045,7 +27045,7 @@
         <v>11</v>
       </c>
       <c r="AK146" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL146" t="n">
         <v>23</v>
@@ -27054,7 +27054,7 @@
         <v>29</v>
       </c>
       <c r="AN146" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO146" t="n">
         <v>13</v>
@@ -27146,10 +27146,10 @@
         <v>5.75</v>
       </c>
       <c r="J147" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K147" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L147" t="n">
         <v>5.5</v>
@@ -27161,16 +27161,16 @@
         <v>19</v>
       </c>
       <c r="O147" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P147" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q147" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R147" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S147" t="n">
         <v>1.25</v>
@@ -27179,10 +27179,10 @@
         <v>3.75</v>
       </c>
       <c r="U147" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="V147" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W147" t="n">
         <v>10</v>
@@ -27191,7 +27191,7 @@
         <v>8.5</v>
       </c>
       <c r="Y147" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z147" t="n">
         <v>11</v>
@@ -27218,7 +27218,7 @@
         <v>151</v>
       </c>
       <c r="AH147" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI147" t="n">
         <v>34</v>
@@ -27233,7 +27233,7 @@
         <v>41</v>
       </c>
       <c r="AM147" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN147" t="n">
         <v>3.75</v>
@@ -27257,13 +27257,13 @@
         <v>3.75</v>
       </c>
       <c r="AU147" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV147" t="n">
         <v>41</v>
       </c>
       <c r="AW147" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AX147" t="n">
         <v>8</v>
@@ -27278,7 +27278,7 @@
         <v>101</v>
       </c>
       <c r="BB147" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC147" t="n">
         <v>151</v>
@@ -27319,22 +27319,22 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="H148" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I148" t="n">
         <v>3.6</v>
       </c>
-      <c r="I148" t="n">
-        <v>3.2</v>
-      </c>
       <c r="J148" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K148" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L148" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M148" t="n">
         <v>1.03</v>
@@ -27355,43 +27355,43 @@
         <v>2.35</v>
       </c>
       <c r="S148" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T148" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U148" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V148" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="W148" t="n">
+        <v>10</v>
+      </c>
+      <c r="X148" t="n">
         <v>11</v>
-      </c>
-      <c r="X148" t="n">
-        <v>12</v>
       </c>
       <c r="Y148" t="n">
         <v>9</v>
       </c>
       <c r="Z148" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA148" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB148" t="n">
         <v>21</v>
       </c>
       <c r="AC148" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD148" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE148" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF148" t="n">
         <v>34</v>
@@ -27400,43 +27400,43 @@
         <v>101</v>
       </c>
       <c r="AH148" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ148" t="n">
         <v>13</v>
       </c>
-      <c r="AI148" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ148" t="n">
-        <v>12</v>
-      </c>
       <c r="AK148" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL148" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM148" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN148" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO148" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP148" t="n">
         <v>17</v>
       </c>
       <c r="AQ148" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR148" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS148" t="n">
         <v>101</v>
       </c>
       <c r="AT148" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU148" t="n">
         <v>7</v>
@@ -27448,10 +27448,10 @@
         <v>351</v>
       </c>
       <c r="AX148" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY148" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ148" t="n">
         <v>21</v>
@@ -27460,7 +27460,7 @@
         <v>51</v>
       </c>
       <c r="BB148" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC148" t="n">
         <v>126</v>
@@ -27713,7 +27713,7 @@
         <v>4.33</v>
       </c>
       <c r="Q150" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="R150" t="n">
         <v>2.15</v>
@@ -27865,40 +27865,40 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H151" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I151" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J151" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="K151" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L151" t="n">
+        <v>4</v>
+      </c>
+      <c r="M151" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N151" t="n">
+        <v>10</v>
+      </c>
+      <c r="O151" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P151" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q151" t="n">
         <v>2.05</v>
       </c>
-      <c r="L151" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M151" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N151" t="n">
-        <v>9</v>
-      </c>
-      <c r="O151" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P151" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q151" t="n">
-        <v>2.15</v>
-      </c>
       <c r="R151" t="n">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="S151" t="n">
         <v>1.44</v>
@@ -27928,10 +27928,10 @@
         <v>19</v>
       </c>
       <c r="AB151" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC151" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD151" t="n">
         <v>6.5</v>
@@ -27946,7 +27946,7 @@
         <v>301</v>
       </c>
       <c r="AH151" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI151" t="n">
         <v>15</v>
@@ -27979,13 +27979,13 @@
         <v>67</v>
       </c>
       <c r="AS151" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT151" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU151" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV151" t="n">
         <v>51</v>
@@ -28003,7 +28003,7 @@
         <v>29</v>
       </c>
       <c r="BA151" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB151" t="n">
         <v>81</v>
@@ -28065,22 +28065,22 @@
         <v>6</v>
       </c>
       <c r="M152" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N152" t="n">
         <v>13</v>
       </c>
       <c r="O152" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P152" t="n">
         <v>3.5</v>
       </c>
       <c r="Q152" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R152" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S152" t="n">
         <v>1.36</v>
@@ -28247,13 +28247,13 @@
         <v>3.4</v>
       </c>
       <c r="M153" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N153" t="n">
         <v>11</v>
       </c>
       <c r="O153" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P153" t="n">
         <v>3.75</v>
@@ -28453,10 +28453,10 @@
         <v>2.75</v>
       </c>
       <c r="U154" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V154" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W154" t="n">
         <v>11</v>
@@ -28611,13 +28611,13 @@
         <v>4.33</v>
       </c>
       <c r="M155" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N155" t="n">
         <v>9</v>
       </c>
       <c r="O155" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P155" t="n">
         <v>3</v>
@@ -28635,10 +28635,10 @@
         <v>2.63</v>
       </c>
       <c r="U155" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V155" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W155" t="n">
         <v>6.5</v>
@@ -28710,7 +28710,7 @@
         <v>201</v>
       </c>
       <c r="AT155" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU155" t="n">
         <v>8.5</v>
@@ -28817,10 +28817,10 @@
         <v>2.5</v>
       </c>
       <c r="U156" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V156" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W156" t="n">
         <v>8</v>
@@ -28999,10 +28999,10 @@
         <v>2.75</v>
       </c>
       <c r="U157" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V157" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W157" t="n">
         <v>7.5</v>
@@ -29169,10 +29169,10 @@
         <v>3.5</v>
       </c>
       <c r="Q158" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R158" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S158" t="n">
         <v>1.4</v>
@@ -29181,7 +29181,7 @@
         <v>2.75</v>
       </c>
       <c r="U158" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V158" t="n">
         <v>2.1</v>
@@ -29321,40 +29321,40 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="H159" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="I159" t="n">
-        <v>5.2</v>
+        <v>4.85</v>
       </c>
       <c r="J159" t="n">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="K159" t="n">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="L159" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M159" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N159" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="O159" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="P159" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="Q159" t="n">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="R159" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="S159" t="n">
         <v>1.38</v>
@@ -29363,52 +29363,52 @@
         <v>2.57</v>
       </c>
       <c r="U159" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V159" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="W159" t="n">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="X159" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="Y159" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z159" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA159" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB159" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC159" t="n">
-        <v>12.5</v>
+        <v>10.75</v>
       </c>
       <c r="AD159" t="n">
-        <v>8.25</v>
+        <v>7.3</v>
       </c>
       <c r="AE159" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF159" t="n">
         <v>75</v>
       </c>
       <c r="AG159" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AH159" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ159" t="n">
         <v>15.5</v>
-      </c>
-      <c r="AI159" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ159" t="n">
-        <v>17</v>
       </c>
       <c r="AK159" t="n">
         <v>90</v>
@@ -29420,28 +29420,28 @@
         <v>50</v>
       </c>
       <c r="AN159" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="AO159" t="n">
-        <v>7.2</v>
+        <v>7.9</v>
       </c>
       <c r="AP159" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AQ159" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AR159" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AS159" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.72</v>
+        <v>2.57</v>
       </c>
       <c r="AU159" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AV159" t="n">
         <v>70</v>
@@ -29450,10 +29450,10 @@
         <v>81</v>
       </c>
       <c r="AX159" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AY159" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ159" t="n">
         <v>32</v>
@@ -29506,43 +29506,43 @@
         <v>3.15</v>
       </c>
       <c r="H160" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I160" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J160" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K160" t="n">
         <v>1.9</v>
       </c>
       <c r="L160" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="M160" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N160" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="O160" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P160" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="R160" t="n">
         <v>1.45</v>
-      </c>
-      <c r="P160" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="Q160" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R160" t="n">
-        <v>1.47</v>
       </c>
       <c r="S160" t="n">
         <v>1.5</v>
       </c>
       <c r="T160" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="U160" t="n">
         <v>1.93</v>
@@ -29551,28 +29551,28 @@
         <v>1.7</v>
       </c>
       <c r="W160" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="X160" t="n">
         <v>15</v>
       </c>
       <c r="Y160" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="Z160" t="n">
         <v>45</v>
       </c>
       <c r="AA160" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB160" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC160" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AD160" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AE160" t="n">
         <v>16.5</v>
@@ -29581,13 +29581,13 @@
         <v>100</v>
       </c>
       <c r="AG160" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AH160" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AI160" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AJ160" t="n">
         <v>9.5</v>
@@ -29599,31 +29599,31 @@
         <v>23</v>
       </c>
       <c r="AM160" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN160" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="AO160" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AP160" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ160" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AR160" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AS160" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AT160" t="n">
         <v>2.22</v>
       </c>
       <c r="AU160" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AV160" t="n">
         <v>75</v>
@@ -29638,16 +29638,16 @@
         <v>13</v>
       </c>
       <c r="AZ160" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA160" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB160" t="n">
         <v>100</v>
       </c>
       <c r="BC160" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BD160" t="n">
         <v>81</v>
@@ -29867,61 +29867,61 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H162" t="n">
         <v>3</v>
       </c>
       <c r="I162" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="J162" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K162" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L162" t="n">
         <v>3.75</v>
       </c>
-      <c r="K162" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L162" t="n">
-        <v>3.5</v>
-      </c>
       <c r="M162" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N162" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O162" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P162" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q162" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R162" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S162" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="T162" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U162" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V162" t="n">
         <v>1.57</v>
       </c>
-      <c r="T162" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U162" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V162" t="n">
-        <v>1.58</v>
-      </c>
       <c r="W162" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X162" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y162" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z162" t="n">
         <v>29</v>
@@ -29933,16 +29933,16 @@
         <v>41</v>
       </c>
       <c r="AC162" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD162" t="n">
         <v>6</v>
       </c>
       <c r="AE162" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF162" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG162" t="n">
         <v>201</v>
@@ -29951,22 +29951,22 @@
         <v>6.5</v>
       </c>
       <c r="AI162" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ162" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK162" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL162" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM162" t="n">
         <v>41</v>
       </c>
       <c r="AN162" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO162" t="n">
         <v>17</v>
@@ -29981,13 +29981,13 @@
         <v>101</v>
       </c>
       <c r="AS162" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT162" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU162" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV162" t="n">
         <v>81</v>
@@ -29996,22 +29996,22 @@
         <v>51</v>
       </c>
       <c r="AX162" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY162" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ162" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA162" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB162" t="n">
         <v>101</v>
       </c>
       <c r="BC162" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD162" t="n">
         <v>51</v>
@@ -30061,7 +30061,7 @@
         <v>4</v>
       </c>
       <c r="K163" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L163" t="n">
         <v>3.1</v>
@@ -30085,16 +30085,16 @@
         <v>1.53</v>
       </c>
       <c r="S163" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T163" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="U163" t="n">
         <v>2</v>
       </c>
       <c r="V163" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W163" t="n">
         <v>8</v>
@@ -30246,7 +30246,7 @@
         <v>2.5</v>
       </c>
       <c r="L164" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="M164" t="n">
         <v>1.04</v>
@@ -30267,7 +30267,7 @@
         <v>2.1</v>
       </c>
       <c r="S164" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T164" t="n">
         <v>3.25</v>
@@ -30276,7 +30276,7 @@
         <v>2</v>
       </c>
       <c r="V164" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W164" t="n">
         <v>21</v>
@@ -30449,16 +30449,16 @@
         <v>1.67</v>
       </c>
       <c r="S165" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T165" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U165" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V165" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W165" t="n">
         <v>7</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-20.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="J2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L2" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="M2" t="n">
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O2" t="n">
         <v>1.14</v>
@@ -777,46 +777,46 @@
         <v>5.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="R2" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="S2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Y2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AA2" t="n">
         <v>51</v>
       </c>
       <c r="AB2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
         <v>21</v>
@@ -831,22 +831,22 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ2" t="n">
         <v>9</v>
       </c>
       <c r="AK2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO2" t="n">
         <v>34</v>
@@ -855,19 +855,19 @@
         <v>34</v>
       </c>
       <c r="AQ2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AR2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="n">
         <v>41</v>
@@ -879,13 +879,13 @@
         <v>3.6</v>
       </c>
       <c r="AY2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AZ2" t="n">
         <v>15</v>
       </c>
       <c r="BA2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB2" t="n">
         <v>34</v>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I3" t="n">
         <v>4.75</v>
@@ -947,10 +947,10 @@
         <v>4.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O3" t="n">
         <v>1.1</v>
@@ -959,10 +959,10 @@
         <v>7</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="R3" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="S3" t="n">
         <v>1.2</v>
@@ -986,7 +986,7 @@
         <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
         <v>12</v>
@@ -1013,10 +1013,10 @@
         <v>26</v>
       </c>
       <c r="AI3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK3" t="n">
         <v>51</v>
@@ -1031,7 +1031,7 @@
         <v>4.33</v>
       </c>
       <c r="AO3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP3" t="n">
         <v>13</v>
@@ -1040,7 +1040,7 @@
         <v>21</v>
       </c>
       <c r="AR3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AS3" t="n">
         <v>67</v>
@@ -1058,7 +1058,7 @@
         <v>201</v>
       </c>
       <c r="AX3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY3" t="n">
         <v>21</v>
@@ -1076,7 +1076,7 @@
         <v>101</v>
       </c>
       <c r="BD3" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4">
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="H4" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="J4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K4" t="n">
         <v>2.38</v>
       </c>
       <c r="L4" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -1135,16 +1135,16 @@
         <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R4" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S4" t="n">
         <v>1.3</v>
@@ -1162,16 +1162,16 @@
         <v>15</v>
       </c>
       <c r="X4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y4" t="n">
         <v>15</v>
       </c>
       <c r="Z4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB4" t="n">
         <v>34</v>
@@ -1195,7 +1195,7 @@
         <v>9</v>
       </c>
       <c r="AI4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>8.5</v>
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="AN4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP4" t="n">
         <v>26</v>
@@ -1243,13 +1243,13 @@
         <v>4</v>
       </c>
       <c r="AY4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AZ4" t="n">
         <v>17</v>
       </c>
       <c r="BA4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BB4" t="n">
         <v>41</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H5" t="n">
         <v>3.5</v>
@@ -1302,7 +1302,7 @@
         <v>2.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
         <v>2.3</v>
@@ -1323,10 +1323,10 @@
         <v>4.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="R5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S5" t="n">
         <v>1.33</v>
@@ -1362,7 +1362,7 @@
         <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>12</v>
@@ -1371,7 +1371,7 @@
         <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH5" t="n">
         <v>9.5</v>
@@ -1392,7 +1392,7 @@
         <v>23</v>
       </c>
       <c r="AN5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO5" t="n">
         <v>17</v>
@@ -1422,7 +1422,7 @@
         <v>451</v>
       </c>
       <c r="AX5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY5" t="n">
         <v>12</v>
@@ -1481,7 +1481,7 @@
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J6" t="n">
         <v>3.6</v>
@@ -1663,7 +1663,7 @@
         <v>3.9</v>
       </c>
       <c r="I7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
         <v>2.1</v>
@@ -1687,10 +1687,10 @@
         <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="R7" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>
@@ -1705,16 +1705,16 @@
         <v>1.75</v>
       </c>
       <c r="W7" t="n">
+        <v>6</v>
+      </c>
+      <c r="X7" t="n">
         <v>6.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>7</v>
       </c>
       <c r="Y7" t="n">
         <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA7" t="n">
         <v>13</v>
@@ -1801,7 +1801,7 @@
         <v>151</v>
       </c>
       <c r="BC7" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD7" t="n">
         <v>151</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H9" t="n">
         <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
         <v>2.25</v>
       </c>
       <c r="L9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
@@ -2051,10 +2051,10 @@
         <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S9" t="n">
         <v>1.36</v>
@@ -2072,19 +2072,19 @@
         <v>12</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y9" t="n">
         <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA9" t="n">
         <v>26</v>
       </c>
       <c r="AB9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="n">
         <v>12</v>
@@ -2102,19 +2102,19 @@
         <v>151</v>
       </c>
       <c r="AH9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ9" t="n">
         <v>9</v>
       </c>
       <c r="AK9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM9" t="n">
         <v>23</v>
@@ -2123,7 +2123,7 @@
         <v>5.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP9" t="n">
         <v>23</v>
@@ -2132,7 +2132,7 @@
         <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS9" t="n">
         <v>151</v>
@@ -2156,7 +2156,7 @@
         <v>11</v>
       </c>
       <c r="AZ9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA9" t="n">
         <v>41</v>
@@ -2209,7 +2209,7 @@
         <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J10" t="n">
         <v>2.6</v>
@@ -2224,7 +2224,7 @@
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O10" t="n">
         <v>1.17</v>
@@ -2233,10 +2233,10 @@
         <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R10" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S10" t="n">
         <v>1.29</v>
@@ -2567,40 +2567,40 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H12" t="n">
         <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J12" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K12" t="n">
         <v>2.05</v>
       </c>
       <c r="L12" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P12" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R12" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S12" t="n">
         <v>1.44</v>
@@ -2609,10 +2609,10 @@
         <v>2.63</v>
       </c>
       <c r="U12" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V12" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W12" t="n">
         <v>9</v>
@@ -2621,16 +2621,16 @@
         <v>15</v>
       </c>
       <c r="Y12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z12" t="n">
         <v>34</v>
       </c>
       <c r="AA12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC12" t="n">
         <v>8.5</v>
@@ -2645,34 +2645,34 @@
         <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ12" t="n">
         <v>9.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="n">
         <v>21</v>
       </c>
       <c r="AM12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN12" t="n">
         <v>5</v>
       </c>
       <c r="AO12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ12" t="n">
         <v>51</v>
@@ -2687,7 +2687,7 @@
         <v>2.63</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV12" t="n">
         <v>51</v>
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5.25</v>
+        <v>6.25</v>
       </c>
       <c r="H13" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I13" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K13" t="n">
         <v>2.5</v>
       </c>
       <c r="L13" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
@@ -2791,37 +2791,37 @@
         <v>3.5</v>
       </c>
       <c r="U13" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="V13" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="W13" t="n">
+        <v>21</v>
+      </c>
+      <c r="X13" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y13" t="n">
         <v>19</v>
       </c>
-      <c r="X13" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>17</v>
-      </c>
       <c r="Z13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AA13" t="n">
         <v>41</v>
       </c>
       <c r="AB13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF13" t="n">
         <v>41</v>
@@ -2830,37 +2830,37 @@
         <v>151</v>
       </c>
       <c r="AH13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ13" t="n">
         <v>8.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM13" t="n">
         <v>21</v>
       </c>
       <c r="AN13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ13" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR13" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS13" t="n">
         <v>151</v>
@@ -2869,25 +2869,25 @@
         <v>3.5</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AX13" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AY13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ13" t="n">
         <v>15</v>
       </c>
       <c r="BA13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB13" t="n">
         <v>41</v>
@@ -2961,10 +2961,10 @@
         <v>3.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R14" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S14" t="n">
         <v>1.44</v>
@@ -3078,7 +3078,7 @@
         <v>201</v>
       </c>
       <c r="BD14" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
@@ -3113,7 +3113,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H15" t="n">
         <v>3.6</v>
@@ -3131,10 +3131,10 @@
         <v>2.4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O15" t="n">
         <v>1.25</v>
@@ -3143,10 +3143,10 @@
         <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="R15" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="S15" t="n">
         <v>1.36</v>
@@ -3164,10 +3164,10 @@
         <v>13</v>
       </c>
       <c r="X15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z15" t="n">
         <v>41</v>
@@ -3176,7 +3176,7 @@
         <v>34</v>
       </c>
       <c r="AB15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC15" t="n">
         <v>12</v>
@@ -3185,7 +3185,7 @@
         <v>7</v>
       </c>
       <c r="AE15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF15" t="n">
         <v>41</v>
@@ -3477,55 +3477,55 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H17" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J17" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K17" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L17" t="n">
         <v>3.2</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="R17" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="S17" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T17" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U17" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X17" t="n">
         <v>13</v>
@@ -3534,7 +3534,7 @@
         <v>10</v>
       </c>
       <c r="Z17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA17" t="n">
         <v>21</v>
@@ -3543,7 +3543,7 @@
         <v>29</v>
       </c>
       <c r="AC17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD17" t="n">
         <v>6.5</v>
@@ -3555,25 +3555,25 @@
         <v>41</v>
       </c>
       <c r="AG17" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH17" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ17" t="n">
         <v>10</v>
       </c>
       <c r="AK17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL17" t="n">
         <v>21</v>
       </c>
       <c r="AM17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN17" t="n">
         <v>4.75</v>
@@ -3594,7 +3594,7 @@
         <v>151</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU17" t="n">
         <v>7.5</v>
@@ -3606,13 +3606,13 @@
         <v>501</v>
       </c>
       <c r="AX17" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY17" t="n">
         <v>13</v>
       </c>
       <c r="AZ17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA17" t="n">
         <v>41</v>
@@ -3689,7 +3689,7 @@
         <v>6</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="R18" t="n">
         <v>2.7</v>
@@ -3841,16 +3841,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H19" t="n">
         <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J19" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K19" t="n">
         <v>2.2</v>
@@ -3859,10 +3859,10 @@
         <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
         <v>1.29</v>
@@ -3892,16 +3892,16 @@
         <v>8</v>
       </c>
       <c r="X19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
       </c>
       <c r="Z19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA19" t="n">
         <v>17</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>15</v>
       </c>
       <c r="AB19" t="n">
         <v>26</v>
@@ -3922,10 +3922,10 @@
         <v>201</v>
       </c>
       <c r="AH19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ19" t="n">
         <v>13</v>
@@ -3973,7 +3973,7 @@
         <v>5.5</v>
       </c>
       <c r="AY19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ19" t="n">
         <v>26</v>
@@ -3988,7 +3988,7 @@
         <v>201</v>
       </c>
       <c r="BD19" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20">
@@ -4023,28 +4023,28 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K20" t="n">
         <v>1.91</v>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M20" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N20" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O20" t="n">
         <v>1.57</v>
@@ -4077,10 +4077,10 @@
         <v>8</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA20" t="n">
         <v>21</v>
@@ -4089,7 +4089,7 @@
         <v>41</v>
       </c>
       <c r="AC20" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD20" t="n">
         <v>6.5</v>
@@ -4104,16 +4104,16 @@
         <v>201</v>
       </c>
       <c r="AH20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ20" t="n">
         <v>15</v>
       </c>
       <c r="AK20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL20" t="n">
         <v>41</v>
@@ -4152,10 +4152,10 @@
         <v>126</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ20" t="n">
         <v>41</v>
@@ -4167,7 +4167,7 @@
         <v>151</v>
       </c>
       <c r="BC20" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BD20" t="n">
         <v>126</v>
@@ -4205,115 +4205,115 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="H21" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J21" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="K21" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L21" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="R21" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="S21" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T21" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U21" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V21" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="W21" t="n">
         <v>5.5</v>
       </c>
       <c r="X21" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y21" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z21" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AA21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC21" t="n">
         <v>8</v>
       </c>
-      <c r="AA21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AD21" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AE21" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AF21" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG21" t="n">
         <v>451</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AI21" t="n">
         <v>41</v>
       </c>
       <c r="AJ21" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AK21" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL21" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM21" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AO21" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AP21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ21" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AR21" t="n">
         <v>51</v>
@@ -4322,10 +4322,10 @@
         <v>201</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV21" t="n">
         <v>81</v>
@@ -4334,19 +4334,19 @@
         <v>126</v>
       </c>
       <c r="AX21" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AY21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA21" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB21" t="n">
         <v>251</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>301</v>
       </c>
       <c r="BC21" t="n">
         <v>501</v>
@@ -4387,16 +4387,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H22" t="n">
         <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J22" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K22" t="n">
         <v>2.1</v>
@@ -4405,16 +4405,16 @@
         <v>5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P22" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q22" t="n">
         <v>2.1</v>
@@ -4444,7 +4444,7 @@
         <v>8.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA22" t="n">
         <v>15</v>
@@ -4453,7 +4453,7 @@
         <v>29</v>
       </c>
       <c r="AC22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD22" t="n">
         <v>7</v>
@@ -4465,7 +4465,7 @@
         <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH22" t="n">
         <v>11</v>
@@ -4516,7 +4516,7 @@
         <v>501</v>
       </c>
       <c r="AX22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY22" t="n">
         <v>26</v>
@@ -4572,7 +4572,7 @@
         <v>1.3</v>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="I23" t="n">
         <v>8</v>
@@ -4620,7 +4620,7 @@
         <v>11</v>
       </c>
       <c r="X23" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y23" t="n">
         <v>9</v>
@@ -4951,16 +4951,16 @@
         <v>4.75</v>
       </c>
       <c r="M25" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
         <v>6.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P25" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Q25" t="n">
         <v>2.7</v>
@@ -5133,13 +5133,13 @@
         <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="P26" t="n">
         <v>2.25</v>
@@ -5309,28 +5309,28 @@
         <v>2.88</v>
       </c>
       <c r="K27" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L27" t="n">
         <v>4.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P27" t="n">
         <v>2.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R27" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S27" t="n">
         <v>1.57</v>
@@ -5351,7 +5351,7 @@
         <v>8.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z27" t="n">
         <v>19</v>
@@ -5384,7 +5384,7 @@
         <v>17</v>
       </c>
       <c r="AJ27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK27" t="n">
         <v>41</v>
@@ -5399,7 +5399,7 @@
         <v>4</v>
       </c>
       <c r="AO27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP27" t="n">
         <v>29</v>
@@ -5411,13 +5411,13 @@
         <v>81</v>
       </c>
       <c r="AS27" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT27" t="n">
         <v>2.25</v>
       </c>
       <c r="AU27" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV27" t="n">
         <v>81</v>
@@ -5432,7 +5432,7 @@
         <v>23</v>
       </c>
       <c r="AZ27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA27" t="n">
         <v>81</v>
@@ -5441,7 +5441,7 @@
         <v>126</v>
       </c>
       <c r="BC27" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BD27" t="n">
         <v>126</v>
@@ -5479,19 +5479,19 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H28" t="n">
         <v>3.3</v>
       </c>
       <c r="I28" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J28" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K28" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L28" t="n">
         <v>6.5</v>
@@ -5500,10 +5500,10 @@
         <v>1.1</v>
       </c>
       <c r="N28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O28" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P28" t="n">
         <v>2.5</v>
@@ -5527,7 +5527,7 @@
         <v>1.53</v>
       </c>
       <c r="W28" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="X28" t="n">
         <v>6.5</v>
@@ -5545,10 +5545,10 @@
         <v>41</v>
       </c>
       <c r="AC28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD28" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>7</v>
       </c>
       <c r="AE28" t="n">
         <v>23</v>
@@ -5581,7 +5581,7 @@
         <v>3.4</v>
       </c>
       <c r="AO28" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP28" t="n">
         <v>26</v>
@@ -6025,37 +6025,37 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H31" t="n">
         <v>3.9</v>
       </c>
       <c r="I31" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J31" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K31" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L31" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M31" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N31" t="n">
         <v>15</v>
       </c>
       <c r="O31" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P31" t="n">
         <v>4.33</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R31" t="n">
         <v>2.2</v>
@@ -6067,10 +6067,10 @@
         <v>3.4</v>
       </c>
       <c r="U31" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V31" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W31" t="n">
         <v>12</v>
@@ -6085,16 +6085,16 @@
         <v>34</v>
       </c>
       <c r="AA31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB31" t="n">
         <v>26</v>
       </c>
       <c r="AC31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD31" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE31" t="n">
         <v>13</v>
@@ -6106,16 +6106,16 @@
         <v>151</v>
       </c>
       <c r="AH31" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ31" t="n">
         <v>9</v>
       </c>
       <c r="AK31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL31" t="n">
         <v>15</v>
@@ -6130,13 +6130,13 @@
         <v>17</v>
       </c>
       <c r="AP31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ31" t="n">
         <v>51</v>
       </c>
       <c r="AR31" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS31" t="n">
         <v>126</v>
@@ -6154,7 +6154,7 @@
         <v>401</v>
       </c>
       <c r="AX31" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY31" t="n">
         <v>11</v>
@@ -6207,127 +6207,127 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="H32" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I32" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="J32" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="K32" t="n">
         <v>2.2</v>
       </c>
       <c r="L32" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="M32" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O32" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P32" t="n">
         <v>3.5</v>
       </c>
       <c r="Q32" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R32" t="n">
         <v>1.95</v>
       </c>
-      <c r="R32" t="n">
-        <v>1.9</v>
-      </c>
       <c r="S32" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T32" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U32" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V32" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W32" t="n">
+        <v>10</v>
+      </c>
+      <c r="X32" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y32" t="n">
         <v>11</v>
       </c>
-      <c r="X32" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>13</v>
-      </c>
       <c r="Z32" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA32" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB32" t="n">
         <v>34</v>
       </c>
       <c r="AC32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD32" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL32" t="n">
         <v>17</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>15</v>
       </c>
       <c r="AM32" t="n">
         <v>26</v>
       </c>
       <c r="AN32" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP32" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ32" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR32" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS32" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU32" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV32" t="n">
         <v>51</v>
@@ -6336,16 +6336,16 @@
         <v>501</v>
       </c>
       <c r="AX32" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AY32" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ32" t="n">
         <v>21</v>
       </c>
       <c r="BA32" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB32" t="n">
         <v>51</v>
@@ -6389,16 +6389,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H33" t="n">
         <v>5</v>
       </c>
       <c r="I33" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J33" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K33" t="n">
         <v>2.6</v>
@@ -6407,13 +6407,13 @@
         <v>5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N33" t="n">
         <v>21</v>
       </c>
       <c r="O33" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P33" t="n">
         <v>5.5</v>
@@ -6431,22 +6431,22 @@
         <v>3.75</v>
       </c>
       <c r="U33" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V33" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W33" t="n">
         <v>10</v>
       </c>
       <c r="X33" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y33" t="n">
         <v>8.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA33" t="n">
         <v>11</v>
@@ -6467,7 +6467,7 @@
         <v>41</v>
       </c>
       <c r="AG33" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH33" t="n">
         <v>17</v>
@@ -6485,10 +6485,10 @@
         <v>34</v>
       </c>
       <c r="AM33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN33" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO33" t="n">
         <v>7.5</v>
@@ -6518,10 +6518,10 @@
         <v>351</v>
       </c>
       <c r="AX33" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ33" t="n">
         <v>26</v>
@@ -6533,7 +6533,7 @@
         <v>81</v>
       </c>
       <c r="BC33" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD33" t="n">
         <v>151</v>
@@ -6935,22 +6935,22 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="H36" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J36" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I36" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.6</v>
       </c>
       <c r="K36" t="n">
         <v>2.2</v>
       </c>
       <c r="L36" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="M36" t="n">
         <v>1.05</v>
@@ -6965,10 +6965,10 @@
         <v>3.75</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R36" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S36" t="n">
         <v>1.36</v>
@@ -6977,31 +6977,31 @@
         <v>3</v>
       </c>
       <c r="U36" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V36" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X36" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z36" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA36" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB36" t="n">
         <v>29</v>
       </c>
       <c r="AC36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD36" t="n">
         <v>6.5</v>
@@ -7019,25 +7019,25 @@
         <v>9</v>
       </c>
       <c r="AI36" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ36" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN36" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO36" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP36" t="n">
         <v>23</v>
@@ -7064,10 +7064,10 @@
         <v>501</v>
       </c>
       <c r="AX36" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AY36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ36" t="n">
         <v>21</v>
@@ -7079,7 +7079,7 @@
         <v>51</v>
       </c>
       <c r="BC36" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD36" t="n">
         <v>151</v>
@@ -7863,13 +7863,13 @@
         <v>4.33</v>
       </c>
       <c r="M41" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N41" t="n">
         <v>11</v>
       </c>
       <c r="O41" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P41" t="n">
         <v>3.5</v>
@@ -7887,10 +7887,10 @@
         <v>2.75</v>
       </c>
       <c r="U41" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V41" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W41" t="n">
         <v>7.5</v>
@@ -8045,22 +8045,22 @@
         <v>3</v>
       </c>
       <c r="M42" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N42" t="n">
         <v>11</v>
       </c>
       <c r="O42" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P42" t="n">
         <v>3.75</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R42" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S42" t="n">
         <v>1.36</v>
@@ -8069,7 +8069,7 @@
         <v>3</v>
       </c>
       <c r="U42" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V42" t="n">
         <v>2.1</v>
@@ -8227,13 +8227,13 @@
         <v>3.6</v>
       </c>
       <c r="M43" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N43" t="n">
         <v>10</v>
       </c>
       <c r="O43" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P43" t="n">
         <v>3.75</v>
@@ -8251,7 +8251,7 @@
         <v>2.75</v>
       </c>
       <c r="U43" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V43" t="n">
         <v>2.1</v>
@@ -8755,22 +8755,22 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I46" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J46" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K46" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L46" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M46" t="n">
         <v>1.1</v>
@@ -8785,16 +8785,16 @@
         <v>2.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R46" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S46" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T46" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U46" t="n">
         <v>2.2</v>
@@ -8806,25 +8806,25 @@
         <v>5.5</v>
       </c>
       <c r="X46" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y46" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA46" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB46" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC46" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD46" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE46" t="n">
         <v>21</v>
@@ -8836,16 +8836,16 @@
         <v>1250</v>
       </c>
       <c r="AH46" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI46" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ46" t="n">
         <v>15</v>
       </c>
       <c r="AK46" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL46" t="n">
         <v>41</v>
@@ -8857,34 +8857,34 @@
         <v>3.75</v>
       </c>
       <c r="AO46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP46" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ46" t="n">
         <v>41</v>
       </c>
       <c r="AR46" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS46" t="n">
         <v>251</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU46" t="n">
         <v>9.5</v>
       </c>
       <c r="AV46" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW46" t="n">
         <v>81</v>
       </c>
       <c r="AX46" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY46" t="n">
         <v>26</v>
@@ -8893,7 +8893,7 @@
         <v>41</v>
       </c>
       <c r="BA46" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB46" t="n">
         <v>151</v>
@@ -8955,13 +8955,13 @@
         <v>4.33</v>
       </c>
       <c r="M47" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N47" t="n">
         <v>6</v>
       </c>
       <c r="O47" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P47" t="n">
         <v>2.2</v>
@@ -9119,61 +9119,61 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H48" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="I48" t="n">
         <v>7.5</v>
       </c>
       <c r="J48" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K48" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L48" t="n">
         <v>7.5</v>
       </c>
       <c r="M48" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N48" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O48" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="P48" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="R48" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="S48" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T48" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U48" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V48" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="W48" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X48" t="n">
         <v>6</v>
       </c>
       <c r="Y48" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z48" t="n">
         <v>9.5</v>
@@ -9182,28 +9182,28 @@
         <v>15</v>
       </c>
       <c r="AB48" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC48" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD48" t="n">
         <v>8</v>
       </c>
       <c r="AE48" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF48" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG48" t="n">
         <v>201</v>
       </c>
       <c r="AH48" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI48" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ48" t="n">
         <v>23</v>
@@ -9212,13 +9212,13 @@
         <v>81</v>
       </c>
       <c r="AL48" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM48" t="n">
         <v>67</v>
       </c>
       <c r="AN48" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO48" t="n">
         <v>7.5</v>
@@ -9227,19 +9227,19 @@
         <v>23</v>
       </c>
       <c r="AQ48" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR48" t="n">
         <v>51</v>
       </c>
       <c r="AS48" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU48" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV48" t="n">
         <v>81</v>
@@ -9254,13 +9254,13 @@
         <v>41</v>
       </c>
       <c r="AZ48" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA48" t="n">
         <v>201</v>
       </c>
       <c r="BB48" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC48" t="n">
         <v>301</v>
@@ -9319,13 +9319,13 @@
         <v>11</v>
       </c>
       <c r="M49" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N49" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O49" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -9501,22 +9501,22 @@
         <v>1.53</v>
       </c>
       <c r="M50" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N50" t="n">
         <v>13</v>
       </c>
       <c r="O50" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R50" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S50" t="n">
         <v>1.33</v>
@@ -9531,10 +9531,10 @@
         <v>1.33</v>
       </c>
       <c r="W50" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X50" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="Y50" t="n">
         <v>51</v>
@@ -9546,13 +9546,13 @@
         <v>201</v>
       </c>
       <c r="AB50" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AC50" t="n">
         <v>11</v>
       </c>
       <c r="AD50" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE50" t="n">
         <v>41</v>
@@ -9567,7 +9567,7 @@
         <v>6</v>
       </c>
       <c r="AI50" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AJ50" t="n">
         <v>12</v>
@@ -9579,7 +9579,7 @@
         <v>15</v>
       </c>
       <c r="AM50" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN50" t="n">
         <v>17</v>
@@ -9665,28 +9665,28 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H51" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I51" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="J51" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K51" t="n">
         <v>2.05</v>
       </c>
       <c r="L51" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="M51" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O51" t="n">
         <v>1.36</v>
@@ -9710,10 +9710,10 @@
         <v>2</v>
       </c>
       <c r="V51" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="W51" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X51" t="n">
         <v>21</v>
@@ -9722,7 +9722,7 @@
         <v>15</v>
       </c>
       <c r="Z51" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA51" t="n">
         <v>41</v>
@@ -9734,28 +9734,28 @@
         <v>8</v>
       </c>
       <c r="AD51" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE51" t="n">
         <v>17</v>
       </c>
       <c r="AF51" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG51" t="n">
         <v>351</v>
       </c>
       <c r="AH51" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI51" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ51" t="n">
         <v>9</v>
       </c>
       <c r="AK51" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL51" t="n">
         <v>17</v>
@@ -9767,7 +9767,7 @@
         <v>6</v>
       </c>
       <c r="AO51" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP51" t="n">
         <v>34</v>
@@ -9776,7 +9776,7 @@
         <v>81</v>
       </c>
       <c r="AR51" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS51" t="n">
         <v>301</v>
@@ -9785,7 +9785,7 @@
         <v>2.63</v>
       </c>
       <c r="AU51" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV51" t="n">
         <v>67</v>
@@ -9797,16 +9797,16 @@
         <v>3.75</v>
       </c>
       <c r="AY51" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ51" t="n">
         <v>23</v>
       </c>
       <c r="BA51" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB51" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC51" t="n">
         <v>201</v>
@@ -9889,10 +9889,10 @@
         <v>2.75</v>
       </c>
       <c r="U52" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V52" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W52" t="n">
         <v>7.5</v>
@@ -10029,28 +10029,28 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H53" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J53" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K53" t="n">
         <v>2.3</v>
       </c>
       <c r="L53" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M53" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N53" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O53" t="n">
         <v>1.2</v>
@@ -10071,13 +10071,13 @@
         <v>3.4</v>
       </c>
       <c r="U53" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V53" t="n">
         <v>2.25</v>
       </c>
       <c r="W53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X53" t="n">
         <v>21</v>
@@ -10116,10 +10116,10 @@
         <v>11</v>
       </c>
       <c r="AJ53" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK53" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL53" t="n">
         <v>15</v>
@@ -10131,7 +10131,7 @@
         <v>5.5</v>
       </c>
       <c r="AO53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP53" t="n">
         <v>23</v>
@@ -10161,16 +10161,16 @@
         <v>4.33</v>
       </c>
       <c r="AY53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ53" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA53" t="n">
         <v>34</v>
       </c>
       <c r="BB53" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BC53" t="n">
         <v>101</v>
@@ -10253,10 +10253,10 @@
         <v>2.75</v>
       </c>
       <c r="U54" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V54" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W54" t="n">
         <v>7.5</v>
@@ -10393,7 +10393,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H55" t="n">
         <v>4.33</v>
@@ -10402,7 +10402,7 @@
         <v>7</v>
       </c>
       <c r="J55" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K55" t="n">
         <v>2.5</v>
@@ -10417,10 +10417,10 @@
         <v>15</v>
       </c>
       <c r="O55" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P55" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q55" t="n">
         <v>1.6</v>
@@ -10435,19 +10435,19 @@
         <v>3.5</v>
       </c>
       <c r="U55" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V55" t="n">
         <v>2</v>
       </c>
       <c r="W55" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X55" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y55" t="n">
         <v>8</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>8.5</v>
       </c>
       <c r="Z55" t="n">
         <v>10</v>
@@ -10456,7 +10456,7 @@
         <v>11</v>
       </c>
       <c r="AB55" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC55" t="n">
         <v>15</v>
@@ -10477,22 +10477,22 @@
         <v>21</v>
       </c>
       <c r="AI55" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ55" t="n">
         <v>21</v>
       </c>
       <c r="AK55" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL55" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM55" t="n">
         <v>41</v>
       </c>
       <c r="AN55" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO55" t="n">
         <v>7</v>
@@ -10513,7 +10513,7 @@
         <v>3.5</v>
       </c>
       <c r="AU55" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV55" t="n">
         <v>51</v>
@@ -10525,7 +10525,7 @@
         <v>8</v>
       </c>
       <c r="AY55" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ55" t="n">
         <v>34</v>
@@ -10534,7 +10534,7 @@
         <v>101</v>
       </c>
       <c r="BB55" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC55" t="n">
         <v>201</v>
@@ -10575,16 +10575,16 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H56" t="n">
         <v>3.4</v>
       </c>
       <c r="I56" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J56" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K56" t="n">
         <v>2.2</v>
@@ -10617,22 +10617,22 @@
         <v>3</v>
       </c>
       <c r="U56" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V56" t="n">
         <v>2.1</v>
       </c>
       <c r="W56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X56" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z56" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA56" t="n">
         <v>26</v>
@@ -10665,7 +10665,7 @@
         <v>9</v>
       </c>
       <c r="AK56" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL56" t="n">
         <v>17</v>
@@ -10677,16 +10677,16 @@
         <v>5.5</v>
       </c>
       <c r="AO56" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP56" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ56" t="n">
         <v>51</v>
       </c>
       <c r="AR56" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS56" t="n">
         <v>151</v>
@@ -10707,7 +10707,7 @@
         <v>4.33</v>
       </c>
       <c r="AY56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ56" t="n">
         <v>21</v>
@@ -11124,7 +11124,7 @@
         <v>3.4</v>
       </c>
       <c r="H59" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I59" t="n">
         <v>2.2</v>
@@ -11133,40 +11133,40 @@
         <v>4.33</v>
       </c>
       <c r="K59" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L59" t="n">
         <v>3.1</v>
       </c>
       <c r="M59" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N59" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O59" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P59" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="R59" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S59" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T59" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U59" t="n">
         <v>2.25</v>
       </c>
-      <c r="U59" t="n">
-        <v>2.2</v>
-      </c>
       <c r="V59" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="W59" t="n">
         <v>7.5</v>
@@ -11184,16 +11184,16 @@
         <v>34</v>
       </c>
       <c r="AB59" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC59" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD59" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE59" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF59" t="n">
         <v>81</v>
@@ -11202,10 +11202,10 @@
         <v>351</v>
       </c>
       <c r="AH59" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI59" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ59" t="n">
         <v>10</v>
@@ -11214,7 +11214,7 @@
         <v>21</v>
       </c>
       <c r="AL59" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM59" t="n">
         <v>41</v>
@@ -11229,22 +11229,22 @@
         <v>34</v>
       </c>
       <c r="AQ59" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR59" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS59" t="n">
         <v>351</v>
       </c>
       <c r="AT59" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU59" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV59" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW59" t="n">
         <v>126</v>
@@ -11259,13 +11259,13 @@
         <v>29</v>
       </c>
       <c r="BA59" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB59" t="n">
         <v>81</v>
       </c>
       <c r="BC59" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD59" t="n">
         <v>126</v>
@@ -11303,13 +11303,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H60" t="n">
         <v>3.3</v>
       </c>
       <c r="I60" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J60" t="n">
         <v>2.4</v>
@@ -11327,10 +11327,10 @@
         <v>7</v>
       </c>
       <c r="O60" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P60" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q60" t="n">
         <v>2.5</v>
@@ -11360,7 +11360,7 @@
         <v>9.5</v>
       </c>
       <c r="Z60" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA60" t="n">
         <v>17</v>
@@ -11399,10 +11399,10 @@
         <v>51</v>
       </c>
       <c r="AM60" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN60" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO60" t="n">
         <v>9.5</v>
@@ -11441,7 +11441,7 @@
         <v>41</v>
       </c>
       <c r="BA60" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB60" t="n">
         <v>201</v>
@@ -11667,7 +11667,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H62" t="n">
         <v>3.5</v>
@@ -11685,22 +11685,22 @@
         <v>2.3</v>
       </c>
       <c r="M62" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N62" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O62" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P62" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="R62" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S62" t="n">
         <v>1.4</v>
@@ -11709,13 +11709,13 @@
         <v>2.75</v>
       </c>
       <c r="U62" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="V62" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="W62" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X62" t="n">
         <v>26</v>
@@ -11733,13 +11733,13 @@
         <v>41</v>
       </c>
       <c r="AC62" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD62" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE62" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF62" t="n">
         <v>51</v>
@@ -11748,7 +11748,7 @@
         <v>301</v>
       </c>
       <c r="AH62" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI62" t="n">
         <v>7.5</v>
@@ -11760,16 +11760,16 @@
         <v>12</v>
       </c>
       <c r="AL62" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM62" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN62" t="n">
         <v>6.5</v>
       </c>
       <c r="AO62" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP62" t="n">
         <v>34</v>
@@ -12213,13 +12213,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H65" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I65" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J65" t="n">
         <v>2.1</v>
@@ -12234,7 +12234,7 @@
         <v>1.04</v>
       </c>
       <c r="N65" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O65" t="n">
         <v>1.22</v>
@@ -12243,10 +12243,10 @@
         <v>4</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R65" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S65" t="n">
         <v>1.33</v>
@@ -12264,13 +12264,13 @@
         <v>7.5</v>
       </c>
       <c r="X65" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y65" t="n">
         <v>8.5</v>
       </c>
       <c r="Z65" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA65" t="n">
         <v>12</v>
@@ -12282,16 +12282,16 @@
         <v>12</v>
       </c>
       <c r="AD65" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE65" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF65" t="n">
         <v>51</v>
       </c>
       <c r="AG65" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH65" t="n">
         <v>15</v>
@@ -12315,10 +12315,10 @@
         <v>3.6</v>
       </c>
       <c r="AO65" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP65" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ65" t="n">
         <v>23</v>
@@ -12333,7 +12333,7 @@
         <v>3.25</v>
       </c>
       <c r="AU65" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV65" t="n">
         <v>51</v>
@@ -12354,7 +12354,7 @@
         <v>101</v>
       </c>
       <c r="BB65" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC65" t="n">
         <v>201</v>
@@ -12395,13 +12395,13 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H66" t="n">
         <v>3.4</v>
       </c>
       <c r="I66" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J66" t="n">
         <v>2.88</v>
@@ -12410,25 +12410,25 @@
         <v>2.05</v>
       </c>
       <c r="L66" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M66" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N66" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O66" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P66" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R66" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S66" t="n">
         <v>1.5</v>
@@ -12437,16 +12437,16 @@
         <v>2.5</v>
       </c>
       <c r="U66" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V66" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W66" t="n">
         <v>6.5</v>
       </c>
       <c r="X66" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -12470,25 +12470,25 @@
         <v>17</v>
       </c>
       <c r="AF66" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG66" t="n">
         <v>401</v>
       </c>
       <c r="AH66" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI66" t="n">
         <v>17</v>
       </c>
       <c r="AJ66" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK66" t="n">
         <v>41</v>
       </c>
       <c r="AL66" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM66" t="n">
         <v>41</v>
@@ -12518,7 +12518,7 @@
         <v>8.5</v>
       </c>
       <c r="AV66" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW66" t="n">
         <v>81</v>
@@ -12530,7 +12530,7 @@
         <v>21</v>
       </c>
       <c r="AZ66" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA66" t="n">
         <v>67</v>
@@ -13123,13 +13123,13 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H70" t="n">
         <v>4.75</v>
       </c>
       <c r="I70" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J70" t="n">
         <v>1.91</v>
@@ -13138,7 +13138,7 @@
         <v>2.63</v>
       </c>
       <c r="L70" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M70" t="n">
         <v>1.02</v>
@@ -13147,16 +13147,16 @@
         <v>19</v>
       </c>
       <c r="O70" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P70" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q70" t="n">
         <v>1.44</v>
       </c>
       <c r="R70" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="S70" t="n">
         <v>1.25</v>
@@ -13165,10 +13165,10 @@
         <v>3.75</v>
       </c>
       <c r="U70" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V70" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W70" t="n">
         <v>10</v>
@@ -13186,16 +13186,16 @@
         <v>11</v>
       </c>
       <c r="AB70" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC70" t="n">
         <v>19</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>21</v>
       </c>
       <c r="AD70" t="n">
         <v>10</v>
       </c>
       <c r="AE70" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF70" t="n">
         <v>41</v>
@@ -13210,7 +13210,7 @@
         <v>34</v>
       </c>
       <c r="AJ70" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK70" t="n">
         <v>67</v>
@@ -13270,7 +13270,7 @@
         <v>151</v>
       </c>
       <c r="BD70" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71">
@@ -13335,7 +13335,7 @@
         <v>5.5</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R71" t="n">
         <v>2.4</v>
@@ -13511,16 +13511,16 @@
         <v>15</v>
       </c>
       <c r="O72" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P72" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R72" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S72" t="n">
         <v>1.33</v>
@@ -13669,46 +13669,46 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="H73" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I73" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="J73" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="K73" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L73" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M73" t="n">
         <v>1.08</v>
       </c>
       <c r="N73" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O73" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P73" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R73" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S73" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T73" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U73" t="n">
         <v>1.91</v>
@@ -13717,31 +13717,31 @@
         <v>1.8</v>
       </c>
       <c r="W73" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X73" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Y73" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z73" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA73" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB73" t="n">
         <v>34</v>
       </c>
       <c r="AC73" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD73" t="n">
         <v>6</v>
       </c>
       <c r="AE73" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF73" t="n">
         <v>51</v>
@@ -13750,31 +13750,31 @@
         <v>351</v>
       </c>
       <c r="AH73" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI73" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AJ73" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK73" t="n">
         <v>41</v>
       </c>
       <c r="AL73" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AM73" t="n">
         <v>41</v>
       </c>
       <c r="AN73" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO73" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP73" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ73" t="n">
         <v>41</v>
@@ -13786,7 +13786,7 @@
         <v>201</v>
       </c>
       <c r="AT73" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU73" t="n">
         <v>8.5</v>
@@ -13798,16 +13798,16 @@
         <v>51</v>
       </c>
       <c r="AX73" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY73" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AZ73" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA73" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB73" t="n">
         <v>101</v>
@@ -13869,10 +13869,10 @@
         <v>4</v>
       </c>
       <c r="M74" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N74" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O74" t="n">
         <v>1.36</v>
@@ -14063,10 +14063,10 @@
         <v>2.63</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R75" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S75" t="n">
         <v>1.5</v>
@@ -14215,13 +14215,13 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H76" t="n">
         <v>3.4</v>
       </c>
       <c r="I76" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J76" t="n">
         <v>3.4</v>
@@ -14245,10 +14245,10 @@
         <v>4</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R76" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S76" t="n">
         <v>1.36</v>
@@ -14281,7 +14281,7 @@
         <v>29</v>
       </c>
       <c r="AC76" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD76" t="n">
         <v>6.5</v>
@@ -15495,10 +15495,10 @@
         <v>3.5</v>
       </c>
       <c r="I83" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J83" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K83" t="n">
         <v>2.25</v>
@@ -15531,7 +15531,7 @@
         <v>3</v>
       </c>
       <c r="U83" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V83" t="n">
         <v>2.1</v>
@@ -15549,7 +15549,7 @@
         <v>19</v>
       </c>
       <c r="AA83" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB83" t="n">
         <v>23</v>
@@ -15558,7 +15558,7 @@
         <v>12</v>
       </c>
       <c r="AD83" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE83" t="n">
         <v>13</v>
@@ -15570,22 +15570,22 @@
         <v>151</v>
       </c>
       <c r="AH83" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI83" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ83" t="n">
         <v>12</v>
       </c>
       <c r="AK83" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL83" t="n">
         <v>26</v>
       </c>
       <c r="AM83" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN83" t="n">
         <v>4.33</v>
@@ -15597,7 +15597,7 @@
         <v>21</v>
       </c>
       <c r="AQ83" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR83" t="n">
         <v>51</v>
@@ -15624,7 +15624,7 @@
         <v>19</v>
       </c>
       <c r="AZ83" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA83" t="n">
         <v>51</v>
@@ -15692,7 +15692,7 @@
         <v>1.03</v>
       </c>
       <c r="N84" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O84" t="n">
         <v>1.19</v>
@@ -15701,10 +15701,10 @@
         <v>4</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="R84" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S84" t="n">
         <v>1.36</v>
@@ -15713,7 +15713,7 @@
         <v>3</v>
       </c>
       <c r="U84" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="V84" t="n">
         <v>2.2</v>
@@ -16035,22 +16035,22 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H86" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J86" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="K86" t="n">
         <v>2.25</v>
       </c>
       <c r="L86" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M86" t="n">
         <v>1.04</v>
@@ -16059,22 +16059,22 @@
         <v>13</v>
       </c>
       <c r="O86" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P86" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R86" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S86" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T86" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U86" t="n">
         <v>1.67</v>
@@ -16092,10 +16092,10 @@
         <v>9</v>
       </c>
       <c r="Z86" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA86" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB86" t="n">
         <v>23</v>
@@ -16116,19 +16116,19 @@
         <v>151</v>
       </c>
       <c r="AH86" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI86" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ86" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK86" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL86" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM86" t="n">
         <v>29</v>
@@ -16137,13 +16137,13 @@
         <v>4.33</v>
       </c>
       <c r="AO86" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP86" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ86" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR86" t="n">
         <v>51</v>
@@ -16152,7 +16152,7 @@
         <v>126</v>
       </c>
       <c r="AT86" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU86" t="n">
         <v>7.5</v>
@@ -16164,10 +16164,10 @@
         <v>51</v>
       </c>
       <c r="AX86" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY86" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ86" t="n">
         <v>23</v>
@@ -16235,10 +16235,10 @@
         <v>8</v>
       </c>
       <c r="M87" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N87" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O87" t="n">
         <v>1.17</v>
@@ -16247,28 +16247,28 @@
         <v>5</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R87" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S87" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T87" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U87" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V87" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W87" t="n">
         <v>8</v>
       </c>
       <c r="X87" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y87" t="n">
         <v>9</v>
@@ -16280,10 +16280,10 @@
         <v>11</v>
       </c>
       <c r="AB87" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC87" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD87" t="n">
         <v>11</v>
@@ -16304,7 +16304,7 @@
         <v>41</v>
       </c>
       <c r="AJ87" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK87" t="n">
         <v>101</v>
@@ -16316,7 +16316,7 @@
         <v>51</v>
       </c>
       <c r="AN87" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO87" t="n">
         <v>6</v>
@@ -16328,13 +16328,13 @@
         <v>15</v>
       </c>
       <c r="AR87" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS87" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT87" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU87" t="n">
         <v>9.5</v>
@@ -16355,10 +16355,10 @@
         <v>41</v>
       </c>
       <c r="BA87" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB87" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC87" t="n">
         <v>301</v>
@@ -16399,13 +16399,13 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="H88" t="n">
-        <v>4.45</v>
+        <v>4.6</v>
       </c>
       <c r="I88" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J88" t="n">
         <v>4.15</v>
@@ -16414,7 +16414,7 @@
         <v>2.72</v>
       </c>
       <c r="L88" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="M88" t="n">
         <v>1.01</v>
@@ -16426,13 +16426,13 @@
         <v>1.08</v>
       </c>
       <c r="P88" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="R88" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="S88" t="n">
         <v>1.18</v>
@@ -16465,10 +16465,10 @@
         <v>24</v>
       </c>
       <c r="AC88" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD88" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AE88" t="n">
         <v>12</v>
@@ -16480,13 +16480,13 @@
         <v>100</v>
       </c>
       <c r="AH88" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI88" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ88" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK88" t="n">
         <v>16.5</v>
@@ -16498,7 +16498,7 @@
         <v>14.5</v>
       </c>
       <c r="AN88" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AO88" t="n">
         <v>21</v>
@@ -16522,7 +16522,7 @@
         <v>6.3</v>
       </c>
       <c r="AV88" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW88" t="n">
         <v>300</v>
@@ -16531,10 +16531,10 @@
         <v>4.4</v>
       </c>
       <c r="AY88" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AZ88" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="BA88" t="n">
         <v>18.5</v>
@@ -16581,19 +16581,19 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="H89" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I89" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J89" t="n">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="K89" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="L89" t="n">
         <v>3.15</v>
@@ -16611,16 +16611,16 @@
         <v>5.5</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="R89" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="S89" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="T89" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="U89" t="n">
         <v>1.34</v>
@@ -16629,7 +16629,7 @@
         <v>3</v>
       </c>
       <c r="W89" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="X89" t="n">
         <v>17</v>
@@ -16638,22 +16638,22 @@
         <v>9.5</v>
       </c>
       <c r="Z89" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA89" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AB89" t="n">
         <v>16</v>
       </c>
       <c r="AC89" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AD89" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AE89" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AF89" t="n">
         <v>25</v>
@@ -16668,10 +16668,10 @@
         <v>22</v>
       </c>
       <c r="AJ89" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AK89" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AL89" t="n">
         <v>19.5</v>
@@ -16683,25 +16683,25 @@
         <v>4.9</v>
       </c>
       <c r="AO89" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AP89" t="n">
         <v>13</v>
       </c>
       <c r="AQ89" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR89" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AS89" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AT89" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="AU89" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AV89" t="n">
         <v>30</v>
@@ -16769,7 +16769,7 @@
         <v>3.25</v>
       </c>
       <c r="I90" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="J90" t="n">
         <v>3.1</v>
@@ -16805,10 +16805,10 @@
         <v>2.63</v>
       </c>
       <c r="U90" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V90" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W90" t="n">
         <v>7.5</v>
@@ -16951,7 +16951,7 @@
         <v>3.7</v>
       </c>
       <c r="I91" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="J91" t="n">
         <v>5</v>
@@ -16987,10 +16987,10 @@
         <v>3</v>
       </c>
       <c r="U91" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V91" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W91" t="n">
         <v>13</v>
@@ -17127,40 +17127,40 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H92" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I92" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="J92" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K92" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L92" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M92" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N92" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O92" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P92" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="R92" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S92" t="n">
         <v>1.4</v>
@@ -17169,37 +17169,37 @@
         <v>2.75</v>
       </c>
       <c r="U92" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V92" t="n">
         <v>2.05</v>
       </c>
       <c r="W92" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X92" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y92" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z92" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA92" t="n">
         <v>21</v>
       </c>
-      <c r="AA92" t="n">
-        <v>17</v>
-      </c>
       <c r="AB92" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC92" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD92" t="n">
         <v>6</v>
       </c>
       <c r="AE92" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF92" t="n">
         <v>41</v>
@@ -17208,37 +17208,37 @@
         <v>201</v>
       </c>
       <c r="AH92" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ92" t="n">
         <v>11</v>
       </c>
-      <c r="AI92" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ92" t="n">
-        <v>12</v>
-      </c>
       <c r="AK92" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL92" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM92" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN92" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO92" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP92" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ92" t="n">
         <v>41</v>
       </c>
       <c r="AR92" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS92" t="n">
         <v>151</v>
@@ -17247,7 +17247,7 @@
         <v>2.75</v>
       </c>
       <c r="AU92" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV92" t="n">
         <v>51</v>
@@ -17268,7 +17268,7 @@
         <v>51</v>
       </c>
       <c r="BB92" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC92" t="n">
         <v>151</v>
@@ -17309,55 +17309,55 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H93" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I93" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J93" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K93" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L93" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M93" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N93" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O93" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="P93" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="R93" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="S93" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T93" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U93" t="n">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="V93" t="n">
-        <v>1.77</v>
+        <v>1.95</v>
       </c>
       <c r="W93" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="X93" t="n">
         <v>15</v>
@@ -17369,70 +17369,70 @@
         <v>34</v>
       </c>
       <c r="AA93" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB93" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC93" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AD93" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE93" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF93" t="n">
         <v>51</v>
       </c>
       <c r="AG93" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH93" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI93" t="n">
         <v>11</v>
       </c>
       <c r="AJ93" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK93" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL93" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM93" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN93" t="n">
         <v>5</v>
       </c>
       <c r="AO93" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP93" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ93" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR93" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS93" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT93" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU93" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV93" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW93" t="n">
         <v>81</v>
@@ -17441,19 +17441,19 @@
         <v>4.33</v>
       </c>
       <c r="AY93" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ93" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA93" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB93" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC93" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD93" t="n">
         <v>81</v>
@@ -17491,109 +17491,109 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H94" t="n">
         <v>3</v>
       </c>
       <c r="I94" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="J94" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K94" t="n">
+        <v>2</v>
+      </c>
+      <c r="L94" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N94" t="n">
+        <v>8</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P94" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R94" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S94" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T94" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U94" t="n">
         <v>1.95</v>
       </c>
-      <c r="L94" t="n">
-        <v>4</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N94" t="n">
-        <v>7</v>
-      </c>
-      <c r="O94" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P94" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R94" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S94" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T94" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U94" t="n">
-        <v>2</v>
-      </c>
       <c r="V94" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="W94" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X94" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y94" t="n">
         <v>10</v>
       </c>
       <c r="Z94" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA94" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB94" t="n">
         <v>34</v>
       </c>
       <c r="AC94" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD94" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE94" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF94" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG94" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AH94" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI94" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO94" t="n">
         <v>15</v>
-      </c>
-      <c r="AJ94" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK94" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL94" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM94" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN94" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO94" t="n">
-        <v>13</v>
       </c>
       <c r="AP94" t="n">
         <v>26</v>
@@ -17605,13 +17605,13 @@
         <v>81</v>
       </c>
       <c r="AS94" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT94" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU94" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV94" t="n">
         <v>67</v>
@@ -17620,22 +17620,22 @@
         <v>81</v>
       </c>
       <c r="AX94" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY94" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AZ94" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA94" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB94" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC94" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD94" t="n">
         <v>81</v>
@@ -17673,34 +17673,34 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H95" t="n">
         <v>3.2</v>
       </c>
       <c r="I95" t="n">
+        <v>3</v>
+      </c>
+      <c r="J95" t="n">
         <v>3.1</v>
-      </c>
-      <c r="J95" t="n">
-        <v>3</v>
       </c>
       <c r="K95" t="n">
         <v>2.05</v>
       </c>
       <c r="L95" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M95" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N95" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O95" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P95" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q95" t="n">
         <v>2.1</v>
@@ -17715,10 +17715,10 @@
         <v>2.63</v>
       </c>
       <c r="U95" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V95" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W95" t="n">
         <v>7.5</v>
@@ -17730,13 +17730,13 @@
         <v>9.5</v>
       </c>
       <c r="Z95" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA95" t="n">
         <v>21</v>
       </c>
-      <c r="AA95" t="n">
-        <v>19</v>
-      </c>
       <c r="AB95" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC95" t="n">
         <v>8.5</v>
@@ -17754,13 +17754,13 @@
         <v>301</v>
       </c>
       <c r="AH95" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI95" t="n">
         <v>15</v>
       </c>
       <c r="AJ95" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK95" t="n">
         <v>34</v>
@@ -19496,103 +19496,103 @@
         <v>1.08</v>
       </c>
       <c r="H105" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="I105" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="J105" t="n">
         <v>1.32</v>
       </c>
       <c r="K105" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L105" t="n">
-        <v>10.75</v>
+        <v>12.5</v>
       </c>
       <c r="M105" t="n">
         <v>1.01</v>
       </c>
       <c r="N105" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="O105" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="P105" t="n">
-        <v>9.9</v>
+        <v>8.5</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="R105" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="S105" t="n">
         <v>1.11</v>
       </c>
       <c r="T105" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U105" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V105" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="W105" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="X105" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="Y105" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="Z105" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AA105" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AB105" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC105" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AD105" t="n">
         <v>19</v>
       </c>
       <c r="AE105" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF105" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG105" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AH105" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AI105" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AJ105" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AK105" t="n">
         <v>600</v>
       </c>
       <c r="AL105" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AM105" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN105" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AO105" t="n">
         <v>4.25</v>
@@ -19601,7 +19601,7 @@
         <v>12.5</v>
       </c>
       <c r="AQ105" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AR105" t="n">
         <v>22</v>
@@ -19610,31 +19610,31 @@
         <v>120</v>
       </c>
       <c r="AT105" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="AU105" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AV105" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW105" t="n">
         <v>51</v>
       </c>
       <c r="AX105" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AY105" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AZ105" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BA105" t="n">
         <v>51</v>
       </c>
       <c r="BB105" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC105" t="n">
         <v>500</v>
@@ -20251,10 +20251,10 @@
         <v>3.75</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="R109" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="S109" t="n">
         <v>1.36</v>
@@ -20263,10 +20263,10 @@
         <v>3</v>
       </c>
       <c r="U109" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V109" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="W109" t="n">
         <v>7</v>
@@ -20588,19 +20588,19 @@
         <v>1.78</v>
       </c>
       <c r="H111" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I111" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="J111" t="n">
         <v>2.4</v>
       </c>
       <c r="K111" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L111" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="M111" t="n">
         <v>8.300000000000001</v>
@@ -20609,7 +20609,7 @@
         <v>1.06</v>
       </c>
       <c r="O111" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P111" t="n">
         <v>3</v>
@@ -20618,19 +20618,19 @@
         <v>1.9</v>
       </c>
       <c r="R111" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S111" t="n">
         <v>1.4</v>
       </c>
       <c r="T111" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="U111" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V111" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="W111" t="n">
         <v>6.8</v>
@@ -20642,40 +20642,40 @@
         <v>8.25</v>
       </c>
       <c r="Z111" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA111" t="n">
         <v>14.5</v>
       </c>
       <c r="AB111" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC111" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AD111" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AE111" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF111" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG111" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AH111" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AI111" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AJ111" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AK111" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL111" t="n">
         <v>40</v>
@@ -20690,7 +20690,7 @@
         <v>9</v>
       </c>
       <c r="AP111" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AQ111" t="n">
         <v>32</v>
@@ -20702,10 +20702,10 @@
         <v>250</v>
       </c>
       <c r="AT111" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AU111" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AV111" t="n">
         <v>70</v>
@@ -20714,16 +20714,16 @@
         <v>51</v>
       </c>
       <c r="AX111" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AY111" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ111" t="n">
         <v>30</v>
       </c>
       <c r="BA111" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BB111" t="n">
         <v>175</v>
@@ -20785,22 +20785,22 @@
         <v>4.75</v>
       </c>
       <c r="M112" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N112" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O112" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P112" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q112" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R112" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S112" t="n">
         <v>1.62</v>
@@ -20809,10 +20809,10 @@
         <v>2.2</v>
       </c>
       <c r="U112" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V112" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W112" t="n">
         <v>5.5</v>
@@ -20827,7 +20827,7 @@
         <v>19</v>
       </c>
       <c r="AA112" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB112" t="n">
         <v>41</v>
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H113" t="n">
         <v>3.6</v>
       </c>
       <c r="I113" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J113" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K113" t="n">
         <v>2.4</v>
@@ -20979,10 +20979,10 @@
         <v>5.5</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="R113" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S113" t="n">
         <v>1.25</v>
@@ -20991,10 +20991,10 @@
         <v>3.75</v>
       </c>
       <c r="U113" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="V113" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="W113" t="n">
         <v>12</v>
@@ -21027,7 +21027,7 @@
         <v>29</v>
       </c>
       <c r="AG113" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH113" t="n">
         <v>15</v>
@@ -21081,7 +21081,7 @@
         <v>5.5</v>
       </c>
       <c r="AY113" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ113" t="n">
         <v>21</v>
@@ -21143,7 +21143,7 @@
         <v>2.75</v>
       </c>
       <c r="K114" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L114" t="n">
         <v>3.5</v>
@@ -21155,16 +21155,16 @@
         <v>15</v>
       </c>
       <c r="O114" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P114" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="R114" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S114" t="n">
         <v>1.3</v>
@@ -21173,13 +21173,13 @@
         <v>3.4</v>
       </c>
       <c r="U114" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V114" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="W114" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X114" t="n">
         <v>12</v>
@@ -21203,13 +21203,13 @@
         <v>7</v>
       </c>
       <c r="AE114" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF114" t="n">
         <v>34</v>
       </c>
       <c r="AG114" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH114" t="n">
         <v>13</v>
@@ -21236,10 +21236,10 @@
         <v>11</v>
       </c>
       <c r="AP114" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ114" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR114" t="n">
         <v>51</v>
@@ -21257,7 +21257,7 @@
         <v>41</v>
       </c>
       <c r="AW114" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AX114" t="n">
         <v>5.5</v>
@@ -21313,28 +21313,28 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H115" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I115" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J115" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K115" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L115" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M115" t="n">
         <v>1.06</v>
       </c>
       <c r="N115" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O115" t="n">
         <v>1.3</v>
@@ -21343,10 +21343,10 @@
         <v>3.4</v>
       </c>
       <c r="Q115" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R115" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S115" t="n">
         <v>1.4</v>
@@ -21355,16 +21355,16 @@
         <v>2.75</v>
       </c>
       <c r="U115" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V115" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W115" t="n">
         <v>7</v>
       </c>
       <c r="X115" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y115" t="n">
         <v>8.5</v>
@@ -21382,7 +21382,7 @@
         <v>9.5</v>
       </c>
       <c r="AD115" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE115" t="n">
         <v>17</v>
@@ -21394,19 +21394,19 @@
         <v>301</v>
       </c>
       <c r="AH115" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI115" t="n">
         <v>21</v>
       </c>
       <c r="AJ115" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK115" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL115" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM115" t="n">
         <v>41</v>
@@ -21415,7 +21415,7 @@
         <v>3.75</v>
       </c>
       <c r="AO115" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP115" t="n">
         <v>21</v>
@@ -21433,7 +21433,7 @@
         <v>2.75</v>
       </c>
       <c r="AU115" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV115" t="n">
         <v>51</v>
@@ -21448,7 +21448,7 @@
         <v>23</v>
       </c>
       <c r="AZ115" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA115" t="n">
         <v>81</v>
@@ -21495,7 +21495,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H116" t="n">
         <v>3.7</v>
@@ -21537,7 +21537,7 @@
         <v>3.5</v>
       </c>
       <c r="U116" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V116" t="n">
         <v>2.5</v>
@@ -21680,73 +21680,73 @@
         <v>1.25</v>
       </c>
       <c r="H117" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="I117" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J117" t="n">
         <v>1.62</v>
       </c>
       <c r="K117" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="L117" t="n">
+        <v>8</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N117" t="n">
+        <v>21</v>
+      </c>
+      <c r="O117" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P117" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R117" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S117" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T117" t="n">
+        <v>4</v>
+      </c>
+      <c r="U117" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V117" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W117" t="n">
+        <v>10</v>
+      </c>
+      <c r="X117" t="n">
         <v>7.5</v>
-      </c>
-      <c r="M117" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N117" t="n">
-        <v>23</v>
-      </c>
-      <c r="O117" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P117" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R117" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S117" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T117" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="U117" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V117" t="n">
-        <v>2</v>
-      </c>
-      <c r="W117" t="n">
-        <v>11</v>
-      </c>
-      <c r="X117" t="n">
-        <v>8.5</v>
       </c>
       <c r="Y117" t="n">
         <v>9.5</v>
       </c>
       <c r="Z117" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA117" t="n">
         <v>10</v>
       </c>
       <c r="AB117" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC117" t="n">
         <v>21</v>
       </c>
-      <c r="AC117" t="n">
-        <v>23</v>
-      </c>
       <c r="AD117" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE117" t="n">
         <v>21</v>
@@ -21755,7 +21755,7 @@
         <v>51</v>
       </c>
       <c r="AG117" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH117" t="n">
         <v>29</v>
@@ -21764,25 +21764,25 @@
         <v>51</v>
       </c>
       <c r="AJ117" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK117" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL117" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM117" t="n">
         <v>51</v>
       </c>
       <c r="AN117" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO117" t="n">
         <v>5.5</v>
       </c>
       <c r="AP117" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ117" t="n">
         <v>13</v>
@@ -21794,16 +21794,16 @@
         <v>81</v>
       </c>
       <c r="AT117" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AU117" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV117" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW117" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AX117" t="n">
         <v>10</v>
@@ -21812,13 +21812,13 @@
         <v>41</v>
       </c>
       <c r="AZ117" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA117" t="n">
         <v>151</v>
       </c>
       <c r="BB117" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC117" t="n">
         <v>201</v>
@@ -21877,13 +21877,13 @@
         <v>4</v>
       </c>
       <c r="M118" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N118" t="n">
         <v>11</v>
       </c>
       <c r="O118" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P118" t="n">
         <v>3.75</v>
@@ -22041,13 +22041,13 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H119" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I119" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="J119" t="n">
         <v>6</v>
@@ -22059,13 +22059,13 @@
         <v>2.3</v>
       </c>
       <c r="M119" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N119" t="n">
         <v>10</v>
       </c>
       <c r="O119" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P119" t="n">
         <v>2.75</v>
@@ -22092,7 +22092,7 @@
         <v>11</v>
       </c>
       <c r="X119" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y119" t="n">
         <v>17</v>
@@ -22113,7 +22113,7 @@
         <v>7.5</v>
       </c>
       <c r="AE119" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF119" t="n">
         <v>81</v>
@@ -22125,7 +22125,7 @@
         <v>5.5</v>
       </c>
       <c r="AI119" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AJ119" t="n">
         <v>9</v>
@@ -22143,7 +22143,7 @@
         <v>7</v>
       </c>
       <c r="AO119" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP119" t="n">
         <v>41</v>
@@ -22155,13 +22155,13 @@
         <v>151</v>
       </c>
       <c r="AS119" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="AT119" t="n">
         <v>2.63</v>
       </c>
       <c r="AU119" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV119" t="n">
         <v>67</v>
@@ -22170,10 +22170,10 @@
         <v>51</v>
       </c>
       <c r="AX119" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AY119" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AZ119" t="n">
         <v>23</v>
@@ -22244,7 +22244,7 @@
         <v>1.08</v>
       </c>
       <c r="N120" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O120" t="n">
         <v>1.4</v>
@@ -22253,10 +22253,10 @@
         <v>2.75</v>
       </c>
       <c r="Q120" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R120" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S120" t="n">
         <v>1.5</v>
@@ -22587,7 +22587,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="H122" t="n">
         <v>3.4</v>
@@ -22617,10 +22617,10 @@
         <v>3.75</v>
       </c>
       <c r="Q122" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="R122" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="S122" t="n">
         <v>1.36</v>
@@ -22769,22 +22769,22 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="H123" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I123" t="n">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
       <c r="J123" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="K123" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L123" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M123" t="n">
         <v>1.05</v>
@@ -22799,10 +22799,10 @@
         <v>3.75</v>
       </c>
       <c r="Q123" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R123" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S123" t="n">
         <v>1.36</v>
@@ -22811,25 +22811,25 @@
         <v>3</v>
       </c>
       <c r="U123" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V123" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W123" t="n">
         <v>7.5</v>
       </c>
       <c r="X123" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y123" t="n">
         <v>8.5</v>
       </c>
       <c r="Z123" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA123" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB123" t="n">
         <v>23</v>
@@ -22838,28 +22838,28 @@
         <v>11</v>
       </c>
       <c r="AD123" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE123" t="n">
         <v>15</v>
       </c>
       <c r="AF123" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG123" t="n">
         <v>201</v>
       </c>
       <c r="AH123" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ123" t="n">
         <v>13</v>
       </c>
-      <c r="AI123" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ123" t="n">
-        <v>15</v>
-      </c>
       <c r="AK123" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL123" t="n">
         <v>34</v>
@@ -22868,16 +22868,16 @@
         <v>41</v>
       </c>
       <c r="AN123" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO123" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP123" t="n">
         <v>19</v>
       </c>
       <c r="AQ123" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR123" t="n">
         <v>51</v>
@@ -22898,19 +22898,19 @@
         <v>81</v>
       </c>
       <c r="AX123" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AY123" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ123" t="n">
         <v>29</v>
       </c>
       <c r="BA123" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB123" t="n">
         <v>81</v>
-      </c>
-      <c r="BB123" t="n">
-        <v>101</v>
       </c>
       <c r="BC123" t="n">
         <v>201</v>
@@ -23133,28 +23133,28 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H125" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I125" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J125" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K125" t="n">
         <v>2.6</v>
       </c>
       <c r="L125" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M125" t="n">
         <v>1.03</v>
       </c>
       <c r="N125" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O125" t="n">
         <v>1.17</v>
@@ -23163,7 +23163,7 @@
         <v>5</v>
       </c>
       <c r="Q125" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R125" t="n">
         <v>2.35</v>
@@ -23175,13 +23175,13 @@
         <v>3.5</v>
       </c>
       <c r="U125" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V125" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W125" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X125" t="n">
         <v>7</v>
@@ -23190,28 +23190,28 @@
         <v>9</v>
       </c>
       <c r="Z125" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA125" t="n">
         <v>11</v>
       </c>
       <c r="AB125" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC125" t="n">
         <v>15</v>
       </c>
       <c r="AD125" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE125" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF125" t="n">
         <v>51</v>
       </c>
       <c r="AG125" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH125" t="n">
         <v>21</v>
@@ -23220,10 +23220,10 @@
         <v>41</v>
       </c>
       <c r="AJ125" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK125" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL125" t="n">
         <v>51</v>
@@ -23235,7 +23235,7 @@
         <v>3.4</v>
       </c>
       <c r="AO125" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AP125" t="n">
         <v>17</v>
@@ -23497,22 +23497,22 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="H127" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I127" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J127" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K127" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L127" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="M127" t="n">
         <v>1.03</v>
@@ -23527,61 +23527,61 @@
         <v>4.33</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R127" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S127" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T127" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U127" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V127" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W127" t="n">
         <v>7</v>
       </c>
       <c r="X127" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y127" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z127" t="n">
         <v>8.5</v>
-      </c>
-      <c r="Z127" t="n">
-        <v>9.5</v>
       </c>
       <c r="AA127" t="n">
         <v>12</v>
       </c>
       <c r="AB127" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC127" t="n">
         <v>13</v>
       </c>
       <c r="AD127" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE127" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH127" t="n">
         <v>19</v>
       </c>
-      <c r="AF127" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG127" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH127" t="n">
-        <v>17</v>
-      </c>
       <c r="AI127" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ127" t="n">
         <v>21</v>
@@ -23596,16 +23596,16 @@
         <v>51</v>
       </c>
       <c r="AN127" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO127" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP127" t="n">
         <v>17</v>
       </c>
       <c r="AQ127" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR127" t="n">
         <v>41</v>
@@ -23614,34 +23614,34 @@
         <v>126</v>
       </c>
       <c r="AT127" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU127" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX127" t="n">
         <v>9</v>
       </c>
-      <c r="AV127" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW127" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX127" t="n">
-        <v>8</v>
-      </c>
       <c r="AY127" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ127" t="n">
         <v>41</v>
       </c>
       <c r="BA127" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB127" t="n">
         <v>151</v>
       </c>
       <c r="BC127" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD127" t="n">
         <v>51</v>
@@ -23679,28 +23679,28 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="H128" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I128" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="J128" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K128" t="n">
         <v>2.1</v>
       </c>
       <c r="L128" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M128" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N128" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O128" t="n">
         <v>1.33</v>
@@ -23712,7 +23712,7 @@
         <v>2.05</v>
       </c>
       <c r="R128" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S128" t="n">
         <v>1.44</v>
@@ -23727,25 +23727,25 @@
         <v>1.83</v>
       </c>
       <c r="W128" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X128" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y128" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z128" t="n">
         <v>41</v>
       </c>
       <c r="AA128" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB128" t="n">
         <v>41</v>
       </c>
       <c r="AC128" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD128" t="n">
         <v>6.5</v>
@@ -23763,13 +23763,13 @@
         <v>7</v>
       </c>
       <c r="AI128" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ128" t="n">
         <v>9</v>
       </c>
       <c r="AK128" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL128" t="n">
         <v>17</v>
@@ -23790,7 +23790,7 @@
         <v>67</v>
       </c>
       <c r="AR128" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS128" t="n">
         <v>201</v>
@@ -23814,10 +23814,10 @@
         <v>11</v>
       </c>
       <c r="AZ128" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA128" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB128" t="n">
         <v>51</v>
@@ -23885,10 +23885,10 @@
         <v>9</v>
       </c>
       <c r="O129" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P129" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q129" t="n">
         <v>1.72</v>
@@ -23903,7 +23903,7 @@
         <v>3.25</v>
       </c>
       <c r="U129" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V129" t="n">
         <v>2.2</v>
@@ -24073,7 +24073,7 @@
         <v>3.75</v>
       </c>
       <c r="Q130" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="R130" t="n">
         <v>2</v>
@@ -24085,7 +24085,7 @@
         <v>3</v>
       </c>
       <c r="U130" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V130" t="n">
         <v>2.1</v>
@@ -24225,7 +24225,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="H131" t="n">
         <v>3.7</v>
@@ -24255,10 +24255,10 @@
         <v>3.5</v>
       </c>
       <c r="Q131" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R131" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S131" t="n">
         <v>1.4</v>
@@ -24267,10 +24267,10 @@
         <v>2.75</v>
       </c>
       <c r="U131" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V131" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W131" t="n">
         <v>7</v>
@@ -24589,34 +24589,34 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H133" t="n">
         <v>3.25</v>
       </c>
       <c r="I133" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J133" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="K133" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L133" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="M133" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N133" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="O133" t="n">
         <v>1.36</v>
       </c>
       <c r="P133" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="Q133" t="n">
         <v>2.07</v>
@@ -24628,16 +24628,16 @@
         <v>1.42</v>
       </c>
       <c r="T133" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="U133" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V133" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="W133" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X133" t="n">
         <v>9.5</v>
@@ -24646,19 +24646,19 @@
         <v>8.75</v>
       </c>
       <c r="Z133" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AA133" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AB133" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC133" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AD133" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AE133" t="n">
         <v>15</v>
@@ -24673,22 +24673,22 @@
         <v>9.25</v>
       </c>
       <c r="AI133" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AJ133" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AK133" t="n">
         <v>45</v>
       </c>
       <c r="AL133" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM133" t="n">
         <v>40</v>
       </c>
       <c r="AN133" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AO133" t="n">
         <v>11</v>
@@ -24706,13 +24706,13 @@
         <v>300</v>
       </c>
       <c r="AT133" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="AU133" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AV133" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW133" t="n">
         <v>51</v>
@@ -24721,16 +24721,16 @@
         <v>5.2</v>
       </c>
       <c r="AY133" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ133" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA133" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB133" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BC133" t="n">
         <v>350</v>
@@ -25317,28 +25317,28 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I137" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J137" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K137" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L137" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="M137" t="n">
         <v>1.07</v>
       </c>
       <c r="N137" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="O137" t="n">
         <v>1.33</v>
@@ -25353,79 +25353,79 @@
         <v>1.78</v>
       </c>
       <c r="S137" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="T137" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="U137" t="n">
         <v>1.7</v>
       </c>
       <c r="V137" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="W137" t="n">
         <v>9</v>
       </c>
       <c r="X137" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y137" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Z137" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA137" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB137" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC137" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AD137" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AE137" t="n">
         <v>12.5</v>
       </c>
       <c r="AF137" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG137" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AH137" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AI137" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ137" t="n">
         <v>9.25</v>
       </c>
       <c r="AK137" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AL137" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM137" t="n">
         <v>29</v>
       </c>
       <c r="AN137" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AO137" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AP137" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AQ137" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AR137" t="n">
         <v>90</v>
@@ -25434,10 +25434,10 @@
         <v>200</v>
       </c>
       <c r="AT137" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="AU137" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AV137" t="n">
         <v>50</v>
@@ -25446,19 +25446,19 @@
         <v>51</v>
       </c>
       <c r="AX137" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="AY137" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AZ137" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="BA137" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BB137" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BC137" t="n">
         <v>200</v>
@@ -26045,28 +26045,28 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="H141" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="I141" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J141" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K141" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="L141" t="n">
         <v>4.33</v>
       </c>
       <c r="M141" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N141" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O141" t="n">
         <v>1.73</v>
@@ -26081,31 +26081,31 @@
         <v>1.3</v>
       </c>
       <c r="S141" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T141" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="U141" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V141" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W141" t="n">
         <v>5.5</v>
       </c>
       <c r="X141" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y141" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z141" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA141" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB141" t="n">
         <v>51</v>
@@ -26126,16 +26126,16 @@
         <v>1250</v>
       </c>
       <c r="AH141" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI141" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ141" t="n">
         <v>15</v>
       </c>
       <c r="AK141" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL141" t="n">
         <v>41</v>
@@ -26147,13 +26147,13 @@
         <v>4.33</v>
       </c>
       <c r="AO141" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP141" t="n">
         <v>41</v>
       </c>
       <c r="AQ141" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR141" t="n">
         <v>126</v>
@@ -26174,10 +26174,10 @@
         <v>81</v>
       </c>
       <c r="AX141" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY141" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ141" t="n">
         <v>41</v>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="H142" t="n">
         <v>3.2</v>
@@ -26272,7 +26272,7 @@
         <v>2.1</v>
       </c>
       <c r="V142" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W142" t="n">
         <v>6</v>
@@ -26409,7 +26409,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H143" t="n">
         <v>3.5</v>
@@ -26955,22 +26955,22 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H146" t="n">
         <v>3.4</v>
       </c>
       <c r="I146" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J146" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K146" t="n">
         <v>2.2</v>
       </c>
       <c r="L146" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M146" t="n">
         <v>1.05</v>
@@ -26979,16 +26979,16 @@
         <v>11</v>
       </c>
       <c r="O146" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P146" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q146" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R146" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="S146" t="n">
         <v>1.4</v>
@@ -27009,13 +27009,13 @@
         <v>11</v>
       </c>
       <c r="Y146" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z146" t="n">
         <v>21</v>
       </c>
       <c r="AA146" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB146" t="n">
         <v>26</v>
@@ -27036,28 +27036,28 @@
         <v>201</v>
       </c>
       <c r="AH146" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI146" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ146" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK146" t="n">
         <v>34</v>
       </c>
       <c r="AL146" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM146" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN146" t="n">
         <v>4.33</v>
       </c>
       <c r="AO146" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP146" t="n">
         <v>21</v>
@@ -27090,7 +27090,7 @@
         <v>17</v>
       </c>
       <c r="AZ146" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA146" t="n">
         <v>51</v>
@@ -27146,10 +27146,10 @@
         <v>5.75</v>
       </c>
       <c r="J147" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="K147" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="L147" t="n">
         <v>5.5</v>
@@ -27167,7 +27167,7 @@
         <v>6</v>
       </c>
       <c r="Q147" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="R147" t="n">
         <v>2.7</v>
@@ -27179,7 +27179,7 @@
         <v>3.75</v>
       </c>
       <c r="U147" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V147" t="n">
         <v>2.2</v>
@@ -27331,28 +27331,28 @@
         <v>2.5</v>
       </c>
       <c r="K148" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L148" t="n">
         <v>3.75</v>
       </c>
       <c r="M148" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N148" t="n">
         <v>15</v>
       </c>
       <c r="O148" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P148" t="n">
         <v>4.5</v>
       </c>
       <c r="Q148" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R148" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S148" t="n">
         <v>1.29</v>
@@ -27361,10 +27361,10 @@
         <v>3.5</v>
       </c>
       <c r="U148" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V148" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="W148" t="n">
         <v>10</v>
@@ -27501,16 +27501,16 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H149" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I149" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J149" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="K149" t="n">
         <v>2.5</v>
@@ -27519,22 +27519,22 @@
         <v>6</v>
       </c>
       <c r="M149" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N149" t="n">
         <v>17</v>
       </c>
       <c r="O149" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="P149" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q149" t="n">
         <v>1.57</v>
       </c>
       <c r="R149" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S149" t="n">
         <v>1.29</v>
@@ -27543,13 +27543,13 @@
         <v>3.5</v>
       </c>
       <c r="U149" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V149" t="n">
         <v>2</v>
       </c>
       <c r="W149" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X149" t="n">
         <v>8</v>
@@ -27558,7 +27558,7 @@
         <v>8.5</v>
       </c>
       <c r="Z149" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA149" t="n">
         <v>11</v>
@@ -27579,10 +27579,10 @@
         <v>41</v>
       </c>
       <c r="AG149" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH149" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI149" t="n">
         <v>34</v>
@@ -27636,7 +27636,7 @@
         <v>29</v>
       </c>
       <c r="AZ149" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA149" t="n">
         <v>101</v>
@@ -27683,31 +27683,31 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="H150" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I150" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="J150" t="n">
         <v>5.5</v>
       </c>
       <c r="K150" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L150" t="n">
         <v>2.1</v>
       </c>
       <c r="M150" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N150" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O150" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P150" t="n">
         <v>4.33</v>
@@ -27731,16 +27731,16 @@
         <v>2</v>
       </c>
       <c r="W150" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X150" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y150" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z150" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AA150" t="n">
         <v>41</v>
@@ -27785,13 +27785,13 @@
         <v>7</v>
       </c>
       <c r="AO150" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP150" t="n">
         <v>29</v>
       </c>
       <c r="AQ150" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR150" t="n">
         <v>101</v>
@@ -27812,16 +27812,16 @@
         <v>81</v>
       </c>
       <c r="AX150" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AY150" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AZ150" t="n">
         <v>17</v>
       </c>
       <c r="BA150" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB150" t="n">
         <v>41</v>
@@ -28047,28 +28047,28 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="H152" t="n">
         <v>4.75</v>
       </c>
       <c r="I152" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J152" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="K152" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L152" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M152" t="n">
         <v>1.04</v>
       </c>
       <c r="N152" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O152" t="n">
         <v>1.25</v>
@@ -28077,10 +28077,10 @@
         <v>3.75</v>
       </c>
       <c r="Q152" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="R152" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="S152" t="n">
         <v>1.36</v>
@@ -28089,13 +28089,13 @@
         <v>3</v>
       </c>
       <c r="U152" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V152" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W152" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X152" t="n">
         <v>6.5</v>
@@ -28119,7 +28119,7 @@
         <v>9.5</v>
       </c>
       <c r="AE152" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF152" t="n">
         <v>67</v>
@@ -28131,19 +28131,19 @@
         <v>15</v>
       </c>
       <c r="AI152" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ152" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK152" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL152" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM152" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN152" t="n">
         <v>3.4</v>
@@ -28170,7 +28170,7 @@
         <v>9</v>
       </c>
       <c r="AV152" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW152" t="n">
         <v>276</v>
@@ -28179,19 +28179,19 @@
         <v>8</v>
       </c>
       <c r="AY152" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ152" t="n">
         <v>41</v>
       </c>
       <c r="BA152" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB152" t="n">
         <v>151</v>
       </c>
       <c r="BC152" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD152" t="n">
         <v>301</v>
@@ -28229,22 +28229,22 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H153" t="n">
         <v>3.3</v>
       </c>
       <c r="I153" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J153" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K153" t="n">
         <v>2.2</v>
       </c>
       <c r="L153" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M153" t="n">
         <v>1.05</v>
@@ -28259,10 +28259,10 @@
         <v>3.75</v>
       </c>
       <c r="Q153" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="R153" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="S153" t="n">
         <v>1.36</v>
@@ -28277,7 +28277,7 @@
         <v>2.2</v>
       </c>
       <c r="W153" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X153" t="n">
         <v>13</v>
@@ -28286,7 +28286,7 @@
         <v>10</v>
       </c>
       <c r="Z153" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA153" t="n">
         <v>19</v>
@@ -28316,19 +28316,19 @@
         <v>15</v>
       </c>
       <c r="AJ153" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK153" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL153" t="n">
         <v>21</v>
       </c>
       <c r="AM153" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN153" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO153" t="n">
         <v>13</v>
@@ -28358,16 +28358,16 @@
         <v>251</v>
       </c>
       <c r="AX153" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY153" t="n">
         <v>15</v>
       </c>
       <c r="AZ153" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA153" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB153" t="n">
         <v>67</v>
@@ -28775,34 +28775,34 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H156" t="n">
         <v>3</v>
       </c>
       <c r="I156" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="J156" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K156" t="n">
         <v>2</v>
       </c>
       <c r="L156" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M156" t="n">
         <v>1.08</v>
       </c>
       <c r="N156" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O156" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P156" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q156" t="n">
         <v>2.25</v>
@@ -28817,22 +28817,22 @@
         <v>2.5</v>
       </c>
       <c r="U156" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V156" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W156" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X156" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y156" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z156" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA156" t="n">
         <v>26</v>
@@ -28841,7 +28841,7 @@
         <v>41</v>
       </c>
       <c r="AC156" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD156" t="n">
         <v>6</v>
@@ -28856,10 +28856,10 @@
         <v>351</v>
       </c>
       <c r="AH156" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI156" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ156" t="n">
         <v>10</v>
@@ -28868,7 +28868,7 @@
         <v>23</v>
       </c>
       <c r="AL156" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM156" t="n">
         <v>34</v>
@@ -28889,7 +28889,7 @@
         <v>81</v>
       </c>
       <c r="AS156" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT156" t="n">
         <v>2.5</v>
@@ -28904,7 +28904,7 @@
         <v>126</v>
       </c>
       <c r="AX156" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY156" t="n">
         <v>15</v>
@@ -28957,16 +28957,16 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H157" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I157" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J157" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K157" t="n">
         <v>2.2</v>
@@ -28987,16 +28987,16 @@
         <v>3.5</v>
       </c>
       <c r="Q157" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R157" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S157" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T157" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U157" t="n">
         <v>1.8</v>
@@ -29005,7 +29005,7 @@
         <v>1.91</v>
       </c>
       <c r="W157" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X157" t="n">
         <v>10</v>
@@ -29014,7 +29014,7 @@
         <v>9</v>
       </c>
       <c r="Z157" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA157" t="n">
         <v>17</v>
@@ -29065,19 +29065,19 @@
         <v>21</v>
       </c>
       <c r="AQ157" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR157" t="n">
         <v>51</v>
       </c>
       <c r="AS157" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT157" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU157" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV157" t="n">
         <v>51</v>
@@ -29145,7 +29145,7 @@
         <v>3.1</v>
       </c>
       <c r="I158" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="J158" t="n">
         <v>3.4</v>
@@ -29157,10 +29157,10 @@
         <v>3.1</v>
       </c>
       <c r="M158" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N158" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O158" t="n">
         <v>1.29</v>
@@ -29885,13 +29885,13 @@
         <v>3.75</v>
       </c>
       <c r="M162" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N162" t="n">
         <v>6.5</v>
       </c>
       <c r="O162" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="P162" t="n">
         <v>2.25</v>
@@ -29912,7 +29912,7 @@
         <v>2.25</v>
       </c>
       <c r="V162" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="W162" t="n">
         <v>6.5</v>
@@ -30067,16 +30067,16 @@
         <v>3.1</v>
       </c>
       <c r="M163" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N163" t="n">
         <v>7</v>
       </c>
       <c r="O163" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P163" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q163" t="n">
         <v>2.4</v>
@@ -30094,7 +30094,7 @@
         <v>2</v>
       </c>
       <c r="V163" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W163" t="n">
         <v>8</v>
@@ -30166,7 +30166,7 @@
         <v>301</v>
       </c>
       <c r="AT163" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="AU163" t="n">
         <v>9</v>
@@ -30231,13 +30231,13 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="H164" t="n">
         <v>4.33</v>
       </c>
       <c r="I164" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="J164" t="n">
         <v>7.5</v>
@@ -30249,34 +30249,34 @@
         <v>1.83</v>
       </c>
       <c r="M164" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N164" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O164" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P164" t="n">
         <v>4.33</v>
       </c>
       <c r="Q164" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R164" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S164" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T164" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U164" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V164" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="W164" t="n">
         <v>21</v>
@@ -30291,43 +30291,43 @@
         <v>101</v>
       </c>
       <c r="AA164" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AB164" t="n">
         <v>51</v>
       </c>
       <c r="AC164" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD164" t="n">
         <v>8.5</v>
       </c>
       <c r="AE164" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF164" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG164" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH164" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI164" t="n">
         <v>7</v>
-      </c>
-      <c r="AI164" t="n">
-        <v>6.5</v>
       </c>
       <c r="AJ164" t="n">
         <v>9</v>
       </c>
       <c r="AK164" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AL164" t="n">
         <v>12</v>
       </c>
       <c r="AM164" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN164" t="n">
         <v>9</v>
@@ -30345,28 +30345,28 @@
         <v>151</v>
       </c>
       <c r="AS164" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT164" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU164" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV164" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW164" t="n">
         <v>51</v>
       </c>
       <c r="AX164" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AY164" t="n">
         <v>6.5</v>
       </c>
       <c r="AZ164" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA164" t="n">
         <v>17</v>
@@ -30446,7 +30446,7 @@
         <v>2.15</v>
       </c>
       <c r="R165" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S165" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-20.xlsx
@@ -929,46 +929,46 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H3" t="n">
         <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="R3" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="T3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="U3" t="n">
         <v>1.44</v>
@@ -983,22 +983,22 @@
         <v>13</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
         <v>17</v>
       </c>
       <c r="AA3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB3" t="n">
         <v>19</v>
       </c>
       <c r="AC3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE3" t="n">
         <v>13</v>
@@ -1010,7 +1010,7 @@
         <v>101</v>
       </c>
       <c r="AH3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
         <v>34</v>
@@ -1046,16 +1046,16 @@
         <v>67</v>
       </c>
       <c r="AT3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AU3" t="n">
         <v>7</v>
       </c>
       <c r="AV3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AW3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AX3" t="n">
         <v>7</v>
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
         <v>2.2</v>
@@ -1305,7 +1305,7 @@
         <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L5" t="n">
         <v>2.75</v>
@@ -1335,10 +1335,10 @@
         <v>3.25</v>
       </c>
       <c r="U5" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W5" t="n">
         <v>12</v>
@@ -1362,7 +1362,7 @@
         <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
         <v>12</v>
@@ -1392,13 +1392,13 @@
         <v>23</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO5" t="n">
         <v>17</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
         <v>51</v>
@@ -1407,7 +1407,7 @@
         <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT5" t="n">
         <v>3.25</v>
@@ -1419,7 +1419,7 @@
         <v>41</v>
       </c>
       <c r="AW5" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AX5" t="n">
         <v>4.33</v>
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
         <v>2.05</v>
@@ -1493,55 +1493,55 @@
         <v>3.2</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V6" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W6" t="n">
         <v>8.5</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB6" t="n">
         <v>34</v>
       </c>
-      <c r="AA6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>41</v>
-      </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
@@ -1553,13 +1553,13 @@
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ6" t="n">
         <v>10</v>
@@ -1580,7 +1580,7 @@
         <v>17</v>
       </c>
       <c r="AP6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ6" t="n">
         <v>51</v>
@@ -1592,10 +1592,10 @@
         <v>201</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
@@ -1604,13 +1604,13 @@
         <v>126</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AY6" t="n">
         <v>15</v>
       </c>
       <c r="AZ6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA6" t="n">
         <v>51</v>
@@ -1657,19 +1657,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="H7" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L7" t="n">
         <v>6.5</v>
@@ -1681,22 +1681,22 @@
         <v>10</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="R7" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S7" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T7" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
         <v>2</v>
@@ -1705,7 +1705,7 @@
         <v>1.75</v>
       </c>
       <c r="W7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X7" t="n">
         <v>6.5</v>
@@ -1723,7 +1723,7 @@
         <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
         <v>7.5</v>
@@ -1738,16 +1738,16 @@
         <v>401</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="n">
         <v>51</v>
@@ -1765,16 +1765,16 @@
         <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS7" t="n">
         <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU7" t="n">
         <v>9</v>
@@ -1783,10 +1783,10 @@
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AY7" t="n">
         <v>34</v>
@@ -1795,7 +1795,7 @@
         <v>41</v>
       </c>
       <c r="BA7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB7" t="n">
         <v>151</v>
@@ -1804,7 +1804,7 @@
         <v>351</v>
       </c>
       <c r="BD7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="J8" t="n">
         <v>4.33</v>
@@ -1854,7 +1854,7 @@
         <v>2.5</v>
       </c>
       <c r="L8" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1881,10 +1881,10 @@
         <v>3.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V8" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W8" t="n">
         <v>17</v>
@@ -1896,7 +1896,7 @@
         <v>15</v>
       </c>
       <c r="Z8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA8" t="n">
         <v>29</v>
@@ -1923,7 +1923,7 @@
         <v>11</v>
       </c>
       <c r="AI8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="n">
         <v>8.5</v>
@@ -1947,7 +1947,7 @@
         <v>23</v>
       </c>
       <c r="AQ8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR8" t="n">
         <v>67</v>
@@ -1965,13 +1965,13 @@
         <v>41</v>
       </c>
       <c r="AW8" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AX8" t="n">
         <v>4</v>
       </c>
       <c r="AY8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AZ8" t="n">
         <v>15</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H9" t="n">
         <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
@@ -2063,10 +2063,10 @@
         <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V9" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W9" t="n">
         <v>12</v>
@@ -2081,7 +2081,7 @@
         <v>41</v>
       </c>
       <c r="AA9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB9" t="n">
         <v>34</v>
@@ -2099,7 +2099,7 @@
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH9" t="n">
         <v>8.5</v>
@@ -2108,10 +2108,10 @@
         <v>10</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="n">
         <v>15</v>
@@ -2126,10 +2126,10 @@
         <v>19</v>
       </c>
       <c r="AP9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR9" t="n">
         <v>81</v>
@@ -2150,7 +2150,7 @@
         <v>501</v>
       </c>
       <c r="AX9" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AY9" t="n">
         <v>11</v>
@@ -2159,7 +2159,7 @@
         <v>19</v>
       </c>
       <c r="BA9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB9" t="n">
         <v>51</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I10" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J10" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L10" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -2245,10 +2245,10 @@
         <v>3.5</v>
       </c>
       <c r="U10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V10" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W10" t="n">
         <v>11</v>
@@ -2263,10 +2263,10 @@
         <v>19</v>
       </c>
       <c r="AA10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC10" t="n">
         <v>17</v>
@@ -2287,13 +2287,13 @@
         <v>15</v>
       </c>
       <c r="AI10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
         <v>12</v>
       </c>
       <c r="AK10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="n">
         <v>23</v>
@@ -2305,7 +2305,7 @@
         <v>4.33</v>
       </c>
       <c r="AO10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP10" t="n">
         <v>17</v>
@@ -2344,7 +2344,7 @@
         <v>51</v>
       </c>
       <c r="BB10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC10" t="n">
         <v>126</v>
@@ -3078,7 +3078,7 @@
         <v>201</v>
       </c>
       <c r="BD14" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
@@ -3131,10 +3131,10 @@
         <v>2.4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
         <v>1.25</v>
@@ -3841,28 +3841,28 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="H19" t="n">
         <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="J19" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K19" t="n">
         <v>2.2</v>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O19" t="n">
         <v>1.29</v>
@@ -3889,19 +3889,19 @@
         <v>2</v>
       </c>
       <c r="W19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB19" t="n">
         <v>26</v>
@@ -3913,19 +3913,19 @@
         <v>6.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG19" t="n">
         <v>201</v>
       </c>
       <c r="AH19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ19" t="n">
         <v>13</v>
@@ -3934,22 +3934,22 @@
         <v>41</v>
       </c>
       <c r="AL19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN19" t="n">
         <v>4</v>
       </c>
       <c r="AO19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP19" t="n">
         <v>21</v>
       </c>
       <c r="AQ19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR19" t="n">
         <v>51</v>
@@ -3970,13 +3970,13 @@
         <v>501</v>
       </c>
       <c r="AX19" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA19" t="n">
         <v>67</v>
@@ -4205,34 +4205,34 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="I21" t="n">
+        <v>9</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L21" t="n">
         <v>8</v>
       </c>
-      <c r="J21" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L21" t="n">
-        <v>7.5</v>
-      </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P21" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q21" t="n">
         <v>2.1</v>
@@ -4247,52 +4247,52 @@
         <v>2.63</v>
       </c>
       <c r="U21" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V21" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W21" t="n">
         <v>5.5</v>
       </c>
       <c r="X21" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y21" t="n">
         <v>9</v>
       </c>
       <c r="Z21" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB21" t="n">
         <v>34</v>
       </c>
       <c r="AC21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF21" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG21" t="n">
         <v>451</v>
       </c>
       <c r="AH21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI21" t="n">
         <v>41</v>
       </c>
       <c r="AJ21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK21" t="n">
         <v>101</v>
@@ -4304,16 +4304,16 @@
         <v>67</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AO21" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR21" t="n">
         <v>51</v>
@@ -4334,13 +4334,13 @@
         <v>126</v>
       </c>
       <c r="AX21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AY21" t="n">
         <v>41</v>
       </c>
       <c r="AZ21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA21" t="n">
         <v>201</v>
@@ -4390,7 +4390,7 @@
         <v>1.75</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I22" t="n">
         <v>4.75</v>
@@ -4408,7 +4408,7 @@
         <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O22" t="n">
         <v>1.33</v>
@@ -4438,7 +4438,7 @@
         <v>6.5</v>
       </c>
       <c r="X22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y22" t="n">
         <v>8.5</v>
@@ -4465,13 +4465,13 @@
         <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH22" t="n">
         <v>11</v>
       </c>
       <c r="AI22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ22" t="n">
         <v>15</v>
@@ -4486,7 +4486,7 @@
         <v>41</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO22" t="n">
         <v>9.5</v>
@@ -4525,7 +4525,7 @@
         <v>34</v>
       </c>
       <c r="BA22" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB22" t="n">
         <v>126</v>
@@ -4617,7 +4617,7 @@
         <v>2.05</v>
       </c>
       <c r="W23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X23" t="n">
         <v>8</v>
@@ -4674,7 +4674,7 @@
         <v>6</v>
       </c>
       <c r="AP23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ23" t="n">
         <v>15</v>
@@ -4769,16 +4769,16 @@
         <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
         <v>6.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P24" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Q24" t="n">
         <v>2.7</v>
@@ -4951,22 +4951,22 @@
         <v>4.75</v>
       </c>
       <c r="M25" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O25" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P25" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R25" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S25" t="n">
         <v>1.57</v>
@@ -5315,16 +5315,16 @@
         <v>4.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O27" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P27" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="Q27" t="n">
         <v>2.7</v>
@@ -5497,13 +5497,13 @@
         <v>6.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N28" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P28" t="n">
         <v>2.5</v>
@@ -5512,7 +5512,7 @@
         <v>2.6</v>
       </c>
       <c r="R28" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S28" t="n">
         <v>1.57</v>
@@ -6389,7 +6389,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H33" t="n">
         <v>5</v>
@@ -6407,13 +6407,13 @@
         <v>5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N33" t="n">
         <v>21</v>
       </c>
       <c r="O33" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P33" t="n">
         <v>5.5</v>
@@ -6470,7 +6470,7 @@
         <v>151</v>
       </c>
       <c r="AH33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI33" t="n">
         <v>29</v>
@@ -6935,22 +6935,22 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H36" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I36" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J36" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K36" t="n">
         <v>2.2</v>
       </c>
       <c r="L36" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M36" t="n">
         <v>1.05</v>
@@ -6959,22 +6959,22 @@
         <v>11</v>
       </c>
       <c r="O36" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P36" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R36" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="S36" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T36" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U36" t="n">
         <v>1.7</v>
@@ -6983,16 +6983,16 @@
         <v>2.05</v>
       </c>
       <c r="W36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y36" t="n">
         <v>10</v>
       </c>
       <c r="Z36" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA36" t="n">
         <v>21</v>
@@ -7013,7 +7013,7 @@
         <v>41</v>
       </c>
       <c r="AG36" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH36" t="n">
         <v>9</v>
@@ -7022,16 +7022,16 @@
         <v>13</v>
       </c>
       <c r="AJ36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK36" t="n">
         <v>23</v>
       </c>
       <c r="AL36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN36" t="n">
         <v>4.75</v>
@@ -7052,7 +7052,7 @@
         <v>151</v>
       </c>
       <c r="AT36" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU36" t="n">
         <v>7.5</v>
@@ -7070,13 +7070,13 @@
         <v>13</v>
       </c>
       <c r="AZ36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA36" t="n">
         <v>41</v>
       </c>
       <c r="BB36" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC36" t="n">
         <v>151</v>
@@ -7150,7 +7150,7 @@
         <v>2.15</v>
       </c>
       <c r="R37" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S37" t="n">
         <v>1.5</v>
@@ -7159,10 +7159,10 @@
         <v>2.5</v>
       </c>
       <c r="U37" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V37" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W37" t="n">
         <v>8</v>
@@ -7329,7 +7329,7 @@
         <v>4.33</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="R38" t="n">
         <v>2.15</v>
@@ -7341,7 +7341,7 @@
         <v>3.25</v>
       </c>
       <c r="U38" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V38" t="n">
         <v>2.1</v>
@@ -7663,13 +7663,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H40" t="n">
         <v>3.6</v>
       </c>
       <c r="I40" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J40" t="n">
         <v>3</v>
@@ -7678,7 +7678,7 @@
         <v>2.3</v>
       </c>
       <c r="L40" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M40" t="n">
         <v>1.03</v>
@@ -7693,10 +7693,10 @@
         <v>4.33</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R40" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S40" t="n">
         <v>1.33</v>
@@ -7717,19 +7717,19 @@
         <v>13</v>
       </c>
       <c r="Y40" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z40" t="n">
         <v>23</v>
       </c>
       <c r="AA40" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB40" t="n">
         <v>23</v>
       </c>
       <c r="AC40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD40" t="n">
         <v>7</v>
@@ -7741,7 +7741,7 @@
         <v>41</v>
       </c>
       <c r="AG40" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH40" t="n">
         <v>11</v>
@@ -7753,13 +7753,13 @@
         <v>10</v>
       </c>
       <c r="AK40" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL40" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM40" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN40" t="n">
         <v>4.75</v>
@@ -7768,7 +7768,7 @@
         <v>13</v>
       </c>
       <c r="AP40" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ40" t="n">
         <v>41</v>
@@ -7783,7 +7783,7 @@
         <v>3.25</v>
       </c>
       <c r="AU40" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV40" t="n">
         <v>41</v>
@@ -7863,22 +7863,22 @@
         <v>4.33</v>
       </c>
       <c r="M41" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N41" t="n">
         <v>11</v>
       </c>
       <c r="O41" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P41" t="n">
         <v>3.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="R41" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="S41" t="n">
         <v>1.4</v>
@@ -7887,10 +7887,10 @@
         <v>2.75</v>
       </c>
       <c r="U41" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V41" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W41" t="n">
         <v>7.5</v>
@@ -8045,13 +8045,13 @@
         <v>3</v>
       </c>
       <c r="M42" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N42" t="n">
         <v>11</v>
       </c>
       <c r="O42" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P42" t="n">
         <v>3.75</v>
@@ -8069,7 +8069,7 @@
         <v>3</v>
       </c>
       <c r="U42" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V42" t="n">
         <v>2.1</v>
@@ -8209,31 +8209,31 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H43" t="n">
         <v>3.2</v>
       </c>
       <c r="I43" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
         <v>2.2</v>
       </c>
       <c r="L43" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M43" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N43" t="n">
         <v>10</v>
       </c>
       <c r="O43" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P43" t="n">
         <v>3.75</v>
@@ -8251,7 +8251,7 @@
         <v>2.75</v>
       </c>
       <c r="U43" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V43" t="n">
         <v>2.1</v>
@@ -8260,7 +8260,7 @@
         <v>8.5</v>
       </c>
       <c r="X43" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y43" t="n">
         <v>9.5</v>
@@ -8269,7 +8269,7 @@
         <v>21</v>
       </c>
       <c r="AA43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB43" t="n">
         <v>26</v>
@@ -8287,16 +8287,16 @@
         <v>41</v>
       </c>
       <c r="AG43" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH43" t="n">
         <v>11</v>
       </c>
       <c r="AI43" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK43" t="n">
         <v>34</v>
@@ -8305,13 +8305,13 @@
         <v>23</v>
       </c>
       <c r="AM43" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN43" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP43" t="n">
         <v>21</v>
@@ -8573,13 +8573,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H45" t="n">
         <v>3.6</v>
       </c>
       <c r="I45" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J45" t="n">
         <v>5</v>
@@ -8588,7 +8588,7 @@
         <v>2.2</v>
       </c>
       <c r="L45" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="M45" t="n">
         <v>1.06</v>
@@ -8603,10 +8603,10 @@
         <v>3.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="R45" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="S45" t="n">
         <v>1.4</v>
@@ -8651,7 +8651,7 @@
         <v>51</v>
       </c>
       <c r="AG45" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH45" t="n">
         <v>7</v>
@@ -8663,7 +8663,7 @@
         <v>8.5</v>
       </c>
       <c r="AK45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL45" t="n">
         <v>15</v>
@@ -8672,10 +8672,10 @@
         <v>26</v>
       </c>
       <c r="AN45" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP45" t="n">
         <v>34</v>
@@ -8693,7 +8693,7 @@
         <v>2.75</v>
       </c>
       <c r="AU45" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV45" t="n">
         <v>51</v>
@@ -8705,7 +8705,7 @@
         <v>3.75</v>
       </c>
       <c r="AY45" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AZ45" t="n">
         <v>21</v>
@@ -8755,22 +8755,22 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H46" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I46" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J46" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K46" t="n">
         <v>1.95</v>
       </c>
       <c r="L46" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M46" t="n">
         <v>1.1</v>
@@ -8797,25 +8797,25 @@
         <v>2.25</v>
       </c>
       <c r="U46" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V46" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W46" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X46" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y46" t="n">
         <v>9.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA46" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB46" t="n">
         <v>41</v>
@@ -8824,7 +8824,7 @@
         <v>6.5</v>
       </c>
       <c r="AD46" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE46" t="n">
         <v>21</v>
@@ -8836,16 +8836,16 @@
         <v>1250</v>
       </c>
       <c r="AH46" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI46" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ46" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK46" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL46" t="n">
         <v>41</v>
@@ -8857,7 +8857,7 @@
         <v>3.75</v>
       </c>
       <c r="AO46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP46" t="n">
         <v>29</v>
@@ -8866,7 +8866,7 @@
         <v>41</v>
       </c>
       <c r="AR46" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS46" t="n">
         <v>251</v>
@@ -8884,16 +8884,16 @@
         <v>81</v>
       </c>
       <c r="AX46" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY46" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ46" t="n">
         <v>41</v>
       </c>
       <c r="BA46" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB46" t="n">
         <v>151</v>
@@ -8955,13 +8955,13 @@
         <v>4.33</v>
       </c>
       <c r="M47" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N47" t="n">
         <v>6</v>
       </c>
       <c r="O47" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="P47" t="n">
         <v>2.2</v>
@@ -9119,13 +9119,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H48" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I48" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J48" t="n">
         <v>2.1</v>
@@ -9134,25 +9134,25 @@
         <v>2.1</v>
       </c>
       <c r="L48" t="n">
+        <v>8</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N48" t="n">
         <v>7.5</v>
       </c>
-      <c r="M48" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N48" t="n">
-        <v>8</v>
-      </c>
       <c r="O48" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P48" t="n">
         <v>2.75</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R48" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S48" t="n">
         <v>1.5</v>
@@ -9164,19 +9164,19 @@
         <v>2.5</v>
       </c>
       <c r="V48" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W48" t="n">
         <v>5</v>
       </c>
       <c r="X48" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y48" t="n">
         <v>9.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA48" t="n">
         <v>15</v>
@@ -9203,19 +9203,19 @@
         <v>13</v>
       </c>
       <c r="AI48" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ48" t="n">
         <v>23</v>
       </c>
       <c r="AK48" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL48" t="n">
         <v>67</v>
       </c>
       <c r="AM48" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN48" t="n">
         <v>3.2</v>
@@ -9227,7 +9227,7 @@
         <v>23</v>
       </c>
       <c r="AQ48" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR48" t="n">
         <v>51</v>
@@ -9248,7 +9248,7 @@
         <v>81</v>
       </c>
       <c r="AX48" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AY48" t="n">
         <v>41</v>
@@ -9260,7 +9260,7 @@
         <v>201</v>
       </c>
       <c r="BB48" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC48" t="n">
         <v>301</v>
@@ -9310,7 +9310,7 @@
         <v>11</v>
       </c>
       <c r="J49" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="K49" t="n">
         <v>2.75</v>
@@ -9319,13 +9319,13 @@
         <v>11</v>
       </c>
       <c r="M49" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N49" t="n">
         <v>19</v>
       </c>
       <c r="O49" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -9501,22 +9501,22 @@
         <v>1.53</v>
       </c>
       <c r="M50" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N50" t="n">
         <v>13</v>
       </c>
       <c r="O50" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R50" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S50" t="n">
         <v>1.33</v>
@@ -9528,7 +9528,7 @@
         <v>3.25</v>
       </c>
       <c r="V50" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W50" t="n">
         <v>34</v>
@@ -9695,10 +9695,10 @@
         <v>3</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R51" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S51" t="n">
         <v>1.44</v>
@@ -9710,7 +9710,7 @@
         <v>2</v>
       </c>
       <c r="V51" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W51" t="n">
         <v>10</v>
@@ -9889,10 +9889,10 @@
         <v>2.75</v>
       </c>
       <c r="U52" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V52" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W52" t="n">
         <v>7.5</v>
@@ -10029,22 +10029,22 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H53" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I53" t="n">
         <v>1.95</v>
       </c>
       <c r="J53" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K53" t="n">
         <v>2.3</v>
       </c>
       <c r="L53" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M53" t="n">
         <v>1.04</v>
@@ -10071,13 +10071,13 @@
         <v>3.4</v>
       </c>
       <c r="U53" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="V53" t="n">
         <v>2.25</v>
       </c>
       <c r="W53" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X53" t="n">
         <v>21</v>
@@ -10116,7 +10116,7 @@
         <v>11</v>
       </c>
       <c r="AJ53" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK53" t="n">
         <v>17</v>
@@ -10164,13 +10164,13 @@
         <v>10</v>
       </c>
       <c r="AZ53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA53" t="n">
         <v>34</v>
       </c>
       <c r="BB53" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BC53" t="n">
         <v>101</v>
@@ -10211,22 +10211,22 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H54" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I54" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J54" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K54" t="n">
         <v>2.2</v>
       </c>
       <c r="L54" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M54" t="n">
         <v>1.05</v>
@@ -10268,7 +10268,7 @@
         <v>8.5</v>
       </c>
       <c r="Z54" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA54" t="n">
         <v>15</v>
@@ -10289,7 +10289,7 @@
         <v>51</v>
       </c>
       <c r="AG54" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH54" t="n">
         <v>12</v>
@@ -10298,7 +10298,7 @@
         <v>21</v>
       </c>
       <c r="AJ54" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK54" t="n">
         <v>41</v>
@@ -10352,7 +10352,7 @@
         <v>67</v>
       </c>
       <c r="BB54" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC54" t="n">
         <v>201</v>
@@ -10393,22 +10393,22 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="H55" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="I55" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J55" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="K55" t="n">
         <v>2.5</v>
       </c>
       <c r="L55" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M55" t="n">
         <v>1.03</v>
@@ -10417,16 +10417,16 @@
         <v>15</v>
       </c>
       <c r="O55" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P55" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R55" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S55" t="n">
         <v>1.29</v>
@@ -10435,25 +10435,25 @@
         <v>3.5</v>
       </c>
       <c r="U55" t="n">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="V55" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W55" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X55" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y55" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z55" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB55" t="n">
         <v>21</v>
@@ -10462,46 +10462,46 @@
         <v>15</v>
       </c>
       <c r="AD55" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE55" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF55" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG55" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH55" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI55" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ55" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK55" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL55" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM55" t="n">
         <v>41</v>
       </c>
       <c r="AN55" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AO55" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP55" t="n">
         <v>17</v>
       </c>
       <c r="AQ55" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR55" t="n">
         <v>41</v>
@@ -10513,7 +10513,7 @@
         <v>3.5</v>
       </c>
       <c r="AU55" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV55" t="n">
         <v>51</v>
@@ -10522,22 +10522,22 @@
         <v>126</v>
       </c>
       <c r="AX55" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AY55" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ55" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA55" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB55" t="n">
         <v>101</v>
       </c>
-      <c r="BB55" t="n">
-        <v>126</v>
-      </c>
       <c r="BC55" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD55" t="n">
         <v>151</v>
@@ -10575,13 +10575,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H56" t="n">
         <v>3.4</v>
       </c>
       <c r="I56" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J56" t="n">
         <v>4</v>
@@ -10590,7 +10590,7 @@
         <v>2.2</v>
       </c>
       <c r="L56" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M56" t="n">
         <v>1.05</v>
@@ -10635,7 +10635,7 @@
         <v>41</v>
       </c>
       <c r="AA56" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB56" t="n">
         <v>34</v>
@@ -10659,7 +10659,7 @@
         <v>8.5</v>
       </c>
       <c r="AI56" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ56" t="n">
         <v>9</v>
@@ -10668,7 +10668,7 @@
         <v>19</v>
       </c>
       <c r="AL56" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM56" t="n">
         <v>23</v>
@@ -10701,10 +10701,10 @@
         <v>51</v>
       </c>
       <c r="AW56" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AX56" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AY56" t="n">
         <v>11</v>
@@ -10713,7 +10713,7 @@
         <v>21</v>
       </c>
       <c r="BA56" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB56" t="n">
         <v>51</v>
@@ -11139,16 +11139,16 @@
         <v>3.1</v>
       </c>
       <c r="M59" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N59" t="n">
         <v>6</v>
       </c>
       <c r="O59" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P59" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Q59" t="n">
         <v>2.7</v>
@@ -11166,7 +11166,7 @@
         <v>2.25</v>
       </c>
       <c r="V59" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="W59" t="n">
         <v>7.5</v>
@@ -11667,22 +11667,22 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="H62" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I62" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="J62" t="n">
         <v>5.5</v>
       </c>
       <c r="K62" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L62" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M62" t="n">
         <v>1.06</v>
@@ -11697,22 +11697,22 @@
         <v>3.4</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R62" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S62" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T62" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U62" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="V62" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="W62" t="n">
         <v>13</v>
@@ -11730,10 +11730,10 @@
         <v>41</v>
       </c>
       <c r="AB62" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC62" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD62" t="n">
         <v>6.5</v>
@@ -11745,7 +11745,7 @@
         <v>51</v>
       </c>
       <c r="AG62" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH62" t="n">
         <v>6.5</v>
@@ -11754,10 +11754,10 @@
         <v>7.5</v>
       </c>
       <c r="AJ62" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK62" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL62" t="n">
         <v>15</v>
@@ -11769,7 +11769,7 @@
         <v>6.5</v>
       </c>
       <c r="AO62" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP62" t="n">
         <v>34</v>
@@ -11781,16 +11781,16 @@
         <v>126</v>
       </c>
       <c r="AS62" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT62" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU62" t="n">
         <v>8.5</v>
       </c>
       <c r="AV62" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW62" t="n">
         <v>81</v>
@@ -11799,7 +11799,7 @@
         <v>3.6</v>
       </c>
       <c r="AY62" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AZ62" t="n">
         <v>21</v>
@@ -11882,7 +11882,7 @@
         <v>2.05</v>
       </c>
       <c r="R63" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S63" t="n">
         <v>1.44</v>
@@ -11894,7 +11894,7 @@
         <v>2.1</v>
       </c>
       <c r="V63" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W63" t="n">
         <v>6</v>
@@ -13129,7 +13129,7 @@
         <v>4.75</v>
       </c>
       <c r="I70" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J70" t="n">
         <v>1.91</v>
@@ -13147,16 +13147,16 @@
         <v>19</v>
       </c>
       <c r="O70" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P70" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q70" t="n">
         <v>1.44</v>
       </c>
       <c r="R70" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S70" t="n">
         <v>1.25</v>
@@ -13171,7 +13171,7 @@
         <v>2.1</v>
       </c>
       <c r="W70" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X70" t="n">
         <v>8.5</v>
@@ -13186,7 +13186,7 @@
         <v>11</v>
       </c>
       <c r="AB70" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC70" t="n">
         <v>19</v>
@@ -13207,7 +13207,7 @@
         <v>21</v>
       </c>
       <c r="AI70" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ70" t="n">
         <v>19</v>
@@ -13231,7 +13231,7 @@
         <v>15</v>
       </c>
       <c r="AQ70" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR70" t="n">
         <v>34</v>
@@ -13270,7 +13270,7 @@
         <v>151</v>
       </c>
       <c r="BD70" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71">
@@ -13305,28 +13305,28 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H71" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I71" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="J71" t="n">
         <v>5</v>
       </c>
       <c r="K71" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L71" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="M71" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N71" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O71" t="n">
         <v>1.14</v>
@@ -13335,10 +13335,10 @@
         <v>5.5</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R71" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="S71" t="n">
         <v>1.25</v>
@@ -13347,16 +13347,16 @@
         <v>3.75</v>
       </c>
       <c r="U71" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V71" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W71" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X71" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y71" t="n">
         <v>17</v>
@@ -13371,10 +13371,10 @@
         <v>34</v>
       </c>
       <c r="AC71" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD71" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE71" t="n">
         <v>15</v>
@@ -13383,10 +13383,10 @@
         <v>41</v>
       </c>
       <c r="AG71" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH71" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI71" t="n">
         <v>9</v>
@@ -13404,7 +13404,7 @@
         <v>19</v>
       </c>
       <c r="AN71" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO71" t="n">
         <v>26</v>
@@ -13431,7 +13431,7 @@
         <v>41</v>
       </c>
       <c r="AW71" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AX71" t="n">
         <v>3.75</v>
@@ -13446,7 +13446,7 @@
         <v>21</v>
       </c>
       <c r="BB71" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BC71" t="n">
         <v>81</v>
@@ -13690,7 +13690,7 @@
         <v>1.08</v>
       </c>
       <c r="N73" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O73" t="n">
         <v>1.4</v>
@@ -13702,7 +13702,7 @@
         <v>2.25</v>
       </c>
       <c r="R73" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S73" t="n">
         <v>1.5</v>
@@ -13851,22 +13851,22 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="H74" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I74" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="J74" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="K74" t="n">
         <v>2.1</v>
       </c>
       <c r="L74" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M74" t="n">
         <v>1.06</v>
@@ -13884,7 +13884,7 @@
         <v>2.1</v>
       </c>
       <c r="R74" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S74" t="n">
         <v>1.44</v>
@@ -13893,25 +13893,25 @@
         <v>2.63</v>
       </c>
       <c r="U74" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V74" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W74" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X74" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y74" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z74" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA74" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB74" t="n">
         <v>29</v>
@@ -13920,7 +13920,7 @@
         <v>9</v>
       </c>
       <c r="AD74" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE74" t="n">
         <v>17</v>
@@ -13929,31 +13929,31 @@
         <v>51</v>
       </c>
       <c r="AG74" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH74" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI74" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AJ74" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK74" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL74" t="n">
         <v>34</v>
       </c>
-      <c r="AL74" t="n">
-        <v>29</v>
-      </c>
       <c r="AM74" t="n">
         <v>41</v>
       </c>
       <c r="AN74" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO74" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP74" t="n">
         <v>23</v>
@@ -13962,7 +13962,7 @@
         <v>41</v>
       </c>
       <c r="AR74" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS74" t="n">
         <v>151</v>
@@ -13971,7 +13971,7 @@
         <v>2.63</v>
       </c>
       <c r="AU74" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV74" t="n">
         <v>51</v>
@@ -13980,10 +13980,10 @@
         <v>51</v>
       </c>
       <c r="AX74" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY74" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ74" t="n">
         <v>29</v>
@@ -13992,10 +13992,10 @@
         <v>67</v>
       </c>
       <c r="BB74" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC74" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD74" t="n">
         <v>51</v>
@@ -14033,16 +14033,16 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H75" t="n">
         <v>3.2</v>
       </c>
       <c r="I75" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J75" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K75" t="n">
         <v>2</v>
@@ -14069,31 +14069,31 @@
         <v>1.53</v>
       </c>
       <c r="S75" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T75" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U75" t="n">
         <v>2.1</v>
       </c>
       <c r="V75" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W75" t="n">
         <v>5.5</v>
       </c>
       <c r="X75" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y75" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z75" t="n">
         <v>15</v>
       </c>
       <c r="AA75" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB75" t="n">
         <v>34</v>
@@ -14114,13 +14114,13 @@
         <v>351</v>
       </c>
       <c r="AH75" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI75" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ75" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK75" t="n">
         <v>51</v>
@@ -14132,10 +14132,10 @@
         <v>51</v>
       </c>
       <c r="AN75" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO75" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP75" t="n">
         <v>26</v>
@@ -14147,13 +14147,13 @@
         <v>67</v>
       </c>
       <c r="AS75" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="AU75" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV75" t="n">
         <v>67</v>
@@ -14245,10 +14245,10 @@
         <v>4</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="R76" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="S76" t="n">
         <v>1.36</v>
@@ -15507,13 +15507,13 @@
         <v>3.75</v>
       </c>
       <c r="M83" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N83" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O83" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P83" t="n">
         <v>3.75</v>
@@ -15531,7 +15531,7 @@
         <v>3</v>
       </c>
       <c r="U83" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V83" t="n">
         <v>2.1</v>
@@ -15689,13 +15689,13 @@
         <v>3</v>
       </c>
       <c r="M84" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N84" t="n">
         <v>13</v>
       </c>
       <c r="O84" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -15713,7 +15713,7 @@
         <v>3</v>
       </c>
       <c r="U84" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V84" t="n">
         <v>2.2</v>
@@ -16235,10 +16235,10 @@
         <v>8</v>
       </c>
       <c r="M87" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N87" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O87" t="n">
         <v>1.17</v>
@@ -16247,10 +16247,10 @@
         <v>5</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="R87" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S87" t="n">
         <v>1.29</v>
@@ -16259,10 +16259,10 @@
         <v>3.5</v>
       </c>
       <c r="U87" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V87" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W87" t="n">
         <v>8</v>
@@ -16271,10 +16271,10 @@
         <v>6.5</v>
       </c>
       <c r="Y87" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z87" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA87" t="n">
         <v>11</v>
@@ -16283,16 +16283,16 @@
         <v>29</v>
       </c>
       <c r="AC87" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD87" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE87" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF87" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG87" t="n">
         <v>301</v>
@@ -16307,10 +16307,10 @@
         <v>26</v>
       </c>
       <c r="AK87" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL87" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM87" t="n">
         <v>51</v>
@@ -16319,13 +16319,13 @@
         <v>3.25</v>
       </c>
       <c r="AO87" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP87" t="n">
         <v>17</v>
       </c>
       <c r="AQ87" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR87" t="n">
         <v>41</v>
@@ -16337,16 +16337,16 @@
         <v>3.5</v>
       </c>
       <c r="AU87" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV87" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW87" t="n">
         <v>51</v>
       </c>
       <c r="AX87" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY87" t="n">
         <v>41</v>
@@ -16355,13 +16355,13 @@
         <v>41</v>
       </c>
       <c r="BA87" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB87" t="n">
         <v>201</v>
       </c>
       <c r="BC87" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD87" t="n">
         <v>51</v>
@@ -16399,22 +16399,22 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="H88" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="I88" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="J88" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="K88" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="L88" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="M88" t="n">
         <v>1.01</v>
@@ -16435,16 +16435,16 @@
         <v>3.5</v>
       </c>
       <c r="S88" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="T88" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="U88" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="V88" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="W88" t="n">
         <v>29</v>
@@ -16492,49 +16492,49 @@
         <v>16.5</v>
       </c>
       <c r="AL88" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AM88" t="n">
         <v>14.5</v>
       </c>
       <c r="AN88" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AO88" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP88" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ88" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AR88" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AS88" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AT88" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="AU88" t="n">
         <v>6.3</v>
       </c>
       <c r="AV88" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AW88" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AX88" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AY88" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AZ88" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="BA88" t="n">
         <v>18.5</v>
@@ -16543,7 +16543,7 @@
         <v>27</v>
       </c>
       <c r="BC88" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BD88" t="n">
         <v>51</v>
@@ -16581,13 +16581,13 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="H89" t="n">
         <v>3.8</v>
       </c>
       <c r="I89" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="J89" t="n">
         <v>2.57</v>
@@ -16608,7 +16608,7 @@
         <v>1.11</v>
       </c>
       <c r="P89" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Q89" t="n">
         <v>1.36</v>
@@ -16629,16 +16629,16 @@
         <v>3</v>
       </c>
       <c r="W89" t="n">
+        <v>15</v>
+      </c>
+      <c r="X89" t="n">
         <v>16</v>
-      </c>
-      <c r="X89" t="n">
-        <v>17</v>
       </c>
       <c r="Y89" t="n">
         <v>9.5</v>
       </c>
       <c r="Z89" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA89" t="n">
         <v>14.5</v>
@@ -16650,7 +16650,7 @@
         <v>10.25</v>
       </c>
       <c r="AD89" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AE89" t="n">
         <v>10.25</v>
@@ -16662,40 +16662,40 @@
         <v>110</v>
       </c>
       <c r="AH89" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AI89" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ89" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AK89" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL89" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AM89" t="n">
         <v>18.5</v>
       </c>
       <c r="AN89" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="AO89" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AP89" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AQ89" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AR89" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AS89" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AT89" t="n">
         <v>3.85</v>
@@ -16710,7 +16710,7 @@
         <v>300</v>
       </c>
       <c r="AX89" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AY89" t="n">
         <v>14</v>
@@ -16975,10 +16975,10 @@
         <v>3.5</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="R91" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="S91" t="n">
         <v>1.36</v>
@@ -17673,13 +17673,13 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H95" t="n">
         <v>3.2</v>
       </c>
       <c r="I95" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J95" t="n">
         <v>3.1</v>
@@ -17688,13 +17688,13 @@
         <v>2.05</v>
       </c>
       <c r="L95" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M95" t="n">
         <v>1.07</v>
       </c>
       <c r="N95" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O95" t="n">
         <v>1.36</v>
@@ -17703,34 +17703,34 @@
         <v>3</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R95" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S95" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T95" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U95" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V95" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W95" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X95" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y95" t="n">
         <v>9.5</v>
       </c>
       <c r="Z95" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA95" t="n">
         <v>21</v>
@@ -17739,7 +17739,7 @@
         <v>34</v>
       </c>
       <c r="AC95" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD95" t="n">
         <v>6</v>
@@ -17751,7 +17751,7 @@
         <v>51</v>
       </c>
       <c r="AG95" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH95" t="n">
         <v>8.5</v>
@@ -17760,16 +17760,16 @@
         <v>15</v>
       </c>
       <c r="AJ95" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK95" t="n">
         <v>34</v>
       </c>
       <c r="AL95" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM95" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN95" t="n">
         <v>4.33</v>
@@ -17778,7 +17778,7 @@
         <v>13</v>
       </c>
       <c r="AP95" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ95" t="n">
         <v>41</v>
@@ -17790,13 +17790,13 @@
         <v>201</v>
       </c>
       <c r="AT95" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU95" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV95" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW95" t="n">
         <v>81</v>
@@ -17805,19 +17805,19 @@
         <v>5</v>
       </c>
       <c r="AY95" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ95" t="n">
         <v>29</v>
       </c>
       <c r="BA95" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB95" t="n">
         <v>81</v>
       </c>
       <c r="BC95" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD95" t="n">
         <v>81</v>
@@ -20251,10 +20251,10 @@
         <v>3.75</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="R109" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="S109" t="n">
         <v>1.36</v>
@@ -20606,7 +20606,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="N111" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="O111" t="n">
         <v>1.28</v>
@@ -20785,10 +20785,10 @@
         <v>4.75</v>
       </c>
       <c r="M112" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N112" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O112" t="n">
         <v>1.57</v>
@@ -20812,7 +20812,7 @@
         <v>2.25</v>
       </c>
       <c r="V112" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="W112" t="n">
         <v>5.5</v>
@@ -21131,73 +21131,73 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="H114" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I114" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J114" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K114" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L114" t="n">
         <v>3.25</v>
       </c>
-      <c r="J114" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K114" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L114" t="n">
-        <v>3.5</v>
-      </c>
       <c r="M114" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N114" t="n">
         <v>15</v>
       </c>
       <c r="O114" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P114" t="n">
         <v>5</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R114" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S114" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T114" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U114" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="V114" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="W114" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X114" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y114" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z114" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA114" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB114" t="n">
         <v>21</v>
       </c>
       <c r="AC114" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD114" t="n">
         <v>7</v>
@@ -21206,40 +21206,40 @@
         <v>11</v>
       </c>
       <c r="AF114" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG114" t="n">
         <v>101</v>
       </c>
       <c r="AH114" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI114" t="n">
         <v>19</v>
       </c>
       <c r="AJ114" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO114" t="n">
         <v>12</v>
-      </c>
-      <c r="AK114" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL114" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM114" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN114" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO114" t="n">
-        <v>11</v>
       </c>
       <c r="AP114" t="n">
         <v>17</v>
       </c>
       <c r="AQ114" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR114" t="n">
         <v>51</v>
@@ -21248,7 +21248,7 @@
         <v>101</v>
       </c>
       <c r="AT114" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU114" t="n">
         <v>7</v>
@@ -21257,25 +21257,25 @@
         <v>41</v>
       </c>
       <c r="AW114" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AX114" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY114" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ114" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA114" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB114" t="n">
         <v>51</v>
       </c>
       <c r="BC114" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD114" t="n">
         <v>151</v>
@@ -21313,40 +21313,40 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H115" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I115" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J115" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K115" t="n">
         <v>2.2</v>
       </c>
       <c r="L115" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M115" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N115" t="n">
         <v>10</v>
       </c>
       <c r="O115" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P115" t="n">
         <v>3.4</v>
       </c>
       <c r="Q115" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R115" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S115" t="n">
         <v>1.4</v>
@@ -21364,7 +21364,7 @@
         <v>7</v>
       </c>
       <c r="X115" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y115" t="n">
         <v>8.5</v>
@@ -21376,16 +21376,16 @@
         <v>15</v>
       </c>
       <c r="AB115" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC115" t="n">
         <v>9.5</v>
       </c>
       <c r="AD115" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE115" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF115" t="n">
         <v>51</v>
@@ -21394,19 +21394,19 @@
         <v>301</v>
       </c>
       <c r="AH115" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI115" t="n">
         <v>21</v>
       </c>
       <c r="AJ115" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK115" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL115" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM115" t="n">
         <v>41</v>
@@ -21415,7 +21415,7 @@
         <v>3.75</v>
       </c>
       <c r="AO115" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP115" t="n">
         <v>21</v>
@@ -21433,13 +21433,13 @@
         <v>2.75</v>
       </c>
       <c r="AU115" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV115" t="n">
         <v>51</v>
       </c>
       <c r="AW115" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX115" t="n">
         <v>6</v>
@@ -21448,7 +21448,7 @@
         <v>23</v>
       </c>
       <c r="AZ115" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA115" t="n">
         <v>81</v>
@@ -21457,7 +21457,7 @@
         <v>101</v>
       </c>
       <c r="BC115" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD115" t="n">
         <v>151</v>
@@ -21495,58 +21495,58 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H116" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I116" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J116" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K116" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L116" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M116" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N116" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O116" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="P116" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q116" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R116" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S116" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T116" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U116" t="n">
         <v>1.53</v>
       </c>
-      <c r="R116" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S116" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T116" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U116" t="n">
-        <v>1.5</v>
-      </c>
       <c r="V116" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W116" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X116" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y116" t="n">
         <v>9.5</v>
@@ -21558,37 +21558,37 @@
         <v>17</v>
       </c>
       <c r="AB116" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC116" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD116" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE116" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF116" t="n">
         <v>34</v>
       </c>
       <c r="AG116" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH116" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI116" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ116" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK116" t="n">
         <v>29</v>
       </c>
       <c r="AL116" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM116" t="n">
         <v>23</v>
@@ -21597,10 +21597,10 @@
         <v>4.75</v>
       </c>
       <c r="AO116" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP116" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ116" t="n">
         <v>41</v>
@@ -21612,7 +21612,7 @@
         <v>101</v>
       </c>
       <c r="AT116" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU116" t="n">
         <v>7</v>
@@ -21621,7 +21621,7 @@
         <v>41</v>
       </c>
       <c r="AW116" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AX116" t="n">
         <v>5</v>
@@ -21630,7 +21630,7 @@
         <v>15</v>
       </c>
       <c r="AZ116" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA116" t="n">
         <v>41</v>
@@ -21639,10 +21639,10 @@
         <v>51</v>
       </c>
       <c r="BC116" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD116" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117">
@@ -21677,148 +21677,148 @@
         </is>
       </c>
       <c r="G117" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H117" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="I117" t="n">
+        <v>8</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K117" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L117" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N117" t="n">
+        <v>19</v>
+      </c>
+      <c r="O117" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P117" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R117" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S117" t="n">
         <v>1.25</v>
       </c>
-      <c r="H117" t="n">
-        <v>6</v>
-      </c>
-      <c r="I117" t="n">
-        <v>10</v>
-      </c>
-      <c r="J117" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="K117" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L117" t="n">
+      <c r="T117" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U117" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V117" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W117" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X117" t="n">
         <v>8</v>
       </c>
-      <c r="M117" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N117" t="n">
-        <v>21</v>
-      </c>
-      <c r="O117" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P117" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R117" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S117" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T117" t="n">
-        <v>4</v>
-      </c>
-      <c r="U117" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V117" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W117" t="n">
-        <v>10</v>
-      </c>
-      <c r="X117" t="n">
-        <v>7.5</v>
-      </c>
       <c r="Y117" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z117" t="n">
         <v>9.5</v>
-      </c>
-      <c r="Z117" t="n">
-        <v>8.5</v>
       </c>
       <c r="AA117" t="n">
         <v>10</v>
       </c>
       <c r="AB117" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ117" t="n">
         <v>23</v>
       </c>
-      <c r="AC117" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD117" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE117" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF117" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG117" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH117" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI117" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ117" t="n">
-        <v>29</v>
-      </c>
       <c r="AK117" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AL117" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM117" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN117" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO117" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AP117" t="n">
         <v>15</v>
       </c>
       <c r="AQ117" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR117" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AS117" t="n">
         <v>81</v>
       </c>
       <c r="AT117" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU117" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>451</v>
+      </c>
+      <c r="AX117" t="n">
         <v>9</v>
       </c>
-      <c r="AV117" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW117" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX117" t="n">
-        <v>10</v>
-      </c>
       <c r="AY117" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ117" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA117" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB117" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC117" t="n">
         <v>201</v>
@@ -21859,7 +21859,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H118" t="n">
         <v>3.4</v>
@@ -21889,10 +21889,10 @@
         <v>3.75</v>
       </c>
       <c r="Q118" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="R118" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S118" t="n">
         <v>1.36</v>
@@ -22047,7 +22047,7 @@
         <v>3.9</v>
       </c>
       <c r="I119" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="J119" t="n">
         <v>6</v>
@@ -22769,22 +22769,22 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.85</v>
+        <v>1.69</v>
       </c>
       <c r="H123" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I123" t="n">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="J123" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="K123" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L123" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="M123" t="n">
         <v>1.05</v>
@@ -22799,10 +22799,10 @@
         <v>3.75</v>
       </c>
       <c r="Q123" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="R123" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="S123" t="n">
         <v>1.36</v>
@@ -22811,73 +22811,73 @@
         <v>3</v>
       </c>
       <c r="U123" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V123" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W123" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X123" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y123" t="n">
         <v>8.5</v>
       </c>
       <c r="Z123" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA123" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB123" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC123" t="n">
         <v>11</v>
       </c>
       <c r="AD123" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE123" t="n">
         <v>15</v>
       </c>
       <c r="AF123" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG123" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH123" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI123" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ123" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK123" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL123" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM123" t="n">
         <v>41</v>
       </c>
       <c r="AN123" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO123" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP123" t="n">
         <v>19</v>
       </c>
       <c r="AQ123" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR123" t="n">
         <v>51</v>
@@ -22898,19 +22898,19 @@
         <v>81</v>
       </c>
       <c r="AX123" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY123" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ123" t="n">
         <v>29</v>
       </c>
       <c r="BA123" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB123" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC123" t="n">
         <v>201</v>
@@ -23333,13 +23333,13 @@
         <v>6</v>
       </c>
       <c r="M126" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N126" t="n">
         <v>15</v>
       </c>
       <c r="O126" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P126" t="n">
         <v>4.33</v>
@@ -23712,7 +23712,7 @@
         <v>2.05</v>
       </c>
       <c r="R128" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S128" t="n">
         <v>1.44</v>
@@ -23861,76 +23861,76 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H129" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I129" t="n">
-        <v>2.88</v>
+        <v>2.62</v>
       </c>
       <c r="J129" t="n">
+        <v>3</v>
+      </c>
+      <c r="K129" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L129" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N129" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O129" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P129" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R129" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S129" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T129" t="n">
         <v>2.75</v>
       </c>
-      <c r="K129" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L129" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M129" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N129" t="n">
+      <c r="U129" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V129" t="n">
+        <v>2</v>
+      </c>
+      <c r="W129" t="n">
         <v>9</v>
       </c>
-      <c r="O129" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P129" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q129" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R129" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S129" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T129" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U129" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V129" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W129" t="n">
-        <v>9.5</v>
-      </c>
       <c r="X129" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y129" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z129" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA129" t="n">
         <v>21</v>
       </c>
-      <c r="AA129" t="n">
-        <v>17</v>
-      </c>
       <c r="AB129" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC129" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD129" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE129" t="n">
         <v>13</v>
@@ -23942,16 +23942,16 @@
         <v>151</v>
       </c>
       <c r="AH129" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AI129" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AJ129" t="n">
         <v>11</v>
       </c>
       <c r="AK129" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL129" t="n">
         <v>21</v>
@@ -23960,25 +23960,25 @@
         <v>29</v>
       </c>
       <c r="AN129" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO129" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP129" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ129" t="n">
         <v>41</v>
       </c>
       <c r="AR129" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS129" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT129" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU129" t="n">
         <v>7.5</v>
@@ -23990,7 +23990,7 @@
         <v>81</v>
       </c>
       <c r="AX129" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY129" t="n">
         <v>15</v>
@@ -23999,13 +23999,13 @@
         <v>23</v>
       </c>
       <c r="BA129" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB129" t="n">
         <v>67</v>
       </c>
       <c r="BC129" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD129" t="n">
         <v>81</v>
@@ -24043,28 +24043,28 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="H130" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I130" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="J130" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="K130" t="n">
         <v>2.2</v>
       </c>
       <c r="L130" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M130" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N130" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O130" t="n">
         <v>1.25</v>
@@ -24073,7 +24073,7 @@
         <v>3.75</v>
       </c>
       <c r="Q130" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="R130" t="n">
         <v>2</v>
@@ -24085,73 +24085,73 @@
         <v>3</v>
       </c>
       <c r="U130" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="V130" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="W130" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X130" t="n">
         <v>8.5</v>
       </c>
-      <c r="X130" t="n">
-        <v>10</v>
-      </c>
       <c r="Y130" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z130" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AA130" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB130" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC130" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD130" t="n">
         <v>7</v>
       </c>
       <c r="AE130" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF130" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG130" t="n">
         <v>151</v>
       </c>
       <c r="AH130" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI130" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP130" t="n">
         <v>19</v>
       </c>
-      <c r="AJ130" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK130" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL130" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM130" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN130" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO130" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP130" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ130" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR130" t="n">
         <v>51</v>
@@ -24163,7 +24163,7 @@
         <v>3</v>
       </c>
       <c r="AU130" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV130" t="n">
         <v>51</v>
@@ -24172,19 +24172,19 @@
         <v>81</v>
       </c>
       <c r="AX130" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY130" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ130" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA130" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB130" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC130" t="n">
         <v>151</v>
@@ -24225,7 +24225,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="H131" t="n">
         <v>3.7</v>
@@ -24243,22 +24243,22 @@
         <v>5</v>
       </c>
       <c r="M131" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N131" t="n">
         <v>8.5</v>
       </c>
       <c r="O131" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P131" t="n">
         <v>3.5</v>
       </c>
       <c r="Q131" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R131" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S131" t="n">
         <v>1.4</v>
@@ -24267,10 +24267,10 @@
         <v>2.75</v>
       </c>
       <c r="U131" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V131" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W131" t="n">
         <v>7</v>
@@ -24589,31 +24589,31 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H133" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I133" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="J133" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="K133" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="L133" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="M133" t="n">
         <v>1.07</v>
       </c>
       <c r="N133" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="O133" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P133" t="n">
         <v>2.92</v>
@@ -24628,88 +24628,88 @@
         <v>1.42</v>
       </c>
       <c r="T133" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="U133" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V133" t="n">
         <v>1.87</v>
       </c>
       <c r="W133" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X133" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC133" t="n">
         <v>6.8</v>
       </c>
-      <c r="X133" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y133" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z133" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA133" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB133" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC133" t="n">
-        <v>6.7</v>
-      </c>
       <c r="AD133" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AE133" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF133" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG133" t="n">
         <v>700</v>
       </c>
       <c r="AH133" t="n">
-        <v>9.25</v>
+        <v>8</v>
       </c>
       <c r="AI133" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="AJ133" t="n">
-        <v>11.75</v>
+        <v>10.25</v>
       </c>
       <c r="AK133" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="AL133" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AM133" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN133" t="n">
-        <v>3.95</v>
+        <v>4.25</v>
       </c>
       <c r="AO133" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AP133" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AQ133" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AR133" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS133" t="n">
         <v>300</v>
       </c>
       <c r="AT133" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AU133" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AV133" t="n">
         <v>70</v>
@@ -24718,19 +24718,19 @@
         <v>51</v>
       </c>
       <c r="AX133" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="AY133" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="AZ133" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BA133" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="BB133" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="BC133" t="n">
         <v>350</v>
@@ -26063,13 +26063,13 @@
         <v>4.33</v>
       </c>
       <c r="M141" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="N141" t="n">
         <v>4.5</v>
       </c>
       <c r="O141" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="P141" t="n">
         <v>2</v>
@@ -26233,7 +26233,7 @@
         <v>3.2</v>
       </c>
       <c r="I142" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J142" t="n">
         <v>2.75</v>
@@ -26251,16 +26251,16 @@
         <v>7.5</v>
       </c>
       <c r="O142" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P142" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q142" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R142" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S142" t="n">
         <v>1.5</v>
@@ -26269,10 +26269,10 @@
         <v>2.5</v>
       </c>
       <c r="U142" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V142" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="W142" t="n">
         <v>6</v>
@@ -26296,10 +26296,10 @@
         <v>7.5</v>
       </c>
       <c r="AD142" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE142" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF142" t="n">
         <v>67</v>
@@ -26347,7 +26347,7 @@
         <v>2.5</v>
       </c>
       <c r="AU142" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV142" t="n">
         <v>67</v>
@@ -26359,7 +26359,7 @@
         <v>5.5</v>
       </c>
       <c r="AY142" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ142" t="n">
         <v>34</v>
@@ -26368,7 +26368,7 @@
         <v>81</v>
       </c>
       <c r="BB142" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC142" t="n">
         <v>301</v>
@@ -26409,13 +26409,13 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="H143" t="n">
         <v>3.5</v>
       </c>
       <c r="I143" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J143" t="n">
         <v>2.63</v>
@@ -26424,13 +26424,13 @@
         <v>2.2</v>
       </c>
       <c r="L143" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M143" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N143" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O143" t="n">
         <v>1.25</v>
@@ -26439,28 +26439,28 @@
         <v>3.75</v>
       </c>
       <c r="Q143" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="R143" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="S143" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T143" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U143" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="V143" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="W143" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X143" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y143" t="n">
         <v>9</v>
@@ -26469,34 +26469,34 @@
         <v>17</v>
       </c>
       <c r="AA143" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB143" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC143" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD143" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE143" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF143" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG143" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH143" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI143" t="n">
         <v>19</v>
       </c>
       <c r="AJ143" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK143" t="n">
         <v>41</v>
@@ -26523,13 +26523,13 @@
         <v>51</v>
       </c>
       <c r="AS143" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT143" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU143" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV143" t="n">
         <v>51</v>
@@ -26541,19 +26541,19 @@
         <v>5.5</v>
       </c>
       <c r="AY143" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ143" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA143" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB143" t="n">
         <v>81</v>
       </c>
       <c r="BC143" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD143" t="n">
         <v>81</v>
@@ -26997,7 +26997,7 @@
         <v>2.75</v>
       </c>
       <c r="U146" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V146" t="n">
         <v>2.05</v>
@@ -27081,7 +27081,7 @@
         <v>51</v>
       </c>
       <c r="AW146" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX146" t="n">
         <v>5</v>
@@ -27337,22 +27337,22 @@
         <v>3.75</v>
       </c>
       <c r="M148" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N148" t="n">
         <v>15</v>
       </c>
       <c r="O148" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P148" t="n">
         <v>4.5</v>
       </c>
       <c r="Q148" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R148" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S148" t="n">
         <v>1.29</v>
@@ -27519,19 +27519,19 @@
         <v>6</v>
       </c>
       <c r="M149" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N149" t="n">
         <v>17</v>
       </c>
       <c r="O149" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P149" t="n">
         <v>5</v>
       </c>
       <c r="Q149" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R149" t="n">
         <v>2.35</v>
@@ -27683,40 +27683,40 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="H150" t="n">
         <v>3.9</v>
       </c>
       <c r="I150" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="J150" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K150" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L150" t="n">
         <v>2.1</v>
       </c>
       <c r="M150" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N150" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O150" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P150" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q150" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R150" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S150" t="n">
         <v>1.3</v>
@@ -27725,10 +27725,10 @@
         <v>3.4</v>
       </c>
       <c r="U150" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V150" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W150" t="n">
         <v>17</v>
@@ -27761,13 +27761,13 @@
         <v>41</v>
       </c>
       <c r="AG150" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH150" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI150" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ150" t="n">
         <v>8.5</v>
@@ -27779,7 +27779,7 @@
         <v>12</v>
       </c>
       <c r="AM150" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN150" t="n">
         <v>7</v>
@@ -27797,7 +27797,7 @@
         <v>101</v>
       </c>
       <c r="AS150" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT150" t="n">
         <v>3.4</v>
@@ -28229,133 +28229,133 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H153" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I153" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J153" t="n">
         <v>3.1</v>
       </c>
       <c r="K153" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L153" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M153" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N153" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O153" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P153" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q153" t="n">
-        <v>1.77</v>
+        <v>1.94</v>
       </c>
       <c r="R153" t="n">
-        <v>1.97</v>
+        <v>1.79</v>
       </c>
       <c r="S153" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T153" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U153" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="V153" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="W153" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="X153" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y153" t="n">
         <v>10</v>
       </c>
       <c r="Z153" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA153" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB153" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC153" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD153" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE153" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF153" t="n">
         <v>41</v>
       </c>
       <c r="AG153" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH153" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI153" t="n">
         <v>15</v>
       </c>
       <c r="AJ153" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK153" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL153" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM153" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN153" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO153" t="n">
         <v>13</v>
       </c>
       <c r="AP153" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ153" t="n">
         <v>41</v>
       </c>
       <c r="AR153" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS153" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT153" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU153" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV153" t="n">
         <v>51</v>
       </c>
       <c r="AW153" t="n">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="AX153" t="n">
         <v>4.75</v>
@@ -28364,10 +28364,10 @@
         <v>15</v>
       </c>
       <c r="AZ153" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA153" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB153" t="n">
         <v>67</v>
@@ -28411,19 +28411,19 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H154" t="n">
         <v>3.4</v>
       </c>
       <c r="I154" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="J154" t="n">
         <v>4.33</v>
       </c>
       <c r="K154" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L154" t="n">
         <v>2.6</v>
@@ -28441,10 +28441,10 @@
         <v>3.5</v>
       </c>
       <c r="Q154" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="R154" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="S154" t="n">
         <v>1.4</v>
@@ -28453,10 +28453,10 @@
         <v>2.75</v>
       </c>
       <c r="U154" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V154" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W154" t="n">
         <v>11</v>
@@ -28477,7 +28477,7 @@
         <v>41</v>
       </c>
       <c r="AC154" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD154" t="n">
         <v>6.5</v>
@@ -28492,7 +28492,7 @@
         <v>251</v>
       </c>
       <c r="AH154" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI154" t="n">
         <v>9</v>
@@ -28507,10 +28507,10 @@
         <v>15</v>
       </c>
       <c r="AM154" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN154" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO154" t="n">
         <v>21</v>
@@ -28522,7 +28522,7 @@
         <v>67</v>
       </c>
       <c r="AR154" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS154" t="n">
         <v>201</v>
@@ -29145,7 +29145,7 @@
         <v>3.1</v>
       </c>
       <c r="I158" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="J158" t="n">
         <v>3.4</v>
@@ -29181,7 +29181,7 @@
         <v>2.75</v>
       </c>
       <c r="U158" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V158" t="n">
         <v>2</v>
@@ -29688,19 +29688,19 @@
         <v>3</v>
       </c>
       <c r="H161" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I161" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J161" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K161" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L161" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="M161" t="n">
         <v>1.03</v>
@@ -29709,13 +29709,13 @@
         <v>10</v>
       </c>
       <c r="O161" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P161" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="Q161" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="R161" t="n">
         <v>1.7</v>
@@ -29724,61 +29724,61 @@
         <v>1.4</v>
       </c>
       <c r="T161" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="U161" t="n">
         <v>1.7</v>
       </c>
       <c r="V161" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="W161" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="X161" t="n">
         <v>16</v>
       </c>
       <c r="Y161" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Z161" t="n">
         <v>40</v>
       </c>
       <c r="AA161" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB161" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC161" t="n">
         <v>8.75</v>
       </c>
       <c r="AD161" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AE161" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF161" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG161" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AH161" t="n">
         <v>7.6</v>
       </c>
       <c r="AI161" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AJ161" t="n">
         <v>9</v>
       </c>
       <c r="AK161" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL161" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM161" t="n">
         <v>29</v>
@@ -29787,25 +29787,25 @@
         <v>4.9</v>
       </c>
       <c r="AO161" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AP161" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ161" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AR161" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS161" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT161" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="AU161" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AV161" t="n">
         <v>55</v>
@@ -29814,10 +29814,10 @@
         <v>81</v>
       </c>
       <c r="AX161" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="AY161" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AZ161" t="n">
         <v>19.5</v>
@@ -29870,10 +29870,10 @@
         <v>2.7</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I162" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J162" t="n">
         <v>3.6</v>
@@ -29885,10 +29885,10 @@
         <v>3.75</v>
       </c>
       <c r="M162" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N162" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="O162" t="n">
         <v>1.57</v>
@@ -29897,10 +29897,10 @@
         <v>2.25</v>
       </c>
       <c r="Q162" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R162" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S162" t="n">
         <v>1.62</v>
@@ -29921,7 +29921,7 @@
         <v>11</v>
       </c>
       <c r="Y162" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z162" t="n">
         <v>29</v>
@@ -29933,13 +29933,13 @@
         <v>41</v>
       </c>
       <c r="AC162" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD162" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE162" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF162" t="n">
         <v>81</v>
@@ -30061,22 +30061,22 @@
         <v>4</v>
       </c>
       <c r="K163" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L163" t="n">
         <v>3.1</v>
       </c>
       <c r="M163" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N163" t="n">
         <v>7</v>
       </c>
       <c r="O163" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="P163" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q163" t="n">
         <v>2.4</v>
@@ -30166,7 +30166,7 @@
         <v>301</v>
       </c>
       <c r="AT163" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="AU163" t="n">
         <v>9</v>
@@ -30237,7 +30237,7 @@
         <v>4.33</v>
       </c>
       <c r="I164" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="J164" t="n">
         <v>7.5</v>
@@ -30246,16 +30246,16 @@
         <v>2.5</v>
       </c>
       <c r="L164" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="M164" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N164" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O164" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="P164" t="n">
         <v>4.33</v>
@@ -30431,13 +30431,13 @@
         <v>4</v>
       </c>
       <c r="M165" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N165" t="n">
         <v>9</v>
       </c>
       <c r="O165" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P165" t="n">
         <v>3</v>
@@ -30530,7 +30530,7 @@
         <v>201</v>
       </c>
       <c r="AT165" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU165" t="n">
         <v>8.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-20.xlsx
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K3" t="n">
         <v>2.63</v>
@@ -953,10 +953,10 @@
         <v>23</v>
       </c>
       <c r="O3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q3" t="n">
         <v>1.4</v>
@@ -1013,10 +1013,10 @@
         <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK3" t="n">
         <v>51</v>
@@ -1031,13 +1031,13 @@
         <v>4.33</v>
       </c>
       <c r="AO3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP3" t="n">
         <v>13</v>
       </c>
       <c r="AQ3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR3" t="n">
         <v>34</v>
@@ -1058,7 +1058,7 @@
         <v>251</v>
       </c>
       <c r="AX3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY3" t="n">
         <v>21</v>
@@ -1067,16 +1067,16 @@
         <v>21</v>
       </c>
       <c r="BA3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC3" t="n">
         <v>101</v>
       </c>
       <c r="BD3" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4">
@@ -1311,13 +1311,13 @@
         <v>2.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
         <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P5" t="n">
         <v>4.33</v>
@@ -1493,13 +1493,13 @@
         <v>3.2</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
         <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
         <v>3.2</v>
@@ -1601,7 +1601,7 @@
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AX6" t="n">
         <v>4.5</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H7" t="n">
         <v>4.1</v>
       </c>
       <c r="I7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J7" t="n">
         <v>2</v>
@@ -1672,40 +1672,40 @@
         <v>2.3</v>
       </c>
       <c r="L7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
         <v>10</v>
       </c>
       <c r="O7" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P7" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="R7" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S7" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V7" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X7" t="n">
         <v>6.5</v>
@@ -1714,7 +1714,7 @@
         <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA7" t="n">
         <v>13</v>
@@ -1723,7 +1723,7 @@
         <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD7" t="n">
         <v>7.5</v>
@@ -1738,7 +1738,7 @@
         <v>401</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
         <v>41</v>
@@ -1756,10 +1756,10 @@
         <v>51</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP7" t="n">
         <v>21</v>
@@ -1768,28 +1768,28 @@
         <v>21</v>
       </c>
       <c r="AR7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS7" t="n">
         <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV7" t="n">
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AX7" t="n">
         <v>8</v>
       </c>
       <c r="AY7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ7" t="n">
         <v>41</v>
@@ -1804,7 +1804,7 @@
         <v>351</v>
       </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
@@ -1842,19 +1842,19 @@
         <v>4.5</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K8" t="n">
         <v>2.5</v>
       </c>
       <c r="L8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1869,10 +1869,10 @@
         <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="R8" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="S8" t="n">
         <v>1.25</v>
@@ -1887,10 +1887,10 @@
         <v>2.38</v>
       </c>
       <c r="W8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y8" t="n">
         <v>15</v>
@@ -1899,7 +1899,7 @@
         <v>51</v>
       </c>
       <c r="AA8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB8" t="n">
         <v>29</v>
@@ -1977,7 +1977,7 @@
         <v>15</v>
       </c>
       <c r="BA8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BB8" t="n">
         <v>41</v>
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H10" t="n">
         <v>3.75</v>
@@ -2263,10 +2263,10 @@
         <v>19</v>
       </c>
       <c r="AA10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="n">
         <v>17</v>
@@ -2344,7 +2344,7 @@
         <v>51</v>
       </c>
       <c r="BB10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC10" t="n">
         <v>126</v>
@@ -2931,16 +2931,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H14" t="n">
         <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K14" t="n">
         <v>2.05</v>
@@ -2988,13 +2988,13 @@
         <v>9.5</v>
       </c>
       <c r="Z14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA14" t="n">
         <v>21</v>
       </c>
-      <c r="AA14" t="n">
-        <v>19</v>
-      </c>
       <c r="AB14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC14" t="n">
         <v>8</v>
@@ -3009,13 +3009,13 @@
         <v>51</v>
       </c>
       <c r="AG14" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH14" t="n">
         <v>9.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="n">
         <v>12</v>
@@ -3063,7 +3063,7 @@
         <v>5</v>
       </c>
       <c r="AY14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ14" t="n">
         <v>29</v>
@@ -3078,7 +3078,7 @@
         <v>201</v>
       </c>
       <c r="BD14" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
@@ -3119,7 +3119,7 @@
         <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J15" t="n">
         <v>4.5</v>
@@ -3143,10 +3143,10 @@
         <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="R15" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="S15" t="n">
         <v>1.36</v>
@@ -3206,7 +3206,7 @@
         <v>15</v>
       </c>
       <c r="AL15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM15" t="n">
         <v>23</v>
@@ -3233,7 +3233,7 @@
         <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
@@ -4387,16 +4387,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H22" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K22" t="n">
         <v>2.1</v>
@@ -4405,22 +4405,22 @@
         <v>5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R22" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S22" t="n">
         <v>1.44</v>
@@ -4429,49 +4429,49 @@
         <v>2.63</v>
       </c>
       <c r="U22" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V22" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X22" t="n">
         <v>7.5</v>
       </c>
       <c r="Y22" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC22" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG22" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AH22" t="n">
         <v>11</v>
       </c>
       <c r="AI22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ22" t="n">
         <v>15</v>
@@ -4489,10 +4489,10 @@
         <v>3.6</v>
       </c>
       <c r="AO22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ22" t="n">
         <v>34</v>
@@ -4501,22 +4501,22 @@
         <v>51</v>
       </c>
       <c r="AS22" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT22" t="n">
         <v>2.63</v>
       </c>
       <c r="AU22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW22" t="n">
         <v>501</v>
       </c>
       <c r="AX22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AY22" t="n">
         <v>26</v>
@@ -4531,7 +4531,7 @@
         <v>126</v>
       </c>
       <c r="BC22" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD22" t="n">
         <v>151</v>
@@ -4951,22 +4951,22 @@
         <v>4.75</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P25" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R25" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S25" t="n">
         <v>1.57</v>
@@ -5315,16 +5315,16 @@
         <v>4.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N27" t="n">
         <v>7</v>
       </c>
       <c r="O27" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P27" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Q27" t="n">
         <v>2.7</v>
@@ -5512,7 +5512,7 @@
         <v>2.6</v>
       </c>
       <c r="R28" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S28" t="n">
         <v>1.57</v>
@@ -7117,22 +7117,22 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="H37" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I37" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="J37" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K37" t="n">
         <v>2.05</v>
       </c>
       <c r="L37" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M37" t="n">
         <v>1.07</v>
@@ -7141,16 +7141,16 @@
         <v>9</v>
       </c>
       <c r="O37" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P37" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R37" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="S37" t="n">
         <v>1.5</v>
@@ -7159,31 +7159,31 @@
         <v>2.5</v>
       </c>
       <c r="U37" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V37" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W37" t="n">
         <v>8</v>
       </c>
       <c r="X37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y37" t="n">
         <v>11</v>
       </c>
       <c r="Z37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA37" t="n">
         <v>26</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>23</v>
       </c>
       <c r="AB37" t="n">
         <v>34</v>
       </c>
       <c r="AC37" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD37" t="n">
         <v>6</v>
@@ -7201,16 +7201,16 @@
         <v>7.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ37" t="n">
         <v>10</v>
       </c>
       <c r="AK37" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL37" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM37" t="n">
         <v>34</v>
@@ -7219,10 +7219,10 @@
         <v>4.75</v>
       </c>
       <c r="AO37" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP37" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ37" t="n">
         <v>51</v>
@@ -7258,13 +7258,13 @@
         <v>51</v>
       </c>
       <c r="BB37" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC37" t="n">
         <v>201</v>
       </c>
       <c r="BD37" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38">
@@ -7299,16 +7299,16 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H38" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I38" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J38" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K38" t="n">
         <v>2.38</v>
@@ -7329,22 +7329,22 @@
         <v>4.33</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="R38" t="n">
         <v>2.15</v>
       </c>
       <c r="S38" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T38" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U38" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="V38" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W38" t="n">
         <v>8.5</v>
@@ -7368,7 +7368,7 @@
         <v>15</v>
       </c>
       <c r="AD38" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE38" t="n">
         <v>15</v>
@@ -7383,7 +7383,7 @@
         <v>15</v>
       </c>
       <c r="AI38" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ38" t="n">
         <v>15</v>
@@ -7416,7 +7416,7 @@
         <v>101</v>
       </c>
       <c r="AT38" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU38" t="n">
         <v>7.5</v>
@@ -7434,7 +7434,7 @@
         <v>23</v>
       </c>
       <c r="AZ38" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA38" t="n">
         <v>81</v>
@@ -7875,10 +7875,10 @@
         <v>3.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="R41" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="S41" t="n">
         <v>1.4</v>
@@ -8227,10 +8227,10 @@
         <v>3.5</v>
       </c>
       <c r="M43" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O43" t="n">
         <v>1.25</v>
@@ -8579,7 +8579,7 @@
         <v>3.6</v>
       </c>
       <c r="I45" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="J45" t="n">
         <v>5</v>
@@ -8588,7 +8588,7 @@
         <v>2.2</v>
       </c>
       <c r="L45" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M45" t="n">
         <v>1.06</v>
@@ -8642,10 +8642,10 @@
         <v>10</v>
       </c>
       <c r="AD45" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE45" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF45" t="n">
         <v>51</v>
@@ -8702,7 +8702,7 @@
         <v>126</v>
       </c>
       <c r="AX45" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AY45" t="n">
         <v>9</v>
@@ -8937,13 +8937,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H47" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I47" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J47" t="n">
         <v>3.4</v>
@@ -8952,7 +8952,7 @@
         <v>1.83</v>
       </c>
       <c r="L47" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M47" t="n">
         <v>1.13</v>
@@ -8961,31 +8961,31 @@
         <v>6</v>
       </c>
       <c r="O47" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S47" t="n">
         <v>1.62</v>
       </c>
-      <c r="P47" t="n">
+      <c r="T47" t="n">
         <v>2.2</v>
       </c>
-      <c r="Q47" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S47" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T47" t="n">
-        <v>2.1</v>
-      </c>
       <c r="U47" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V47" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W47" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X47" t="n">
         <v>10</v>
@@ -9003,7 +9003,7 @@
         <v>41</v>
       </c>
       <c r="AC47" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD47" t="n">
         <v>6</v>
@@ -9021,7 +9021,7 @@
         <v>7</v>
       </c>
       <c r="AI47" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ47" t="n">
         <v>13</v>
@@ -9033,7 +9033,7 @@
         <v>34</v>
       </c>
       <c r="AM47" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN47" t="n">
         <v>4.33</v>
@@ -9054,10 +9054,10 @@
         <v>351</v>
       </c>
       <c r="AT47" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AU47" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV47" t="n">
         <v>81</v>
@@ -9066,16 +9066,16 @@
         <v>81</v>
       </c>
       <c r="AX47" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY47" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ47" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA47" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB47" t="n">
         <v>126</v>
@@ -9119,16 +9119,16 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H48" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I48" t="n">
         <v>8</v>
       </c>
       <c r="J48" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K48" t="n">
         <v>2.1</v>
@@ -9149,10 +9149,10 @@
         <v>2.75</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R48" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S48" t="n">
         <v>1.5</v>
@@ -9161,10 +9161,10 @@
         <v>2.5</v>
       </c>
       <c r="U48" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V48" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="W48" t="n">
         <v>5</v>
@@ -9200,13 +9200,13 @@
         <v>201</v>
       </c>
       <c r="AH48" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI48" t="n">
         <v>41</v>
       </c>
       <c r="AJ48" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK48" t="n">
         <v>101</v>
@@ -9218,7 +9218,7 @@
         <v>81</v>
       </c>
       <c r="AN48" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AO48" t="n">
         <v>7.5</v>
@@ -9257,7 +9257,7 @@
         <v>51</v>
       </c>
       <c r="BA48" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB48" t="n">
         <v>301</v>
@@ -9483,79 +9483,79 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H50" t="n">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="I50" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="J50" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K50" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="L50" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="M50" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N50" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O50" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P50" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="R50" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S50" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T50" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U50" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V50" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="W50" t="n">
+        <v>26</v>
+      </c>
+      <c r="X50" t="n">
+        <v>67</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>301</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>151</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>151</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE50" t="n">
         <v>34</v>
-      </c>
-      <c r="X50" t="n">
-        <v>101</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>51</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>351</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>201</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>201</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>41</v>
       </c>
       <c r="AF50" t="n">
         <v>151</v>
@@ -9564,16 +9564,16 @@
         <v>201</v>
       </c>
       <c r="AH50" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI50" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AJ50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK50" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AL50" t="n">
         <v>15</v>
@@ -9582,13 +9582,13 @@
         <v>41</v>
       </c>
       <c r="AN50" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AO50" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AP50" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AQ50" t="n">
         <v>501</v>
@@ -9600,10 +9600,10 @@
         <v>501</v>
       </c>
       <c r="AT50" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU50" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV50" t="n">
         <v>101</v>
@@ -9615,16 +9615,16 @@
         <v>2.88</v>
       </c>
       <c r="AY50" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AZ50" t="n">
         <v>23</v>
       </c>
       <c r="BA50" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BB50" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BC50" t="n">
         <v>251</v>
@@ -9665,22 +9665,22 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H51" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I51" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="J51" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K51" t="n">
         <v>2.05</v>
       </c>
       <c r="L51" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M51" t="n">
         <v>1.08</v>
@@ -9701,10 +9701,10 @@
         <v>1.62</v>
       </c>
       <c r="S51" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T51" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U51" t="n">
         <v>2</v>
@@ -9713,7 +9713,7 @@
         <v>1.73</v>
       </c>
       <c r="W51" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X51" t="n">
         <v>21</v>
@@ -9722,7 +9722,7 @@
         <v>15</v>
       </c>
       <c r="Z51" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA51" t="n">
         <v>41</v>
@@ -9734,28 +9734,28 @@
         <v>8</v>
       </c>
       <c r="AD51" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE51" t="n">
         <v>17</v>
       </c>
       <c r="AF51" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG51" t="n">
         <v>351</v>
       </c>
       <c r="AH51" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI51" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ51" t="n">
         <v>9</v>
       </c>
       <c r="AK51" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL51" t="n">
         <v>17</v>
@@ -9767,7 +9767,7 @@
         <v>6</v>
       </c>
       <c r="AO51" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP51" t="n">
         <v>34</v>
@@ -9776,16 +9776,16 @@
         <v>81</v>
       </c>
       <c r="AR51" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS51" t="n">
         <v>301</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU51" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV51" t="n">
         <v>67</v>
@@ -9797,16 +9797,16 @@
         <v>3.75</v>
       </c>
       <c r="AY51" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ51" t="n">
         <v>23</v>
       </c>
       <c r="BA51" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB51" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC51" t="n">
         <v>201</v>
@@ -10029,22 +10029,22 @@
         </is>
       </c>
       <c r="G53" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H53" t="n">
         <v>3.6</v>
       </c>
-      <c r="H53" t="n">
-        <v>3.5</v>
-      </c>
       <c r="I53" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="J53" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K53" t="n">
         <v>2.3</v>
       </c>
       <c r="L53" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M53" t="n">
         <v>1.04</v>
@@ -10077,7 +10077,7 @@
         <v>2.25</v>
       </c>
       <c r="W53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X53" t="n">
         <v>21</v>
@@ -10089,7 +10089,7 @@
         <v>41</v>
       </c>
       <c r="AA53" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB53" t="n">
         <v>29</v>
@@ -10113,10 +10113,10 @@
         <v>9.5</v>
       </c>
       <c r="AI53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ53" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK53" t="n">
         <v>17</v>
@@ -10128,7 +10128,7 @@
         <v>21</v>
       </c>
       <c r="AN53" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO53" t="n">
         <v>19</v>
@@ -10143,7 +10143,7 @@
         <v>67</v>
       </c>
       <c r="AS53" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT53" t="n">
         <v>3.4</v>
@@ -10158,19 +10158,19 @@
         <v>126</v>
       </c>
       <c r="AX53" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AY53" t="n">
         <v>10</v>
       </c>
       <c r="AZ53" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA53" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BB53" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BC53" t="n">
         <v>101</v>
@@ -10211,28 +10211,28 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H54" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I54" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J54" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="K54" t="n">
         <v>2.2</v>
       </c>
       <c r="L54" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M54" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N54" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O54" t="n">
         <v>1.29</v>
@@ -10253,22 +10253,22 @@
         <v>2.75</v>
       </c>
       <c r="U54" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V54" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W54" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X54" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y54" t="n">
         <v>8.5</v>
       </c>
       <c r="Z54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA54" t="n">
         <v>15</v>
@@ -10280,7 +10280,7 @@
         <v>10</v>
       </c>
       <c r="AD54" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE54" t="n">
         <v>15</v>
@@ -10289,19 +10289,19 @@
         <v>51</v>
       </c>
       <c r="AG54" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI54" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK54" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL54" t="n">
         <v>34</v>
@@ -10310,16 +10310,16 @@
         <v>41</v>
       </c>
       <c r="AN54" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO54" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP54" t="n">
         <v>21</v>
       </c>
       <c r="AQ54" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR54" t="n">
         <v>51</v>
@@ -10343,16 +10343,16 @@
         <v>6</v>
       </c>
       <c r="AY54" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ54" t="n">
         <v>29</v>
       </c>
       <c r="BA54" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB54" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC54" t="n">
         <v>201</v>
@@ -10393,22 +10393,22 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="H55" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I55" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J55" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="K55" t="n">
         <v>2.5</v>
       </c>
       <c r="L55" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M55" t="n">
         <v>1.03</v>
@@ -10423,10 +10423,10 @@
         <v>4.5</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R55" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S55" t="n">
         <v>1.29</v>
@@ -10435,16 +10435,16 @@
         <v>3.5</v>
       </c>
       <c r="U55" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="V55" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W55" t="n">
         <v>8.5</v>
       </c>
       <c r="X55" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y55" t="n">
         <v>8.5</v>
@@ -10453,7 +10453,7 @@
         <v>11</v>
       </c>
       <c r="AA55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB55" t="n">
         <v>21</v>
@@ -10462,7 +10462,7 @@
         <v>15</v>
       </c>
       <c r="AD55" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE55" t="n">
         <v>15</v>
@@ -10471,16 +10471,16 @@
         <v>41</v>
       </c>
       <c r="AG55" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH55" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI55" t="n">
         <v>34</v>
       </c>
       <c r="AJ55" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK55" t="n">
         <v>67</v>
@@ -10492,10 +10492,10 @@
         <v>41</v>
       </c>
       <c r="AN55" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO55" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP55" t="n">
         <v>17</v>
@@ -10528,16 +10528,16 @@
         <v>29</v>
       </c>
       <c r="AZ55" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA55" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB55" t="n">
         <v>101</v>
       </c>
       <c r="BC55" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD55" t="n">
         <v>151</v>
@@ -10617,7 +10617,7 @@
         <v>3</v>
       </c>
       <c r="U56" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V56" t="n">
         <v>2.1</v>
@@ -10701,7 +10701,7 @@
         <v>51</v>
       </c>
       <c r="AW56" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX56" t="n">
         <v>4</v>
@@ -11139,16 +11139,16 @@
         <v>3.1</v>
       </c>
       <c r="M59" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N59" t="n">
         <v>6</v>
       </c>
       <c r="O59" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P59" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Q59" t="n">
         <v>2.7</v>
@@ -11303,7 +11303,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H60" t="n">
         <v>3.3</v>
@@ -11333,10 +11333,10 @@
         <v>2.63</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R60" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S60" t="n">
         <v>1.53</v>
@@ -11360,7 +11360,7 @@
         <v>9.5</v>
       </c>
       <c r="Z60" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA60" t="n">
         <v>17</v>
@@ -11390,7 +11390,7 @@
         <v>26</v>
       </c>
       <c r="AJ60" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK60" t="n">
         <v>67</v>
@@ -11399,10 +11399,10 @@
         <v>51</v>
       </c>
       <c r="AM60" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN60" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO60" t="n">
         <v>9.5</v>
@@ -11441,7 +11441,7 @@
         <v>41</v>
       </c>
       <c r="BA60" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB60" t="n">
         <v>201</v>
@@ -11894,7 +11894,7 @@
         <v>2.1</v>
       </c>
       <c r="V63" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W63" t="n">
         <v>6</v>
@@ -11966,7 +11966,7 @@
         <v>151</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU63" t="n">
         <v>9</v>
@@ -12577,22 +12577,22 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="H67" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I67" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="J67" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="K67" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L67" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="M67" t="n">
         <v>1.04</v>
@@ -12607,10 +12607,10 @@
         <v>3.75</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R67" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S67" t="n">
         <v>1.36</v>
@@ -12619,22 +12619,22 @@
         <v>3</v>
       </c>
       <c r="U67" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V67" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W67" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X67" t="n">
         <v>34</v>
       </c>
       <c r="Y67" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z67" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AA67" t="n">
         <v>51</v>
@@ -12646,46 +12646,46 @@
         <v>11</v>
       </c>
       <c r="AD67" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE67" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF67" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG67" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH67" t="n">
         <v>6.5</v>
       </c>
       <c r="AI67" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AJ67" t="n">
         <v>8.5</v>
       </c>
       <c r="AK67" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AL67" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM67" t="n">
         <v>29</v>
       </c>
       <c r="AN67" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AO67" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP67" t="n">
         <v>41</v>
       </c>
       <c r="AQ67" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AR67" t="n">
         <v>151</v>
@@ -12709,13 +12709,13 @@
         <v>3.4</v>
       </c>
       <c r="AY67" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AZ67" t="n">
         <v>19</v>
       </c>
       <c r="BA67" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB67" t="n">
         <v>41</v>
@@ -13305,22 +13305,22 @@
         </is>
       </c>
       <c r="G71" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="H71" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="J71" t="n">
         <v>5.5</v>
       </c>
-      <c r="H71" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="J71" t="n">
-        <v>5</v>
-      </c>
       <c r="K71" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L71" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="M71" t="n">
         <v>1.02</v>
@@ -13329,10 +13329,10 @@
         <v>19</v>
       </c>
       <c r="O71" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P71" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q71" t="n">
         <v>1.48</v>
@@ -13359,10 +13359,10 @@
         <v>34</v>
       </c>
       <c r="Y71" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z71" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AA71" t="n">
         <v>41</v>
@@ -13371,10 +13371,10 @@
         <v>34</v>
       </c>
       <c r="AC71" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD71" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE71" t="n">
         <v>15</v>
@@ -13404,13 +13404,13 @@
         <v>19</v>
       </c>
       <c r="AN71" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AO71" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP71" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ71" t="n">
         <v>81</v>
@@ -13437,13 +13437,13 @@
         <v>3.75</v>
       </c>
       <c r="AY71" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AZ71" t="n">
         <v>15</v>
       </c>
       <c r="BA71" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BB71" t="n">
         <v>34</v>
@@ -13669,22 +13669,22 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H73" t="n">
         <v>3</v>
       </c>
       <c r="I73" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="J73" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K73" t="n">
         <v>2</v>
       </c>
       <c r="L73" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M73" t="n">
         <v>1.08</v>
@@ -13702,7 +13702,7 @@
         <v>2.25</v>
       </c>
       <c r="R73" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S73" t="n">
         <v>1.5</v>
@@ -13717,19 +13717,19 @@
         <v>1.8</v>
       </c>
       <c r="W73" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X73" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y73" t="n">
         <v>9.5</v>
       </c>
       <c r="Z73" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA73" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB73" t="n">
         <v>34</v>
@@ -13750,10 +13750,10 @@
         <v>351</v>
       </c>
       <c r="AH73" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI73" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ73" t="n">
         <v>13</v>
@@ -13762,7 +13762,7 @@
         <v>41</v>
       </c>
       <c r="AL73" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM73" t="n">
         <v>41</v>
@@ -13771,7 +13771,7 @@
         <v>4</v>
       </c>
       <c r="AO73" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP73" t="n">
         <v>26</v>
@@ -13798,13 +13798,13 @@
         <v>51</v>
       </c>
       <c r="AX73" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY73" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ73" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA73" t="n">
         <v>67</v>
@@ -13851,16 +13851,16 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H74" t="n">
         <v>3.5</v>
       </c>
       <c r="I74" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J74" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K74" t="n">
         <v>2.1</v>
@@ -13869,10 +13869,10 @@
         <v>4.33</v>
       </c>
       <c r="M74" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N74" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O74" t="n">
         <v>1.36</v>
@@ -13884,7 +13884,7 @@
         <v>2.1</v>
       </c>
       <c r="R74" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S74" t="n">
         <v>1.44</v>
@@ -13899,7 +13899,7 @@
         <v>1.8</v>
       </c>
       <c r="W74" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X74" t="n">
         <v>9</v>
@@ -13920,7 +13920,7 @@
         <v>9</v>
       </c>
       <c r="AD74" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE74" t="n">
         <v>17</v>
@@ -13935,16 +13935,16 @@
         <v>9.5</v>
       </c>
       <c r="AI74" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ74" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK74" t="n">
         <v>41</v>
       </c>
       <c r="AL74" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM74" t="n">
         <v>41</v>
@@ -14057,16 +14057,16 @@
         <v>7</v>
       </c>
       <c r="O75" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P75" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R75" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S75" t="n">
         <v>1.53</v>
@@ -14078,7 +14078,7 @@
         <v>2.1</v>
       </c>
       <c r="V75" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W75" t="n">
         <v>5.5</v>
@@ -14150,7 +14150,7 @@
         <v>251</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="AU75" t="n">
         <v>9</v>
@@ -15692,7 +15692,7 @@
         <v>1.04</v>
       </c>
       <c r="N84" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O84" t="n">
         <v>1.22</v>
@@ -15701,10 +15701,10 @@
         <v>4</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="R84" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S84" t="n">
         <v>1.36</v>
@@ -16235,34 +16235,34 @@
         <v>8</v>
       </c>
       <c r="M87" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N87" t="n">
         <v>19</v>
       </c>
       <c r="O87" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="P87" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="R87" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S87" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T87" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U87" t="n">
         <v>2.1</v>
       </c>
       <c r="V87" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W87" t="n">
         <v>8</v>
@@ -16286,7 +16286,7 @@
         <v>17</v>
       </c>
       <c r="AD87" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE87" t="n">
         <v>26</v>
@@ -16298,13 +16298,13 @@
         <v>301</v>
       </c>
       <c r="AH87" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI87" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ87" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK87" t="n">
         <v>126</v>
@@ -16328,13 +16328,13 @@
         <v>13</v>
       </c>
       <c r="AR87" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS87" t="n">
         <v>126</v>
       </c>
       <c r="AT87" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU87" t="n">
         <v>10</v>
@@ -16349,7 +16349,7 @@
         <v>11</v>
       </c>
       <c r="AY87" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ87" t="n">
         <v>41</v>
@@ -16399,7 +16399,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="H88" t="n">
         <v>4.55</v>
@@ -16408,13 +16408,13 @@
         <v>1.6</v>
       </c>
       <c r="J88" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="K88" t="n">
         <v>2.75</v>
       </c>
       <c r="L88" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="M88" t="n">
         <v>1.01</v>
@@ -16447,7 +16447,7 @@
         <v>3.05</v>
       </c>
       <c r="W88" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X88" t="n">
         <v>40</v>
@@ -16456,13 +16456,13 @@
         <v>16</v>
       </c>
       <c r="Z88" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AA88" t="n">
         <v>32</v>
       </c>
       <c r="AB88" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC88" t="n">
         <v>37</v>
@@ -16480,7 +16480,7 @@
         <v>100</v>
       </c>
       <c r="AH88" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI88" t="n">
         <v>14</v>
@@ -16492,7 +16492,7 @@
         <v>16.5</v>
       </c>
       <c r="AL88" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AM88" t="n">
         <v>14.5</v>
@@ -16501,19 +16501,19 @@
         <v>7.4</v>
       </c>
       <c r="AO88" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP88" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ88" t="n">
         <v>80</v>
       </c>
       <c r="AR88" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AS88" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AT88" t="n">
         <v>4.45</v>
@@ -16522,25 +16522,25 @@
         <v>6.3</v>
       </c>
       <c r="AV88" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW88" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AX88" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="AY88" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AZ88" t="n">
         <v>10.75</v>
       </c>
       <c r="BA88" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="BB88" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC88" t="n">
         <v>70</v>
@@ -16581,13 +16581,13 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="H89" t="n">
         <v>3.8</v>
       </c>
       <c r="I89" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="J89" t="n">
         <v>2.57</v>
@@ -16608,7 +16608,7 @@
         <v>1.11</v>
       </c>
       <c r="P89" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q89" t="n">
         <v>1.36</v>
@@ -16629,13 +16629,13 @@
         <v>3</v>
       </c>
       <c r="W89" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="X89" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y89" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z89" t="n">
         <v>24</v>
@@ -16653,10 +16653,10 @@
         <v>9</v>
       </c>
       <c r="AE89" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AF89" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG89" t="n">
         <v>110</v>
@@ -16665,7 +16665,7 @@
         <v>19</v>
       </c>
       <c r="AI89" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ89" t="n">
         <v>11.25</v>
@@ -16680,16 +16680,16 @@
         <v>18.5</v>
       </c>
       <c r="AN89" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="AO89" t="n">
         <v>10.5</v>
       </c>
       <c r="AP89" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AQ89" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR89" t="n">
         <v>45</v>
@@ -16725,7 +16725,7 @@
         <v>55</v>
       </c>
       <c r="BC89" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BD89" t="n">
         <v>51</v>
@@ -16763,28 +16763,28 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H90" t="n">
         <v>3.25</v>
       </c>
       <c r="I90" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="J90" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K90" t="n">
         <v>2.05</v>
       </c>
       <c r="L90" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M90" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N90" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O90" t="n">
         <v>1.36</v>
@@ -16811,10 +16811,10 @@
         <v>1.83</v>
       </c>
       <c r="W90" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X90" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y90" t="n">
         <v>9.5</v>
@@ -16823,10 +16823,10 @@
         <v>21</v>
       </c>
       <c r="AA90" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB90" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC90" t="n">
         <v>9</v>
@@ -16835,13 +16835,13 @@
         <v>6.5</v>
       </c>
       <c r="AE90" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF90" t="n">
         <v>51</v>
       </c>
       <c r="AG90" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH90" t="n">
         <v>8.5</v>
@@ -16850,16 +16850,16 @@
         <v>15</v>
       </c>
       <c r="AJ90" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK90" t="n">
         <v>34</v>
       </c>
       <c r="AL90" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM90" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN90" t="n">
         <v>4.33</v>
@@ -16895,13 +16895,13 @@
         <v>5</v>
       </c>
       <c r="AY90" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ90" t="n">
         <v>29</v>
       </c>
       <c r="BA90" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB90" t="n">
         <v>81</v>
@@ -16951,7 +16951,7 @@
         <v>3.7</v>
       </c>
       <c r="I91" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="J91" t="n">
         <v>5</v>
@@ -16975,10 +16975,10 @@
         <v>3.5</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R91" t="n">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="S91" t="n">
         <v>1.36</v>
@@ -20221,16 +20221,16 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H109" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I109" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J109" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K109" t="n">
         <v>2.25</v>
@@ -20245,16 +20245,16 @@
         <v>11</v>
       </c>
       <c r="O109" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P109" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R109" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S109" t="n">
         <v>1.36</v>
@@ -20302,13 +20302,13 @@
         <v>251</v>
       </c>
       <c r="AH109" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI109" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ109" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK109" t="n">
         <v>51</v>
@@ -20320,16 +20320,16 @@
         <v>41</v>
       </c>
       <c r="AN109" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO109" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP109" t="n">
         <v>19</v>
       </c>
       <c r="AQ109" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR109" t="n">
         <v>51</v>
@@ -20341,7 +20341,7 @@
         <v>3</v>
       </c>
       <c r="AU109" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV109" t="n">
         <v>51</v>
@@ -20356,16 +20356,16 @@
         <v>26</v>
       </c>
       <c r="AZ109" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA109" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB109" t="n">
         <v>101</v>
       </c>
       <c r="BC109" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD109" t="n">
         <v>126</v>
@@ -20791,16 +20791,16 @@
         <v>6</v>
       </c>
       <c r="O112" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P112" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q112" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R112" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S112" t="n">
         <v>1.62</v>
@@ -20809,10 +20809,10 @@
         <v>2.2</v>
       </c>
       <c r="U112" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V112" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="W112" t="n">
         <v>5.5</v>
@@ -20827,7 +20827,7 @@
         <v>19</v>
       </c>
       <c r="AA112" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB112" t="n">
         <v>41</v>
@@ -21859,16 +21859,16 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H118" t="n">
         <v>3.4</v>
       </c>
       <c r="I118" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="J118" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K118" t="n">
         <v>2.2</v>
@@ -21883,16 +21883,16 @@
         <v>11</v>
       </c>
       <c r="O118" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P118" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q118" t="n">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="R118" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S118" t="n">
         <v>1.36</v>
@@ -21901,25 +21901,25 @@
         <v>3</v>
       </c>
       <c r="U118" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V118" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W118" t="n">
         <v>8</v>
       </c>
       <c r="X118" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y118" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z118" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA118" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB118" t="n">
         <v>26</v>
@@ -21940,19 +21940,19 @@
         <v>201</v>
       </c>
       <c r="AH118" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI118" t="n">
         <v>19</v>
       </c>
       <c r="AJ118" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK118" t="n">
         <v>41</v>
       </c>
       <c r="AL118" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM118" t="n">
         <v>34</v>
@@ -21997,7 +21997,7 @@
         <v>26</v>
       </c>
       <c r="BA118" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB118" t="n">
         <v>81</v>
@@ -22047,7 +22047,7 @@
         <v>3.9</v>
       </c>
       <c r="I119" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="J119" t="n">
         <v>6</v>
@@ -22253,10 +22253,10 @@
         <v>2.75</v>
       </c>
       <c r="Q120" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R120" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S120" t="n">
         <v>1.5</v>
@@ -23679,28 +23679,28 @@
         </is>
       </c>
       <c r="G128" t="n">
+        <v>4</v>
+      </c>
+      <c r="H128" t="n">
         <v>3.5</v>
       </c>
-      <c r="H128" t="n">
-        <v>3.4</v>
-      </c>
       <c r="I128" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="J128" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K128" t="n">
         <v>2.1</v>
       </c>
       <c r="L128" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="M128" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N128" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O128" t="n">
         <v>1.33</v>
@@ -23727,25 +23727,25 @@
         <v>1.83</v>
       </c>
       <c r="W128" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X128" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y128" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z128" t="n">
         <v>41</v>
       </c>
       <c r="AA128" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB128" t="n">
         <v>41</v>
       </c>
       <c r="AC128" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD128" t="n">
         <v>6.5</v>
@@ -23763,13 +23763,13 @@
         <v>7</v>
       </c>
       <c r="AI128" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AJ128" t="n">
         <v>9</v>
       </c>
       <c r="AK128" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AL128" t="n">
         <v>17</v>
@@ -23778,7 +23778,7 @@
         <v>29</v>
       </c>
       <c r="AN128" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO128" t="n">
         <v>21</v>
@@ -23787,16 +23787,16 @@
         <v>29</v>
       </c>
       <c r="AQ128" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR128" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS128" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT128" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU128" t="n">
         <v>8</v>
@@ -23811,13 +23811,13 @@
         <v>4</v>
       </c>
       <c r="AY128" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ128" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA128" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB128" t="n">
         <v>51</v>
@@ -24225,10 +24225,10 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H131" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I131" t="n">
         <v>4.5</v>
@@ -24243,22 +24243,22 @@
         <v>5</v>
       </c>
       <c r="M131" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N131" t="n">
         <v>8.5</v>
       </c>
       <c r="O131" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P131" t="n">
         <v>3.5</v>
       </c>
       <c r="Q131" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R131" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S131" t="n">
         <v>1.4</v>
@@ -24267,22 +24267,22 @@
         <v>2.75</v>
       </c>
       <c r="U131" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V131" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W131" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X131" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y131" t="n">
         <v>9</v>
       </c>
       <c r="Z131" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA131" t="n">
         <v>15</v>
@@ -24312,7 +24312,7 @@
         <v>23</v>
       </c>
       <c r="AJ131" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK131" t="n">
         <v>51</v>
@@ -24324,7 +24324,7 @@
         <v>41</v>
       </c>
       <c r="AN131" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO131" t="n">
         <v>9</v>
@@ -24366,7 +24366,7 @@
         <v>81</v>
       </c>
       <c r="BB131" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC131" t="n">
         <v>500</v>
@@ -26227,28 +26227,28 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.96</v>
+        <v>2.15</v>
       </c>
       <c r="H142" t="n">
         <v>3.2</v>
       </c>
       <c r="I142" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="J142" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="K142" t="n">
         <v>2</v>
       </c>
       <c r="L142" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M142" t="n">
         <v>1.08</v>
       </c>
       <c r="N142" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O142" t="n">
         <v>1.4</v>
@@ -26260,7 +26260,7 @@
         <v>2.3</v>
       </c>
       <c r="R142" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S142" t="n">
         <v>1.5</v>
@@ -26275,16 +26275,16 @@
         <v>1.73</v>
       </c>
       <c r="W142" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X142" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y142" t="n">
         <v>9.5</v>
       </c>
       <c r="Z142" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA142" t="n">
         <v>19</v>
@@ -26308,10 +26308,10 @@
         <v>301</v>
       </c>
       <c r="AH142" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI142" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ142" t="n">
         <v>13</v>
@@ -26365,13 +26365,13 @@
         <v>34</v>
       </c>
       <c r="BA142" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB142" t="n">
         <v>101</v>
       </c>
       <c r="BC142" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD142" t="n">
         <v>81</v>
@@ -26409,7 +26409,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="H143" t="n">
         <v>3.5</v>
@@ -26418,7 +26418,7 @@
         <v>3.6</v>
       </c>
       <c r="J143" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="K143" t="n">
         <v>2.2</v>
@@ -28253,16 +28253,16 @@
         <v>10</v>
       </c>
       <c r="O153" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P153" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q153" t="n">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="R153" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="S153" t="n">
         <v>1.4</v>
@@ -28411,22 +28411,22 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H154" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I154" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="J154" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K154" t="n">
         <v>2.2</v>
       </c>
       <c r="L154" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M154" t="n">
         <v>1.05</v>
@@ -28441,10 +28441,10 @@
         <v>3.5</v>
       </c>
       <c r="Q154" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="R154" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="S154" t="n">
         <v>1.4</v>
@@ -28453,19 +28453,19 @@
         <v>2.75</v>
       </c>
       <c r="U154" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V154" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W154" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X154" t="n">
         <v>21</v>
       </c>
       <c r="Y154" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z154" t="n">
         <v>41</v>
@@ -28492,16 +28492,16 @@
         <v>251</v>
       </c>
       <c r="AH154" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI154" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ154" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK154" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL154" t="n">
         <v>15</v>
@@ -28510,19 +28510,19 @@
         <v>26</v>
       </c>
       <c r="AN154" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO154" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP154" t="n">
         <v>29</v>
       </c>
       <c r="AQ154" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR154" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS154" t="n">
         <v>201</v>
@@ -28540,7 +28540,7 @@
         <v>276</v>
       </c>
       <c r="AX154" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AY154" t="n">
         <v>10</v>
@@ -29139,28 +29139,28 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H158" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I158" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="J158" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K158" t="n">
         <v>2.2</v>
       </c>
       <c r="L158" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M158" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N158" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O158" t="n">
         <v>1.29</v>
@@ -29181,13 +29181,13 @@
         <v>2.75</v>
       </c>
       <c r="U158" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V158" t="n">
         <v>2</v>
       </c>
       <c r="W158" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X158" t="n">
         <v>15</v>
@@ -29202,13 +29202,13 @@
         <v>23</v>
       </c>
       <c r="AB158" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC158" t="n">
         <v>10</v>
       </c>
       <c r="AD158" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE158" t="n">
         <v>13</v>
@@ -29226,7 +29226,7 @@
         <v>12</v>
       </c>
       <c r="AJ158" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK158" t="n">
         <v>23</v>
@@ -29241,7 +29241,7 @@
         <v>5</v>
       </c>
       <c r="AO158" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP158" t="n">
         <v>23</v>
@@ -30061,22 +30061,22 @@
         <v>4</v>
       </c>
       <c r="K163" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L163" t="n">
         <v>3.1</v>
       </c>
       <c r="M163" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N163" t="n">
         <v>7</v>
       </c>
       <c r="O163" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="P163" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q163" t="n">
         <v>2.4</v>
@@ -30166,7 +30166,7 @@
         <v>301</v>
       </c>
       <c r="AT163" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="AU163" t="n">
         <v>9</v>
@@ -30231,13 +30231,13 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="H164" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I164" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="J164" t="n">
         <v>7.5</v>
@@ -30246,16 +30246,16 @@
         <v>2.5</v>
       </c>
       <c r="L164" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="M164" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N164" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O164" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="P164" t="n">
         <v>4.33</v>
@@ -30273,10 +30273,10 @@
         <v>3.4</v>
       </c>
       <c r="U164" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V164" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W164" t="n">
         <v>21</v>
@@ -30300,34 +30300,34 @@
         <v>12</v>
       </c>
       <c r="AD164" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE164" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF164" t="n">
         <v>51</v>
       </c>
       <c r="AG164" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH164" t="n">
         <v>7.5</v>
       </c>
       <c r="AI164" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AJ164" t="n">
         <v>9</v>
       </c>
       <c r="AK164" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AL164" t="n">
         <v>12</v>
       </c>
       <c r="AM164" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN164" t="n">
         <v>9</v>
@@ -30360,7 +30360,7 @@
         <v>51</v>
       </c>
       <c r="AX164" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AY164" t="n">
         <v>6.5</v>
@@ -30431,13 +30431,13 @@
         <v>4</v>
       </c>
       <c r="M165" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N165" t="n">
         <v>9</v>
       </c>
       <c r="O165" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P165" t="n">
         <v>3</v>
@@ -30530,7 +30530,7 @@
         <v>201</v>
       </c>
       <c r="AT165" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU165" t="n">
         <v>8.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-20.xlsx
@@ -1863,16 +1863,16 @@
         <v>17</v>
       </c>
       <c r="O8" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R8" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="S8" t="n">
         <v>1.25</v>
@@ -1881,10 +1881,10 @@
         <v>3.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V8" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W8" t="n">
         <v>19</v>
@@ -1965,7 +1965,7 @@
         <v>41</v>
       </c>
       <c r="AW8" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AX8" t="n">
         <v>4</v>
@@ -3113,22 +3113,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="H15" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="J15" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K15" t="n">
         <v>2.25</v>
       </c>
       <c r="L15" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -3143,10 +3143,10 @@
         <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="R15" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="S15" t="n">
         <v>1.36</v>
@@ -3164,7 +3164,7 @@
         <v>13</v>
       </c>
       <c r="X15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y15" t="n">
         <v>15</v>
@@ -3176,13 +3176,13 @@
         <v>34</v>
       </c>
       <c r="AB15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE15" t="n">
         <v>13</v>
@@ -3197,7 +3197,7 @@
         <v>8</v>
       </c>
       <c r="AI15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ15" t="n">
         <v>8.5</v>
@@ -3206,7 +3206,7 @@
         <v>15</v>
       </c>
       <c r="AL15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM15" t="n">
         <v>23</v>
@@ -3233,7 +3233,7 @@
         <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
@@ -3245,13 +3245,13 @@
         <v>4</v>
       </c>
       <c r="AY15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AZ15" t="n">
         <v>19</v>
       </c>
       <c r="BA15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BB15" t="n">
         <v>51</v>
@@ -4405,10 +4405,10 @@
         <v>5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
         <v>1.4</v>
@@ -4417,10 +4417,10 @@
         <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R22" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S22" t="n">
         <v>1.44</v>
@@ -4504,7 +4504,7 @@
         <v>201</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU22" t="n">
         <v>9</v>
@@ -4569,22 +4569,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H23" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="I23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J23" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K23" t="n">
         <v>2.88</v>
       </c>
       <c r="L23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M23" t="n">
         <v>1.02</v>
@@ -4593,10 +4593,10 @@
         <v>21</v>
       </c>
       <c r="O23" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q23" t="n">
         <v>1.4</v>
@@ -4605,19 +4605,19 @@
         <v>3</v>
       </c>
       <c r="S23" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="T23" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="U23" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V23" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X23" t="n">
         <v>8</v>
@@ -4626,7 +4626,7 @@
         <v>9</v>
       </c>
       <c r="Z23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA23" t="n">
         <v>10</v>
@@ -4635,7 +4635,7 @@
         <v>21</v>
       </c>
       <c r="AC23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD23" t="n">
         <v>12</v>
@@ -4650,7 +4650,7 @@
         <v>151</v>
       </c>
       <c r="AH23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI23" t="n">
         <v>41</v>
@@ -4674,10 +4674,10 @@
         <v>6</v>
       </c>
       <c r="AP23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR23" t="n">
         <v>29</v>
@@ -4686,7 +4686,7 @@
         <v>81</v>
       </c>
       <c r="AT23" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AU23" t="n">
         <v>8.5</v>
@@ -4698,7 +4698,7 @@
         <v>401</v>
       </c>
       <c r="AX23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AY23" t="n">
         <v>41</v>
@@ -4707,13 +4707,13 @@
         <v>34</v>
       </c>
       <c r="BA23" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB23" t="n">
         <v>126</v>
       </c>
       <c r="BC23" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD23" t="n">
         <v>151</v>
@@ -4751,16 +4751,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H24" t="n">
         <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J24" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K24" t="n">
         <v>1.91</v>
@@ -4769,22 +4769,22 @@
         <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O24" t="n">
         <v>1.5</v>
       </c>
       <c r="P24" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="R24" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S24" t="n">
         <v>1.57</v>
@@ -4793,22 +4793,22 @@
         <v>2.25</v>
       </c>
       <c r="U24" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V24" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W24" t="n">
         <v>6</v>
       </c>
       <c r="X24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y24" t="n">
         <v>10</v>
       </c>
       <c r="Z24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA24" t="n">
         <v>23</v>
@@ -4826,10 +4826,10 @@
         <v>19</v>
       </c>
       <c r="AF24" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG24" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AH24" t="n">
         <v>7.5</v>
@@ -4838,13 +4838,13 @@
         <v>15</v>
       </c>
       <c r="AJ24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM24" t="n">
         <v>41</v>
@@ -4865,7 +4865,7 @@
         <v>81</v>
       </c>
       <c r="AS24" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT24" t="n">
         <v>2.25</v>
@@ -4874,7 +4874,7 @@
         <v>9</v>
       </c>
       <c r="AV24" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW24" t="n">
         <v>126</v>
@@ -4883,7 +4883,7 @@
         <v>5</v>
       </c>
       <c r="AY24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ24" t="n">
         <v>34</v>
@@ -4892,10 +4892,10 @@
         <v>67</v>
       </c>
       <c r="BB24" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC24" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD24" t="n">
         <v>126</v>
@@ -4939,7 +4939,7 @@
         <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J25" t="n">
         <v>2.88</v>
@@ -4951,16 +4951,16 @@
         <v>4.75</v>
       </c>
       <c r="M25" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N25" t="n">
         <v>6.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P25" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Q25" t="n">
         <v>2.7</v>
@@ -4969,16 +4969,16 @@
         <v>1.44</v>
       </c>
       <c r="S25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V25" t="n">
         <v>1.57</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.62</v>
       </c>
       <c r="W25" t="n">
         <v>5.5</v>
@@ -4999,7 +4999,7 @@
         <v>41</v>
       </c>
       <c r="AC25" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD25" t="n">
         <v>6</v>
@@ -5032,10 +5032,10 @@
         <v>51</v>
       </c>
       <c r="AN25" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP25" t="n">
         <v>29</v>
@@ -5050,7 +5050,7 @@
         <v>301</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU25" t="n">
         <v>9.5</v>
@@ -5074,7 +5074,7 @@
         <v>81</v>
       </c>
       <c r="BB25" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC25" t="n">
         <v>401</v>
@@ -5133,13 +5133,13 @@
         <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N26" t="n">
         <v>6.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="P26" t="n">
         <v>2.25</v>
@@ -7350,7 +7350,7 @@
         <v>8.5</v>
       </c>
       <c r="X38" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y38" t="n">
         <v>8.5</v>
@@ -7377,7 +7377,7 @@
         <v>41</v>
       </c>
       <c r="AG38" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH38" t="n">
         <v>15</v>
@@ -8030,10 +8030,10 @@
         <v>2.9</v>
       </c>
       <c r="H42" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I42" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J42" t="n">
         <v>3.4</v>
@@ -8075,7 +8075,7 @@
         <v>2.1</v>
       </c>
       <c r="W42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X42" t="n">
         <v>15</v>
@@ -8087,7 +8087,7 @@
         <v>29</v>
       </c>
       <c r="AA42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB42" t="n">
         <v>29</v>
@@ -8239,10 +8239,10 @@
         <v>3.75</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R43" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S43" t="n">
         <v>1.4</v>
@@ -9125,7 +9125,7 @@
         <v>4</v>
       </c>
       <c r="I48" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J48" t="n">
         <v>2.05</v>
@@ -9134,13 +9134,13 @@
         <v>2.1</v>
       </c>
       <c r="L48" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M48" t="n">
         <v>1.08</v>
       </c>
       <c r="N48" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O48" t="n">
         <v>1.4</v>
@@ -9149,10 +9149,10 @@
         <v>2.75</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R48" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S48" t="n">
         <v>1.5</v>
@@ -9191,7 +9191,7 @@
         <v>8</v>
       </c>
       <c r="AE48" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF48" t="n">
         <v>101</v>
@@ -9248,7 +9248,7 @@
         <v>81</v>
       </c>
       <c r="AX48" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AY48" t="n">
         <v>41</v>
@@ -9665,22 +9665,22 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H51" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I51" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="J51" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K51" t="n">
         <v>2.05</v>
       </c>
       <c r="L51" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M51" t="n">
         <v>1.08</v>
@@ -9713,7 +9713,7 @@
         <v>1.73</v>
       </c>
       <c r="W51" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X51" t="n">
         <v>21</v>
@@ -9722,7 +9722,7 @@
         <v>15</v>
       </c>
       <c r="Z51" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA51" t="n">
         <v>41</v>
@@ -9740,7 +9740,7 @@
         <v>17</v>
       </c>
       <c r="AF51" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG51" t="n">
         <v>351</v>
@@ -9749,7 +9749,7 @@
         <v>6</v>
       </c>
       <c r="AI51" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ51" t="n">
         <v>9</v>
@@ -9767,7 +9767,7 @@
         <v>6</v>
       </c>
       <c r="AO51" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP51" t="n">
         <v>34</v>
@@ -9785,7 +9785,7 @@
         <v>2.5</v>
       </c>
       <c r="AU51" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV51" t="n">
         <v>67</v>
@@ -9797,16 +9797,16 @@
         <v>3.75</v>
       </c>
       <c r="AY51" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ51" t="n">
         <v>23</v>
       </c>
       <c r="BA51" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB51" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC51" t="n">
         <v>201</v>
@@ -9856,19 +9856,19 @@
         <v>3.7</v>
       </c>
       <c r="J52" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K52" t="n">
         <v>2.1</v>
       </c>
       <c r="L52" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M52" t="n">
         <v>1.06</v>
       </c>
       <c r="N52" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O52" t="n">
         <v>1.3</v>
@@ -10211,13 +10211,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H54" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I54" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J54" t="n">
         <v>2.4</v>
@@ -10393,16 +10393,16 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H55" t="n">
         <v>4.33</v>
       </c>
       <c r="I55" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J55" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K55" t="n">
         <v>2.5</v>
@@ -10441,16 +10441,16 @@
         <v>2</v>
       </c>
       <c r="W55" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X55" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y55" t="n">
         <v>8</v>
       </c>
-      <c r="Y55" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA55" t="n">
         <v>11</v>
@@ -10465,10 +10465,10 @@
         <v>8.5</v>
       </c>
       <c r="AE55" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF55" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG55" t="n">
         <v>201</v>
@@ -10477,22 +10477,22 @@
         <v>21</v>
       </c>
       <c r="AI55" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ55" t="n">
         <v>21</v>
       </c>
       <c r="AK55" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL55" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM55" t="n">
         <v>41</v>
       </c>
       <c r="AN55" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO55" t="n">
         <v>7</v>
@@ -10501,7 +10501,7 @@
         <v>17</v>
       </c>
       <c r="AQ55" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR55" t="n">
         <v>41</v>
@@ -10513,7 +10513,7 @@
         <v>3.5</v>
       </c>
       <c r="AU55" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV55" t="n">
         <v>51</v>
@@ -10522,10 +10522,10 @@
         <v>126</v>
       </c>
       <c r="AX55" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AY55" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ55" t="n">
         <v>34</v>
@@ -10534,7 +10534,7 @@
         <v>101</v>
       </c>
       <c r="BB55" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC55" t="n">
         <v>201</v>
@@ -11139,10 +11139,10 @@
         <v>3.1</v>
       </c>
       <c r="M59" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N59" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O59" t="n">
         <v>1.53</v>
@@ -13851,28 +13851,28 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H74" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I74" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="J74" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K74" t="n">
         <v>2.1</v>
       </c>
       <c r="L74" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M74" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N74" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O74" t="n">
         <v>1.36</v>
@@ -13899,16 +13899,16 @@
         <v>1.8</v>
       </c>
       <c r="W74" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X74" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y74" t="n">
         <v>9</v>
       </c>
       <c r="Z74" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA74" t="n">
         <v>17</v>
@@ -13920,7 +13920,7 @@
         <v>9</v>
       </c>
       <c r="AD74" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE74" t="n">
         <v>17</v>
@@ -13935,31 +13935,31 @@
         <v>9.5</v>
       </c>
       <c r="AI74" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ74" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK74" t="n">
         <v>41</v>
       </c>
       <c r="AL74" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM74" t="n">
         <v>41</v>
       </c>
       <c r="AN74" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO74" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP74" t="n">
         <v>23</v>
       </c>
       <c r="AQ74" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR74" t="n">
         <v>51</v>
@@ -13980,16 +13980,16 @@
         <v>51</v>
       </c>
       <c r="AX74" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY74" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ74" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA74" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB74" t="n">
         <v>101</v>
@@ -14033,22 +14033,22 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H75" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I75" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J75" t="n">
         <v>2.63</v>
       </c>
       <c r="K75" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L75" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M75" t="n">
         <v>1.1</v>
@@ -14069,22 +14069,22 @@
         <v>1.5</v>
       </c>
       <c r="S75" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T75" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U75" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="V75" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="W75" t="n">
         <v>5.5</v>
       </c>
       <c r="X75" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y75" t="n">
         <v>9.5</v>
@@ -14096,19 +14096,19 @@
         <v>19</v>
       </c>
       <c r="AB75" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC75" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD75" t="n">
         <v>6.5</v>
       </c>
       <c r="AE75" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF75" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG75" t="n">
         <v>351</v>
@@ -14120,7 +14120,7 @@
         <v>21</v>
       </c>
       <c r="AJ75" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK75" t="n">
         <v>51</v>
@@ -14132,7 +14132,7 @@
         <v>51</v>
       </c>
       <c r="AN75" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO75" t="n">
         <v>11</v>
@@ -14150,13 +14150,13 @@
         <v>251</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU75" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV75" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW75" t="n">
         <v>51</v>
@@ -14165,7 +14165,7 @@
         <v>6</v>
       </c>
       <c r="AY75" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ75" t="n">
         <v>41</v>
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H84" t="n">
         <v>3.5</v>
@@ -15692,7 +15692,7 @@
         <v>1.04</v>
       </c>
       <c r="N84" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O84" t="n">
         <v>1.22</v>
@@ -15701,16 +15701,16 @@
         <v>4</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R84" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S84" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T84" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U84" t="n">
         <v>1.62</v>
@@ -15719,7 +15719,7 @@
         <v>2.2</v>
       </c>
       <c r="W84" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X84" t="n">
         <v>15</v>
@@ -15737,7 +15737,7 @@
         <v>26</v>
       </c>
       <c r="AC84" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD84" t="n">
         <v>7</v>
@@ -15767,7 +15767,7 @@
         <v>19</v>
       </c>
       <c r="AM84" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN84" t="n">
         <v>5</v>
@@ -15782,13 +15782,13 @@
         <v>51</v>
       </c>
       <c r="AR84" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS84" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT84" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU84" t="n">
         <v>7.5</v>
@@ -16399,22 +16399,22 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="H88" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="I88" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="J88" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="K88" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="L88" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="M88" t="n">
         <v>1.01</v>
@@ -16423,16 +16423,16 @@
         <v>24</v>
       </c>
       <c r="O88" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P88" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="R88" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="S88" t="n">
         <v>1.17</v>
@@ -16441,106 +16441,106 @@
         <v>4.45</v>
       </c>
       <c r="U88" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="V88" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="W88" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="X88" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Y88" t="n">
         <v>16</v>
       </c>
       <c r="Z88" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AA88" t="n">
         <v>32</v>
       </c>
       <c r="AB88" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AF88" t="n">
         <v>25</v>
       </c>
-      <c r="AC88" t="n">
-        <v>37</v>
-      </c>
-      <c r="AD88" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE88" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF88" t="n">
-        <v>27</v>
-      </c>
       <c r="AG88" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AH88" t="n">
         <v>17.5</v>
       </c>
       <c r="AI88" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ88" t="n">
         <v>9.5</v>
       </c>
       <c r="AK88" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AL88" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AM88" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AN88" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AO88" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP88" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ88" t="n">
         <v>80</v>
       </c>
       <c r="AR88" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AS88" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AT88" t="n">
         <v>4.45</v>
       </c>
       <c r="AU88" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AV88" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AW88" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AX88" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="AY88" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AZ88" t="n">
         <v>10.75</v>
       </c>
       <c r="BA88" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="BB88" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC88" t="n">
         <v>70</v>
@@ -16581,22 +16581,22 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="H89" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I89" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="J89" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="K89" t="n">
         <v>2.47</v>
       </c>
       <c r="L89" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="M89" t="n">
         <v>1.02</v>
@@ -16611,28 +16611,28 @@
         <v>5.5</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="R89" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="S89" t="n">
         <v>1.22</v>
       </c>
       <c r="T89" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="U89" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="V89" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="W89" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="X89" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y89" t="n">
         <v>9.25</v>
@@ -16641,16 +16641,16 @@
         <v>24</v>
       </c>
       <c r="AA89" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB89" t="n">
         <v>16</v>
       </c>
       <c r="AC89" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AD89" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AE89" t="n">
         <v>10.5</v>
@@ -16662,10 +16662,10 @@
         <v>110</v>
       </c>
       <c r="AH89" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI89" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ89" t="n">
         <v>11.25</v>
@@ -16674,16 +16674,16 @@
         <v>40</v>
       </c>
       <c r="AL89" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM89" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AN89" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="AO89" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AP89" t="n">
         <v>13</v>
@@ -16692,40 +16692,40 @@
         <v>32</v>
       </c>
       <c r="AR89" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AS89" t="n">
         <v>100</v>
       </c>
       <c r="AT89" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="AU89" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AV89" t="n">
         <v>30</v>
       </c>
       <c r="AW89" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AX89" t="n">
         <v>5.7</v>
       </c>
       <c r="AY89" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ89" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="BA89" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BB89" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BC89" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="BD89" t="n">
         <v>51</v>
@@ -16948,10 +16948,10 @@
         <v>4.5</v>
       </c>
       <c r="H91" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I91" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="J91" t="n">
         <v>5</v>
@@ -16975,10 +16975,10 @@
         <v>3.5</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R91" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S91" t="n">
         <v>1.36</v>
@@ -17014,7 +17014,7 @@
         <v>11</v>
       </c>
       <c r="AD91" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE91" t="n">
         <v>17</v>
@@ -17023,7 +17023,7 @@
         <v>51</v>
       </c>
       <c r="AG91" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH91" t="n">
         <v>7</v>
@@ -17065,7 +17065,7 @@
         <v>3</v>
       </c>
       <c r="AU91" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV91" t="n">
         <v>51</v>
@@ -17074,10 +17074,10 @@
         <v>51</v>
       </c>
       <c r="AX91" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AY91" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AZ91" t="n">
         <v>19</v>
@@ -20221,55 +20221,55 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H109" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I109" t="n">
         <v>5.5</v>
       </c>
       <c r="J109" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K109" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L109" t="n">
         <v>5</v>
       </c>
       <c r="M109" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N109" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O109" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P109" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="R109" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S109" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T109" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U109" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V109" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W109" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X109" t="n">
         <v>8</v>
@@ -20284,13 +20284,13 @@
         <v>13</v>
       </c>
       <c r="AB109" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC109" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD109" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE109" t="n">
         <v>15</v>
@@ -20299,13 +20299,13 @@
         <v>51</v>
       </c>
       <c r="AG109" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH109" t="n">
         <v>15</v>
       </c>
       <c r="AI109" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ109" t="n">
         <v>17</v>
@@ -20320,7 +20320,7 @@
         <v>41</v>
       </c>
       <c r="AN109" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO109" t="n">
         <v>8.5</v>
@@ -20332,16 +20332,16 @@
         <v>26</v>
       </c>
       <c r="AR109" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS109" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT109" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU109" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV109" t="n">
         <v>51</v>
@@ -20356,19 +20356,19 @@
         <v>26</v>
       </c>
       <c r="AZ109" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA109" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB109" t="n">
         <v>101</v>
       </c>
       <c r="BC109" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD109" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110">
@@ -20588,52 +20588,52 @@
         <v>1.78</v>
       </c>
       <c r="H111" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I111" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="J111" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="K111" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L111" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="M111" t="n">
-        <v>8.300000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="N111" t="n">
-        <v>1.03</v>
+        <v>10</v>
       </c>
       <c r="O111" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P111" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R111" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="S111" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T111" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="U111" t="n">
         <v>1.75</v>
       </c>
       <c r="V111" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="W111" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X111" t="n">
         <v>8.25</v>
@@ -20645,34 +20645,34 @@
         <v>14.5</v>
       </c>
       <c r="AA111" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB111" t="n">
         <v>26</v>
       </c>
       <c r="AC111" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AD111" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AE111" t="n">
         <v>14.5</v>
       </c>
       <c r="AF111" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG111" t="n">
         <v>500</v>
       </c>
       <c r="AH111" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AI111" t="n">
         <v>25</v>
       </c>
       <c r="AJ111" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK111" t="n">
         <v>70</v>
@@ -20681,7 +20681,7 @@
         <v>40</v>
       </c>
       <c r="AM111" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN111" t="n">
         <v>3.6</v>
@@ -20690,25 +20690,25 @@
         <v>9</v>
       </c>
       <c r="AP111" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ111" t="n">
         <v>32</v>
       </c>
       <c r="AR111" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS111" t="n">
         <v>250</v>
       </c>
       <c r="AT111" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="AU111" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AV111" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW111" t="n">
         <v>51</v>
@@ -20717,19 +20717,19 @@
         <v>5.9</v>
       </c>
       <c r="AY111" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ111" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BA111" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB111" t="n">
         <v>150</v>
       </c>
-      <c r="BB111" t="n">
-        <v>175</v>
-      </c>
       <c r="BC111" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BD111" t="n">
         <v>51</v>
@@ -20767,22 +20767,22 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="H112" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="I112" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J112" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K112" t="n">
         <v>1.91</v>
       </c>
       <c r="L112" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M112" t="n">
         <v>1.13</v>
@@ -20809,22 +20809,22 @@
         <v>2.2</v>
       </c>
       <c r="U112" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V112" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W112" t="n">
         <v>5.5</v>
       </c>
       <c r="X112" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y112" t="n">
         <v>10</v>
       </c>
       <c r="Z112" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA112" t="n">
         <v>21</v>
@@ -20836,7 +20836,7 @@
         <v>5.5</v>
       </c>
       <c r="AD112" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE112" t="n">
         <v>19</v>
@@ -20848,16 +20848,16 @@
         <v>101</v>
       </c>
       <c r="AH112" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI112" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ112" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK112" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL112" t="n">
         <v>41</v>
@@ -20866,10 +20866,10 @@
         <v>51</v>
       </c>
       <c r="AN112" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO112" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP112" t="n">
         <v>29</v>
@@ -20899,13 +20899,13 @@
         <v>5.5</v>
       </c>
       <c r="AY112" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ112" t="n">
         <v>41</v>
       </c>
       <c r="BA112" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB112" t="n">
         <v>151</v>
@@ -22041,22 +22041,22 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H119" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I119" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="J119" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K119" t="n">
         <v>2.1</v>
       </c>
       <c r="L119" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M119" t="n">
         <v>1.06</v>
@@ -22077,10 +22077,10 @@
         <v>1.65</v>
       </c>
       <c r="S119" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T119" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U119" t="n">
         <v>2.2</v>
@@ -22089,7 +22089,7 @@
         <v>1.62</v>
       </c>
       <c r="W119" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X119" t="n">
         <v>23</v>
@@ -22134,13 +22134,13 @@
         <v>12</v>
       </c>
       <c r="AL119" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM119" t="n">
         <v>34</v>
       </c>
       <c r="AN119" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO119" t="n">
         <v>29</v>
@@ -22158,7 +22158,7 @@
         <v>351</v>
       </c>
       <c r="AT119" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU119" t="n">
         <v>9</v>
@@ -22223,28 +22223,28 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H120" t="n">
         <v>3</v>
       </c>
       <c r="I120" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J120" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K120" t="n">
         <v>2</v>
       </c>
       <c r="L120" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M120" t="n">
         <v>1.08</v>
       </c>
       <c r="N120" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O120" t="n">
         <v>1.4</v>
@@ -22253,10 +22253,10 @@
         <v>2.75</v>
       </c>
       <c r="Q120" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R120" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S120" t="n">
         <v>1.5</v>
@@ -22271,7 +22271,7 @@
         <v>1.8</v>
       </c>
       <c r="W120" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X120" t="n">
         <v>11</v>
@@ -22283,7 +22283,7 @@
         <v>23</v>
       </c>
       <c r="AA120" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB120" t="n">
         <v>34</v>
@@ -22304,19 +22304,19 @@
         <v>351</v>
       </c>
       <c r="AH120" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI120" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ120" t="n">
         <v>12</v>
       </c>
       <c r="AK120" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL120" t="n">
         <v>29</v>
-      </c>
-      <c r="AL120" t="n">
-        <v>26</v>
       </c>
       <c r="AM120" t="n">
         <v>41</v>
@@ -23691,7 +23691,7 @@
         <v>4.5</v>
       </c>
       <c r="K128" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L128" t="n">
         <v>2.6</v>
@@ -23703,22 +23703,22 @@
         <v>10</v>
       </c>
       <c r="O128" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P128" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q128" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R128" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S128" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T128" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U128" t="n">
         <v>1.83</v>
@@ -23757,13 +23757,13 @@
         <v>51</v>
       </c>
       <c r="AG128" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH128" t="n">
         <v>7</v>
       </c>
       <c r="AI128" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ128" t="n">
         <v>9</v>
@@ -23772,7 +23772,7 @@
         <v>15</v>
       </c>
       <c r="AL128" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM128" t="n">
         <v>29</v>
@@ -23787,16 +23787,16 @@
         <v>29</v>
       </c>
       <c r="AQ128" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR128" t="n">
         <v>101</v>
       </c>
       <c r="AS128" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT128" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU128" t="n">
         <v>8</v>
@@ -24225,16 +24225,16 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H131" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I131" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J131" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K131" t="n">
         <v>2.2</v>
@@ -24306,10 +24306,10 @@
         <v>900</v>
       </c>
       <c r="AH131" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI131" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ131" t="n">
         <v>17</v>
@@ -24327,13 +24327,13 @@
         <v>3.6</v>
       </c>
       <c r="AO131" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP131" t="n">
         <v>21</v>
       </c>
       <c r="AQ131" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR131" t="n">
         <v>51</v>
@@ -24363,7 +24363,7 @@
         <v>34</v>
       </c>
       <c r="BA131" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB131" t="n">
         <v>126</v>
@@ -30246,25 +30246,25 @@
         <v>2.5</v>
       </c>
       <c r="L164" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="M164" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N164" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O164" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P164" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q164" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R164" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S164" t="n">
         <v>1.3</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-20.xlsx
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="J8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K8" t="n">
         <v>2.5</v>
       </c>
       <c r="L8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1863,16 +1863,16 @@
         <v>17</v>
       </c>
       <c r="O8" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S8" t="n">
         <v>1.25</v>
@@ -1881,25 +1881,25 @@
         <v>3.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V8" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y8" t="n">
         <v>15</v>
       </c>
       <c r="Z8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB8" t="n">
         <v>29</v>
@@ -1923,7 +1923,7 @@
         <v>11</v>
       </c>
       <c r="AI8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ8" t="n">
         <v>8.5</v>
@@ -1965,19 +1965,19 @@
         <v>41</v>
       </c>
       <c r="AW8" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AX8" t="n">
         <v>4</v>
       </c>
       <c r="AY8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AZ8" t="n">
         <v>15</v>
       </c>
       <c r="BA8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BB8" t="n">
         <v>41</v>
@@ -3113,22 +3113,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="J15" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
         <v>2.25</v>
       </c>
       <c r="L15" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -3143,10 +3143,10 @@
         <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R15" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="S15" t="n">
         <v>1.36</v>
@@ -3167,13 +3167,13 @@
         <v>21</v>
       </c>
       <c r="Y15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z15" t="n">
         <v>41</v>
       </c>
       <c r="AA15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB15" t="n">
         <v>34</v>
@@ -3191,19 +3191,19 @@
         <v>41</v>
       </c>
       <c r="AG15" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH15" t="n">
         <v>8</v>
       </c>
       <c r="AI15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ15" t="n">
         <v>8.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL15" t="n">
         <v>15</v>
@@ -3212,13 +3212,13 @@
         <v>23</v>
       </c>
       <c r="AN15" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO15" t="n">
         <v>21</v>
       </c>
       <c r="AP15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ15" t="n">
         <v>67</v>
@@ -4569,13 +4569,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="H23" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J23" t="n">
         <v>1.67</v>
@@ -4584,7 +4584,7 @@
         <v>2.88</v>
       </c>
       <c r="L23" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M23" t="n">
         <v>1.02</v>
@@ -4593,10 +4593,10 @@
         <v>21</v>
       </c>
       <c r="O23" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q23" t="n">
         <v>1.4</v>
@@ -4605,10 +4605,10 @@
         <v>3</v>
       </c>
       <c r="S23" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="T23" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="U23" t="n">
         <v>1.75</v>
@@ -4641,25 +4641,25 @@
         <v>12</v>
       </c>
       <c r="AE23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF23" t="n">
         <v>51</v>
       </c>
       <c r="AG23" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH23" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI23" t="n">
         <v>41</v>
       </c>
       <c r="AJ23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK23" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="n">
         <v>51</v>
@@ -4677,7 +4677,7 @@
         <v>13</v>
       </c>
       <c r="AQ23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR23" t="n">
         <v>29</v>
@@ -4686,7 +4686,7 @@
         <v>81</v>
       </c>
       <c r="AT23" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AU23" t="n">
         <v>8.5</v>
@@ -4698,7 +4698,7 @@
         <v>401</v>
       </c>
       <c r="AX23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AY23" t="n">
         <v>41</v>
@@ -4707,7 +4707,7 @@
         <v>34</v>
       </c>
       <c r="BA23" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB23" t="n">
         <v>126</v>
@@ -4933,22 +4933,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H25" t="n">
         <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="J25" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
         <v>1.91</v>
       </c>
       <c r="L25" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M25" t="n">
         <v>1.11</v>
@@ -4969,28 +4969,28 @@
         <v>1.44</v>
       </c>
       <c r="S25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V25" t="n">
         <v>1.62</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.57</v>
       </c>
       <c r="W25" t="n">
         <v>5.5</v>
       </c>
       <c r="X25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y25" t="n">
         <v>10</v>
       </c>
       <c r="Z25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA25" t="n">
         <v>21</v>
@@ -4999,13 +4999,13 @@
         <v>41</v>
       </c>
       <c r="AC25" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD25" t="n">
         <v>6</v>
       </c>
       <c r="AE25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF25" t="n">
         <v>81</v>
@@ -5020,22 +5020,22 @@
         <v>17</v>
       </c>
       <c r="AJ25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK25" t="n">
         <v>41</v>
       </c>
       <c r="AL25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM25" t="n">
         <v>51</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP25" t="n">
         <v>29</v>
@@ -5050,7 +5050,7 @@
         <v>301</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU25" t="n">
         <v>9.5</v>
@@ -5068,16 +5068,16 @@
         <v>23</v>
       </c>
       <c r="AZ25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA25" t="n">
         <v>81</v>
       </c>
       <c r="BB25" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC25" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BD25" t="n">
         <v>126</v>
@@ -5115,22 +5115,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="K26" t="n">
         <v>1.91</v>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M26" t="n">
         <v>1.11</v>
@@ -5145,10 +5145,10 @@
         <v>2.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R26" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S26" t="n">
         <v>1.62</v>
@@ -5157,22 +5157,22 @@
         <v>2.2</v>
       </c>
       <c r="U26" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V26" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="W26" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA26" t="n">
         <v>21</v>
@@ -5184,40 +5184,40 @@
         <v>6</v>
       </c>
       <c r="AD26" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF26" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG26" t="n">
         <v>201</v>
       </c>
       <c r="AH26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>19</v>
       </c>
-      <c r="AJ26" t="n">
-        <v>17</v>
-      </c>
       <c r="AK26" t="n">
         <v>51</v>
       </c>
       <c r="AL26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM26" t="n">
         <v>51</v>
       </c>
       <c r="AN26" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP26" t="n">
         <v>29</v>
@@ -5244,22 +5244,22 @@
         <v>126</v>
       </c>
       <c r="AX26" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ26" t="n">
         <v>41</v>
       </c>
       <c r="BA26" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB26" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC26" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD26" t="n">
         <v>126</v>
@@ -8027,22 +8027,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H42" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I42" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="J42" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K42" t="n">
         <v>2.2</v>
       </c>
       <c r="L42" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M42" t="n">
         <v>1.05</v>
@@ -8075,19 +8075,19 @@
         <v>2.1</v>
       </c>
       <c r="W42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA42" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB42" t="n">
         <v>29</v>
@@ -8108,19 +8108,19 @@
         <v>151</v>
       </c>
       <c r="AH42" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ42" t="n">
         <v>9</v>
       </c>
-      <c r="AI42" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AK42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL42" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM42" t="n">
         <v>26</v>
@@ -8129,7 +8129,7 @@
         <v>5</v>
       </c>
       <c r="AO42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP42" t="n">
         <v>23</v>
@@ -8156,10 +8156,10 @@
         <v>51</v>
       </c>
       <c r="AX42" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ42" t="n">
         <v>21</v>
@@ -8239,10 +8239,10 @@
         <v>3.75</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R43" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S43" t="n">
         <v>1.4</v>
@@ -9140,7 +9140,7 @@
         <v>1.08</v>
       </c>
       <c r="N48" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O48" t="n">
         <v>1.4</v>
@@ -9149,10 +9149,10 @@
         <v>2.75</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R48" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S48" t="n">
         <v>1.5</v>
@@ -9191,7 +9191,7 @@
         <v>8</v>
       </c>
       <c r="AE48" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF48" t="n">
         <v>101</v>
@@ -9868,7 +9868,7 @@
         <v>1.06</v>
       </c>
       <c r="N52" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O52" t="n">
         <v>1.3</v>
@@ -10035,7 +10035,7 @@
         <v>3.6</v>
       </c>
       <c r="I53" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="J53" t="n">
         <v>4</v>
@@ -10047,22 +10047,22 @@
         <v>2.5</v>
       </c>
       <c r="M53" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O53" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P53" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R53" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S53" t="n">
         <v>1.3</v>
@@ -10211,28 +10211,28 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="H54" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I54" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J54" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K54" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L54" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M54" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O54" t="n">
         <v>1.29</v>
@@ -10241,49 +10241,49 @@
         <v>3.5</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R54" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S54" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T54" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U54" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V54" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W54" t="n">
         <v>7</v>
       </c>
       <c r="X54" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y54" t="n">
         <v>8.5</v>
       </c>
       <c r="Z54" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA54" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB54" t="n">
         <v>26</v>
       </c>
       <c r="AC54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD54" t="n">
         <v>7</v>
       </c>
       <c r="AE54" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF54" t="n">
         <v>51</v>
@@ -10304,7 +10304,7 @@
         <v>51</v>
       </c>
       <c r="AL54" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM54" t="n">
         <v>41</v>
@@ -10313,7 +10313,7 @@
         <v>3.75</v>
       </c>
       <c r="AO54" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP54" t="n">
         <v>21</v>
@@ -10328,10 +10328,10 @@
         <v>151</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU54" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV54" t="n">
         <v>51</v>
@@ -10340,13 +10340,13 @@
         <v>126</v>
       </c>
       <c r="AX54" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY54" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ54" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA54" t="n">
         <v>81</v>
@@ -10355,7 +10355,7 @@
         <v>101</v>
       </c>
       <c r="BC54" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD54" t="n">
         <v>126</v>
@@ -10393,10 +10393,10 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="H55" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I55" t="n">
         <v>7</v>
@@ -10405,7 +10405,7 @@
         <v>1.91</v>
       </c>
       <c r="K55" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L55" t="n">
         <v>6</v>
@@ -10417,16 +10417,16 @@
         <v>15</v>
       </c>
       <c r="O55" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P55" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R55" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S55" t="n">
         <v>1.29</v>
@@ -10441,10 +10441,10 @@
         <v>2</v>
       </c>
       <c r="W55" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X55" t="n">
         <v>8</v>
-      </c>
-      <c r="X55" t="n">
-        <v>7.5</v>
       </c>
       <c r="Y55" t="n">
         <v>8</v>
@@ -10462,19 +10462,19 @@
         <v>15</v>
       </c>
       <c r="AD55" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE55" t="n">
         <v>17</v>
       </c>
       <c r="AF55" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG55" t="n">
         <v>201</v>
       </c>
       <c r="AH55" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI55" t="n">
         <v>41</v>
@@ -10492,13 +10492,13 @@
         <v>41</v>
       </c>
       <c r="AN55" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO55" t="n">
         <v>7</v>
       </c>
       <c r="AP55" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ55" t="n">
         <v>19</v>
@@ -10513,7 +10513,7 @@
         <v>3.5</v>
       </c>
       <c r="AU55" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV55" t="n">
         <v>51</v>
@@ -10534,7 +10534,7 @@
         <v>101</v>
       </c>
       <c r="BB55" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC55" t="n">
         <v>201</v>
@@ -10575,13 +10575,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H56" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I56" t="n">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="J56" t="n">
         <v>4</v>
@@ -10590,7 +10590,7 @@
         <v>2.2</v>
       </c>
       <c r="L56" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M56" t="n">
         <v>1.05</v>
@@ -10626,7 +10626,7 @@
         <v>12</v>
       </c>
       <c r="X56" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y56" t="n">
         <v>13</v>
@@ -10653,10 +10653,10 @@
         <v>41</v>
       </c>
       <c r="AG56" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH56" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI56" t="n">
         <v>10</v>
@@ -10665,7 +10665,7 @@
         <v>9</v>
       </c>
       <c r="AK56" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL56" t="n">
         <v>15</v>
@@ -10683,7 +10683,7 @@
         <v>26</v>
       </c>
       <c r="AQ56" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR56" t="n">
         <v>81</v>
@@ -11121,28 +11121,28 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H59" t="n">
         <v>3.1</v>
       </c>
       <c r="I59" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J59" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K59" t="n">
         <v>1.91</v>
       </c>
       <c r="L59" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M59" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N59" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O59" t="n">
         <v>1.53</v>
@@ -11172,16 +11172,16 @@
         <v>7.5</v>
       </c>
       <c r="X59" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y59" t="n">
         <v>15</v>
       </c>
-      <c r="Y59" t="n">
-        <v>13</v>
-      </c>
       <c r="Z59" t="n">
         <v>41</v>
       </c>
       <c r="AA59" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB59" t="n">
         <v>51</v>
@@ -11190,7 +11190,7 @@
         <v>6</v>
       </c>
       <c r="AD59" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE59" t="n">
         <v>21</v>
@@ -11205,28 +11205,28 @@
         <v>5.5</v>
       </c>
       <c r="AI59" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ59" t="n">
         <v>10</v>
       </c>
       <c r="AK59" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL59" t="n">
         <v>21</v>
       </c>
-      <c r="AL59" t="n">
+      <c r="AM59" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO59" t="n">
         <v>23</v>
       </c>
-      <c r="AM59" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN59" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO59" t="n">
-        <v>21</v>
-      </c>
       <c r="AP59" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ59" t="n">
         <v>81</v>
@@ -11259,7 +11259,7 @@
         <v>29</v>
       </c>
       <c r="BA59" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB59" t="n">
         <v>81</v>
@@ -11303,13 +11303,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H60" t="n">
         <v>3.3</v>
       </c>
       <c r="I60" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J60" t="n">
         <v>2.4</v>
@@ -11333,10 +11333,10 @@
         <v>2.63</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R60" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S60" t="n">
         <v>1.53</v>
@@ -11360,7 +11360,7 @@
         <v>9.5</v>
       </c>
       <c r="Z60" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA60" t="n">
         <v>17</v>
@@ -11372,10 +11372,10 @@
         <v>6.5</v>
       </c>
       <c r="AD60" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE60" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF60" t="n">
         <v>81</v>
@@ -11390,7 +11390,7 @@
         <v>26</v>
       </c>
       <c r="AJ60" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK60" t="n">
         <v>67</v>
@@ -11399,10 +11399,10 @@
         <v>51</v>
       </c>
       <c r="AM60" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN60" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO60" t="n">
         <v>9.5</v>
@@ -11441,7 +11441,7 @@
         <v>41</v>
       </c>
       <c r="BA60" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB60" t="n">
         <v>201</v>
@@ -11485,13 +11485,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H61" t="n">
         <v>2.88</v>
       </c>
       <c r="I61" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J61" t="n">
         <v>3.1</v>
@@ -11500,46 +11500,46 @@
         <v>1.83</v>
       </c>
       <c r="L61" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M61" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N61" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O61" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="P61" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R61" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S61" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T61" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U61" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V61" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="W61" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X61" t="n">
         <v>9</v>
       </c>
       <c r="Y61" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z61" t="n">
         <v>21</v>
@@ -11560,7 +11560,7 @@
         <v>21</v>
       </c>
       <c r="AF61" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG61" t="n">
         <v>201</v>
@@ -11587,25 +11587,25 @@
         <v>4</v>
       </c>
       <c r="AO61" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP61" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ61" t="n">
         <v>51</v>
       </c>
       <c r="AR61" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS61" t="n">
         <v>351</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU61" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV61" t="n">
         <v>81</v>
@@ -11626,7 +11626,7 @@
         <v>81</v>
       </c>
       <c r="BB61" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC61" t="n">
         <v>501</v>
@@ -14033,7 +14033,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H75" t="n">
         <v>3.1</v>
@@ -14042,13 +14042,13 @@
         <v>4.5</v>
       </c>
       <c r="J75" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K75" t="n">
         <v>1.95</v>
       </c>
       <c r="L75" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M75" t="n">
         <v>1.1</v>
@@ -14063,10 +14063,10 @@
         <v>2.5</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R75" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S75" t="n">
         <v>1.57</v>
@@ -14075,10 +14075,10 @@
         <v>2.25</v>
       </c>
       <c r="U75" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V75" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W75" t="n">
         <v>5.5</v>
@@ -14132,7 +14132,7 @@
         <v>51</v>
       </c>
       <c r="AN75" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO75" t="n">
         <v>11</v>
@@ -14165,7 +14165,7 @@
         <v>6</v>
       </c>
       <c r="AY75" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ75" t="n">
         <v>41</v>
@@ -16399,19 +16399,19 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="H88" t="n">
-        <v>4.45</v>
+        <v>4.65</v>
       </c>
       <c r="I88" t="n">
         <v>1.62</v>
       </c>
       <c r="J88" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K88" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="L88" t="n">
         <v>2.02</v>
@@ -16420,58 +16420,58 @@
         <v>1.01</v>
       </c>
       <c r="N88" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O88" t="n">
         <v>1.07</v>
       </c>
       <c r="P88" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="R88" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="S88" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="T88" t="n">
-        <v>4.45</v>
+        <v>4.6</v>
       </c>
       <c r="U88" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="V88" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="W88" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X88" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC88" t="n">
         <v>45</v>
       </c>
-      <c r="Y88" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z88" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA88" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB88" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC88" t="n">
-        <v>40</v>
-      </c>
       <c r="AD88" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AE88" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF88" t="n">
         <v>25</v>
@@ -16480,46 +16480,46 @@
         <v>90</v>
       </c>
       <c r="AH88" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI88" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AJ88" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK88" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL88" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AM88" t="n">
         <v>14</v>
       </c>
       <c r="AN88" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AO88" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP88" t="n">
         <v>17</v>
       </c>
       <c r="AQ88" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AR88" t="n">
         <v>65</v>
       </c>
       <c r="AS88" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AT88" t="n">
-        <v>4.45</v>
+        <v>4.6</v>
       </c>
       <c r="AU88" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AV88" t="n">
         <v>27</v>
@@ -16528,22 +16528,22 @@
         <v>250</v>
       </c>
       <c r="AX88" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="AY88" t="n">
         <v>7.8</v>
       </c>
       <c r="AZ88" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="BA88" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="BB88" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC88" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BD88" t="n">
         <v>51</v>
@@ -16581,22 +16581,22 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="H89" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I89" t="n">
         <v>2.95</v>
       </c>
       <c r="J89" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="K89" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="L89" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M89" t="n">
         <v>1.02</v>
@@ -16608,13 +16608,13 @@
         <v>1.11</v>
       </c>
       <c r="P89" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="R89" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="S89" t="n">
         <v>1.22</v>
@@ -16623,22 +16623,22 @@
         <v>3.8</v>
       </c>
       <c r="U89" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="V89" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="W89" t="n">
         <v>15</v>
       </c>
       <c r="X89" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y89" t="n">
         <v>9.25</v>
       </c>
       <c r="Z89" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA89" t="n">
         <v>14</v>
@@ -16647,52 +16647,52 @@
         <v>16</v>
       </c>
       <c r="AC89" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AD89" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AE89" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AF89" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG89" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AH89" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AI89" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AJ89" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AK89" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AL89" t="n">
         <v>21</v>
       </c>
       <c r="AM89" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AN89" t="n">
         <v>4.75</v>
       </c>
       <c r="AO89" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AP89" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AQ89" t="n">
         <v>32</v>
       </c>
       <c r="AR89" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AS89" t="n">
         <v>100</v>
@@ -16701,31 +16701,31 @@
         <v>3.8</v>
       </c>
       <c r="AU89" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AV89" t="n">
         <v>30</v>
       </c>
       <c r="AW89" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AX89" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AY89" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AZ89" t="n">
         <v>15</v>
-      </c>
-      <c r="AZ89" t="n">
-        <v>15.5</v>
       </c>
       <c r="BA89" t="n">
         <v>55</v>
       </c>
       <c r="BB89" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BC89" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BD89" t="n">
         <v>51</v>
@@ -22050,19 +22050,19 @@
         <v>1.7</v>
       </c>
       <c r="J119" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K119" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L119" t="n">
         <v>2.38</v>
       </c>
       <c r="M119" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N119" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O119" t="n">
         <v>1.4</v>
@@ -22071,10 +22071,10 @@
         <v>2.75</v>
       </c>
       <c r="Q119" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R119" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S119" t="n">
         <v>1.5</v>
@@ -22107,7 +22107,7 @@
         <v>51</v>
       </c>
       <c r="AC119" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD119" t="n">
         <v>7.5</v>
@@ -22140,7 +22140,7 @@
         <v>34</v>
       </c>
       <c r="AN119" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO119" t="n">
         <v>29</v>
@@ -22161,7 +22161,7 @@
         <v>2.5</v>
       </c>
       <c r="AU119" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV119" t="n">
         <v>67</v>
@@ -22223,22 +22223,22 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="H120" t="n">
         <v>3</v>
       </c>
       <c r="I120" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="J120" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K120" t="n">
         <v>2</v>
       </c>
       <c r="L120" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M120" t="n">
         <v>1.08</v>
@@ -22271,19 +22271,19 @@
         <v>1.8</v>
       </c>
       <c r="W120" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X120" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y120" t="n">
         <v>11</v>
       </c>
-      <c r="Y120" t="n">
-        <v>10</v>
-      </c>
       <c r="Z120" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA120" t="n">
         <v>23</v>
-      </c>
-      <c r="AA120" t="n">
-        <v>21</v>
       </c>
       <c r="AB120" t="n">
         <v>34</v>
@@ -22304,31 +22304,31 @@
         <v>351</v>
       </c>
       <c r="AH120" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI120" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ120" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK120" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL120" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM120" t="n">
         <v>41</v>
       </c>
       <c r="AN120" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO120" t="n">
         <v>15</v>
       </c>
       <c r="AP120" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ120" t="n">
         <v>51</v>
@@ -30240,7 +30240,7 @@
         <v>1.33</v>
       </c>
       <c r="J164" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="K164" t="n">
         <v>2.5</v>
@@ -30297,7 +30297,7 @@
         <v>51</v>
       </c>
       <c r="AC164" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD164" t="n">
         <v>9</v>
@@ -30309,7 +30309,7 @@
         <v>51</v>
       </c>
       <c r="AG164" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH164" t="n">
         <v>7.5</v>
@@ -30324,13 +30324,13 @@
         <v>8.5</v>
       </c>
       <c r="AL164" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM164" t="n">
         <v>29</v>
       </c>
       <c r="AN164" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO164" t="n">
         <v>41</v>
@@ -30351,7 +30351,7 @@
         <v>3.4</v>
       </c>
       <c r="AU164" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV164" t="n">
         <v>51</v>
@@ -30363,7 +30363,7 @@
         <v>3.25</v>
       </c>
       <c r="AY164" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AZ164" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-20.xlsx
@@ -4933,22 +4933,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H25" t="n">
         <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K25" t="n">
         <v>1.91</v>
       </c>
       <c r="L25" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M25" t="n">
         <v>1.11</v>
@@ -4981,10 +4981,10 @@
         <v>1.62</v>
       </c>
       <c r="W25" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y25" t="n">
         <v>10</v>
@@ -4993,7 +4993,7 @@
         <v>21</v>
       </c>
       <c r="AA25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB25" t="n">
         <v>41</v>
@@ -5005,7 +5005,7 @@
         <v>6</v>
       </c>
       <c r="AE25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF25" t="n">
         <v>81</v>
@@ -5014,10 +5014,10 @@
         <v>501</v>
       </c>
       <c r="AH25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ25" t="n">
         <v>13</v>
@@ -5029,7 +5029,7 @@
         <v>34</v>
       </c>
       <c r="AM25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN25" t="n">
         <v>4</v>
@@ -5041,7 +5041,7 @@
         <v>29</v>
       </c>
       <c r="AQ25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR25" t="n">
         <v>81</v>
@@ -5062,10 +5062,10 @@
         <v>126</v>
       </c>
       <c r="AX25" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ25" t="n">
         <v>34</v>
@@ -5115,34 +5115,34 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H26" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="J26" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K26" t="n">
         <v>1.91</v>
       </c>
       <c r="L26" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M26" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N26" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O26" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P26" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q26" t="n">
         <v>2.7</v>
@@ -5166,16 +5166,16 @@
         <v>4.75</v>
       </c>
       <c r="X26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y26" t="n">
         <v>9.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB26" t="n">
         <v>41</v>
@@ -5196,28 +5196,28 @@
         <v>201</v>
       </c>
       <c r="AH26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ26" t="n">
         <v>19</v>
       </c>
       <c r="AK26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL26" t="n">
         <v>51</v>
       </c>
       <c r="AM26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN26" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP26" t="n">
         <v>29</v>
@@ -5226,7 +5226,7 @@
         <v>41</v>
       </c>
       <c r="AR26" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS26" t="n">
         <v>301</v>
@@ -5247,13 +5247,13 @@
         <v>6.5</v>
       </c>
       <c r="AY26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ26" t="n">
         <v>41</v>
       </c>
       <c r="BA26" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB26" t="n">
         <v>201</v>
@@ -5300,25 +5300,25 @@
         <v>2.1</v>
       </c>
       <c r="H27" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
         <v>1.91</v>
       </c>
       <c r="L27" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M27" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O27" t="n">
         <v>1.53</v>
@@ -5333,16 +5333,16 @@
         <v>1.44</v>
       </c>
       <c r="S27" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V27" t="n">
         <v>1.57</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U27" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.62</v>
       </c>
       <c r="W27" t="n">
         <v>5.5</v>
@@ -5363,10 +5363,10 @@
         <v>41</v>
       </c>
       <c r="AC27" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD27" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE27" t="n">
         <v>21</v>
@@ -5414,7 +5414,7 @@
         <v>301</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU27" t="n">
         <v>9.5</v>
@@ -5438,7 +5438,7 @@
         <v>81</v>
       </c>
       <c r="BB27" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC27" t="n">
         <v>401</v>
@@ -5536,10 +5536,10 @@
         <v>9.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB28" t="n">
         <v>41</v>
@@ -8209,13 +8209,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H43" t="n">
         <v>3.2</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J43" t="n">
         <v>3</v>
@@ -8224,7 +8224,7 @@
         <v>2.2</v>
       </c>
       <c r="L43" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M43" t="n">
         <v>1.05</v>
@@ -8239,25 +8239,25 @@
         <v>3.75</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="R43" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S43" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T43" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U43" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V43" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W43" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X43" t="n">
         <v>12</v>
@@ -8266,7 +8266,7 @@
         <v>9.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA43" t="n">
         <v>19</v>
@@ -8275,13 +8275,13 @@
         <v>26</v>
       </c>
       <c r="AC43" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD43" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF43" t="n">
         <v>41</v>
@@ -8299,7 +8299,7 @@
         <v>11</v>
       </c>
       <c r="AK43" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL43" t="n">
         <v>23</v>
@@ -8326,7 +8326,7 @@
         <v>151</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU43" t="n">
         <v>7.5</v>
@@ -8341,7 +8341,7 @@
         <v>5</v>
       </c>
       <c r="AY43" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ43" t="n">
         <v>23</v>
@@ -8603,10 +8603,10 @@
         <v>3.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="R45" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="S45" t="n">
         <v>1.4</v>
@@ -9119,28 +9119,28 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H48" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I48" t="n">
         <v>8.5</v>
       </c>
       <c r="J48" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K48" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L48" t="n">
         <v>8.5</v>
       </c>
       <c r="M48" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N48" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O48" t="n">
         <v>1.4</v>
@@ -9149,22 +9149,22 @@
         <v>2.75</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R48" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S48" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T48" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V48" t="n">
         <v>1.5</v>
-      </c>
-      <c r="T48" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U48" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V48" t="n">
-        <v>1.44</v>
       </c>
       <c r="W48" t="n">
         <v>5</v>
@@ -9173,10 +9173,10 @@
         <v>5.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z48" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA48" t="n">
         <v>15</v>
@@ -9200,19 +9200,19 @@
         <v>201</v>
       </c>
       <c r="AH48" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI48" t="n">
         <v>41</v>
       </c>
       <c r="AJ48" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK48" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL48" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM48" t="n">
         <v>81</v>
@@ -9221,7 +9221,7 @@
         <v>3.1</v>
       </c>
       <c r="AO48" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP48" t="n">
         <v>23</v>
@@ -9236,7 +9236,7 @@
         <v>251</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU48" t="n">
         <v>11</v>
@@ -9847,22 +9847,22 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H52" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I52" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="J52" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K52" t="n">
         <v>2.1</v>
       </c>
       <c r="L52" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M52" t="n">
         <v>1.06</v>
@@ -9898,13 +9898,13 @@
         <v>7.5</v>
       </c>
       <c r="X52" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y52" t="n">
         <v>9</v>
       </c>
       <c r="Z52" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA52" t="n">
         <v>17</v>
@@ -9916,40 +9916,40 @@
         <v>9.5</v>
       </c>
       <c r="AD52" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE52" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF52" t="n">
         <v>51</v>
       </c>
       <c r="AG52" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH52" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI52" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ52" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK52" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL52" t="n">
         <v>29</v>
       </c>
       <c r="AM52" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN52" t="n">
         <v>4</v>
       </c>
       <c r="AO52" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP52" t="n">
         <v>21</v>
@@ -9979,13 +9979,13 @@
         <v>5.5</v>
       </c>
       <c r="AY52" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ52" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA52" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB52" t="n">
         <v>81</v>
@@ -10035,13 +10035,13 @@
         <v>3.6</v>
       </c>
       <c r="I53" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="J53" t="n">
         <v>4</v>
       </c>
       <c r="K53" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L53" t="n">
         <v>2.5</v>
@@ -10095,7 +10095,7 @@
         <v>29</v>
       </c>
       <c r="AC53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD53" t="n">
         <v>7</v>
@@ -10113,7 +10113,7 @@
         <v>9.5</v>
       </c>
       <c r="AI53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ53" t="n">
         <v>8.5</v>
@@ -10143,7 +10143,7 @@
         <v>67</v>
       </c>
       <c r="AS53" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT53" t="n">
         <v>3.4</v>
@@ -10158,7 +10158,7 @@
         <v>126</v>
       </c>
       <c r="AX53" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AY53" t="n">
         <v>10</v>
@@ -10211,19 +10211,19 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="H54" t="n">
         <v>3.7</v>
       </c>
       <c r="I54" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J54" t="n">
         <v>2.3</v>
       </c>
       <c r="K54" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L54" t="n">
         <v>5</v>
@@ -10247,10 +10247,10 @@
         <v>1.93</v>
       </c>
       <c r="S54" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T54" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U54" t="n">
         <v>1.83</v>
@@ -10277,7 +10277,7 @@
         <v>26</v>
       </c>
       <c r="AC54" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD54" t="n">
         <v>7</v>
@@ -10289,16 +10289,16 @@
         <v>51</v>
       </c>
       <c r="AG54" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH54" t="n">
         <v>13</v>
       </c>
       <c r="AI54" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ54" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK54" t="n">
         <v>51</v>
@@ -10310,10 +10310,10 @@
         <v>41</v>
       </c>
       <c r="AN54" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO54" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP54" t="n">
         <v>21</v>
@@ -10328,7 +10328,7 @@
         <v>151</v>
       </c>
       <c r="AT54" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU54" t="n">
         <v>8.5</v>
@@ -10349,7 +10349,7 @@
         <v>34</v>
       </c>
       <c r="BA54" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB54" t="n">
         <v>101</v>
@@ -10393,7 +10393,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="H55" t="n">
         <v>4.5</v>
@@ -10414,7 +10414,7 @@
         <v>1.03</v>
       </c>
       <c r="N55" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O55" t="n">
         <v>1.17</v>
@@ -10581,7 +10581,7 @@
         <v>3.5</v>
       </c>
       <c r="I56" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
         <v>4</v>
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H59" t="n">
         <v>3.1</v>
@@ -11130,7 +11130,7 @@
         <v>2.1</v>
       </c>
       <c r="J59" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K59" t="n">
         <v>1.91</v>
@@ -11232,7 +11232,7 @@
         <v>81</v>
       </c>
       <c r="AR59" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AS59" t="n">
         <v>351</v>
@@ -11485,22 +11485,22 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H61" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I61" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J61" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K61" t="n">
         <v>1.83</v>
       </c>
       <c r="L61" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M61" t="n">
         <v>1.14</v>
@@ -11545,19 +11545,19 @@
         <v>21</v>
       </c>
       <c r="AA61" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB61" t="n">
         <v>41</v>
       </c>
       <c r="AC61" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD61" t="n">
         <v>6</v>
       </c>
       <c r="AE61" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF61" t="n">
         <v>101</v>
@@ -11566,7 +11566,7 @@
         <v>201</v>
       </c>
       <c r="AH61" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI61" t="n">
         <v>17</v>
@@ -11587,7 +11587,7 @@
         <v>4</v>
       </c>
       <c r="AO61" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP61" t="n">
         <v>34</v>
@@ -14063,10 +14063,10 @@
         <v>2.5</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R75" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S75" t="n">
         <v>1.57</v>
@@ -14075,10 +14075,10 @@
         <v>2.25</v>
       </c>
       <c r="U75" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V75" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W75" t="n">
         <v>5.5</v>
@@ -14102,7 +14102,7 @@
         <v>6.5</v>
       </c>
       <c r="AD75" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE75" t="n">
         <v>21</v>
@@ -14114,7 +14114,7 @@
         <v>351</v>
       </c>
       <c r="AH75" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI75" t="n">
         <v>21</v>
@@ -22223,55 +22223,55 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H120" t="n">
         <v>3</v>
       </c>
       <c r="I120" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J120" t="n">
         <v>3.4</v>
       </c>
       <c r="K120" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L120" t="n">
         <v>3.6</v>
       </c>
       <c r="M120" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N120" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O120" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P120" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q120" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="R120" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="S120" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T120" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U120" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V120" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W120" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X120" t="n">
         <v>12</v>
@@ -22286,16 +22286,16 @@
         <v>23</v>
       </c>
       <c r="AB120" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC120" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD120" t="n">
         <v>6</v>
       </c>
       <c r="AE120" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF120" t="n">
         <v>51</v>
@@ -22304,7 +22304,7 @@
         <v>351</v>
       </c>
       <c r="AH120" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI120" t="n">
         <v>13</v>
@@ -22337,10 +22337,10 @@
         <v>81</v>
       </c>
       <c r="AS120" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT120" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU120" t="n">
         <v>8.5</v>
@@ -26567,7 +26567,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>20/10/2024</t>
+          <t>21/10/2024</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -30431,10 +30431,10 @@
         <v>4</v>
       </c>
       <c r="M165" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N165" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O165" t="n">
         <v>1.36</v>
@@ -30479,7 +30479,7 @@
         <v>34</v>
       </c>
       <c r="AC165" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD165" t="n">
         <v>6</v>
@@ -30491,7 +30491,7 @@
         <v>51</v>
       </c>
       <c r="AG165" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH165" t="n">
         <v>9</v>
@@ -30557,7 +30557,7 @@
         <v>81</v>
       </c>
       <c r="BC165" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD165" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD165"/>
+  <dimension ref="A1:BD164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5297,28 +5297,28 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
         <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K27" t="n">
         <v>1.91</v>
       </c>
       <c r="L27" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N27" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O27" t="n">
         <v>1.53</v>
@@ -5345,16 +5345,16 @@
         <v>1.57</v>
       </c>
       <c r="W27" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X27" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y27" t="n">
         <v>10</v>
       </c>
       <c r="Z27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA27" t="n">
         <v>21</v>
@@ -5366,7 +5366,7 @@
         <v>6</v>
       </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE27" t="n">
         <v>21</v>
@@ -5378,16 +5378,16 @@
         <v>501</v>
       </c>
       <c r="AH27" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ27" t="n">
         <v>15</v>
       </c>
       <c r="AK27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL27" t="n">
         <v>41</v>
@@ -5396,10 +5396,10 @@
         <v>51</v>
       </c>
       <c r="AN27" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP27" t="n">
         <v>29</v>
@@ -5417,7 +5417,7 @@
         <v>2.2</v>
       </c>
       <c r="AU27" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV27" t="n">
         <v>81</v>
@@ -5426,22 +5426,22 @@
         <v>126</v>
       </c>
       <c r="AX27" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ27" t="n">
         <v>41</v>
       </c>
       <c r="BA27" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB27" t="n">
         <v>151</v>
       </c>
       <c r="BC27" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BD27" t="n">
         <v>126</v>
@@ -5479,22 +5479,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H28" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I28" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J28" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K28" t="n">
         <v>1.95</v>
       </c>
       <c r="L28" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M28" t="n">
         <v>1.11</v>
@@ -5503,16 +5503,16 @@
         <v>6.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P28" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R28" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S28" t="n">
         <v>1.57</v>
@@ -5560,10 +5560,10 @@
         <v>501</v>
       </c>
       <c r="AH28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ28" t="n">
         <v>21</v>
@@ -5578,13 +5578,13 @@
         <v>67</v>
       </c>
       <c r="AN28" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ28" t="n">
         <v>34</v>
@@ -5608,7 +5608,7 @@
         <v>126</v>
       </c>
       <c r="AX28" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY28" t="n">
         <v>34</v>
@@ -8209,13 +8209,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H43" t="n">
         <v>3.2</v>
       </c>
       <c r="I43" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J43" t="n">
         <v>3</v>
@@ -8239,10 +8239,10 @@
         <v>3.75</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R43" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S43" t="n">
         <v>1.36</v>
@@ -8257,13 +8257,13 @@
         <v>2.2</v>
       </c>
       <c r="W43" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y43" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z43" t="n">
         <v>23</v>
@@ -8302,7 +8302,7 @@
         <v>29</v>
       </c>
       <c r="AL43" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM43" t="n">
         <v>29</v>
@@ -8573,22 +8573,22 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H45" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I45" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="J45" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K45" t="n">
         <v>2.2</v>
       </c>
       <c r="L45" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M45" t="n">
         <v>1.06</v>
@@ -8597,16 +8597,16 @@
         <v>10</v>
       </c>
       <c r="O45" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P45" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="R45" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="S45" t="n">
         <v>1.4</v>
@@ -8624,10 +8624,10 @@
         <v>13</v>
       </c>
       <c r="X45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y45" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z45" t="n">
         <v>51</v>
@@ -8657,16 +8657,16 @@
         <v>7</v>
       </c>
       <c r="AI45" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AJ45" t="n">
         <v>8.5</v>
       </c>
       <c r="AK45" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL45" t="n">
         <v>13</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>15</v>
       </c>
       <c r="AM45" t="n">
         <v>26</v>
@@ -8675,16 +8675,16 @@
         <v>6.5</v>
       </c>
       <c r="AO45" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP45" t="n">
         <v>34</v>
       </c>
       <c r="AQ45" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR45" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS45" t="n">
         <v>251</v>
@@ -8705,7 +8705,7 @@
         <v>3.6</v>
       </c>
       <c r="AY45" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AZ45" t="n">
         <v>21</v>
@@ -9119,40 +9119,40 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="H48" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I48" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="K48" t="n">
         <v>2.2</v>
       </c>
       <c r="L48" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="M48" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N48" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O48" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P48" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R48" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S48" t="n">
         <v>1.44</v>
@@ -9161,22 +9161,22 @@
         <v>2.63</v>
       </c>
       <c r="U48" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V48" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W48" t="n">
         <v>5</v>
       </c>
       <c r="X48" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Y48" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA48" t="n">
         <v>15</v>
@@ -9185,16 +9185,16 @@
         <v>41</v>
       </c>
       <c r="AC48" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD48" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE48" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF48" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG48" t="n">
         <v>201</v>
@@ -9218,16 +9218,16 @@
         <v>81</v>
       </c>
       <c r="AN48" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AO48" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP48" t="n">
         <v>23</v>
       </c>
       <c r="AQ48" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR48" t="n">
         <v>51</v>
@@ -9239,28 +9239,28 @@
         <v>2.63</v>
       </c>
       <c r="AU48" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV48" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW48" t="n">
         <v>81</v>
       </c>
       <c r="AX48" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AY48" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ48" t="n">
         <v>51</v>
       </c>
       <c r="BA48" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BB48" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC48" t="n">
         <v>301</v>
@@ -11303,16 +11303,16 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H60" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I60" t="n">
         <v>5.5</v>
       </c>
       <c r="J60" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K60" t="n">
         <v>2</v>
@@ -11321,16 +11321,16 @@
         <v>6</v>
       </c>
       <c r="M60" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N60" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O60" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P60" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q60" t="n">
         <v>2.5</v>
@@ -11345,16 +11345,16 @@
         <v>2.38</v>
       </c>
       <c r="U60" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V60" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W60" t="n">
         <v>5</v>
       </c>
       <c r="X60" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y60" t="n">
         <v>9.5</v>
@@ -11432,7 +11432,7 @@
         <v>126</v>
       </c>
       <c r="AX60" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY60" t="n">
         <v>34</v>
@@ -11485,19 +11485,19 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H61" t="n">
         <v>2.8</v>
       </c>
       <c r="I61" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J61" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K61" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L61" t="n">
         <v>4.5</v>
@@ -11509,10 +11509,10 @@
         <v>5.5</v>
       </c>
       <c r="O61" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P61" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q61" t="n">
         <v>3.1</v>
@@ -11533,7 +11533,7 @@
         <v>1.5</v>
       </c>
       <c r="W61" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X61" t="n">
         <v>9</v>
@@ -11569,7 +11569,7 @@
         <v>7</v>
       </c>
       <c r="AI61" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ61" t="n">
         <v>15</v>
@@ -11614,7 +11614,7 @@
         <v>126</v>
       </c>
       <c r="AX61" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY61" t="n">
         <v>23</v>
@@ -14033,13 +14033,13 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H75" t="n">
         <v>3.1</v>
       </c>
       <c r="I75" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J75" t="n">
         <v>2.75</v>
@@ -14048,7 +14048,7 @@
         <v>1.95</v>
       </c>
       <c r="L75" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M75" t="n">
         <v>1.1</v>
@@ -14075,25 +14075,25 @@
         <v>2.25</v>
       </c>
       <c r="U75" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V75" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W75" t="n">
         <v>5.5</v>
       </c>
       <c r="X75" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y75" t="n">
         <v>9.5</v>
       </c>
       <c r="Z75" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA75" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB75" t="n">
         <v>41</v>
@@ -14105,7 +14105,7 @@
         <v>6</v>
       </c>
       <c r="AE75" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF75" t="n">
         <v>81</v>
@@ -14117,13 +14117,13 @@
         <v>9</v>
       </c>
       <c r="AI75" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ75" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK75" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL75" t="n">
         <v>41</v>
@@ -14135,7 +14135,7 @@
         <v>3.75</v>
       </c>
       <c r="AO75" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP75" t="n">
         <v>26</v>
@@ -14162,19 +14162,19 @@
         <v>51</v>
       </c>
       <c r="AX75" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY75" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ75" t="n">
         <v>41</v>
       </c>
       <c r="BA75" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB75" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC75" t="n">
         <v>351</v>
@@ -22223,22 +22223,22 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I120" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="J120" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K120" t="n">
         <v>1.95</v>
       </c>
       <c r="L120" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M120" t="n">
         <v>1.1</v>
@@ -22271,7 +22271,7 @@
         <v>1.73</v>
       </c>
       <c r="W120" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X120" t="n">
         <v>12</v>
@@ -22280,10 +22280,10 @@
         <v>11</v>
       </c>
       <c r="Z120" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA120" t="n">
         <v>26</v>
-      </c>
-      <c r="AA120" t="n">
-        <v>23</v>
       </c>
       <c r="AB120" t="n">
         <v>41</v>
@@ -22307,7 +22307,7 @@
         <v>7.5</v>
       </c>
       <c r="AI120" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ120" t="n">
         <v>11</v>
@@ -22325,7 +22325,7 @@
         <v>4.5</v>
       </c>
       <c r="AO120" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP120" t="n">
         <v>29</v>
@@ -22352,7 +22352,7 @@
         <v>51</v>
       </c>
       <c r="AX120" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY120" t="n">
         <v>17</v>
@@ -26562,12 +26562,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Khiwx4MO</t>
+          <t>2XpdhP65</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>21/10/2024</t>
+          <t>20/10/2024</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -26582,160 +26582,160 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H144" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I144" t="n">
-        <v>3.3</v>
+        <v>2.35</v>
       </c>
       <c r="J144" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K144" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L144" t="n">
         <v>3</v>
       </c>
-      <c r="K144" t="n">
+      <c r="M144" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N144" t="n">
+        <v>11</v>
+      </c>
+      <c r="O144" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P144" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R144" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S144" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T144" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U144" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V144" t="n">
         <v>2.05</v>
       </c>
-      <c r="L144" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M144" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N144" t="n">
-        <v>9</v>
-      </c>
-      <c r="O144" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P144" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q144" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R144" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S144" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T144" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U144" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V144" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W144" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="X144" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Y144" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z144" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AA144" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AB144" t="n">
         <v>29</v>
       </c>
       <c r="AC144" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AD144" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE144" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF144" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG144" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH144" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ144" t="n">
         <v>9.5</v>
       </c>
-      <c r="AI144" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ144" t="n">
-        <v>12</v>
-      </c>
       <c r="AK144" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AL144" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AM144" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AN144" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AO144" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AP144" t="n">
         <v>23</v>
       </c>
       <c r="AQ144" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR144" t="n">
         <v>67</v>
       </c>
       <c r="AS144" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT144" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU144" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV144" t="n">
         <v>51</v>
       </c>
       <c r="AW144" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="AX144" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AY144" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AZ144" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="BA144" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BB144" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BC144" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD144" t="n">
         <v>151</v>
@@ -26744,7 +26744,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2XpdhP65</t>
+          <t>f7slfoxg</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -26754,7 +26754,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -26764,31 +26764,31 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>GAIS</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H145" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I145" t="n">
-        <v>2.35</v>
+        <v>3.2</v>
       </c>
       <c r="J145" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="K145" t="n">
         <v>2.2</v>
       </c>
       <c r="L145" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M145" t="n">
         <v>1.05</v>
@@ -26803,10 +26803,10 @@
         <v>3.5</v>
       </c>
       <c r="Q145" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R145" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S145" t="n">
         <v>1.4</v>
@@ -26821,25 +26821,25 @@
         <v>2.05</v>
       </c>
       <c r="W145" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="X145" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y145" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC145" t="n">
         <v>11</v>
-      </c>
-      <c r="Z145" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA145" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB145" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC145" t="n">
-        <v>10</v>
       </c>
       <c r="AD145" t="n">
         <v>6.5</v>
@@ -26854,37 +26854,37 @@
         <v>201</v>
       </c>
       <c r="AH145" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AI145" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ145" t="n">
         <v>12</v>
       </c>
-      <c r="AJ145" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AK145" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AL145" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AM145" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AN145" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AO145" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AP145" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ145" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR145" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS145" t="n">
         <v>151</v>
@@ -26902,19 +26902,19 @@
         <v>126</v>
       </c>
       <c r="AX145" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AY145" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ145" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="BA145" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB145" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC145" t="n">
         <v>151</v>
@@ -26926,7 +26926,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>f7slfoxg</t>
+          <t>rull5Qkb</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -26936,167 +26936,167 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>GAIS</t>
+          <t>Oster</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G146" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H146" t="n">
+        <v>5</v>
+      </c>
+      <c r="I146" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K146" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L146" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M146" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N146" t="n">
+        <v>21</v>
+      </c>
+      <c r="O146" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P146" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R146" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S146" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T146" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U146" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V146" t="n">
         <v>2.2</v>
       </c>
-      <c r="H146" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I146" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J146" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K146" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L146" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M146" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N146" t="n">
+      <c r="W146" t="n">
+        <v>10</v>
+      </c>
+      <c r="X146" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z146" t="n">
         <v>11</v>
       </c>
-      <c r="O146" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P146" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q146" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R146" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S146" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T146" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U146" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V146" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W146" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X146" t="n">
+      <c r="AA146" t="n">
         <v>11</v>
       </c>
-      <c r="Y146" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z146" t="n">
+      <c r="AB146" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC146" t="n">
         <v>21</v>
       </c>
-      <c r="AA146" t="n">
+      <c r="AD146" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE146" t="n">
         <v>17</v>
       </c>
-      <c r="AB146" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC146" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD146" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE146" t="n">
-        <v>13</v>
-      </c>
       <c r="AF146" t="n">
         <v>41</v>
       </c>
       <c r="AG146" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH146" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AI146" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ146" t="n">
         <v>17</v>
       </c>
-      <c r="AJ146" t="n">
-        <v>12</v>
-      </c>
       <c r="AK146" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AL146" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AM146" t="n">
         <v>34</v>
       </c>
       <c r="AN146" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AO146" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AP146" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AQ146" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AR146" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AS146" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AT146" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="AU146" t="n">
         <v>7.5</v>
       </c>
       <c r="AV146" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW146" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="AX146" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AY146" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AZ146" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA146" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB146" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC146" t="n">
         <v>151</v>
@@ -27108,7 +27108,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>rull5Qkb</t>
+          <t>xQizKDzp</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -27118,146 +27118,146 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Oster</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.44</v>
+        <v>1.95</v>
       </c>
       <c r="H147" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="I147" t="n">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="J147" t="n">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="K147" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="L147" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M147" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N147" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="O147" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="P147" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="Q147" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="R147" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="S147" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T147" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U147" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="V147" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="W147" t="n">
         <v>10</v>
       </c>
       <c r="X147" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y147" t="n">
         <v>9</v>
       </c>
-      <c r="Y147" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z147" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AA147" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AB147" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC147" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI147" t="n">
         <v>21</v>
       </c>
-      <c r="AD147" t="n">
+      <c r="AJ147" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO147" t="n">
         <v>10</v>
       </c>
-      <c r="AE147" t="n">
+      <c r="AP147" t="n">
         <v>17</v>
       </c>
-      <c r="AF147" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG147" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH147" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI147" t="n">
+      <c r="AQ147" t="n">
         <v>34</v>
       </c>
-      <c r="AJ147" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK147" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL147" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM147" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN147" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO147" t="n">
+      <c r="AR147" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU147" t="n">
         <v>7</v>
-      </c>
-      <c r="AP147" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ147" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR147" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS147" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT147" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU147" t="n">
-        <v>7.5</v>
       </c>
       <c r="AV147" t="n">
         <v>41</v>
@@ -27266,31 +27266,31 @@
         <v>351</v>
       </c>
       <c r="AX147" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="AY147" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AZ147" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="BA147" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB147" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD147" t="n">
         <v>81</v>
-      </c>
-      <c r="BC147" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD147" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>xQizKDzp</t>
+          <t>YioqIi5d</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -27310,49 +27310,49 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="G148" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H148" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I148" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J148" t="n">
         <v>1.95</v>
       </c>
-      <c r="H148" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I148" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J148" t="n">
+      <c r="K148" t="n">
         <v>2.5</v>
       </c>
-      <c r="K148" t="n">
-        <v>2.38</v>
-      </c>
       <c r="L148" t="n">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M148" t="n">
         <v>1.03</v>
       </c>
       <c r="N148" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O148" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P148" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q148" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R148" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S148" t="n">
         <v>1.29</v>
@@ -27361,73 +27361,73 @@
         <v>3.5</v>
       </c>
       <c r="U148" t="n">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="V148" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="W148" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="X148" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z148" t="n">
         <v>11</v>
       </c>
-      <c r="Y148" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z148" t="n">
-        <v>19</v>
-      </c>
       <c r="AA148" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AB148" t="n">
         <v>21</v>
       </c>
       <c r="AC148" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP148" t="n">
         <v>15</v>
       </c>
-      <c r="AD148" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE148" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF148" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG148" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH148" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI148" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ148" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK148" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL148" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM148" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN148" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO148" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP148" t="n">
-        <v>17</v>
-      </c>
       <c r="AQ148" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AR148" t="n">
         <v>41</v>
@@ -27439,31 +27439,31 @@
         <v>3.5</v>
       </c>
       <c r="AU148" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV148" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW148" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="AX148" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="AY148" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AZ148" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="BA148" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB148" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BC148" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BD148" t="n">
         <v>81</v>
@@ -27472,7 +27472,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>YioqIi5d</t>
+          <t>QoYUuec3</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -27492,88 +27492,88 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.45</v>
+        <v>5.5</v>
       </c>
       <c r="H149" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J149" t="n">
+        <v>5</v>
+      </c>
+      <c r="K149" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L149" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N149" t="n">
+        <v>13</v>
+      </c>
+      <c r="O149" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P149" t="n">
         <v>4.5</v>
       </c>
-      <c r="I149" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="J149" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="K149" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L149" t="n">
-        <v>6</v>
-      </c>
-      <c r="M149" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N149" t="n">
+      <c r="Q149" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R149" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S149" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T149" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U149" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V149" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W149" t="n">
         <v>17</v>
       </c>
-      <c r="O149" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P149" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q149" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R149" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S149" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T149" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U149" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V149" t="n">
-        <v>2</v>
-      </c>
-      <c r="W149" t="n">
-        <v>8.5</v>
-      </c>
       <c r="X149" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="Y149" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="Z149" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="AA149" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AB149" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AC149" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD149" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AE149" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF149" t="n">
         <v>41</v>
@@ -27582,43 +27582,43 @@
         <v>151</v>
       </c>
       <c r="AH149" t="n">
-        <v>19</v>
+        <v>8.5</v>
       </c>
       <c r="AI149" t="n">
-        <v>34</v>
+        <v>8.5</v>
       </c>
       <c r="AJ149" t="n">
-        <v>19</v>
+        <v>8.5</v>
       </c>
       <c r="AK149" t="n">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="AL149" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AM149" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AN149" t="n">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="AO149" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="AP149" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AQ149" t="n">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="AR149" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AS149" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT149" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU149" t="n">
         <v>8</v>
@@ -27630,22 +27630,22 @@
         <v>81</v>
       </c>
       <c r="AX149" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY149" t="n">
         <v>8</v>
       </c>
-      <c r="AY149" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ149" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="BA149" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC149" t="n">
         <v>101</v>
-      </c>
-      <c r="BB149" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC149" t="n">
-        <v>201</v>
       </c>
       <c r="BD149" t="n">
         <v>81</v>
@@ -27654,7 +27654,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>QoYUuec3</t>
+          <t>29YyYspK</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -27664,143 +27664,143 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="H150" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="I150" t="n">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="J150" t="n">
-        <v>5</v>
+        <v>2.87</v>
       </c>
       <c r="K150" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L150" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="M150" t="n">
         <v>1.04</v>
       </c>
       <c r="N150" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O150" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="P150" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q150" t="n">
-        <v>1.62</v>
+        <v>2.05</v>
       </c>
       <c r="R150" t="n">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="S150" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="T150" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="U150" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="V150" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="W150" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="X150" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB150" t="n">
         <v>29</v>
       </c>
-      <c r="Y150" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z150" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA150" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB150" t="n">
-        <v>41</v>
-      </c>
       <c r="AC150" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AD150" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE150" t="n">
         <v>15</v>
       </c>
       <c r="AF150" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG150" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AH150" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI150" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AJ150" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AK150" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AL150" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AM150" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AN150" t="n">
-        <v>7</v>
+        <v>4.33</v>
       </c>
       <c r="AO150" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AP150" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ150" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AR150" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AS150" t="n">
         <v>151</v>
       </c>
       <c r="AT150" t="n">
-        <v>3.4</v>
+        <v>2.62</v>
       </c>
       <c r="AU150" t="n">
         <v>8</v>
@@ -27809,34 +27809,34 @@
         <v>51</v>
       </c>
       <c r="AW150" t="n">
+        <v>276</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB150" t="n">
         <v>81</v>
       </c>
-      <c r="AX150" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AY150" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ150" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA150" t="n">
-        <v>23</v>
-      </c>
-      <c r="BB150" t="n">
-        <v>41</v>
-      </c>
       <c r="BC150" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BD150" t="n">
-        <v>81</v>
+        <v>301</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>29YyYspK</t>
+          <t>dW9XMHyJ</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -27846,7 +27846,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -27856,136 +27856,136 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="H151" t="n">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="I151" t="n">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="J151" t="n">
-        <v>2.87</v>
+        <v>2</v>
       </c>
       <c r="K151" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="L151" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="M151" t="n">
         <v>1.04</v>
       </c>
       <c r="N151" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O151" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P151" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q151" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="R151" t="n">
-        <v>1.75</v>
+        <v>2.03</v>
       </c>
       <c r="S151" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="T151" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="U151" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V151" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W151" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X151" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="Y151" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z151" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z151" t="n">
-        <v>21</v>
-      </c>
       <c r="AA151" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AB151" t="n">
         <v>29</v>
       </c>
       <c r="AC151" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AD151" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE151" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH151" t="n">
         <v>15</v>
       </c>
-      <c r="AF151" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG151" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH151" t="n">
-        <v>9</v>
-      </c>
       <c r="AI151" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AJ151" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AK151" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AL151" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM151" t="n">
         <v>41</v>
       </c>
       <c r="AN151" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="AO151" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AP151" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AQ151" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AR151" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS151" t="n">
         <v>151</v>
       </c>
       <c r="AT151" t="n">
-        <v>2.62</v>
+        <v>3</v>
       </c>
       <c r="AU151" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV151" t="n">
         <v>51</v>
@@ -27994,22 +27994,22 @@
         <v>276</v>
       </c>
       <c r="AX151" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AY151" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AZ151" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BA151" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BB151" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BC151" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BD151" t="n">
         <v>301</v>
@@ -28018,7 +28018,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>dW9XMHyJ</t>
+          <t>lQdJpLTP</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -28028,7 +28028,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -28038,136 +28038,136 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="H152" t="n">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="I152" t="n">
-        <v>6</v>
+        <v>2.88</v>
       </c>
       <c r="J152" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K152" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M152" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N152" t="n">
+        <v>10</v>
+      </c>
+      <c r="O152" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P152" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R152" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S152" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T152" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U152" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V152" t="n">
         <v>2</v>
       </c>
-      <c r="K152" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L152" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M152" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N152" t="n">
+      <c r="W152" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X152" t="n">
         <v>12</v>
       </c>
-      <c r="O152" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P152" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q152" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R152" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S152" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T152" t="n">
-        <v>3</v>
-      </c>
-      <c r="U152" t="n">
-        <v>2</v>
-      </c>
-      <c r="V152" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W152" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X152" t="n">
-        <v>6.5</v>
-      </c>
       <c r="Y152" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z152" t="n">
-        <v>9.5</v>
+        <v>23</v>
       </c>
       <c r="AA152" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AB152" t="n">
         <v>29</v>
       </c>
       <c r="AC152" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD152" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH152" t="n">
         <v>9.5</v>
       </c>
-      <c r="AE152" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF152" t="n">
+      <c r="AI152" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR152" t="n">
         <v>67</v>
-      </c>
-      <c r="AG152" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH152" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI152" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ152" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK152" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL152" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM152" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN152" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO152" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP152" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ152" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR152" t="n">
-        <v>41</v>
       </c>
       <c r="AS152" t="n">
         <v>151</v>
       </c>
       <c r="AT152" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU152" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV152" t="n">
         <v>51</v>
@@ -28176,22 +28176,22 @@
         <v>276</v>
       </c>
       <c r="AX152" t="n">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="AY152" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AZ152" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="BA152" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BB152" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC152" t="n">
         <v>151</v>
-      </c>
-      <c r="BC152" t="n">
-        <v>301</v>
       </c>
       <c r="BD152" t="n">
         <v>301</v>
@@ -28200,7 +28200,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>lQdJpLTP</t>
+          <t>GzsbwwMa</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -28220,49 +28220,49 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="G153" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H153" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J153" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K153" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L153" t="n">
         <v>2.5</v>
       </c>
-      <c r="H153" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I153" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J153" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K153" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L153" t="n">
-        <v>3.4</v>
-      </c>
       <c r="M153" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N153" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O153" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P153" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q153" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R153" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S153" t="n">
         <v>1.4</v>
@@ -28271,79 +28271,79 @@
         <v>2.75</v>
       </c>
       <c r="U153" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="V153" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W153" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="X153" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Y153" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Z153" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AA153" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AB153" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC153" t="n">
         <v>10</v>
       </c>
       <c r="AD153" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN153" t="n">
         <v>6</v>
       </c>
-      <c r="AE153" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF153" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG153" t="n">
+      <c r="AO153" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS153" t="n">
         <v>201</v>
-      </c>
-      <c r="AH153" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI153" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ153" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK153" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL153" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM153" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN153" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO153" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP153" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ153" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR153" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS153" t="n">
-        <v>151</v>
       </c>
       <c r="AT153" t="n">
         <v>2.75</v>
@@ -28358,19 +28358,19 @@
         <v>276</v>
       </c>
       <c r="AX153" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="AY153" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AZ153" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA153" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="BB153" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC153" t="n">
         <v>151</v>
@@ -28382,7 +28382,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>GzsbwwMa</t>
+          <t>fmotf2hI</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -28392,65 +28392,65 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Erzurumspor</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>4.1</v>
+        <v>1.95</v>
       </c>
       <c r="H154" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I154" t="n">
-        <v>1.85</v>
+        <v>3.9</v>
       </c>
       <c r="J154" t="n">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="K154" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L154" t="n">
-        <v>2.5</v>
+        <v>4.33</v>
       </c>
       <c r="M154" t="n">
         <v>1.05</v>
       </c>
       <c r="N154" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O154" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P154" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q154" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="R154" t="n">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="S154" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T154" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U154" t="n">
         <v>1.83</v>
@@ -28459,28 +28459,28 @@
         <v>1.83</v>
       </c>
       <c r="W154" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="X154" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="Y154" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Z154" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AA154" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AB154" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC154" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD154" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE154" t="n">
         <v>15</v>
@@ -28489,82 +28489,82 @@
         <v>51</v>
       </c>
       <c r="AG154" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH154" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AI154" t="n">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="AJ154" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AK154" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AL154" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AM154" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AN154" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AO154" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP154" t="n">
         <v>23</v>
       </c>
-      <c r="AP154" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ154" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AR154" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AS154" t="n">
         <v>201</v>
       </c>
       <c r="AT154" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="AU154" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV154" t="n">
         <v>51</v>
       </c>
       <c r="AW154" t="n">
-        <v>276</v>
+        <v>126</v>
       </c>
       <c r="AX154" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="AY154" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AZ154" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="BA154" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="BB154" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BC154" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BD154" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>fmotf2hI</t>
+          <t>neqJ8KUA</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -28574,7 +28574,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -28584,82 +28584,82 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Corum</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="H155" t="n">
         <v>3</v>
       </c>
       <c r="I155" t="n">
-        <v>3.9</v>
+        <v>2.38</v>
       </c>
       <c r="J155" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K155" t="n">
+        <v>2</v>
+      </c>
+      <c r="L155" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M155" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N155" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O155" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P155" t="n">
         <v>2.75</v>
       </c>
-      <c r="K155" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L155" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M155" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N155" t="n">
-        <v>9</v>
-      </c>
-      <c r="O155" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P155" t="n">
-        <v>3</v>
-      </c>
       <c r="Q155" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R155" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S155" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T155" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U155" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V155" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W155" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="X155" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Y155" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Z155" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AA155" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AB155" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC155" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD155" t="n">
         <v>6</v>
@@ -28671,73 +28671,73 @@
         <v>51</v>
       </c>
       <c r="AG155" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH155" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI155" t="n">
         <v>11</v>
       </c>
-      <c r="AI155" t="n">
-        <v>19</v>
-      </c>
       <c r="AJ155" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AK155" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AL155" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM155" t="n">
         <v>34</v>
       </c>
-      <c r="AM155" t="n">
-        <v>41</v>
-      </c>
       <c r="AN155" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AO155" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AP155" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ155" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR155" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS155" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT155" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="AU155" t="n">
         <v>8.5</v>
       </c>
       <c r="AV155" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW155" t="n">
         <v>126</v>
       </c>
       <c r="AX155" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY155" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AZ155" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="BA155" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB155" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC155" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD155" t="n">
         <v>126</v>
@@ -28746,7 +28746,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>neqJ8KUA</t>
+          <t>2DllhtNU</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -28766,160 +28766,160 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Igdir FK</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Corum</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="G156" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H156" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I156" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K156" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L156" t="n">
+        <v>4</v>
+      </c>
+      <c r="M156" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N156" t="n">
+        <v>12</v>
+      </c>
+      <c r="O156" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P156" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R156" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S156" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T156" t="n">
         <v>3</v>
       </c>
-      <c r="H156" t="n">
-        <v>3</v>
-      </c>
-      <c r="I156" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="J156" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K156" t="n">
-        <v>2</v>
-      </c>
-      <c r="L156" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M156" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N156" t="n">
+      <c r="U156" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V156" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W156" t="n">
+        <v>8</v>
+      </c>
+      <c r="X156" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD156" t="n">
         <v>7.5</v>
       </c>
-      <c r="O156" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P156" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q156" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R156" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S156" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T156" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U156" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V156" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W156" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X156" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y156" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z156" t="n">
+      <c r="AE156" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK156" t="n">
         <v>34</v>
       </c>
-      <c r="AA156" t="n">
+      <c r="AL156" t="n">
         <v>26</v>
-      </c>
-      <c r="AB156" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC156" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD156" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE156" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF156" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG156" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH156" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI156" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ156" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK156" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL156" t="n">
-        <v>21</v>
       </c>
       <c r="AM156" t="n">
         <v>34</v>
       </c>
       <c r="AN156" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AO156" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AP156" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AQ156" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AR156" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS156" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="AT156" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AU156" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV156" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW156" t="n">
         <v>126</v>
       </c>
       <c r="AX156" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AY156" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ156" t="n">
         <v>26</v>
       </c>
       <c r="BA156" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB156" t="n">
         <v>81</v>
       </c>
       <c r="BC156" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD156" t="n">
         <v>126</v>
@@ -28928,7 +28928,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2DllhtNU</t>
+          <t>ShTHAt0b</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -28938,7 +28938,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -28948,37 +28948,37 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Igdir FK</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="H157" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="I157" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="J157" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="K157" t="n">
         <v>2.2</v>
       </c>
       <c r="L157" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M157" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N157" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O157" t="n">
         <v>1.29</v>
@@ -28987,94 +28987,94 @@
         <v>3.5</v>
       </c>
       <c r="Q157" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R157" t="n">
         <v>1.85</v>
       </c>
-      <c r="R157" t="n">
-        <v>1.95</v>
-      </c>
       <c r="S157" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T157" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U157" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V157" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W157" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X157" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC157" t="n">
         <v>10</v>
       </c>
-      <c r="Y157" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z157" t="n">
+      <c r="AD157" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO157" t="n">
         <v>17</v>
       </c>
-      <c r="AA157" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB157" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC157" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD157" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE157" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF157" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG157" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH157" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI157" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ157" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK157" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL157" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM157" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN157" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO157" t="n">
-        <v>11</v>
-      </c>
       <c r="AP157" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ157" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR157" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS157" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT157" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU157" t="n">
         <v>7.5</v>
@@ -29086,19 +29086,19 @@
         <v>126</v>
       </c>
       <c r="AX157" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AY157" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AZ157" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA157" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB157" t="n">
         <v>67</v>
-      </c>
-      <c r="BB157" t="n">
-        <v>81</v>
       </c>
       <c r="BC157" t="n">
         <v>151</v>
@@ -29110,7 +29110,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ShTHAt0b</t>
+          <t>hYVjM8sf</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -29120,179 +29120,179 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>LNZ Cherkasy</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Inhulets</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.9</v>
+        <v>1.62</v>
       </c>
       <c r="H158" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="I158" t="n">
-        <v>2.3</v>
+        <v>4.85</v>
       </c>
       <c r="J158" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="K158" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L158" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M158" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N158" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O158" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="P158" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="Q158" t="n">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="R158" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S158" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="T158" t="n">
-        <v>2.75</v>
+        <v>2.57</v>
       </c>
       <c r="U158" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="V158" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W158" t="n">
-        <v>10</v>
+        <v>6.9</v>
       </c>
       <c r="X158" t="n">
-        <v>15</v>
+        <v>7.6</v>
       </c>
       <c r="Y158" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Z158" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AA158" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AB158" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC158" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AD158" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="AE158" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AF158" t="n">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AG158" t="n">
-        <v>201</v>
+        <v>600</v>
       </c>
       <c r="AH158" t="n">
-        <v>8.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI158" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="AJ158" t="n">
-        <v>9.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK158" t="n">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="AL158" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="AM158" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AN158" t="n">
-        <v>5</v>
+        <v>3.45</v>
       </c>
       <c r="AO158" t="n">
-        <v>17</v>
+        <v>7.9</v>
       </c>
       <c r="AP158" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AQ158" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AR158" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AS158" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="AT158" t="n">
-        <v>2.75</v>
+        <v>2.57</v>
       </c>
       <c r="AU158" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AV158" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="AW158" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AX158" t="n">
-        <v>4.5</v>
+        <v>6.4</v>
       </c>
       <c r="AY158" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AZ158" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="BA158" t="n">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="BB158" t="n">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="BC158" t="n">
-        <v>151</v>
+        <v>450</v>
       </c>
       <c r="BD158" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>hYVjM8sf</t>
+          <t>d6xrOUCs</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -29302,7 +29302,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -29312,160 +29312,160 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>LNZ Cherkasy</t>
+          <t>Ch. Odesa</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Inhulets</t>
+          <t>Veres-Rivne</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.62</v>
+        <v>2.92</v>
       </c>
       <c r="H159" t="n">
-        <v>3.7</v>
+        <v>2.87</v>
       </c>
       <c r="I159" t="n">
-        <v>4.85</v>
+        <v>2.5</v>
       </c>
       <c r="J159" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="K159" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="L159" t="n">
-        <v>5</v>
+        <v>3.15</v>
       </c>
       <c r="M159" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="N159" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="O159" t="n">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="P159" t="n">
-        <v>3.15</v>
+        <v>2.32</v>
       </c>
       <c r="Q159" t="n">
-        <v>1.82</v>
+        <v>2.37</v>
       </c>
       <c r="R159" t="n">
-        <v>1.88</v>
+        <v>1.45</v>
       </c>
       <c r="S159" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="T159" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="U159" t="n">
-        <v>1.78</v>
+        <v>1.98</v>
       </c>
       <c r="V159" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="W159" t="n">
         <v>6.9</v>
       </c>
       <c r="X159" t="n">
-        <v>7.6</v>
+        <v>13.5</v>
       </c>
       <c r="Y159" t="n">
-        <v>8</v>
+        <v>11.25</v>
       </c>
       <c r="Z159" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="AA159" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="AB159" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="AC159" t="n">
-        <v>10.75</v>
+        <v>6.5</v>
       </c>
       <c r="AD159" t="n">
-        <v>7.3</v>
+        <v>5.7</v>
       </c>
       <c r="AE159" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF159" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AG159" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="AH159" t="n">
-        <v>13.5</v>
+        <v>6.4</v>
       </c>
       <c r="AI159" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK159" t="n">
         <v>28</v>
       </c>
-      <c r="AJ159" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK159" t="n">
+      <c r="AL159" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>28</v>
+      </c>
+      <c r="AQ159" t="n">
         <v>90</v>
       </c>
-      <c r="AL159" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM159" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN159" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AO159" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AP159" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ159" t="n">
-        <v>26</v>
-      </c>
       <c r="AR159" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AS159" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.57</v>
+        <v>2.22</v>
       </c>
       <c r="AU159" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV159" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AW159" t="n">
         <v>81</v>
       </c>
       <c r="AX159" t="n">
-        <v>6.4</v>
+        <v>4.2</v>
       </c>
       <c r="AY159" t="n">
-        <v>27</v>
+        <v>13.5</v>
       </c>
       <c r="AZ159" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="BA159" t="n">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="BB159" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="BC159" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BD159" t="n">
         <v>81</v>
@@ -29474,7 +29474,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>d6xrOUCs</t>
+          <t>zV0STaq3</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -29484,7 +29484,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -29494,139 +29494,139 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Ch. Odesa</t>
+          <t>FK Zorya Luhansk</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Veres-Rivne</t>
+          <t>Kryvbas</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="H160" t="n">
-        <v>2.87</v>
+        <v>3.1</v>
       </c>
       <c r="I160" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="J160" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K160" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L160" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M160" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N160" t="n">
+        <v>10</v>
+      </c>
+      <c r="O160" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P160" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R160" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S160" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T160" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U160" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V160" t="n">
         <v>1.91</v>
       </c>
-      <c r="L160" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="M160" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N160" t="n">
-        <v>7</v>
-      </c>
-      <c r="O160" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P160" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q160" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="R160" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S160" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T160" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U160" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V160" t="n">
-        <v>1.65</v>
-      </c>
       <c r="W160" t="n">
-        <v>6.9</v>
+        <v>9</v>
       </c>
       <c r="X160" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE160" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y160" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="Z160" t="n">
-        <v>37</v>
-      </c>
-      <c r="AA160" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB160" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC160" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD160" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AE160" t="n">
-        <v>17</v>
-      </c>
       <c r="AF160" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="AG160" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AH160" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="AI160" t="n">
         <v>11.25</v>
       </c>
       <c r="AJ160" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK160" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AL160" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AM160" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AN160" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="AO160" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AP160" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AQ160" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AR160" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AS160" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="AT160" t="n">
-        <v>2.22</v>
+        <v>2.5</v>
       </c>
       <c r="AU160" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="AV160" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AW160" t="n">
         <v>81</v>
@@ -29635,19 +29635,19 @@
         <v>4.2</v>
       </c>
       <c r="AY160" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AZ160" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="BA160" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="BB160" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="BC160" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="BD160" t="n">
         <v>81</v>
@@ -29656,7 +29656,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>zV0STaq3</t>
+          <t>OhpTlzk5</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -29666,179 +29666,179 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>FK Zorya Luhansk</t>
+          <t>Cerro Largo</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Kryvbas</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="H161" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="I161" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="J161" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K161" t="n">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="L161" t="n">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="M161" t="n">
-        <v>1.03</v>
+        <v>1.14</v>
       </c>
       <c r="N161" t="n">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="O161" t="n">
-        <v>1.32</v>
+        <v>1.57</v>
       </c>
       <c r="P161" t="n">
-        <v>2.85</v>
+        <v>2.25</v>
       </c>
       <c r="Q161" t="n">
-        <v>1.93</v>
+        <v>2.88</v>
       </c>
       <c r="R161" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="S161" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="T161" t="n">
-        <v>2.52</v>
+        <v>2.2</v>
       </c>
       <c r="U161" t="n">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="V161" t="n">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="W161" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="X161" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Y161" t="n">
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="Z161" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AA161" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AB161" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AC161" t="n">
-        <v>8.75</v>
+        <v>5.5</v>
       </c>
       <c r="AD161" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE161" t="n">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="AF161" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="AG161" t="n">
-        <v>500</v>
+        <v>201</v>
       </c>
       <c r="AH161" t="n">
-        <v>7.6</v>
+        <v>6.5</v>
       </c>
       <c r="AI161" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AJ161" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AK161" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AL161" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY161" t="n">
         <v>19</v>
       </c>
-      <c r="AM161" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN161" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AO161" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AP161" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ161" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR161" t="n">
-        <v>110</v>
-      </c>
-      <c r="AS161" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT161" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU161" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AV161" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW161" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX161" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AY161" t="n">
-        <v>12</v>
-      </c>
       <c r="AZ161" t="n">
-        <v>19.5</v>
+        <v>34</v>
       </c>
       <c r="BA161" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="BB161" t="n">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="BC161" t="n">
-        <v>250</v>
+        <v>351</v>
       </c>
       <c r="BD161" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>OhpTlzk5</t>
+          <t>WImymEJH</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -29848,7 +29848,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -29858,73 +29858,73 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Cerro Largo</t>
+          <t>CA Cerro</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Racing Montevideo</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="H162" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="I162" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="J162" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K162" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="L162" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M162" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="N162" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="O162" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="P162" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="Q162" t="n">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="R162" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="S162" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="T162" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="U162" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V162" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="W162" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="X162" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Y162" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z162" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA162" t="n">
         <v>29</v>
@@ -29933,85 +29933,85 @@
         <v>41</v>
       </c>
       <c r="AC162" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AD162" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE162" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF162" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG162" t="n">
-        <v>201</v>
+        <v>1000</v>
       </c>
       <c r="AH162" t="n">
         <v>6.5</v>
       </c>
       <c r="AI162" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ162" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK162" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AL162" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AM162" t="n">
         <v>41</v>
       </c>
       <c r="AN162" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AO162" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP162" t="n">
         <v>34</v>
       </c>
       <c r="AQ162" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR162" t="n">
         <v>101</v>
       </c>
       <c r="AS162" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT162" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AU162" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV162" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB162" t="n">
         <v>81</v>
       </c>
-      <c r="AW162" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX162" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY162" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ162" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA162" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB162" t="n">
-        <v>101</v>
-      </c>
       <c r="BC162" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BD162" t="n">
         <v>51</v>
@@ -30020,7 +30020,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>WImymEJH</t>
+          <t>hYypohlU</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -30030,7 +30030,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -30040,55 +30040,55 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>CA Cerro</t>
+          <t>Rampla Juniors</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Racing Montevideo</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3.3</v>
+        <v>9.5</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="I163" t="n">
-        <v>2.3</v>
+        <v>1.33</v>
       </c>
       <c r="J163" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K163" t="n">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L163" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="M163" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N163" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="O163" t="n">
-        <v>1.44</v>
+        <v>1.18</v>
       </c>
       <c r="P163" t="n">
-        <v>2.63</v>
+        <v>4.5</v>
       </c>
       <c r="Q163" t="n">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="R163" t="n">
-        <v>1.53</v>
+        <v>2.2</v>
       </c>
       <c r="S163" t="n">
-        <v>1.53</v>
+        <v>1.3</v>
       </c>
       <c r="T163" t="n">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="U163" t="n">
         <v>2</v>
@@ -30097,103 +30097,103 @@
         <v>1.73</v>
       </c>
       <c r="W163" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="X163" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="Y163" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC163" t="n">
         <v>13</v>
       </c>
-      <c r="Z163" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA163" t="n">
+      <c r="AD163" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM163" t="n">
         <v>29</v>
       </c>
-      <c r="AB163" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC163" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD163" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE163" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF163" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG163" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH163" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI163" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ163" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK163" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL163" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM163" t="n">
-        <v>41</v>
-      </c>
       <c r="AN163" t="n">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="AO163" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AP163" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ163" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="AR163" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AS163" t="n">
         <v>301</v>
       </c>
       <c r="AT163" t="n">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="AU163" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV163" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW163" t="n">
         <v>51</v>
       </c>
       <c r="AX163" t="n">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="AY163" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AZ163" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="BA163" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="BB163" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BC163" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BD163" t="n">
         <v>51</v>
@@ -30202,7 +30202,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>hYypohlU</t>
+          <t>rcHg5eZo</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -30212,7 +30212,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -30222,344 +30222,162 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Rampla Juniors</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Fenix</t>
         </is>
       </c>
       <c r="G164" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H164" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I164" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J164" t="n">
+        <v>3</v>
+      </c>
+      <c r="K164" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L164" t="n">
+        <v>4</v>
+      </c>
+      <c r="M164" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N164" t="n">
+        <v>9</v>
+      </c>
+      <c r="O164" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P164" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R164" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S164" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T164" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U164" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V164" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W164" t="n">
+        <v>7</v>
+      </c>
+      <c r="X164" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y164" t="n">
         <v>9.5</v>
       </c>
-      <c r="H164" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="J164" t="n">
+      <c r="Z164" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC164" t="n">
         <v>8</v>
       </c>
-      <c r="K164" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L164" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="M164" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N164" t="n">
+      <c r="AD164" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE164" t="n">
         <v>15</v>
       </c>
-      <c r="O164" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P164" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q164" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R164" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S164" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T164" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U164" t="n">
-        <v>2</v>
-      </c>
-      <c r="V164" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W164" t="n">
-        <v>21</v>
-      </c>
-      <c r="X164" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y164" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z164" t="n">
-        <v>101</v>
-      </c>
-      <c r="AA164" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB164" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC164" t="n">
+      <c r="AF164" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO164" t="n">
         <v>13</v>
       </c>
-      <c r="AD164" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE164" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF164" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG164" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH164" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI164" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ164" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK164" t="n">
+      <c r="AP164" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU164" t="n">
         <v>8.5</v>
       </c>
-      <c r="AL164" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM164" t="n">
+      <c r="AV164" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ164" t="n">
         <v>29</v>
       </c>
-      <c r="AN164" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AO164" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP164" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ164" t="n">
-        <v>151</v>
-      </c>
-      <c r="AR164" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS164" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT164" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU164" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV164" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW164" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX164" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AY164" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ164" t="n">
-        <v>17</v>
-      </c>
       <c r="BA164" t="n">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="BB164" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BC164" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="BD164" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>rcHg5eZo</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>20/10/2024</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>Wanderers</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Fenix</t>
-        </is>
-      </c>
-      <c r="G165" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H165" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I165" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J165" t="n">
-        <v>3</v>
-      </c>
-      <c r="K165" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L165" t="n">
-        <v>4</v>
-      </c>
-      <c r="M165" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N165" t="n">
-        <v>8</v>
-      </c>
-      <c r="O165" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P165" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q165" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R165" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S165" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T165" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U165" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V165" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W165" t="n">
-        <v>7</v>
-      </c>
-      <c r="X165" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y165" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z165" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA165" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB165" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC165" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD165" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE165" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF165" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG165" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH165" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI165" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ165" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK165" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL165" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM165" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN165" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO165" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP165" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ165" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR165" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS165" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT165" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU165" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV165" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW165" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX165" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY165" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ165" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA165" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB165" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC165" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD165" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-20.xlsx
@@ -8591,10 +8591,10 @@
         <v>2.25</v>
       </c>
       <c r="M45" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O45" t="n">
         <v>1.29</v>
@@ -8603,10 +8603,10 @@
         <v>3.75</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="R45" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="S45" t="n">
         <v>1.4</v>
@@ -11497,7 +11497,7 @@
         <v>3.25</v>
       </c>
       <c r="K61" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L61" t="n">
         <v>4.5</v>
@@ -11557,7 +11557,7 @@
         <v>6</v>
       </c>
       <c r="AE61" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF61" t="n">
         <v>101</v>
@@ -30255,16 +30255,16 @@
         <v>9</v>
       </c>
       <c r="O164" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P164" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q164" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R164" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S164" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-20.xlsx
@@ -11485,28 +11485,28 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H61" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I61" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J61" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K61" t="n">
         <v>1.83</v>
       </c>
       <c r="L61" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M61" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N61" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O61" t="n">
         <v>1.62</v>
@@ -11515,10 +11515,10 @@
         <v>2.2</v>
       </c>
       <c r="Q61" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R61" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S61" t="n">
         <v>1.67</v>
@@ -11533,7 +11533,7 @@
         <v>1.5</v>
       </c>
       <c r="W61" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X61" t="n">
         <v>9</v>
@@ -11545,13 +11545,13 @@
         <v>21</v>
       </c>
       <c r="AA61" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB61" t="n">
         <v>41</v>
       </c>
       <c r="AC61" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AD61" t="n">
         <v>6</v>
@@ -11566,10 +11566,10 @@
         <v>201</v>
       </c>
       <c r="AH61" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI61" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ61" t="n">
         <v>15</v>
@@ -11587,7 +11587,7 @@
         <v>4</v>
       </c>
       <c r="AO61" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP61" t="n">
         <v>34</v>
@@ -11614,7 +11614,7 @@
         <v>126</v>
       </c>
       <c r="AX61" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY61" t="n">
         <v>23</v>
